--- a/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
+++ b/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\Skripsi\Program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96FE442-4274-47F0-90AB-2A4BBFE297B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364C697-342A-43C6-A77D-C8AD3ABBA5F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="933">
   <si>
     <t>Start time</t>
   </si>
@@ -2881,6 +2881,168 @@
   </si>
   <si>
     <t>Sangat membantu menurut saya,bisa pesan makanan dengan driver online kita tinggal tunggu dirumah dan tdk perlu keluar rumah,dan angkutan online ini jg membantu untk mereka2 yg mungkin sulit kendaraan,dan mereka yg mempunya bisnis online pun menggunakan jasa angkutan online untk mengirim barangnya kepada customer,tapi skrg jg lg marak driver online justru mengambil barang yg seharusnya dikirim kpd customer,mungkin untk pihak pusat lebih diteliti dalam menerima mereka yg ingin bergabung menjadi driver online,selebihnya sangat membantu dan sangat baik.</t>
+  </si>
+  <si>
+    <t>Berharap para driver tidak demo lg, angkutan online bisa lebih maju dan kesejahteraan driver lebih diperhatikan.</t>
+  </si>
+  <si>
+    <t>Adanya ojol sangat membantu sekali</t>
+  </si>
+  <si>
+    <t>Adanya angkutan online otomatis bisa membuka lapangan kerja,semoga trs maju ojol</t>
+  </si>
+  <si>
+    <t>Gojek dan grab sangat membantu sekali,terutama utk efisiensi waktu.</t>
+  </si>
+  <si>
+    <t>Berharap driver2 nya semua punya attitude yg bagus demi kenyamanan customer</t>
+  </si>
+  <si>
+    <t>Bisa pesan makanan kapan saja,terutama disaat genting.</t>
+  </si>
+  <si>
+    <t>Semoga kesejahteraan driver lebih diperhatikan.</t>
+  </si>
+  <si>
+    <t>Saya sangat berterima kasih dgn adanya angkutan online,karena sangat memudahkan segala urusan dan sangat menghemat waktu.</t>
+  </si>
+  <si>
+    <t>Sedihnya kalau dengar berita driver2 banyak yang jadi korban penodongan dan begal,padahal mereka mencari rejeki halal buat keluarganya,berharap pihak berwajib lebih konsen dgn masalah ini.</t>
+  </si>
+  <si>
+    <t>Sebenarnya ojol sangat membantu,tp kadang2 kita dibikin kesal juga sama drivernya, sudah dikejar waktu,disuruh nunggu akhirnya dicansel sepihak, belum lagi kadang dapat driver yg attitudenya minus.</t>
+  </si>
+  <si>
+    <t>Kadang bikin sport jantung juga kalau dapat driver yg suka ugal2an,</t>
+  </si>
+  <si>
+    <t>Suka bikin macet karena mereka bergerombol dipinggir jalan.</t>
+  </si>
+  <si>
+    <t>Sangat membantu ,sdh cukup lama saya langganan grab dan gojek, mAju terus ojol</t>
+  </si>
+  <si>
+    <t>Sebelnya itu.... Saat dapAt driver yang bau badan, dan kurang sopan santun.</t>
+  </si>
+  <si>
+    <t>Suka cancel seenaknya padahal kita sdh nunggu lama.</t>
+  </si>
+  <si>
+    <t>Suka bikin macet</t>
+  </si>
+  <si>
+    <t>Aplikator banyAk untung,drivernya buntung</t>
+  </si>
+  <si>
+    <t>Cobalah pihak aplikator kasihlah tempat mangkal buat driver biar tidak bergerombol sembarangan sehingga mengganggu ketertiban umum.</t>
+  </si>
+  <si>
+    <t>Baru ada berita tlah terjadi bentrok antAra opang dan ojol, sedih lihatnya lagi2 ojol jadi sasaran, berharap pemerintah betul2 menyelesaikan masalah ini.</t>
+  </si>
+  <si>
+    <t>Sepertinya aplikator harus betul2 memperhatikan kesejahteraan driver,tanpa driver aplikator tak bisa apa2</t>
+  </si>
+  <si>
+    <t>Pengusaha jangan hanya mementingkan diri sendiri, berikan hak2 semestinya bagi driver,jangan terlalu banyak promo yg hanya jadi1 beban buat driver.</t>
+  </si>
+  <si>
+    <t>Ada baiknya pemerintah juga ikut memberikan aturan yg jelas utk angkutan online, demi kebaikan bersama.</t>
+  </si>
+  <si>
+    <t>Sebenarnya keberadaan angkutan online sangat membantu,tp sepertinya driver sdh terlalu banyak beban, masih ditambah lagi disuruh jualan gopay buat nambah point,malah sepertinya maksa ke cust.</t>
+  </si>
+  <si>
+    <t>Driver itu ujung tombak perusahaan,jd aplikator jgnlah semena mena, dgn hanya memikirkan keuntungan pribadi.</t>
+  </si>
+  <si>
+    <t>Dari pada perusahan sibuk jadi sponsor2 beberapa event yg tidak penting dan berbiaya besar,lebih baik pikirkan kesejahteraan driver.</t>
+  </si>
+  <si>
+    <t>Jangan lagi ada demo2.</t>
+  </si>
+  <si>
+    <t>Sangat membantu sekali</t>
+  </si>
+  <si>
+    <t>Semoga angkutan online terus maju, bisa membantu masyarakat luas dan membuka lapangan kerja.</t>
+  </si>
+  <si>
+    <t>!cukup lama saya menggunakan jasa ojol, cukup memuaskanlah.</t>
+  </si>
+  <si>
+    <t>Tlg aplikator seleksi ketat penerimaan driver.</t>
+  </si>
+  <si>
+    <t>Dibanding harus nunggu dan nyari ojek pangkalan, memang lebih efusien makai ojol.</t>
+  </si>
+  <si>
+    <t>Sangat membantu</t>
+  </si>
+  <si>
+    <t>Sangat membantu adanya ojol,semoga terus maju</t>
+  </si>
+  <si>
+    <t>Kadang kasian kalau dengar driver gofood di cancel sama cust, padahal makanan sdh di order.</t>
+  </si>
+  <si>
+    <t>Berharap driver tidak ada demo lg dan tuntutan driver bisa ditindaklanjuti</t>
+  </si>
+  <si>
+    <t>Lebih memudahkan</t>
+  </si>
+  <si>
+    <t>Lebih terbantu dan mempersingkat waktu</t>
+  </si>
+  <si>
+    <t>Semoga ojol terus maju</t>
+  </si>
+  <si>
+    <t>Sangat terbantu adanya ojol, taripnya juga sangat murah, kadang kasihan jg sama driver nya lebih besar biaya operasional dari pada untungnya,,aplikator jgn mikirin keuntungan sendiri pikirkan jg kesejahteraan driver.</t>
+  </si>
+  <si>
+    <t>Lebih menghemat waktu dan tenagA</t>
+  </si>
+  <si>
+    <t>Seleksi ketat penerimaan driver perhatikan masalah atittud</t>
+  </si>
+  <si>
+    <t>Semoga semakin maju dan terus berbenah</t>
+  </si>
+  <si>
+    <t>Selama menjadi langganan saya blm pernah mengalami hal2 buruk, selalu lancar2 saja, maju trs ojol.</t>
+  </si>
+  <si>
+    <t>Sangat terbantu adanya gofood</t>
+  </si>
+  <si>
+    <t>Berharap pemerintah mengeluarkan aturan yg jelas ttg angkutan online.</t>
+  </si>
+  <si>
+    <t>Selalu terbantu dgn ada nya angkutan online.</t>
+  </si>
+  <si>
+    <t>Semoga ojol terus maju.</t>
+  </si>
+  <si>
+    <t>Sangat membantu kelancaran kegiatan sehari hari.</t>
+  </si>
+  <si>
+    <t>Sebel kalau ketemu driver yang bau badan</t>
+  </si>
+  <si>
+    <t>Alangkah bagusnya kalau perusahaan lebih memperhatikan kesejahteraan driver demi kemajuan perusahaan yg berkelanjutan.</t>
+  </si>
+  <si>
+    <t>Adanya perusahaan angkutan online secara langsung membuka lapangan pekerjaan.</t>
+  </si>
+  <si>
+    <t>Sangat positif</t>
+  </si>
+  <si>
+    <t>Tarif yang sangat murah terasa tidak manusiawi, dan tidak adil bagi driver</t>
+  </si>
+  <si>
+    <t>Driver nya baik2, sehingga saya sebagai customer tak ada masalah.</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +3081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2929,6 +3091,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2936,10 +3100,10 @@
   <dxfs count="6">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2967,15 +3131,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F953" totalsRowShown="0">
-  <autoFilter ref="A1:F953" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F1012" totalsRowShown="0">
+  <autoFilter ref="A1:F1012" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start time" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Completion time" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Email" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Review" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Label" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Review" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Label" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3278,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F953"/>
+  <dimension ref="A1:F1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="E498" sqref="E498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20447,6 +20611,1068 @@
         <v>6</v>
       </c>
     </row>
+    <row r="954" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A954" s="5">
+        <v>43308.841516203698</v>
+      </c>
+      <c r="B954" s="5">
+        <v>43308.882037037001</v>
+      </c>
+      <c r="C954" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D954" s="6"/>
+      <c r="E954" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F954" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" s="5">
+        <v>43308.882083333301</v>
+      </c>
+      <c r="B955" s="5">
+        <v>43308.882534722201</v>
+      </c>
+      <c r="C955" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D955" s="6"/>
+      <c r="E955" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F955" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" s="5">
+        <v>43308.882581018501</v>
+      </c>
+      <c r="B956" s="5">
+        <v>43308.8835300926</v>
+      </c>
+      <c r="C956" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D956" s="6"/>
+      <c r="E956" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F956" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" s="5">
+        <v>43308.883611111101</v>
+      </c>
+      <c r="B957" s="5">
+        <v>43308.884317129603</v>
+      </c>
+      <c r="C957" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D957" s="6"/>
+      <c r="E957" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F957" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" s="5">
+        <v>43308.8843865741</v>
+      </c>
+      <c r="B958" s="5">
+        <v>43308.885254629597</v>
+      </c>
+      <c r="C958" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D958" s="6"/>
+      <c r="E958" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F958" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="5">
+        <v>43308.885439814803</v>
+      </c>
+      <c r="B959" s="5">
+        <v>43308.885937500003</v>
+      </c>
+      <c r="C959" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D959" s="6"/>
+      <c r="E959" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F959" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="5">
+        <v>43308.886076388902</v>
+      </c>
+      <c r="B960" s="5">
+        <v>43308.886458333298</v>
+      </c>
+      <c r="C960" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D960" s="6"/>
+      <c r="E960" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F960" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A961" s="5">
+        <v>43309.391111111101</v>
+      </c>
+      <c r="B961" s="5">
+        <v>43309.392083333303</v>
+      </c>
+      <c r="C961" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D961" s="6"/>
+      <c r="E961" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F961" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A962" s="5">
+        <v>43309.392326388901</v>
+      </c>
+      <c r="B962" s="5">
+        <v>43309.401388888902</v>
+      </c>
+      <c r="C962" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D962" s="6"/>
+      <c r="E962" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F962" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A963" s="5">
+        <v>43309.401539351798</v>
+      </c>
+      <c r="B963" s="5">
+        <v>43309.403043981503</v>
+      </c>
+      <c r="C963" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D963" s="6"/>
+      <c r="E963" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F963" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="5">
+        <v>43309.403136574103</v>
+      </c>
+      <c r="B964" s="5">
+        <v>43309.403703703698</v>
+      </c>
+      <c r="C964" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D964" s="6"/>
+      <c r="E964" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F964" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="5">
+        <v>43309.403784722199</v>
+      </c>
+      <c r="B965" s="5">
+        <v>43309.404224537</v>
+      </c>
+      <c r="C965" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D965" s="6"/>
+      <c r="E965" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F965" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="5">
+        <v>43309.4043171296</v>
+      </c>
+      <c r="B966" s="5">
+        <v>43309.407025462999</v>
+      </c>
+      <c r="C966" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D966" s="6"/>
+      <c r="E966" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F966" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="5">
+        <v>43309.4070601852</v>
+      </c>
+      <c r="B967" s="5">
+        <v>43309.407719907402</v>
+      </c>
+      <c r="C967" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D967" s="6"/>
+      <c r="E967" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F967" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="5">
+        <v>43309.407789351797</v>
+      </c>
+      <c r="B968" s="5">
+        <v>43309.4083680556</v>
+      </c>
+      <c r="C968" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D968" s="6"/>
+      <c r="E968" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="F968" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="5">
+        <v>43309.408472222203</v>
+      </c>
+      <c r="B969" s="5">
+        <v>43309.4086805556</v>
+      </c>
+      <c r="C969" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D969" s="6"/>
+      <c r="E969" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F969" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="5">
+        <v>43309.408750000002</v>
+      </c>
+      <c r="B970" s="5">
+        <v>43309.409166666701</v>
+      </c>
+      <c r="C970" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D970" s="6"/>
+      <c r="E970" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F970" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A971" s="5">
+        <v>43309.409224536997</v>
+      </c>
+      <c r="B971" s="5">
+        <v>43309.410312499997</v>
+      </c>
+      <c r="C971" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D971" s="6"/>
+      <c r="E971" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F971" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A972" s="5">
+        <v>43309.429907407401</v>
+      </c>
+      <c r="B972" s="5">
+        <v>43309.431203703702</v>
+      </c>
+      <c r="C972" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D972" s="6"/>
+      <c r="E972" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F972" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A973" s="5">
+        <v>43309.8073842593</v>
+      </c>
+      <c r="B973" s="5">
+        <v>43309.808333333298</v>
+      </c>
+      <c r="C973" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973" s="6"/>
+      <c r="E973" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F973" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A974" s="5">
+        <v>43309.808391203696</v>
+      </c>
+      <c r="B974" s="5">
+        <v>43309.809675925899</v>
+      </c>
+      <c r="C974" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D974" s="6"/>
+      <c r="E974" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F974" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A975" s="5">
+        <v>43309.809780092597</v>
+      </c>
+      <c r="B975" s="5">
+        <v>43309.810763888898</v>
+      </c>
+      <c r="C975" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D975" s="6"/>
+      <c r="E975" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F975" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A976" s="5">
+        <v>43312.353738425903</v>
+      </c>
+      <c r="B976" s="5">
+        <v>43312.355775463002</v>
+      </c>
+      <c r="C976" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D976" s="6"/>
+      <c r="E976" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F976" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A977" s="5">
+        <v>43312.357534722199</v>
+      </c>
+      <c r="B977" s="5">
+        <v>43312.358530092599</v>
+      </c>
+      <c r="C977" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D977" s="6"/>
+      <c r="E977" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F977" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A978" s="5">
+        <v>43312.3585648148</v>
+      </c>
+      <c r="B978" s="5">
+        <v>43312.359745370399</v>
+      </c>
+      <c r="C978" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D978" s="6"/>
+      <c r="E978" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F978" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="5">
+        <v>43312.359884259298</v>
+      </c>
+      <c r="B979" s="5">
+        <v>43312.360127314802</v>
+      </c>
+      <c r="C979" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D979" s="6"/>
+      <c r="E979" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F979" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" s="5">
+        <v>43312.360162037003</v>
+      </c>
+      <c r="B980" s="5">
+        <v>43312.362673611096</v>
+      </c>
+      <c r="C980" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D980" s="6"/>
+      <c r="E980" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F980" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A981" s="5">
+        <v>43312.362708333298</v>
+      </c>
+      <c r="B981" s="5">
+        <v>43312.363368055601</v>
+      </c>
+      <c r="C981" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D981" s="6"/>
+      <c r="E981" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F981" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="5">
+        <v>43312.479398148098</v>
+      </c>
+      <c r="B982" s="5">
+        <v>43312.480138888903</v>
+      </c>
+      <c r="C982" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D982" s="6"/>
+      <c r="E982" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F982" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="5">
+        <v>43312.480254629598</v>
+      </c>
+      <c r="B983" s="5">
+        <v>43312.480763888903</v>
+      </c>
+      <c r="C983" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D983" s="6"/>
+      <c r="E983" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F983" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="5">
+        <v>43312.480844907397</v>
+      </c>
+      <c r="B984" s="5">
+        <v>43312.481967592597</v>
+      </c>
+      <c r="C984" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D984" s="6"/>
+      <c r="E984" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F984" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="5">
+        <v>43313.622812499998</v>
+      </c>
+      <c r="B985" s="5">
+        <v>43313.623124999998</v>
+      </c>
+      <c r="C985" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D985" s="6"/>
+      <c r="E985" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F985" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" s="5">
+        <v>43313.787604166697</v>
+      </c>
+      <c r="B986" s="5">
+        <v>43313.788032407399</v>
+      </c>
+      <c r="C986" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D986" s="6"/>
+      <c r="E986" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="F986" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A987" s="5">
+        <v>43313.788090277798</v>
+      </c>
+      <c r="B987" s="5">
+        <v>43313.788946759298</v>
+      </c>
+      <c r="C987" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D987" s="6"/>
+      <c r="E987" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F987" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988" s="5">
+        <v>43313.7890162037</v>
+      </c>
+      <c r="B988" s="5">
+        <v>43313.789212962998</v>
+      </c>
+      <c r="C988" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D988" s="6"/>
+      <c r="E988" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F988" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" s="5">
+        <v>43313.789282407401</v>
+      </c>
+      <c r="B989" s="5">
+        <v>43313.7899189815</v>
+      </c>
+      <c r="C989" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D989" s="6"/>
+      <c r="E989" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F989" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990" s="5">
+        <v>43314.635069444397</v>
+      </c>
+      <c r="B990" s="5">
+        <v>43314.635289351798</v>
+      </c>
+      <c r="C990" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D990" s="6"/>
+      <c r="E990" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F990" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" s="5">
+        <v>43314.635358796302</v>
+      </c>
+      <c r="B991" s="5">
+        <v>43314.635682870401</v>
+      </c>
+      <c r="C991" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D991" s="6"/>
+      <c r="E991" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="5">
+        <v>43314.635775463001</v>
+      </c>
+      <c r="B992" s="5">
+        <v>43314.636215277802</v>
+      </c>
+      <c r="C992" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D992" s="6"/>
+      <c r="E992" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F992" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="5">
+        <v>43314.636296296303</v>
+      </c>
+      <c r="B993" s="5">
+        <v>43314.636608796303</v>
+      </c>
+      <c r="C993" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D993" s="6"/>
+      <c r="E993" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F993" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A994" s="5">
+        <v>43314.673726851797</v>
+      </c>
+      <c r="B994" s="5">
+        <v>43314.675428240698</v>
+      </c>
+      <c r="C994" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D994" s="6"/>
+      <c r="E994" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F994" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="5">
+        <v>43314.675486111097</v>
+      </c>
+      <c r="B995" s="5">
+        <v>43314.675833333298</v>
+      </c>
+      <c r="C995" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D995" s="6"/>
+      <c r="E995" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F995" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="5">
+        <v>43314.675879629598</v>
+      </c>
+      <c r="B996" s="5">
+        <v>43314.676562499997</v>
+      </c>
+      <c r="C996" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D996" s="6"/>
+      <c r="E996" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F996" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="5">
+        <v>43314.676597222198</v>
+      </c>
+      <c r="B997" s="5">
+        <v>43314.676747685196</v>
+      </c>
+      <c r="C997" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D997" s="6"/>
+      <c r="E997" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F997" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="5">
+        <v>43314.676793981504</v>
+      </c>
+      <c r="B998" s="5">
+        <v>43314.677164351902</v>
+      </c>
+      <c r="C998" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D998" s="6"/>
+      <c r="E998" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F998" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="5">
+        <v>43316.502233796302</v>
+      </c>
+      <c r="B999" s="5">
+        <v>43316.5024305556</v>
+      </c>
+      <c r="C999" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D999" s="6"/>
+      <c r="E999" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F999" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1000" s="5">
+        <v>43316.502465277801</v>
+      </c>
+      <c r="B1000" s="5">
+        <v>43316.503414351901</v>
+      </c>
+      <c r="C1000" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1000" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="5">
+        <v>43316.503460648099</v>
+      </c>
+      <c r="B1001" s="5">
+        <v>43316.503807870402</v>
+      </c>
+      <c r="C1001" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1001" s="6"/>
+      <c r="E1001" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1001" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="5">
+        <v>43316.503854166702</v>
+      </c>
+      <c r="B1002" s="5">
+        <v>43316.504363425898</v>
+      </c>
+      <c r="C1002" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1002" s="6"/>
+      <c r="E1002" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F1002" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="5">
+        <v>43316.504409722198</v>
+      </c>
+      <c r="B1003" s="5">
+        <v>43316.504872685196</v>
+      </c>
+      <c r="C1003" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1003" s="6"/>
+      <c r="E1003" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1003" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="5">
+        <v>43316.504930555602</v>
+      </c>
+      <c r="B1004" s="5">
+        <v>43316.505231481497</v>
+      </c>
+      <c r="C1004" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1004" s="6"/>
+      <c r="E1004" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1004" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="5">
+        <v>43318.735474537003</v>
+      </c>
+      <c r="B1005" s="5">
+        <v>43318.735844907402</v>
+      </c>
+      <c r="C1005" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="6"/>
+      <c r="E1005" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1005" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="5">
+        <v>43318.735879629603</v>
+      </c>
+      <c r="B1006" s="5">
+        <v>43318.736226851797</v>
+      </c>
+      <c r="C1006" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="6"/>
+      <c r="E1006" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1006" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1007" s="5">
+        <v>43318.736273148097</v>
+      </c>
+      <c r="B1007" s="5">
+        <v>43318.737141203703</v>
+      </c>
+      <c r="C1007" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1007" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008" s="5">
+        <v>43318.737199074101</v>
+      </c>
+      <c r="B1008" s="5">
+        <v>43318.737858796303</v>
+      </c>
+      <c r="C1008" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F1008" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="5">
+        <v>43318.737916666701</v>
+      </c>
+      <c r="B1009" s="5">
+        <v>43318.738090277802</v>
+      </c>
+      <c r="C1009" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1009" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="5">
+        <v>43318.738113425898</v>
+      </c>
+      <c r="B1010" s="5">
+        <v>43318.738773148099</v>
+      </c>
+      <c r="C1010" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1010" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="5">
+        <v>43318.738796296297</v>
+      </c>
+      <c r="B1011" s="5">
+        <v>43318.738993055602</v>
+      </c>
+      <c r="C1011" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1011" s="6"/>
+      <c r="E1011" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1011" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="5">
+        <v>43318.739039351902</v>
+      </c>
+      <c r="B1012" s="5">
+        <v>43318.739548611098</v>
+      </c>
+      <c r="C1012" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1012" s="6"/>
+      <c r="E1012" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F1012" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
+++ b/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\Skripsi\Program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364C697-342A-43C6-A77D-C8AD3ABBA5F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53891FB-10A8-4C59-9059-9DA7F4CED2D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="919">
   <si>
     <t>Start time</t>
   </si>
@@ -2312,459 +2312,43 @@
     <t xml:space="preserve">Sebulan belakangan ini saya menggunakan jasa grabcar alhamdulillah pelayanannya bagus dan drivernya baik.tp ada satu driver yg bikin sy kesal sedikit. </t>
   </si>
   <si>
-    <t xml:space="preserve">Enjoy  naik grab... Murah dan on time.... Mana ada promo ... membantu sekali... </t>
-  </si>
-  <si>
-    <t>Greb kasihan dg driver yang lain selalu ngeluh tidak bonus sama aja kayak gocar jd driver semangat narik penumpang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alhamdulillah dg adanya ojol siap sedia selalu saat sy butuh pas ada acara resik2 masjid dg ayah saya. </t>
-  </si>
-  <si>
-    <t>Dulu klo mau kmna2 binggung skrg ada GO-JEK kapan pun dimanapun tinggal cuuus.. trimakasih GO-JEK.. 🙏🏻🙏🏻🙏🏻☺️jgn lupa bagi yg suka naik GO-JEK apa bila ada ,kasih lebihan mrka jg kan ngk minta tpi kita juga jgn pelit.. hargai tenaga mrka...itung2 nabung buat nanti 🙏🏻☺️🙏🏻🙏🏻💪💪💪 utk para GO-JEK trimakasih byk ..😊😊😊</t>
-  </si>
-  <si>
-    <t>Saya selalu setia pakai gojek...krn sangat membantu saya pergi kemana pun...saya selalu pakai gopay..tp selalu saya kasih uang cash utk tambahan..walau cm 3rb-4rb...tp reaksi ojolny seneng bgt...😊😊😊 bintang 5 jg selalu saya berikan ...pokoknya terimakasih bpk Ojol...😍😍😍</t>
-  </si>
-  <si>
-    <t>untuk kedepannya untuk go send dan food bisa dianter via mobil kasihan jg khan driver bawa2 barang seperti kipas angin atau bawa kue yg bnyk kalo jatuh driverlah disalahin usulan aja</t>
-  </si>
-  <si>
-    <t>Saya suka miris sama Abang Gojek yang nganter jauh2 tapi ongkosnya murah banget...
-Pahala itu yang membayar Allah, kalo tarif murah itu yang tanggung jawab perusahaan  gojek. Jangan mengatas namakan pahala untuk tarif murah gojek. Ini murni pengalihan isu driver gojek yang minta ongkos naik.</t>
-  </si>
-  <si>
-    <t>Terimakasi pengemudi angkutan online.. Slama ini saya banyak terbantu :)</t>
-  </si>
-  <si>
-    <t>Gojek dan yg lainnya sangat membantu dalam perkrmbangan dan kemajuan transportasi modern... Cuman saya mau berpesan selalu hati2 di jalan dan jika sekiranya menjalankan kendaraan dengan pelan harap jangan di tengah kasian pengendara yg lain... Harap pengertiannya dan terima kasih...</t>
-  </si>
-  <si>
-    <t>GO-JEK sangat membantu sebenarnya buat saya..  kadang saya dapet driver nya yg judes..  dikasih tau jalan yg saya tau dia malah kekeh lebih memilih maps  .. kadang dapet driver yg jauh lebih baiknya sabar bawa motornya pelan tetep aja saya ga pernah tega memberi rating bintang 1.  kasian kalo di kasih rating 1 dengan komentar gak  enak dengan uneg uneg saya berpikir driver jg manusia kerja dijalan panas hujan tp saya kadang kesel jg dapet driver yg tidak ramah..  semoga GO-JEK selalu memberikan yg terbaik untuk semua customer nya.  amin 😇🙏💟</t>
-  </si>
-  <si>
-    <t>GO-JEk selalu ada di saat aku membutuh kan .
-Waktu itu aku pesen go-jak buat beli makanan karna lapar di tengah malam .
-Waktu itu grimis dan pak go-jek nya udah tua gak tega rasanya .ku suruh masuk buat ngopi2 sambil nyemil katanya gak usah mas makasih masih harus kejar storan .jlebbbbbb rasanya gak tega ..yaudah ku kasih lebih banyak biar cepet pulang dan bisa berkumpul sama keluarga nya ..
-Kalian para OJOL memang luar biasa</t>
-  </si>
-  <si>
-    <t>Kalo boleh gw kasih saran mending gojek bikini drivernya aplikasi tuyul yg resmi biar gak ada kecemburuan sesama driver....</t>
-  </si>
-  <si>
-    <t>Ngisi saldo gojek 350k via mbanking mandiri dari jam 2 siang sampe saat ini belum masuk. Email ke gojek, balasannya cuma email auto response.  Dimana ini etikanya wahai cs gojek? Giliran customer komplen, pada pergi semua ke alam baka. Giliran customer puji2, nongol semua lengkap dgn kalimat manisnya. Dimana ini tanggung jawabnya? Cuti semua yah karena kemaren tanggal merah? #Menyedihkan, perusahaan macam apa ini?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saya isi gopay 350rb melalui bca mbanking tapi masih belum masuk ke saldo di aplikasi saya? saya sudah coba email dan telfon customer service tapi belum dijawab. </t>
-  </si>
-  <si>
-    <t>Kenapa gojek ska eror.
-Cobalah diperiksa dan audit tim It nya</t>
-  </si>
-  <si>
-    <t>Ini bagaimana si gojek, saya sudah isi topup gopay sebesar 180.000 pada hari minggu tanggal 10 jam 8.30 sampai dengan sekarang gopay saya tidak bertambah, saya tlp ke cs nya disuruh email buktinya sudah saya email disuruh tunggu 2 x24 , padahal mau dipakai itu gopay, costumer disuruh isi gopay giliran diisi akhirnya menyusahkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya Hanya saran utk Go jek. Alangkah baiknya di buat satu kategori system lagi yang memudahkan owner perusahaan Di Indonesia memakai jasa transportasi GO JEK untuk keperluan bisnis. Jasa antar karyawan perusahaan yang sebelumnya harus ada kerjasama antara perusahaan dengan gojek Guna untuk Mendapatkan pelanggan tetap dan keutungan perusahaan mendapatkan promo khusus dgn adanya kerjasama tsbt, Tanpa merugikan kedua belah pihak. Antara gojek tentunya yaitu driver pribadi dan Owner Perusahaan. . Seperti halnya system Go Food yg saat ini sudah dijalankan systemnya Hanya  untuk keperluan owner wirausaha Makanan..
- </t>
-  </si>
-  <si>
-    <t>Tolong donk IT gojek yg paling hebat. Tolong di brantas tuyul di aplikasi gojek. Saya mohon, miris ngeliat aplikasi penumpang. Apa gk malu ya? Masa ada motor gojek masuk ke dalem mall?</t>
-  </si>
-  <si>
-    <t>Tolong di perbaiki untuk harga gofood selalu tidak sesuai dengan aplikasi , karena ada ppn dan di aplikasi tidak di cantumkan jadi pas dateng harganya selalu lebih , dan kadang pesanan tidak sesuai dengan apa yg di pesan , mohon di cantumkan harga yg benar..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang kasihan Sama driver ojol, tarip sudah murah, banyak promo, potongan besar, terus mereka pulang kerumah bawa apa?, bantulah dgn tarif yang wajar, stop memanjakan customer, dan batasi jumlah driver. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada gofood bisa pesan makanan tiap hari. </t>
-  </si>
-  <si>
-    <t>Kenapa sekarang banyak "tuyul" gojek. Meng oke kan mengambil orderan go-ride tapi gak datang2. Telpon drivernya gak aktif.  Posisi driver juga gak terdeteksi.</t>
-  </si>
-  <si>
-    <t>Maaf, saya pengguna aktif ojol. Tiap hari pp kantor. Pengalaman saya sebagai customer, HANYA GOJEG yg pelayanannya bagus. Cuma kenapa saya tidak pernah dapat voucher promo ya?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang bicara /nyebar berita hoak soal gofood moga saja mulutnya kena azab.. Saya pelangggan gofood sudah lama fine" saja... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver sudah cukup terdzolimi, tarif murah tapi tetap ikhlas, melayani dengan sepenuh hati, masih juga kami di fitnah hoax tentang pesanan gofood beracun. </t>
-  </si>
-  <si>
-    <t>Tolong aplikator, Urusin tuh driver2 pemalas...
-Pesen gomart dari sejaman lalu di cancel ..mending lansung di cancel,ini sampe nunggu 15menit baru di cancel....</t>
-  </si>
-  <si>
     <t>Dulu tarif per km 3000 karena mereka butuh driver , sekarang kebalikan driver  yang butuh Gojek,  sehingga tarifnya diturunkan karena driver membutuhkan Gojek.</t>
   </si>
   <si>
-    <t>Itu semua tergantung peraturan perusahaan yang bersangkutan kita sebagai nasabah pihak yang diuntungkan tetapi pasti ada keuntungan tersendiri di balik itu</t>
-  </si>
-  <si>
     <t>Banyak tuyul go-ride. Mohon diperhatikan dan diseleksi para drivernya. Seringkali saya dapat tuyul go-ride, di chat dan di telp gak aktif setelah saya menunggu lama. Ada baiknya alasan cancel pakai tulisan konsumen saja supaya ketahuan langsung oleh pihak Gojek</t>
   </si>
   <si>
-    <t>Cuma meras keringat drivernya aja nih GRAB... Insentive cuma sekali bisa turun abis itu akal2an dari yang namanya performa sampai perolehan bintang dibikin jatuh padahal kenyataannya penumpang pada kasih bintang lima dimaksudkan biar persyaratan untuk dapetin insentive tidak terpenuhi...</t>
-  </si>
-  <si>
-    <t>2 kali naik grab,,,puas bgt,nyaman bgt"orangnya ramah,mau ngajak ngobrol penumpangnya"berasa punya sopir pribadi"</t>
-  </si>
-  <si>
-    <t>semogga grab sama gojek sama mencari rizki semogga lancar rizkinya sukses  rukun dan damai selau bersama kompak saling dukung saling doa akan dimana pun berada seruruh indonesia</t>
-  </si>
-  <si>
-    <t>Lebih banyak driver ketimbang pengguna aplikasi. Mohon di sosialisasi kan lebih jelas penggunaan aplikasi melalui media spanduk. Baliho atau media TV. Ini untuk kota2 kecil di daerah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplikator Perbaiki sistem, cari tim IT yang benar2 potensial. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplikator kalau mau bertahan, perhatikan nasib driver itu yg utama, driver adalah ujung tombak perusahaan. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kadang kasihan Sama driver, tarif sangat super murah, promo tak berkesudahan, potongan besar, terus mereka dapat apa? </t>
   </si>
   <si>
-    <t xml:space="preserve">Vendor, sejahterakan dulu driver jgn terlalu banyak iklan dan mensponsori event2 tak guna jika driver sengsara. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat membantu sekali adanya ojol, lebih mempermudah segala urusan dan efisien waktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penilaian saya cukup Bagus dgn adanya angkutan online, saya belum pernah menemukan masalah, jadi fine fine Saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adanya gofood sangat membantu saya, maklum Terkadang saya sangat malas untuk keluar buat beli makanan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang dapat driver yang reseh, disitu saya suka merasa kesal. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sangat membantu sekali adanya angkutan online </t>
   </si>
   <si>
-    <t xml:space="preserve">Sdh cukup lama saya menggunakan angkutan online, Selama ini baik2 saja belum pernah nemu masalah, paling2 soal nggak Ada uang kembalian, no problem lah buat saya hitung2 sedekah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengen merasakan Naik Angkutan online, tapi didaerah belum ada. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu sekali adanya ojol, sangat membantu dan efisien waktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat membantu, tapi kadang Kesalnya kalau dapat driver yang reseh. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munculnya perusahaan angkutan online, otomatis Membuka lapangan kerja, Berharap ojol terus berjaya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada baiknya aplikator membatasi recruitment driver, seleksi dgn ketat, beri pembekalan tentang attitude, sehingga driver yang bergaya preman bisa terseleksi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada gofood sangat membantu, bisa pesan Makan sepuas nya. </t>
-  </si>
-  <si>
-    <t>Semangat terus ya buat babang gojek dan babang grab,  terima Kasih sudah mempermudah perjalanan kami.</t>
-  </si>
-  <si>
-    <t>2 kali naik grab,,,puas rasanya nyaman bgt"orangnya ramah,mau ngajak ngobrol penumpangnya"berasa punya sopir pribadi"</t>
-  </si>
-  <si>
-    <t>Maaf ya Grab. Saya salah seorang pengguna jasa Grab. Sekedar saran, mungkin ada baiknya Grab lebih memperhatikan kesejahteraan drivernya. Karena klu diperhatikan, pasti lebih semangat dalam melayani kami para penumpang. Saran buat driver grabcar, tolong pengemudinya jangan merokok didalam mobil. Biar ketika penumpang masuk, mobilnya nggak bau rokok. Coba tiru taxi konvensional seperti BB, dalam mobilnya wangi. Soalnya saya sering menggunakan jasa grabcar. Ada sebagian yang mobilnya wangi, tetapi banyak juga yang mobilnya bau rokok. Mudah2an saran saya dipertimbangkan sebaik2nya. Makasih 🙏</t>
-  </si>
-  <si>
-    <t>@gojekindonesia  banyak kasus nitik nuyul order fiktif akibat dari sistem bonus yg menggiurkan &amp; lemahnya pengawasan sistem. Baiknya gojek menghapuskan sistem bonus supaya penghasilan ojol lebih halal.</t>
-  </si>
-  <si>
-    <t>Bismillah..
-Semoga para driver diberikan keberkahan rejeki!!
-Hati2 dijalan dan jaga selalu kesehatan..
-Kepada customer smga diberikan kebaikan oleh Tuhan YME krn menghargai jasa para driver..yg blom baek smga mjd lebih baek..
-Amin
-GOJEK
-Love,peace,and respect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu dgn adanya grab gojek dan lain2, kegiatan sehari hari jadi lebih lancar tidak perlu menunggu angkot lagi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dengan tarif yg terjangkau pekerjaan pun lancar, sangat terbantu adanya ojol, kedepannya bisa lebih maju. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulan puasa saat ini sangat terbantu adanya gofood dan grabfood, bisa lancar pesan Makan untuk sahur atau berbuka, tanpa repot lagi harus belanja sendiri. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sering sekali saya Naik ojol, Selama ini tidak pernah ada masalah, saya merasa sangat terbantu sekali. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majunya perusahaan Aplikator ada ditangan driver, perhatikan kesejahteraan driver dan hak haknya, jika ingin peeusahaan bisa hidup lebih lama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu adanya ojol, Semoga terus selamanya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang ada gofood, bisa pesan makanan kapan saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya sudah cukup lama menggunakan transfortasi online, Selama ini belum ada masalah seperti yang sering dikeluhkan, Semoga grab gojek makin maju. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuyul istilah untuk driver, untuk memalsukan titik GPS / fake GPS. Yg tidak sesuai dengan posisi driver yg sebenarnya .Berharap aplikator bosa memberantas hal ini. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Fiktip semakin merajalela dan membuat driver resah, tolong di telusuri dan dintindaklanjuti agar pelaku jera ..Kasian driver yang jujur dan kerja bener. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada bagusnya aplikator membuat Tempat mangkal disetiap titik untuk para driver, karena mereka suka bergerombol ditempat sembarangan hingga menyebabkan kemacetan, terutama dijam jam sibuk. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dengan adanya angkutan berbasis online di indonesia, otomatis Membuka lapangan kerja, Semoga terus maju. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sebenarnya sangat membantu sekali adanya ojol, tapi kadang ada saja oknum driver Yang bersikap seenaknya, cancel orderan sepihak padahal sudah nunggu lama. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keberadaan angkutan online sangat membantu saya, mobilitas saya tiap hari jadi efisien waktu dan tenaga. Smg terus maju ojol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gofood grabfood sangat membantu, bisa pesan makanan kapan saja, tidak usah repot datang ke resto atau gerai, tinggal tunggu saja dirumah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walaupun keberadaan ojol sangat membantu tapi Ada saja kadang masalah yg suka bikin kesal, maklum Kita gak bisa pilih pilih driver macam ojek pangkalan, akibatnya kadang dapat driver yg bikin sebal saja kelakuannya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya pernah Naik gocar driver nya ibu ibu, salut sih sama semangatnya tapi Ada baik nya dandanan jangan terlalu menorlah, kan bukan mau kondangan. Nanti kalau dapat penilaian negative atau dapat perlakuan tak baik malah menyalahkan orang lain. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagi saya tarif berapapun tidak masalah, tapi kalau tarifnya tidak wajar kasihan Sama drivernya, sudah tarif murah, banyak promo, potongan besar pula. Padahal mereka mau kasih makan anak istri. Miris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya Berharap aplikator menetapkan tarif yang seimbang, jangan sampai kesannya driver hanya dijadikan sapi perah demo untung besar buat perusahaan. Ingat perusahaan bisa maju berkat kerja Keras driver. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belum pernah merasakan Naik ojol, maklum tinggal didaerah, tapi saya pikir baguslah. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bermunculannya beberapa perusahaan angkutan online secara langsung sangat menyerap tenaga kerja, terlepas dari segala kelebihan dan kekurangannya, Semoga terus maju. </t>
   </si>
   <si>
-    <t xml:space="preserve">Pernah juga naik ojol, drivernya ugal2an. Bawa motor seenaknya. Ada bagusnya aplikator Betul Betul seleksi ketat recruitment driver, bukan cuma bisa bawa motor, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebaiknya ojol bikin Tempat mangkal juga, karena para driver suka bergerombol sampai membuat macet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walaupun saya pakai gopay, tetap selalu saya kasih tip, Kasian soalnya sama driver nya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya sudah culpa Lama jadi langganan angkutan in, meskipun saya punya gopay, tetap driver nya selalu saya kasih tip kasihan kan mereka, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang saya kasihan Sama driver, apalagi driver gofood, sdh keluar duit buat beli makanan, eh customer malah tak bisa dihubungi, padahal mereka kerja Keras buat keluarga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarif yang terlalu murah Terkadang bikin kasihan dan sedih lihat driver nya, saya kalau lagi Ada duit selalu kasih lebih buat mereka, hitung2 bersedekah, lebih baik sedekah pada orang yang mau kerja Keras daripada ngasih sama pengemis. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ada baiknya aplikator membatasi jumlah driver karena sudah terlalu banyak, sehingga driver sudah susah dapat customer. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sebelum recruitment Ada baik nya driver ditatar dulu, terutama soal attitude, dilapangan banyak oknum driver yang bergaya preman. </t>
-  </si>
-  <si>
-    <t>Keberadaan ojol sangat membantu, berkat ojol segala urusan jadi lebih lancar, cukup nunggu dirumah, driver datang, terus maju dan tetap semangat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Munculnya angkutan online secara langsung Membuka lapangan kerja bagi yang membutuhkan. </t>
   </si>
   <si>
-    <t xml:space="preserve">Masih sering lihat driver ojol suka ugal2an dijalan, itu membahayakan customer, kesal kalau melihat yang begini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sika lihat driver ojol bergerombol dipinggir jalan, kalau jam2 sibuk kondisi ini sangat menyebalkan karena bikin macet. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Untuk aplikator berilah para driver ini apresiasi atas kerja kerasnya, perusahaan tak akan maju tanpa perjuangan mereka. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sudah lama saya berlangganan ojol, semua lancar saja, kedepannya Semoga lebih maju. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kami sekeluarga merasa sangat terbantu dgn adanya ojol, tarif terjangkau bahkan sangat murah, smg tambah maju kedepannya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya sudah cukup lama pakai ojol, Walaupun saya punya gopay, tetap selalu saya kasih tip uang kontan sama driver nya, sedikit sih tapi bagi saya lebih baik dari pada memberi kepengemis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sering terjadi driver nggak punya uang kembalian, ikhlaskan saja hitung2 sedekah, kasihan juga penghasilan mereka tak seberapa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesalnya kadang drivernya suka cancel sepihak padahal Kita sudah nunggu lama. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untuk aplikator Ada bagusnya berlakukan tarif yg pas, supaya driver semangat, kasihan kan mereka penghasilan tak seberapa, sudah tarif murah, banyak promo potongan juga besar, tanyakan Hati nurani. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesalnya kalau dapat driver yang ugal2an dijalan, sport jantung dibuatnya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keberadaan ojol sangat membantu sekali, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saat puasa sekarang gofood sangat membantu, bisa pesan makanan kapan saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang dan sangat terbantu adanya ojol, bisa mengantar ibu kemana saja, tanpa pusing mikir mesti Naik apa. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sudah cukup lama jadi customer, Alhamdulillah belum pernah Ada masalah. </t>
   </si>
   <si>
-    <t xml:space="preserve">Seperti nya makin kesini perang tarip makin kentara, Sebaiknya tak perlu terlalu banyak inovasi yg hanya menguntungkan pengusaha semata tapi menyengsarakan driver, nasib driver lebih diutamakan lah supaya bisa bertahan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pake grab dan gojek banyak promo nya...tapi kita tau diri... biarpun saya pake promo tapi kadang bayar sesuai tarif sblm promo ...atau dilebihin dari tarif promo....kita sama2 butuh ... kadang saya kasih lebih ...driver nya bilang..mba uang nya kebanyakan...ada promo....saya blg gk pa2 ambil aja ....it's good driver...jujur itu penting ....rejeki tidak kemana...banyak cust yg mengerti cara menghargai keringatnya nya org ....so keep spirit utk driver grab dan gojek. </t>
-  </si>
-  <si>
-    <t>Tiap hari ngegrab,bener2 ngebantu sih kemanapun saya pergi...seneng dech adanya grab...😊</t>
-  </si>
-  <si>
-    <t>Membantu sekali,mau kemana pun gampang,mau ngantar barang apapun gampang.</t>
-  </si>
-  <si>
-    <t>Jangan terlalu banyakin promo nya kasian driver nya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tadi kami kerumah sakit..pas pulang mau pesan grab..tapi hp saya eror..mana aku lemas betul..ada grab lewat depan aku..dia berhenti..tanpa aplikasi dia antar aku sampai depan rumah.. sungguh baik drivernya.. saya lupa tanya namanya karena aku sakit..aku mengucapkan banyak terima kasih grab..dan semoga drivernya di lindungi Tuhan di mana pun dia berada dan selalu berkah ..</t>
-  </si>
-  <si>
-    <t>Hallo grab! STOP PENERIMAAN DRIVER BARU! Makin banyak driver makin sedikit penumpang makin besar omset grab!  Yang sengsara kita bagaikan sapi perah jasa!!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saya sudah cukup lama langganan gojek, secara umum sih baik2 saja, tapi kadang pernah juga ketemu driver yg reseh. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Saya suka Naik angkutan online, gojek, gocar, grab. Sangat membantu sekali. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dengar2 driver sering demo akibat beberapa hal Yang dianggap tidak manusiawi, ya wajarlah. Tlg pihak2 terkait perhatikan nasib driver. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang saya sering juga dibuat sebal sama driver online, sudah nunggu lama tiba2 dia minta cancel. Kesal kan? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat membantu dgn adanya angkutan online. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munculnya Angkutan online membantu Membuka lapangan pekerjaan, smg terus maju. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kepada pihak2 aplikator perhatikan sistemnya, tlg diperbaiki. Disaat jam2 sibuk aplikasi sering eror. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang takut Naik ojek online, soalnya pernah dapat driver yg ugal2an, jadi ngeri. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maju terus angkutan online </t>
   </si>
   <si>
     <t xml:space="preserve">Sangat membantu sejak Munculnya Angkutan online, sangat efisien menghemat waktu dan tenaga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarif ojol sangat murah bahkan terlalu murah, Kasian driver nya, sementara customer selalu dimanja. </t>
-  </si>
-  <si>
-    <t>Adanya ojol sangat membantu saya yg tk punya kendaraan ini.</t>
-  </si>
-  <si>
-    <t>Senang adanya ojol sangat membantu sekali.</t>
-  </si>
-  <si>
-    <t>Ada gofood grabfood bisa pesan makanan kapan saja.</t>
-  </si>
-  <si>
-    <t>Sangatlah terbantu adanyaojol.</t>
-  </si>
-  <si>
-    <t>Tolong lah diperketat lagi persyaratan drivernya.udah lampu kagak nyala kalo siang mungkin masih oke ini malam hari lampu mati sangat membahayakan sekali , nyalahin orang pula.barusan kejadian ini.
-Kalo saya laporin nanti orangnya kehilangan pekerjaan.tolong di kasih warning itu masa gatau aturan.</t>
-  </si>
-  <si>
-    <t>Boleh gak bilang kalau paling gak suka ama driver g tau jalan.udah nunggu di pinggir jalan kepanasan setengahbjam... Puasa puasa begini....ampun.. Giliran di tungguin dia nyasar.lalu nyuruh kita cancel....</t>
-  </si>
-  <si>
-    <t>Kepada Gojek Indonesia tolong di tindak nih oderan fikitif yg meresakan Driver dan customer karena dengan adanya oderan ini customer lebih sulit untuk mendapatkan driver Gojek itu saya dengar dari customer dia nanya pak dapet driver Gojek susah ya terus dapetnya yang jauh mohon untuk Gojek Indonesia untuk di tanganin atas orderan fikitif itu sangat meresakan Driver, penghasilan dari oderan fiktif itu kami menurun makasih mohon di tindak</t>
-  </si>
-  <si>
-    <t>Order fiktif semakin mengila. . entah apa maksud dan tujuannya. .</t>
-  </si>
-  <si>
-    <t>Tlong di prhatikn driverny,.
-Maslh harga,pnjemputan&amp;tujuan..
-Ga sesuai.maps.jmput kmna,tujuan kmna,..di hitung harga per,kilony.
-Kasian para driver,..</t>
-  </si>
-  <si>
-    <t>Tolong jangan kebanyakan vocher kesian para driver nya panas"an gak keliatan ada vochernya main tarik aja pas dilihan ternyata vocher diakon akhirnya ngongkosin 2.000. tolonglah perbaiki sama potongan jangan 20% kegedean</t>
-  </si>
-  <si>
-    <t>Tolong diperhatikan para mitranya..
-Jngan salah2 dikit customer langsung coment..driver langsung disuspen tanpa peringatan..jangan cuma manjain custumer ajj tolong perhatikan drivernya..mreka jg punya keluarga yg butuh mkn..bagaimana mau sejahtera...</t>
-  </si>
-  <si>
-    <t>Naikin tarif, biar driver tambah semangat,  soal nya gocar udah pada naik tuh buat grab.</t>
-  </si>
-  <si>
-    <t>Sangat terbAntu adanya ojol</t>
-  </si>
-  <si>
-    <t>Driver baik dan sopan bikin kita senang dan tenang,gk segan buat ngasih tip, begitu juga sebaliknya jika dpt driveryang tidak bisa menjaga attitude,membuat hati kesal saja.</t>
-  </si>
-  <si>
-    <t>Slalu saya kasih lbih dr harga tarif.. Krena memang ngebantu sekali buat saya..kalau saya pake promopun pasti saya kasih harga normal...</t>
-  </si>
-  <si>
-    <t>Yg pnting kalau driver nya sopan..ramah..bersih..saya pasti kasih lebih..karena g tega ngasih pas sesuai tarif..</t>
-  </si>
-  <si>
-    <t>Sebagai customer saya sering merasa kasihan sama drivernya,tarifnya sangat murah,,,,maju terus grab</t>
-  </si>
-  <si>
-    <t>Pertama naik grab sudah dalam mobil disuruh cancel sm drivernya biar gak kepotong diskonnya😂
-Saya iyakan karena buru2 ke bandara</t>
-  </si>
-  <si>
-    <t>Keluarga besar saya pengguna jasa grab,d samping drivernya ramah juga enak bawa kendaraannya, pokoke grab is the best!!</t>
-  </si>
-  <si>
-    <t>Munculnya angkutan online,sangat dirasa membantu sekali dan selama ini blm pernah ada masalah, semoga maju terus kedepannya.</t>
-  </si>
-  <si>
-    <t>Sudah cukup lama saya langganan ojol, selama ini tak ada masalah yg berarti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Senang sekali bisa punya aplikasi go jek. Tmpt kami kalau mau keluar harus pakai ojek karena jauh dr kendaraan umum. Kalau  mau naik ojek itu pun hrs jalan kaki krn mangkal ojek cukup jauh dan terkadang mamang ojek ngebut minta ampun. Klu kita bilangin mrk menjawab. Tp sejak ada go jek saya sangan terbantukan karena kalau mau pergi tinggal pesan go jek tanpa harus jln kaki yg cukup jauh. Perjalanan aman krn tidak pernaj ngebut. Bravo go jek semangan semangat. </t>
-  </si>
-  <si>
-    <t>kenapa murah sekali ya.. ongkos buat driver gojek  terkadang gak sesuay minyak. Pulsa. kuota. Itu smua dari driver. Tolong di fikirkan ya</t>
-  </si>
-  <si>
-    <t>Saya sangat terbantu dng adanya gojek gocar jika mau pergi tinggal pencet aplikasinya dan sy sll kasih bintang 5 utk drivernya krn mrk sopan tp yg namanya Pahala blm sy dpt tuuuh.</t>
-  </si>
-  <si>
-    <t>Aku tiap hari naik gojek .. klw pas dpt motor gede susah naiknya  malah pernah hampir jatoh   untung sempet meluk abangnya  😛😛😛😛</t>
-  </si>
-  <si>
-    <t>Semoga ojol terus maju, keberadaannya sangat membantu.</t>
-  </si>
-  <si>
-    <t>Ikut sedih kadang kalau dengarcurhat drivernya, orderan sepi akibat terlalu banyak driver,tarif murah, banyak diskon2,potongan besar, semoga ada jalan keluar terbaik.</t>
-  </si>
-  <si>
-    <t>Sudah beberapa bulan terakhir saya dan keluarga langganan ojol, sangat membantu sekali.</t>
   </si>
   <si>
     <t>Gofood dan grabfood, semoga terus maju dan semakin banyak pilihan menu.</t>
@@ -2883,153 +2467,36 @@
     <t>Sangat membantu menurut saya,bisa pesan makanan dengan driver online kita tinggal tunggu dirumah dan tdk perlu keluar rumah,dan angkutan online ini jg membantu untk mereka2 yg mungkin sulit kendaraan,dan mereka yg mempunya bisnis online pun menggunakan jasa angkutan online untk mengirim barangnya kepada customer,tapi skrg jg lg marak driver online justru mengambil barang yg seharusnya dikirim kpd customer,mungkin untk pihak pusat lebih diteliti dalam menerima mereka yg ingin bergabung menjadi driver online,selebihnya sangat membantu dan sangat baik.</t>
   </si>
   <si>
-    <t>Berharap para driver tidak demo lg, angkutan online bisa lebih maju dan kesejahteraan driver lebih diperhatikan.</t>
-  </si>
-  <si>
-    <t>Adanya ojol sangat membantu sekali</t>
-  </si>
-  <si>
-    <t>Adanya angkutan online otomatis bisa membuka lapangan kerja,semoga trs maju ojol</t>
-  </si>
-  <si>
-    <t>Gojek dan grab sangat membantu sekali,terutama utk efisiensi waktu.</t>
-  </si>
-  <si>
-    <t>Berharap driver2 nya semua punya attitude yg bagus demi kenyamanan customer</t>
-  </si>
-  <si>
     <t>Bisa pesan makanan kapan saja,terutama disaat genting.</t>
   </si>
   <si>
     <t>Semoga kesejahteraan driver lebih diperhatikan.</t>
   </si>
   <si>
-    <t>Saya sangat berterima kasih dgn adanya angkutan online,karena sangat memudahkan segala urusan dan sangat menghemat waktu.</t>
-  </si>
-  <si>
-    <t>Sedihnya kalau dengar berita driver2 banyak yang jadi korban penodongan dan begal,padahal mereka mencari rejeki halal buat keluarganya,berharap pihak berwajib lebih konsen dgn masalah ini.</t>
-  </si>
-  <si>
-    <t>Sebenarnya ojol sangat membantu,tp kadang2 kita dibikin kesal juga sama drivernya, sudah dikejar waktu,disuruh nunggu akhirnya dicansel sepihak, belum lagi kadang dapat driver yg attitudenya minus.</t>
-  </si>
-  <si>
-    <t>Kadang bikin sport jantung juga kalau dapat driver yg suka ugal2an,</t>
-  </si>
-  <si>
-    <t>Suka bikin macet karena mereka bergerombol dipinggir jalan.</t>
-  </si>
-  <si>
-    <t>Sangat membantu ,sdh cukup lama saya langganan grab dan gojek, mAju terus ojol</t>
-  </si>
-  <si>
-    <t>Sebelnya itu.... Saat dapAt driver yang bau badan, dan kurang sopan santun.</t>
-  </si>
-  <si>
-    <t>Suka cancel seenaknya padahal kita sdh nunggu lama.</t>
-  </si>
-  <si>
     <t>Suka bikin macet</t>
   </si>
   <si>
-    <t>Aplikator banyAk untung,drivernya buntung</t>
-  </si>
-  <si>
-    <t>Cobalah pihak aplikator kasihlah tempat mangkal buat driver biar tidak bergerombol sembarangan sehingga mengganggu ketertiban umum.</t>
-  </si>
-  <si>
-    <t>Baru ada berita tlah terjadi bentrok antAra opang dan ojol, sedih lihatnya lagi2 ojol jadi sasaran, berharap pemerintah betul2 menyelesaikan masalah ini.</t>
-  </si>
-  <si>
-    <t>Sepertinya aplikator harus betul2 memperhatikan kesejahteraan driver,tanpa driver aplikator tak bisa apa2</t>
-  </si>
-  <si>
-    <t>Pengusaha jangan hanya mementingkan diri sendiri, berikan hak2 semestinya bagi driver,jangan terlalu banyak promo yg hanya jadi1 beban buat driver.</t>
-  </si>
-  <si>
-    <t>Ada baiknya pemerintah juga ikut memberikan aturan yg jelas utk angkutan online, demi kebaikan bersama.</t>
-  </si>
-  <si>
-    <t>Sebenarnya keberadaan angkutan online sangat membantu,tp sepertinya driver sdh terlalu banyak beban, masih ditambah lagi disuruh jualan gopay buat nambah point,malah sepertinya maksa ke cust.</t>
-  </si>
-  <si>
-    <t>Driver itu ujung tombak perusahaan,jd aplikator jgnlah semena mena, dgn hanya memikirkan keuntungan pribadi.</t>
-  </si>
-  <si>
-    <t>Dari pada perusahan sibuk jadi sponsor2 beberapa event yg tidak penting dan berbiaya besar,lebih baik pikirkan kesejahteraan driver.</t>
-  </si>
-  <si>
-    <t>Jangan lagi ada demo2.</t>
-  </si>
-  <si>
     <t>Sangat membantu sekali</t>
   </si>
   <si>
     <t>Semoga angkutan online terus maju, bisa membantu masyarakat luas dan membuka lapangan kerja.</t>
   </si>
   <si>
-    <t>!cukup lama saya menggunakan jasa ojol, cukup memuaskanlah.</t>
-  </si>
-  <si>
-    <t>Tlg aplikator seleksi ketat penerimaan driver.</t>
-  </si>
-  <si>
-    <t>Dibanding harus nunggu dan nyari ojek pangkalan, memang lebih efusien makai ojol.</t>
-  </si>
-  <si>
     <t>Sangat membantu</t>
   </si>
   <si>
-    <t>Sangat membantu adanya ojol,semoga terus maju</t>
-  </si>
-  <si>
-    <t>Kadang kasian kalau dengar driver gofood di cancel sama cust, padahal makanan sdh di order.</t>
-  </si>
-  <si>
-    <t>Berharap driver tidak ada demo lg dan tuntutan driver bisa ditindaklanjuti</t>
-  </si>
-  <si>
     <t>Lebih memudahkan</t>
   </si>
   <si>
     <t>Lebih terbantu dan mempersingkat waktu</t>
   </si>
   <si>
-    <t>Semoga ojol terus maju</t>
-  </si>
-  <si>
-    <t>Sangat terbantu adanya ojol, taripnya juga sangat murah, kadang kasihan jg sama driver nya lebih besar biaya operasional dari pada untungnya,,aplikator jgn mikirin keuntungan sendiri pikirkan jg kesejahteraan driver.</t>
-  </si>
-  <si>
-    <t>Lebih menghemat waktu dan tenagA</t>
-  </si>
-  <si>
-    <t>Seleksi ketat penerimaan driver perhatikan masalah atittud</t>
-  </si>
-  <si>
     <t>Semoga semakin maju dan terus berbenah</t>
   </si>
   <si>
-    <t>Selama menjadi langganan saya blm pernah mengalami hal2 buruk, selalu lancar2 saja, maju trs ojol.</t>
-  </si>
-  <si>
-    <t>Sangat terbantu adanya gofood</t>
-  </si>
-  <si>
-    <t>Berharap pemerintah mengeluarkan aturan yg jelas ttg angkutan online.</t>
-  </si>
-  <si>
-    <t>Selalu terbantu dgn ada nya angkutan online.</t>
-  </si>
-  <si>
-    <t>Semoga ojol terus maju.</t>
-  </si>
-  <si>
     <t>Sangat membantu kelancaran kegiatan sehari hari.</t>
   </si>
   <si>
-    <t>Sebel kalau ketemu driver yang bau badan</t>
-  </si>
-  <si>
     <t>Alangkah bagusnya kalau perusahaan lebih memperhatikan kesejahteraan driver demi kemajuan perusahaan yg berkelanjutan.</t>
   </si>
   <si>
@@ -3042,7 +2509,498 @@
     <t>Tarif yang sangat murah terasa tidak manusiawi, dan tidak adil bagi driver</t>
   </si>
   <si>
-    <t>Driver nya baik2, sehingga saya sebagai customer tak ada masalah.</t>
+    <t>Driver-nya baik-baik, sehingga saya sebagai customer tak ada masalah.</t>
+  </si>
+  <si>
+    <t>Kesal kalau ketemu driver yang bau badan</t>
+  </si>
+  <si>
+    <t>Semoga ojek online terus maju.</t>
+  </si>
+  <si>
+    <t>Selalu terbantu dengan adanya angkutan online.</t>
+  </si>
+  <si>
+    <t>Sangat terbantu adanya go-food</t>
+  </si>
+  <si>
+    <t>Berharap pemerintah mengeluarkan aturan yang jelas tentang angkutan online.</t>
+  </si>
+  <si>
+    <t>Selama menjadi langganan saya belum pernah mengalami hal-hal buruk, selalu lancar-lancar saja, maju terus ojek online.</t>
+  </si>
+  <si>
+    <t>Seleksi ketat penerimaan driver perhatikan masalah sikap</t>
+  </si>
+  <si>
+    <t>Lebih menghemat waktu dan tenaga</t>
+  </si>
+  <si>
+    <t>Sangat terbantu adanya ojek online, tarifnya juga sangat murah, kadang kasihan juga sama driver-nya lebih besar biaya operasional dari pada untungnya, aplikator jangan memikirkan keuntungan sendiri pikirkan juga kesejahteraan driver.</t>
+  </si>
+  <si>
+    <t>Semoga ojek online terus maju</t>
+  </si>
+  <si>
+    <t>Berharap driver tidak ada demo lagi dan tuntutan driver bisa ditindaklanjuti</t>
+  </si>
+  <si>
+    <t>Kadang kasian kalau dengar driver go-food dibatalkan sama pelanggan, padahal makanan sudah dibeli.</t>
+  </si>
+  <si>
+    <t>Sangat membantu adanya ojek online,semoga terus maju</t>
+  </si>
+  <si>
+    <t>Dibanding harus menunggu dan nyari ojek pangkalan, memang lebih efisien memakai ojek online.</t>
+  </si>
+  <si>
+    <t>Tolong aplikator seleksi ketat penerimaan driver.</t>
+  </si>
+  <si>
+    <t>Cukup lama saya menggunakan jasa ojek online, cukup memuaskan.</t>
+  </si>
+  <si>
+    <t>Jangan lagi ada demo.</t>
+  </si>
+  <si>
+    <t>Dari pada perusahan sibuk jadi sponsor-sponsor beberapa acara yang tidak penting dan berbiaya besar,lebih baik pikirkan kesejahteraan driver.</t>
+  </si>
+  <si>
+    <t>Driver itu ujung tombak perusahaan,jadi aplikator janganlah semena-mena, dengan hanya memikirkan keuntungan pribadi.</t>
+  </si>
+  <si>
+    <t>Sebenarnya keberadaan angkutan online sangat membantu,tapi sepertinya driver sudah terlalu banyak beban, masih ditambah lagi disuruh jualan go-pay buat nambah point,malah sepertinya maksa ke pelanggan.</t>
+  </si>
+  <si>
+    <t>Ada baiknya pemerintah juga ikut memberikan aturan yang jelas untuk angkutan online, demi kebaikan bersama.</t>
+  </si>
+  <si>
+    <t>Pengusaha jangan hanya mementingkan diri sendiri, berikan hak-hak semestinya bagi driver,jangan terlalu banyak promo yg hanya jadi beban buat driver.</t>
+  </si>
+  <si>
+    <t>Sepertinya aplikator harus betul-betul memperhatikan kesejahteraan driver,tanpa driver aplikator tak bisa apa-apa</t>
+  </si>
+  <si>
+    <t>Baru ada berita telah terjadi bentrok antara ojek pangkalan dan ojek online, sedih lihatnya lagi-lagi ojek online jadi sasaran, berharap pemerintah betul-betul menyelesaikan masalah ini.</t>
+  </si>
+  <si>
+    <t>Cobalah pihak aplikator berilah tempat mangkal buat driver biar tidak berkumpul sembarangan sehingga mengganggu ketertiban umum.</t>
+  </si>
+  <si>
+    <t>Aplikator banyak untung,drivernya buntung</t>
+  </si>
+  <si>
+    <t>Suka cancel seenaknya padahal kita sudah menunggu lama.</t>
+  </si>
+  <si>
+    <t>Kesalnya itu saat dapat driver yang bau badan, dan kurang sopan santun.</t>
+  </si>
+  <si>
+    <t>Sangat membantu ,sudah cukup lama saya langganan grab dan gojek, maju terus ojek online</t>
+  </si>
+  <si>
+    <t>Suka bikin macet karena mereka bergerombol di pinggir jalan.</t>
+  </si>
+  <si>
+    <t>Kadang bikin sport jantung juga kalau dapat driver yg suka ugal-ugalan,</t>
+  </si>
+  <si>
+    <t>Sebenarnya ojek online sangat membantu,tapi kadang-kadang kita dibikin kesal juga sama drivernya, sudah dikejar waktu,disuruh nunggu akhirnya di-cancel sepihak, belum lagi kadang dapat driver yang sikapnya tidak baik.</t>
+  </si>
+  <si>
+    <t>Sedihnya kalau dengar berita driver banyak yang jadi korban penodongan dan begal,padahal mereka mencari rejeki halal buat keluarganya,berharap pihak berwajib lebih konsen dengan masalah ini.</t>
+  </si>
+  <si>
+    <t>Saya sangat berterima kasih dengan adanya angkutan online,karena sangat memudahkan segala urusan dan sangat menghemat waktu.</t>
+  </si>
+  <si>
+    <t>Berharap driver-nya semua punya sikap yang bagus demi kenyamanan customer</t>
+  </si>
+  <si>
+    <t>Gojek dan grab sangat membantu sekali,terutama untuk efisiensi waktu.</t>
+  </si>
+  <si>
+    <t>Adanya angkutan online otomatis bisa membuka lapangan kerja,semoga terus maju ojek online</t>
+  </si>
+  <si>
+    <t>Adanya ojek online sangat membantu sekali</t>
+  </si>
+  <si>
+    <t>Berharap para driver tidak demo lagi, angkutan online bisa lebih maju dan kesejahteraan driver lebih diperhatikan.</t>
+  </si>
+  <si>
+    <t>Sudah beberapa bulan terakhir saya dan keluarga langganan ojek online, sangat membantu sekali.</t>
+  </si>
+  <si>
+    <t>Ikut sedih kadang kalau dengar curhat drivernya, orderan sepi akibat terlalu banyak driver,tarif murah, banyak diskon, potongan besar, semoga ada jalan keluar terbaik.</t>
+  </si>
+  <si>
+    <t>Semoga ojek online terus maju, keberadaannya sangat membantu.</t>
+  </si>
+  <si>
+    <t>Saya sangat terbantu dengan adanya gojek gocar jika mau pergi tinggal pencet aplikasinya dan saya selalu kasih bintang 5 untuk drivernya karena mereka sopan</t>
+  </si>
+  <si>
+    <t>kenapa murah sekali ya  ongkos buat driver gojek  terkadang tidak sesuai minyak. Pulsa. kuota. Itu semua dari driver. Tolong dipikirkan ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Senang sekali bisa punya aplikasi gojek. tempat kami kalau mau keluar harus pakai ojek karena jauh dari kendaraan umum. Kalau  mau naik ojek itu pun harus jalan kaki karena pangkalan ojek cukup jauh dan terkadang mamang ojek ngebut minta ampun. Kalau kita bilangin mereka menjawab. Tapi sejak ada gojek saya sangat terbantu karena kalau mau pergi tinggal pesan gojek tanpa harus jalan kaki yang cukup jauh. Perjalanan aman karena tidak pernah ngebut. Bravo gojek semangat. </t>
+  </si>
+  <si>
+    <t>Sudah cukup lama saya langganan ojek online, selama ini tak ada masalah yang berarti.</t>
+  </si>
+  <si>
+    <t>Munculnya angkutan online,sangat dirasa membantu sekali dan selama ini belum pernah ada masalah, semoga maju terus kedepannya.</t>
+  </si>
+  <si>
+    <t>Keluarga besar saya pengguna jasa grab,disamping drivernya ramah juga enak bawa kendaraannya, pokoke grab is the best</t>
+  </si>
+  <si>
+    <t>Pertama naik grab sudah dalam mobil disuruh cancel sm drivernya biar gak kepotong diskonnya
+Saya iyakan karena buru-buru ke bandara</t>
+  </si>
+  <si>
+    <t>Sebagai customer saya sering merasa kasihan sama drivernya,tarifnya sangat murah, maju terus grab</t>
+  </si>
+  <si>
+    <t>saya puas naik Grab. tapi kasian lihat driver grabnya.  curhat potongannya besar.  terus banyak pelanggan yang pakai promo.  udah murah promo pula. sabar ya abang driver.</t>
+  </si>
+  <si>
+    <t>Yang penting kalau driver-nya sopan, ramah, bersih, saya pasti kasih lebih. karena tidak tega memberi uang sesuai tarif.</t>
+  </si>
+  <si>
+    <t>Supaya sama-sama maju, sejahterakan driver-nya dulu, karena driver akar dari kemajuan perusahaan</t>
+  </si>
+  <si>
+    <t>Sangat terbantu adanya ojek online</t>
+  </si>
+  <si>
+    <t>Naikin tarif, biar driver tambah semangat,  soalnya gocar udah pada naik buat grab.</t>
+  </si>
+  <si>
+    <t>Tolong diperhatikan para mitranya.
+Jangan salah dikit customer langsung komentar. Driver langsung di-suspend tanpa peringatan. Jangan cuma manjakan customer saja tolong perhatikan drivernya. Mereka juga punya keluarga yang butuh makan</t>
+  </si>
+  <si>
+    <t>Tolong diperhatikan driver-nya.
+Masalah harga, penjemputan dan tujuan.
+Tidak sesuai peta jemput kemana, tujuan kemana. Dihitung harga per kilonya.
+Kasihan para driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order fiktif semakin menggila.  entah apa maksud dan tujuannya. </t>
+  </si>
+  <si>
+    <t>Kepada Gojek Indonesia tolong ditindak orderan fiktif yang meresahkan Driver dan customer karena dengan adanya oderan ini customer lebih sulit untuk mendapatkan driver Gojek itu saya dengar dari customer dia nanya pak dapet driver Gojek susah ya terus dapetnya yang jauh mohon untuk Gojek Indonesia untuk diselesaikan atas orderan fiktif itu sangat meresahkan Driver,  penghasilan dari orderan fiktif itu kami menurun makasih mohon ditindak</t>
+  </si>
+  <si>
+    <t>Boleh tidak bilang kalau paling tidak suka ama driver yang tidak tahu jalan. Sudah nunggu di pinggir jalan kepanasan setengah jam. Puasa begini ampun. Giliran ditunggu dia menyasar lalu menyuruh kita cancel.</t>
+  </si>
+  <si>
+    <t>Tolong diperketat lagi persyaratan driver-nya. Sudah lampu tidak menyala kalau siang mungkin masih oke ini malam hari lampu mati sangat membahayakan sekali, menyalahkan orang pula, baru saja kejadian ini.
+Kalau saya laporin nanti orangnya kehilangan pekerjaan. tolong dikasih warning itu masa tidak tahu aturan.</t>
+  </si>
+  <si>
+    <t>Ada go-food grab food bisa pesan makanan kapan saja.</t>
+  </si>
+  <si>
+    <t>Senang adanya ojek online sangat membantu sekali.</t>
+  </si>
+  <si>
+    <t>Adanya ojek online sangat membantu saya yang tidak punya kendaraan ini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarif ojek online sangat murah bahkan terlalu murah, Kasihan driver-nya, sementara customer selalu dimanja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadang takut Naik ojek online, soalnya pernah dapat driver yang ugal-ugalan, jadi ngeri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepada pihak aplikator perhatikan sistemnya, tolong diperbaiki. Disaat jam sibuk aplikasi sering error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munculnya Angkutan online membantu Membuka lapangan pekerjaan, semoga terus maju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat membantu dengan adanya angkutan online. </t>
+  </si>
+  <si>
+    <t>Kadang saya sering juga dibuat kesal sama driver online, sudah menunggu lama tiba-tiba dia minta cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengar-dengar driver sering demo akibat beberapa hal Yang dianggap tidak manusiawi, ya wajar. Tolong pihak-pihak terkait perhatikan nasib driver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saya sudah cukup lama langganan gojek, secara umum baik-baik saja, tapi kadang pernah juga ketemu driver yang rese. </t>
+  </si>
+  <si>
+    <t>Hello grab! STOP PENERIMAAN DRIVER BARU! Makin banyak driver makin sedikit penumpang makin besar omset grab!  Yang sengsara kita bagaikan sapi perah jasa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tadi kami kerumah sakit. pas pulang mau pesan grab. tapi handphone saya error. mana aku lemas betul. ada grab lewat depan aku. dia berhenti. tanpa aplikasi dia antar aku sampai depan rumah. sungguh baik drivernya. saya lupa tanya namanya karena aku sakit. aku mengucapkan banyak terima kasih grab. dan semoga driver-nya dilindungi Tuhan dimanapun dia berada dan selalu berkah</t>
+  </si>
+  <si>
+    <t>Jangan terlalu banyakin promonya kasihan driver-nya</t>
+  </si>
+  <si>
+    <t>Membantu sekali, mau kemanapun gampang, mau mengantar barang apapun gampang.</t>
+  </si>
+  <si>
+    <t>Tiap hari naik grab,benar-benar membantu skemanapun saya pergi. senang dengan adanya grab.</t>
+  </si>
+  <si>
+    <t>Pakai grab dan gojek banyak promonya. tapi kita tahu diri. biarpun saya pake promo tapi kadang bayar sesuai tarif sebelum promo. atau dilebihkan dari tarif promo. kita sama-sama butuh. kadang saya kasih lebih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepertinya makin kesini perang tarif makin kentara, Sebaiknya tak perlu terlalu banyak inovasi yang hanya menguntungkan pengusaha semata tapi menyengsarakan driver, nasib driver lebih diutamakan supaya bisa bertahan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang dan sangat terbantu adanya ojek online, bisa mengantar ibu kemana saja, tanpa pusing mikir mesti Naik apa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saat puasa sekarang go-food sangat membantu, bisa pesan makanan kapan saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keberadaan ojek online sangat membantu sekali, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesalnya kalau dapat driver yang ugal-ugalan di jalan, sport jantung dibuatnya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk aplikator Ada bagusnya berlakukan tarif yang pas, supaya driver semangat, kasihan mereka penghasilan tak seberapa, sudah tarif murah, banyak promo potongan juga besar, tanyakan Hati nurani. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesalnya kadang drivernya suka cancel sepihak padahal Kita sudah menunggu lama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sering terjadi driver tidak punya uang kembalian, ikhlaskan saja hitung-hitung sedekah, kasihan juga penghasilan mereka tak seberapa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saya sudah cukup lama pakai ojek online, Walaupun saya punya go-pay, tetap selalu saya kasih tip uang kontan sama driver nya, sedikit sih tapi bagi saya lebih baik dari pada memberi ke pengemis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kami sekeluarga merasa sangat terbantu dengan adanya ojek online, tarif terjangkau bahkan sangat murah, semoga tambah maju kedepannya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah lama saya berlangganan ojek online, semua lancar saja, kedepannya Semoga lebih maju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suka lihat driver ojek online bergerombol di pinggir jalan, kalau jam sibuk kondisi ini sangat menyebalkan karena bikin macet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masih sering lihat driver ojek online suka ugal-ugalan di jalan, itu membahayakan customer, kesal kalau melihat yang seperti ini </t>
+  </si>
+  <si>
+    <t>Keberadaan ojek online sangat membantu, berkat ojek online segala urusan jadi lebih lancar, cukup nunggu dirumah, driver datang, terus maju dan tetap semangat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebelum recruitment Ada baiknya driver ditata dulu, terutama soal sikap, di lapangan banyak oknum driver yang bergaya preman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarif yang terlalu murah Terkadang bikin kasihan dan sedih lihat driver-nya, saya kalau lagi Ada duit selalu kasih lebih buat mereka, hitung-hitung bersedekah, lebih baik sedekah pada orang yang mau kerja Keras dari pada diberikan sama pengemis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadang saya kasihan Sama driver, apalagi driver go-food, sudah keluar duit buat beli makanan, customer malah tak bisa dihubungi, padahal mereka kerja Keras buat keluarga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernah juga naik ojek online, driver-nya ugal-ugalan. Bawa motor seenaknya. Ada bagusnya aplikator Betul-Betul seleksi ketat recruitment driver, bukan cuma bisa bawa motor, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belum pernah merasakan Naik ojek online, maklum tinggal di daerah, tapi saya pikir bagus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saya pernah Naik gocar driver-nya ibu ibu, salut sama semangatnya tapi Ada baik nya dandanan jangan terlalu menorlah, bukan mau kondangan. Nanti kalau dapat penilaian negatif atau dapat perlakuan tak baik malah menyalahkan orang lain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walaupun keberadaan ojek online sangat membantu tapi Ada saja kadang masalah yang suka bikin kesal, maklum Kita tidak bisa pilih pilih driver macam ojek pangkalan, akibatnya kadang dapat driver yang bikin sebal saja kelakuannya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go-food grab food sangat membantu, bisa pesan makanan kapan saja, tidak usah repot datang ke resto atau gerai, tinggal tunggu saja dirumah. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keberadaan angkutan online sangat membantu saya, mobilitas saya tiap hari jadi efisien waktu dan tenaga. semoga terus maju ojek online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebenarnya sangat membantu sekali adanya ojek online, tapi kadang ada saja oknum driver Yang bersikap seenaknya, cancel orderan sepihak padahal sudah menunggu lama. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada bagusnya aplikator membuat Tempat mangkal di setiap titik untuk para driver, karena mereka suka bergerombol ditempat sembarangan hingga menyebabkan kemacetan, terutama pada jam sibuk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Fiktif semakin merajalela dan membuat driver resah, tolong di telusuri dan ditindaklanjuti agar pelaku jera ..Kasian driver yang jujur dan kerja bener. </t>
+  </si>
+  <si>
+    <t>gojek indonesia  banyak kasus tuyul order fiktif akibat dari sistem bonus yg menggiurkan dan lemahnya pengawasan sistem. Baiknya gojek menghapuskan sistem bonus supaya penghasilan ojek online lebih halal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyul istilah untuk driver, untuk memalsukan titik GPS atau fake GPS. Yang tidak sesuai dengan posisi driver yang sebenarnya .Berharap aplikator bisa memberantas hal ini. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saya sudah cukup lama menggunakan transportasi online, Selama ini belum ada masalah seperti yang sering dikeluhkan, Semoga grab gojek makin maju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang ada go-food, bisa pesan makanan kapan saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu adanya ojek online, Semoga terus selamanya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majunya perusahaan Aplikator ada di tangan driver, perhatikan kesejahteraan driver dan hak haknya, jika ingin perusahaan bisa hidup lebih lama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sering sekali saya Naik ojek online, Selama ini tidak pernah ada masalah, saya merasa sangat terbantu sekali. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan puasa saat ini sangat terbantu adanya go-food dan grab food, bisa lancar pesan Makan untuk sahur atau berbuka, tanpa repot lagi harus belanja sendiri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengan tarif yang terjangkau pekerjaan menjadi lancar, sangat terbantu adanya ojek online, kedepannya bisa lebih maju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu dengan adanya grab gojek dan lainnya, kegiatan sehari hari jadi lebih lancar tidak perlu menunggu angkot lagi. </t>
+  </si>
+  <si>
+    <t>Bismillah..
+Semoga para driver diberikan keberkahan rejeki!!
+Hati-hati dijalan dan jaga selalu kesehatan..
+Kepada customer semoga diberikan kebaikan oleh Tuhan YME karena menghargai jasa para driver.. yang belom baik semoga menjadi lebih baik..
+Amin
+GOJEK
+Love, peace, and respect</t>
+  </si>
+  <si>
+    <t>Maaf ya Grab. Saya salah seorang pengguna jasa Grab. Sekedar saran, mungkin ada baiknya Grab lebih memperhatikan kesejahteraan drivernya. Karena kalau diperhatikan, pasti lebih semangat dalam melayani kami para penumpang. Saran buat driver grabcar, tolong pengemudinya jangan merokok didalam mobil. Biar ketika penumpang masuk, mobilnya tidak bau rokok. Coba tiru taksi konvensional seperti BB, dalam mobilnya wangi. Soalnya saya sering menggunakan jasa grabcar. Ada sebagian yang mobilnya wangi, tetapi banyak juga yang mobilnya bau rokok. Mudah-mudahan saran saya dipertimbangkan sebaik-baiknya. Terima kasih</t>
+  </si>
+  <si>
+    <t>dua kali naik grab,,, puas rasanya nyaman banget orangnya ramah, mau mengajak mengobrol penumpangnya berasa punya sopir pribadi</t>
+  </si>
+  <si>
+    <t>Semangat terus ya buat abang gojek dan abang grab,  terima Kasih sudah mempermudah perjalanan kami.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food sangat membantu, bisa pesan Makan sepuasnya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada baiknya aplikator membatasi recruitment driver, seleksi dengan ketat, beri pembekalan tentang sikap, sehingga driver yang bergaya preman bisa terseleksi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munculnya perusahaan angkutan online, otomatis Membuka lapangan kerja, Berharap ojek online terus berjaya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu sekali adanya ojek online, sangat membantu dan efisien waktu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengen merasakan Naik Angkutan online, tapi di daerah belum ada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah cukup lama saya menggunakan angkutan online, Selama ini baik-baik saja belum pernah menemukan masalah, paling-paling soal tidak Ada uang kembalian, tidak masalah buat saya hitung-hitung sedekah. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanya go-food sangat membantu saya, maklum Terkadang saya sangat malas untuk keluar buat beli makanan </t>
+  </si>
+  <si>
+    <t>Penilaian saya cukup Bagus dengan adanya angkutan online, saya belum pernah menemukan masalah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat membantu sekali adanya ojek online, lebih mempermudah segala urusan dan efisien waktu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor, sejahterakan dulu driver jangan terlalu banyak iklan dan mensponsori acara tak berguna jika driver sengsara. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplikator kalau mau bertahan, perhatikan nasib driver itu yang utama, driver adalah ujung tombak perusahaan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplikator Perbaiki sistem, cari tim IT yang benar-benar potensial. </t>
+  </si>
+  <si>
+    <t>Lebih banyak driver ketimbang pengguna aplikasi. Mohon disosialisasikan lebih jelas penggunaan aplikasi melalui media spanduk. Baliho atau media TV. Ini untuk kota-kota kecil di daerah.</t>
+  </si>
+  <si>
+    <t>semoga grab sama gojek sama mencari rizki semogga lancar rezekinya sukses  rukun dan damai selau bersama kompak saling dukung saling doa akan dimana pun berada seruruh indonesia</t>
+  </si>
+  <si>
+    <t>Cuma meras keringat driver-nya saja GRAB... insentif cuma sekali bisa turun habis itu akal-akalan dari yang namanya performa sampai perolehan bintang dibikin jatuh padahal kenyataannya penumpang pada kasih bintang lima dimaksudkan biar persyaratan untuk dapetin insentif tidak terpenuhi...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food bisa pesan makanan tiap hari. </t>
+  </si>
+  <si>
+    <t>Itu semua tergantung peraturan perusahaan yang bersangkutan kita sebagai nasabah pihak yang diuntungkan tetapi pasti ada keuntungan tersendiri dibalik itu</t>
+  </si>
+  <si>
+    <t>Tolong aplikator, driver pemalas tolong ditindaklanjuti
+Pesen go-mart dari satu jam lalu di-cancel. mending lansung di-cancel, ini sampe menunggu 15 menit baru di-cancel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver sudah cukup terzalimi, tarif murah tapi tetap ikhlas, melayani dengan sepenuh hati, masih juga kami difitnah hoax tentang pesanan go-food beracun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang bicara menyebar berita hoax soal go-food moga saja mulutnya kena azab. Saya pelangggan go-food sudah lama baik-baik saja... </t>
+  </si>
+  <si>
+    <t>Maaf, saya pengguna aktif ojek online. Tiap hari pulang pergi kantor. Pengalaman saya sebagai customer, HANYA GOJEK yang pelayanannya bagus. Cuma kenapa saya tidak pernah dapat voucher promo ya?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadang kasihan Sama driver ojek online, tarif sudah murah, banyak promo, potongan besar, terus mereka pulang kerumah bawa apa?,  bantulah dengan tarif yang wajar, stop memanjakan customer, dan batasi jumlah driver. </t>
+  </si>
+  <si>
+    <t>Tolong diperbaiki untuk harga go-food selalu tidak sesuai dengan aplikasi , karena ada ppn dan di aplikasi tidak dicantumkan jadi saat datang harganya selalu lebih, dan kadang pesanan tidak sesuai dengan apa yang dipesan , mohon dicantumkan harga yang benar..</t>
+  </si>
+  <si>
+    <t>Tolong  IT gojek yang paling hebat. Tolong diberantas tuyul di aplikasi gojek. Saya mohon, miris melihat aplikasi penumpang. Apa tidak malu ya? Masa ada motor gojek masuk ke dalem mall?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saya Hanya saran untuk Gojek. Alangkah baiknya dibuat satu kategori sistem lagi yang memudahkan owner perusahaan Di Indonesia memakai jasa transportasi GOJEK untuk keperluan bisnis. Jasa antar karyawan perusahaan yang sebelumnya harus ada kerjasama antara perusahaan dengan gojek Guna untuk Mendapatkan pelanggan tetap dan keutungan perusahaan mendapatkan promo khusus dengan adanya kerjasama tersebut, Tanpa merugikan kedua belah pihak. Antara gojek tentunya yaitu driver pribadi dan Owner Perusahaan. . Seperti halnya sistem Go-Food yang saat ini sudah dijalankan sistemnya Hanya  untuk keperluan owner wirausaha Makanan..
+ </t>
+  </si>
+  <si>
+    <t>Ini bagaimana gojek, saya sudah isi top-up go-pay sebesar 180.000 pada hari minggu tanggal 10 jam 8.30 sampai dengan sekarang go-pay saya tidak bertambah, saya telepon ke cs-nya disuruh email buktinya sudah saya email disuruh tunggu 2 x 24, padahal mau dipakai itu go-pay, customer disuruh isi gopay giliran diisi akhirnya menyusahkan</t>
+  </si>
+  <si>
+    <t>Kenapa gojek suka error.
+Cobalah diperiksa dan audit tim It nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saya isi go-pay 350rb melalui bca m-banking tapi masih belum masuk ke saldo di aplikasi saya? saya sudah coba email dan telepon customer service tapi belum dijawab. </t>
+  </si>
+  <si>
+    <t>GOJEk selalu ada di saat aku membutuhkan .
+Waktu itu aku pesen gojek buat beli makanan karena lapar tengah malam .
+Waktu itu gerimis dan pak gojek-nya sudah tua tidak tega rasanya. saya suruh masuk buat mengopi sambil mengemil katanya tidak usah mas makasih masih harus kejar setoran .rasanya gak tega. saya kasih lebih banyak biar cepat pulang dan bisa berkumpul sama keluarganya ..
+Kalian para ojek online memang luar biasa</t>
+  </si>
+  <si>
+    <t>GO-JEK sangat membantu sebenarnya buat saya..  kadang saya dapet driver-nya yang judes..  dikasih tahu jalan yang saya tahu dia malah lebih memilih peta .. kadang dapat driver yang jauh lebih baiknya sabar bawa motornya pelan tetap saja saya tidak pernah tega memberi rating bintang 1.  kasihan kalau dikasih rating 1 dengan komentar tidak enak dengan uneg-uneg saya berpikir driver juga manusia kerja di jalan panas hujan tapi saya kadang kesal juga dapet driver yang tidak ramah..  semoga GOJEK selalu memberikan yang terbaik untuk semua customer-nya.</t>
+  </si>
+  <si>
+    <t>Gojek dan yang lainnya sangat membantu dalam perkembangan dan kemajuan transportasi modern... Cuman saya mau berpesan selalu hati-hati di jalan dan jika sekiranya menjalankan kendaraan dengan pelan harap jangan di tengah kasihan pengendara yang lain... Harap pengertiannya dan terima kasih...</t>
+  </si>
+  <si>
+    <t>Terimakasi pengemudi angkutan online.. Selama ini saya banyak terbantu</t>
+  </si>
+  <si>
+    <t>Saya suka miris sama Abang Gojek yang mengantar jauh-jauh tapi ongkosnya murah banget...
+Pahala itu yang membayar Allah, kalau tarif murah itu yang tanggung jawab perusahaan  gojek. Jangan mengatasnamakan pahala untuk tarif murah gojek. Ini murni pengalihan isu driver gojek yang minta ongkos naik.</t>
+  </si>
+  <si>
+    <t>untuk kedepannya untuk go-send dan food bisa diantar via mobil kasihan juga driver bawa-bawa barang seperti kipas angin atau bawa kue yang banyak kalau jatuh driver yang disalahkan</t>
+  </si>
+  <si>
+    <t>Kadang-kadang kasihan juga mendengar keluhan driver karna insentif  yang dikasih grab car saat ini terlalu rendah. mohon dipertimbangkan</t>
+  </si>
+  <si>
+    <t>Grab sangat membantu apalagi kami yang berekonomi lemah saya sangat suka dengan pelayanannya terima kasih grab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhamdulillah dengan adanya ojek online siap sedia selalu saat saya butuh saat ada acara di masjid dengan ayah saya. </t>
+  </si>
+  <si>
+    <t>Grab kasihan dengan driver yang lain selalu mengeluh tidak bonus sama saja kayak gocar jadi driver semangat menarik penumpang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang naik grab. Murah dan cepat.. Mana ada promo. membantu sekali. </t>
   </si>
 </sst>
 </file>
@@ -3131,8 +3089,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F1012" totalsRowShown="0">
-  <autoFilter ref="A1:F1012" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F992" totalsRowShown="0">
+  <autoFilter ref="A1:F992" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start time" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Completion time" dataDxfId="4"/>
@@ -3442,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1012"/>
+  <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="E498" sqref="E498"/>
+    <sheetView tabSelected="1" topLeftCell="B798" workbookViewId="0">
+      <selection activeCell="E800" sqref="E800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>844</v>
+        <v>712</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>845</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3505,7 +3463,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>846</v>
+        <v>714</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -3523,7 +3481,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>847</v>
+        <v>715</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3541,7 +3499,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>848</v>
+        <v>716</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3559,7 +3517,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>849</v>
+        <v>717</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -3577,7 +3535,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>850</v>
+        <v>718</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3595,7 +3553,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>851</v>
+        <v>719</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3613,7 +3571,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>852</v>
+        <v>720</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -3631,7 +3589,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>853</v>
+        <v>721</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3649,7 +3607,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>854</v>
+        <v>722</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3667,7 +3625,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>855</v>
+        <v>723</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -3703,7 +3661,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>856</v>
+        <v>724</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -3721,7 +3679,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>857</v>
+        <v>725</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -3757,7 +3715,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>858</v>
+        <v>726</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -3775,7 +3733,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>859</v>
+        <v>727</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3793,7 +3751,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>860</v>
+        <v>728</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3811,7 +3769,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>861</v>
+        <v>729</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3847,7 +3805,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>862</v>
+        <v>730</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3883,7 +3841,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>863</v>
+        <v>731</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -3901,7 +3859,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>864</v>
+        <v>732</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -3919,7 +3877,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>865</v>
+        <v>733</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
@@ -3937,7 +3895,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>866</v>
+        <v>734</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
@@ -3955,7 +3913,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>867</v>
+        <v>735</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -3973,7 +3931,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>868</v>
+        <v>736</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
@@ -4009,7 +3967,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>869</v>
+        <v>737</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4027,7 +3985,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>870</v>
+        <v>738</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4045,7 +4003,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>871</v>
+        <v>739</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4063,7 +4021,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>872</v>
+        <v>740</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4081,7 +4039,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>873</v>
+        <v>741</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4117,7 +4075,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>874</v>
+        <v>742</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
@@ -4135,7 +4093,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>875</v>
+        <v>743</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>7</v>
@@ -4153,7 +4111,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>876</v>
+        <v>744</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>7</v>
@@ -4171,7 +4129,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>877</v>
+        <v>745</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4189,7 +4147,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
-        <v>878</v>
+        <v>746</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>7</v>
@@ -17851,7 +17809,7 @@
       </c>
       <c r="D800" s="2"/>
       <c r="E800" s="3" t="s">
-        <v>698</v>
+        <v>918</v>
       </c>
       <c r="F800" s="2" t="s">
         <v>6</v>
@@ -17869,7 +17827,7 @@
       </c>
       <c r="D801" s="2"/>
       <c r="E801" s="3" t="s">
-        <v>699</v>
+        <v>917</v>
       </c>
       <c r="F801" s="2" t="s">
         <v>7</v>
@@ -17887,7 +17845,7 @@
       </c>
       <c r="D802" s="2"/>
       <c r="E802" s="3" t="s">
-        <v>700</v>
+        <v>916</v>
       </c>
       <c r="F802" s="2" t="s">
         <v>6</v>
@@ -17905,7 +17863,7 @@
       </c>
       <c r="D803" s="2"/>
       <c r="E803" s="3" t="s">
-        <v>597</v>
+        <v>915</v>
       </c>
       <c r="F803" s="2" t="s">
         <v>6</v>
@@ -17923,403 +17881,403 @@
       </c>
       <c r="D804" s="2"/>
       <c r="E804" s="3" t="s">
-        <v>598</v>
+        <v>914</v>
       </c>
       <c r="F804" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>43234.8019907407</v>
+        <v>43234.845763888901</v>
       </c>
       <c r="B805" s="1">
-        <v>43234.802164351902</v>
+        <v>43234.845902777801</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D805" s="2"/>
       <c r="E805" s="3" t="s">
-        <v>701</v>
+        <v>913</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="806" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>43234.8022106481</v>
+        <v>43234.845937500002</v>
       </c>
       <c r="B806" s="1">
-        <v>43234.803194444401</v>
+        <v>43234.846296296302</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D806" s="2"/>
       <c r="E806" s="3" t="s">
-        <v>702</v>
+        <v>912</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="807" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>43234.845763888901</v>
+        <v>43234.846539351798</v>
       </c>
       <c r="B807" s="1">
-        <v>43234.845902777801</v>
+        <v>43234.846793981502</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D807" s="2"/>
       <c r="E807" s="3" t="s">
-        <v>703</v>
+        <v>911</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>43234.845937500002</v>
+        <v>43234.846840277802</v>
       </c>
       <c r="B808" s="1">
-        <v>43234.846296296302</v>
+        <v>43234.847256944398</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D808" s="2"/>
       <c r="E808" s="3" t="s">
-        <v>704</v>
+        <v>910</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>43234.846539351798</v>
+        <v>43234.847337963001</v>
       </c>
       <c r="B809" s="1">
-        <v>43234.846793981502</v>
+        <v>43234.847939814797</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D809" s="2"/>
       <c r="E809" s="3" t="s">
-        <v>705</v>
+        <v>909</v>
       </c>
       <c r="F809" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>43234.846840277802</v>
+        <v>43234.847974536999</v>
       </c>
       <c r="B810" s="1">
-        <v>43234.847256944398</v>
+        <v>43234.849039351902</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D810" s="2"/>
       <c r="E810" s="3" t="s">
-        <v>706</v>
+        <v>908</v>
       </c>
       <c r="F810" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>43234.847337963001</v>
+        <v>43234.8523726852</v>
       </c>
       <c r="B811" s="1">
-        <v>43234.847939814797</v>
+        <v>43234.8532291667</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D811" s="2"/>
       <c r="E811" s="3" t="s">
-        <v>707</v>
+        <v>907</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="812" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>43234.847974536999</v>
+        <v>43234.853310185201</v>
       </c>
       <c r="B812" s="1">
-        <v>43234.849039351902</v>
+        <v>43234.854710648098</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D812" s="2"/>
       <c r="E812" s="3" t="s">
-        <v>708</v>
+        <v>906</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>43234.8490856481</v>
+        <v>43234.858356481498</v>
       </c>
       <c r="B813" s="1">
-        <v>43234.851226851897</v>
+        <v>43234.858495370398</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D813" s="2"/>
       <c r="E813" s="3" t="s">
-        <v>709</v>
+        <v>905</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>43234.851261574098</v>
+        <v>43234.858530092599</v>
       </c>
       <c r="B814" s="1">
-        <v>43234.8523263889</v>
+        <v>43234.860520833303</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D814" s="2"/>
       <c r="E814" s="3" t="s">
-        <v>710</v>
+        <v>904</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>43234.8523726852</v>
+        <v>43234.860567129603</v>
       </c>
       <c r="B815" s="1">
-        <v>43234.8532291667</v>
+        <v>43234.861030092601</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D815" s="2"/>
       <c r="E815" s="3" t="s">
-        <v>711</v>
+        <v>903</v>
       </c>
       <c r="F815" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>43234.853310185201</v>
+        <v>43234.864479166703</v>
       </c>
       <c r="B816" s="1">
-        <v>43234.854710648098</v>
+        <v>43234.864571759303</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" s="3" t="s">
-        <v>712</v>
+        <v>902</v>
       </c>
       <c r="F816" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>43234.858356481498</v>
+        <v>43239.582743055602</v>
       </c>
       <c r="B817" s="1">
-        <v>43234.858495370398</v>
+        <v>43239.584687499999</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D817" s="2"/>
       <c r="E817" s="3" t="s">
-        <v>713</v>
+        <v>901</v>
       </c>
       <c r="F817" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>43234.858530092599</v>
+        <v>43239.584791666697</v>
       </c>
       <c r="B818" s="1">
-        <v>43234.860520833303</v>
+        <v>43239.585150462997</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D818" s="2"/>
       <c r="E818" s="3" t="s">
-        <v>714</v>
+        <v>895</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>43234.860567129603</v>
+        <v>43239.588854166701</v>
       </c>
       <c r="B819" s="1">
-        <v>43234.861030092601</v>
+        <v>43239.591226851902</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" s="3" t="s">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>43234.864479166703</v>
+        <v>43239.5912731481</v>
       </c>
       <c r="B820" s="1">
-        <v>43234.864571759303</v>
+        <v>43239.5926736111</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" s="3" t="s">
-        <v>716</v>
+        <v>899</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>43239.582743055602</v>
+        <v>43239.592731481498</v>
       </c>
       <c r="B821" s="1">
-        <v>43239.584687499999</v>
+        <v>43239.5941087963</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" s="3" t="s">
-        <v>717</v>
+        <v>898</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>43239.584791666697</v>
+        <v>43239.594143518501</v>
       </c>
       <c r="B822" s="1">
-        <v>43239.585150462997</v>
+        <v>43239.595648148097</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" s="3" t="s">
-        <v>718</v>
+        <v>897</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>43239.585208333301</v>
+        <v>43239.595694444397</v>
       </c>
       <c r="B823" s="1">
-        <v>43239.588819444398</v>
+        <v>43239.597187500003</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D823" s="2"/>
       <c r="E823" s="3" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F823" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>43239.588854166701</v>
+        <v>43240.630081018498</v>
       </c>
       <c r="B824" s="1">
-        <v>43239.591226851902</v>
+        <v>43240.631423611099</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D824" s="2"/>
       <c r="E824" s="3" t="s">
-        <v>720</v>
+        <v>896</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="825" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>43239.5912731481</v>
+        <v>43241.723032407397</v>
       </c>
       <c r="B825" s="1">
-        <v>43239.5926736111</v>
+        <v>43241.723692129599</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" s="3" t="s">
-        <v>721</v>
+        <v>895</v>
       </c>
       <c r="F825" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>43239.592731481498</v>
+        <v>43241.727997685201</v>
       </c>
       <c r="B826" s="1">
-        <v>43239.5941087963</v>
+        <v>43241.728344907402</v>
       </c>
       <c r="C826" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D826" s="2"/>
       <c r="E826" s="3" t="s">
-        <v>722</v>
+        <v>894</v>
       </c>
       <c r="F826" s="2" t="s">
         <v>8</v>
@@ -18327,107 +18285,107 @@
     </row>
     <row r="827" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>43239.594143518501</v>
+        <v>43241.729201388902</v>
       </c>
       <c r="B827" s="1">
-        <v>43239.595648148097</v>
+        <v>43241.730069444398</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" s="3" t="s">
-        <v>723</v>
+        <v>893</v>
       </c>
       <c r="F827" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="828" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>43239.595694444397</v>
+        <v>43241.730277777802</v>
       </c>
       <c r="B828" s="1">
-        <v>43239.597187500003</v>
+        <v>43241.730833333299</v>
       </c>
       <c r="C828" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" s="3" t="s">
-        <v>724</v>
+        <v>892</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="829" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>43240.630081018498</v>
+        <v>43241.731192129599</v>
       </c>
       <c r="B829" s="1">
-        <v>43240.631423611099</v>
+        <v>43241.735879629603</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" s="3" t="s">
-        <v>725</v>
+        <v>891</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>43241.723032407397</v>
+        <v>43241.738414351901</v>
       </c>
       <c r="B830" s="1">
-        <v>43241.723692129599</v>
+        <v>43241.739224536999</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" s="3" t="s">
-        <v>718</v>
+        <v>890</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>43241.723749999997</v>
+        <v>43241.739317129599</v>
       </c>
       <c r="B831" s="1">
-        <v>43241.724976851903</v>
+        <v>43241.740509259304</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" s="3" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="F831" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>43241.727997685201</v>
+        <v>43241.740555555603</v>
       </c>
       <c r="B832" s="1">
-        <v>43241.728344907402</v>
+        <v>43241.741550925901</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" s="3" t="s">
-        <v>727</v>
+        <v>889</v>
       </c>
       <c r="F832" s="2" t="s">
         <v>8</v>
@@ -18435,143 +18393,143 @@
     </row>
     <row r="833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>43241.728472222203</v>
+        <v>43242.865694444401</v>
       </c>
       <c r="B833" s="1">
-        <v>43241.729085648098</v>
+        <v>43242.866446759297</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" s="3" t="s">
-        <v>728</v>
+        <v>888</v>
       </c>
       <c r="F833" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>43241.729201388902</v>
+        <v>43242.866493055597</v>
       </c>
       <c r="B834" s="1">
-        <v>43241.730069444398</v>
+        <v>43242.867314814801</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" s="3" t="s">
-        <v>729</v>
+        <v>887</v>
       </c>
       <c r="F834" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>43241.730277777802</v>
+        <v>43242.867395833302</v>
       </c>
       <c r="B835" s="1">
-        <v>43241.730833333299</v>
+        <v>43242.868020833303</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" s="3" t="s">
-        <v>730</v>
+        <v>886</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>43241.731192129599</v>
+        <v>43242.8688541667</v>
       </c>
       <c r="B836" s="1">
-        <v>43241.735879629603</v>
+        <v>43242.869212963</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" s="3" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="F836" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>43241.738414351901</v>
+        <v>43243.4987384259</v>
       </c>
       <c r="B837" s="1">
-        <v>43241.739224536999</v>
+        <v>43243.500034722201</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" s="3" t="s">
-        <v>732</v>
+        <v>885</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>43241.739317129599</v>
+        <v>43243.500115740702</v>
       </c>
       <c r="B838" s="1">
-        <v>43241.740509259304</v>
+        <v>43243.500659722202</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" s="3" t="s">
-        <v>733</v>
+        <v>884</v>
       </c>
       <c r="F838" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>43241.740555555603</v>
+        <v>43243.500706018502</v>
       </c>
       <c r="B839" s="1">
-        <v>43241.741550925901</v>
+        <v>43243.5012615741</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" s="3" t="s">
-        <v>734</v>
+        <v>883</v>
       </c>
       <c r="F839" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="840" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>43242.865694444401</v>
+        <v>43243.501805555599</v>
       </c>
       <c r="B840" s="1">
-        <v>43242.866446759297</v>
+        <v>43243.502789351798</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" s="3" t="s">
-        <v>735</v>
+        <v>882</v>
       </c>
       <c r="F840" s="2" t="s">
         <v>6</v>
@@ -18579,161 +18537,161 @@
     </row>
     <row r="841" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>43242.866493055597</v>
+        <v>43243.502835648098</v>
       </c>
       <c r="B841" s="1">
-        <v>43242.867314814801</v>
+        <v>43243.504097222198</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" s="3" t="s">
-        <v>736</v>
+        <v>881</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="842" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>43242.867395833302</v>
+        <v>43243.504594907397</v>
       </c>
       <c r="B842" s="1">
-        <v>43242.868020833303</v>
+        <v>43243.504999999997</v>
       </c>
       <c r="C842" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D842" s="2"/>
       <c r="E842" s="3" t="s">
-        <v>737</v>
+        <v>880</v>
       </c>
       <c r="F842" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>43242.868206018502</v>
+        <v>43243.505081018498</v>
       </c>
       <c r="B843" s="1">
-        <v>43242.8687152778</v>
+        <v>43243.5075</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" s="3" t="s">
-        <v>738</v>
+        <v>879</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>43242.8688541667</v>
+        <v>43243.507534722201</v>
       </c>
       <c r="B844" s="1">
-        <v>43242.869212963</v>
+        <v>43243.508159722202</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" s="3" t="s">
-        <v>739</v>
+        <v>878</v>
       </c>
       <c r="F844" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>43243.4987384259</v>
+        <v>43243.508206018501</v>
       </c>
       <c r="B845" s="1">
-        <v>43243.500034722201</v>
+        <v>43243.508900462999</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" s="3" t="s">
-        <v>740</v>
+        <v>877</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>43243.500115740702</v>
+        <v>43243.511585648201</v>
       </c>
       <c r="B846" s="1">
-        <v>43243.500659722202</v>
+        <v>43243.513946759304</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" s="3" t="s">
-        <v>741</v>
+        <v>876</v>
       </c>
       <c r="F846" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>43243.500706018502</v>
+        <v>43243.687349537002</v>
       </c>
       <c r="B847" s="1">
-        <v>43243.5012615741</v>
+        <v>43243.688240740703</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" s="3" t="s">
-        <v>742</v>
+        <v>875</v>
       </c>
       <c r="F847" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>43243.5013078704</v>
+        <v>43243.688275462999</v>
       </c>
       <c r="B848" s="1">
-        <v>43243.501747685201</v>
+        <v>43243.6893865741</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" s="3" t="s">
-        <v>743</v>
+        <v>874</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>43243.501805555599</v>
+        <v>43243.689444444397</v>
       </c>
       <c r="B849" s="1">
-        <v>43243.502789351798</v>
+        <v>43243.690497685202</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" s="3" t="s">
-        <v>744</v>
+        <v>873</v>
       </c>
       <c r="F849" s="2" t="s">
         <v>6</v>
@@ -18741,197 +18699,197 @@
     </row>
     <row r="850" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>43243.502835648098</v>
+        <v>43243.690787036998</v>
       </c>
       <c r="B850" s="1">
-        <v>43243.504097222198</v>
+        <v>43243.691469907397</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" s="3" t="s">
-        <v>745</v>
+        <v>872</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>43243.504594907397</v>
+        <v>43243.691539351901</v>
       </c>
       <c r="B851" s="1">
-        <v>43243.504999999997</v>
+        <v>43243.692870370403</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" s="3" t="s">
-        <v>746</v>
+        <v>871</v>
       </c>
       <c r="F851" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>43243.505081018498</v>
+        <v>43244.609652777799</v>
       </c>
       <c r="B852" s="1">
-        <v>43243.5075</v>
+        <v>43244.610104166699</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" s="3" t="s">
-        <v>747</v>
+        <v>870</v>
       </c>
       <c r="F852" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>43243.507534722201</v>
+        <v>43244.610266203701</v>
       </c>
       <c r="B853" s="1">
-        <v>43243.508159722202</v>
+        <v>43244.612523148098</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" s="3" t="s">
-        <v>748</v>
+        <v>869</v>
       </c>
       <c r="F853" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>43243.508206018501</v>
+        <v>43244.614293981504</v>
       </c>
       <c r="B854" s="1">
-        <v>43243.508900462999</v>
+        <v>43244.6153009259</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" s="3" t="s">
-        <v>749</v>
+        <v>868</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="855" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>43243.5089351852</v>
+        <v>43244.615358796298</v>
       </c>
       <c r="B855" s="1">
-        <v>43243.511516203696</v>
+        <v>43244.6163773148</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" s="3" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="F855" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>43243.511585648201</v>
+        <v>43244.6164236111</v>
       </c>
       <c r="B856" s="1">
-        <v>43243.513946759304</v>
+        <v>43244.617106481499</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" s="3" t="s">
-        <v>751</v>
+        <v>867</v>
       </c>
       <c r="F856" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>43243.687349537002</v>
+        <v>43244.617152777799</v>
       </c>
       <c r="B857" s="1">
-        <v>43243.688240740703</v>
+        <v>43244.618217592601</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="3" t="s">
-        <v>752</v>
+        <v>866</v>
       </c>
       <c r="F857" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>43243.688275462999</v>
+        <v>43244.618275462999</v>
       </c>
       <c r="B858" s="1">
-        <v>43243.6893865741</v>
+        <v>43244.619409722203</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" s="3" t="s">
-        <v>753</v>
+        <v>865</v>
       </c>
       <c r="F858" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="859" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>43243.689444444397</v>
+        <v>43244.624317129601</v>
       </c>
       <c r="B859" s="1">
-        <v>43243.690497685202</v>
+        <v>43244.625520833302</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" s="3" t="s">
-        <v>754</v>
+        <v>864</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>43243.690787036998</v>
+        <v>43244.625625000001</v>
       </c>
       <c r="B860" s="1">
-        <v>43243.691469907397</v>
+        <v>43244.626342592601</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" s="3" t="s">
-        <v>755</v>
+        <v>702</v>
       </c>
       <c r="F860" s="2" t="s">
         <v>6</v>
@@ -18939,647 +18897,647 @@
     </row>
     <row r="861" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>43243.691539351901</v>
+        <v>43246.418425925898</v>
       </c>
       <c r="B861" s="1">
-        <v>43243.692870370403</v>
+        <v>43246.419699074097</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D861" s="2"/>
       <c r="E861" s="3" t="s">
-        <v>756</v>
+        <v>863</v>
       </c>
       <c r="F861" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>43244.609652777799</v>
+        <v>43246.419733796298</v>
       </c>
       <c r="B862" s="1">
-        <v>43244.610104166699</v>
+        <v>43246.420856481498</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D862" s="2"/>
       <c r="E862" s="3" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="F862" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>43244.610266203701</v>
+        <v>43246.416296296302</v>
       </c>
       <c r="B863" s="1">
-        <v>43244.612523148098</v>
+        <v>43246.417847222197</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" s="3" t="s">
-        <v>758</v>
+        <v>861</v>
       </c>
       <c r="F863" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>43244.614293981504</v>
+        <v>43246.4227314815</v>
       </c>
       <c r="B864" s="1">
-        <v>43244.6153009259</v>
+        <v>43246.424155092602</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" s="3" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>43244.615358796298</v>
+        <v>43246.424201388902</v>
       </c>
       <c r="B865" s="1">
-        <v>43244.6163773148</v>
+        <v>43246.426168981503</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" s="3" t="s">
-        <v>726</v>
+        <v>859</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>43244.6164236111</v>
+        <v>43246.429293981499</v>
       </c>
       <c r="B866" s="1">
-        <v>43244.617106481499</v>
+        <v>43246.429814814801</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="3" t="s">
-        <v>760</v>
+        <v>858</v>
       </c>
       <c r="F866" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>43244.617152777799</v>
+        <v>43246.429918981499</v>
       </c>
       <c r="B867" s="1">
-        <v>43244.618217592601</v>
+        <v>43246.431284722203</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" s="3" t="s">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>43244.618275462999</v>
+        <v>43246.431365740696</v>
       </c>
       <c r="B868" s="1">
-        <v>43244.619409722203</v>
+        <v>43246.432708333297</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="3" t="s">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="F868" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>43244.624317129601</v>
+        <v>43247.563888888901</v>
       </c>
       <c r="B869" s="1">
-        <v>43244.625520833302</v>
+        <v>43247.565405092602</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="3" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>43244.625625000001</v>
+        <v>43247.565462963001</v>
       </c>
       <c r="B870" s="1">
-        <v>43244.626342592601</v>
+        <v>43247.566932870403</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D870" s="2"/>
       <c r="E870" s="3" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="F870" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>43246.418425925898</v>
+        <v>43247.567002314798</v>
       </c>
       <c r="B871" s="1">
-        <v>43246.419699074097</v>
+        <v>43247.567685185197</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D871" s="2"/>
       <c r="E871" s="3" t="s">
-        <v>764</v>
+        <v>704</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>43246.419733796298</v>
+        <v>43247.567719907398</v>
       </c>
       <c r="B872" s="1">
-        <v>43246.420856481498</v>
+        <v>43247.568680555603</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D872" s="2"/>
       <c r="E872" s="3" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
       <c r="F872" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>43246.416296296302</v>
+        <v>43247.5687384259</v>
       </c>
       <c r="B873" s="1">
-        <v>43246.417847222197</v>
+        <v>43247.569733796299</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" s="3" t="s">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="F873" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>43246.4227314815</v>
+        <v>43247.5697685185</v>
       </c>
       <c r="B874" s="1">
-        <v>43246.424155092602</v>
+        <v>43247.570370370398</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="3" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>43246.424201388902</v>
+        <v>43247.570393518501</v>
       </c>
       <c r="B875" s="1">
-        <v>43246.426168981503</v>
+        <v>43247.571273148104</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D875" s="2"/>
       <c r="E875" s="3" t="s">
-        <v>768</v>
+        <v>852</v>
       </c>
       <c r="F875" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>43246.426296296297</v>
+        <v>43247.571354166699</v>
       </c>
       <c r="B876" s="1">
-        <v>43246.427673611099</v>
+        <v>43247.572141203702</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="3" t="s">
-        <v>769</v>
+        <v>851</v>
       </c>
       <c r="F876" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>43246.4277083333</v>
+        <v>43247.5721990741</v>
       </c>
       <c r="B877" s="1">
-        <v>43246.429201388899</v>
+        <v>43247.573125000003</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="3" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="F877" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>43246.429293981499</v>
+        <v>43247.573263888902</v>
       </c>
       <c r="B878" s="1">
-        <v>43246.429814814801</v>
+        <v>43247.573981481502</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="3" t="s">
-        <v>771</v>
+        <v>850</v>
       </c>
       <c r="F878" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>43246.429918981499</v>
+        <v>43248.441168981502</v>
       </c>
       <c r="B879" s="1">
-        <v>43246.431284722203</v>
+        <v>43248.441851851901</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="3" t="s">
-        <v>772</v>
+        <v>849</v>
       </c>
       <c r="F879" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>43246.431365740696</v>
+        <v>43248.441898148099</v>
       </c>
       <c r="B880" s="1">
-        <v>43246.432708333297</v>
+        <v>43248.4431944444</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="3" t="s">
-        <v>773</v>
+        <v>848</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>43246.432847222197</v>
+        <v>43248.443287037</v>
       </c>
       <c r="B881" s="1">
-        <v>43246.433576388903</v>
+        <v>43248.444178240701</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="3" t="s">
-        <v>774</v>
+        <v>847</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>43246.9113657407</v>
+        <v>43248.444224537001</v>
       </c>
       <c r="B882" s="1">
-        <v>43246.912187499998</v>
+        <v>43248.4448611111</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="3" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="883" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>43247.562870370399</v>
+        <v>43248.444930555597</v>
       </c>
       <c r="B883" s="1">
-        <v>43247.563831018502</v>
+        <v>43248.446296296301</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="3" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
       <c r="F883" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>43247.563888888901</v>
+        <v>43248.446423611102</v>
       </c>
       <c r="B884" s="1">
-        <v>43247.565405092602</v>
+        <v>43248.4469791667</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="3" t="s">
-        <v>777</v>
+        <v>844</v>
       </c>
       <c r="F884" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>43247.565462963001</v>
+        <v>43248.447060185201</v>
       </c>
       <c r="B885" s="1">
-        <v>43247.566932870403</v>
+        <v>43248.4473842593</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="3" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="886" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>43247.567002314798</v>
+        <v>43248.447418981501</v>
       </c>
       <c r="B886" s="1">
-        <v>43247.567685185197</v>
+        <v>43248.448125000003</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="3" t="s">
-        <v>779</v>
+        <v>842</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="887" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>43247.567719907398</v>
+        <v>43248.448217592602</v>
       </c>
       <c r="B887" s="1">
-        <v>43247.568680555603</v>
+        <v>43248.449189814797</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="3" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="888" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>43247.5687384259</v>
+        <v>43248.449340277803</v>
       </c>
       <c r="B888" s="1">
-        <v>43247.569733796299</v>
+        <v>43248.449791666702</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D888" s="2"/>
       <c r="E888" s="3" t="s">
-        <v>781</v>
+        <v>707</v>
       </c>
       <c r="F888" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>43247.5697685185</v>
+        <v>43248.573032407403</v>
       </c>
       <c r="B889" s="1">
-        <v>43247.570370370398</v>
+        <v>43248.574386574102</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="3" t="s">
-        <v>782</v>
+        <v>840</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="890" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>43247.570393518501</v>
+        <v>43248.574479166702</v>
       </c>
       <c r="B890" s="1">
-        <v>43247.571273148104</v>
+        <v>43248.585833333302</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="3" t="s">
-        <v>783</v>
+        <v>839</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>43247.571354166699</v>
+        <v>43248.586736111101</v>
       </c>
       <c r="B891" s="1">
-        <v>43247.572141203702</v>
+        <v>43248.588425925896</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="3" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="892" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>43247.5721990741</v>
+        <v>43248.588460648098</v>
       </c>
       <c r="B892" s="1">
-        <v>43247.573125000003</v>
+        <v>43248.588842592602</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="3" t="s">
-        <v>785</v>
+        <v>837</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>43247.573263888902</v>
+        <v>43248.588888888902</v>
       </c>
       <c r="B893" s="1">
-        <v>43247.573981481502</v>
+        <v>43248.589861111097</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="3" t="s">
-        <v>786</v>
+        <v>836</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="894" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>43248.441168981502</v>
+        <v>43248.590856481504</v>
       </c>
       <c r="B894" s="1">
-        <v>43248.441851851901</v>
+        <v>43248.591412037</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="3" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="F894" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>43248.441898148099</v>
+        <v>43248.591446759303</v>
       </c>
       <c r="B895" s="1">
-        <v>43248.4431944444</v>
+        <v>43248.591793981497</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="3" t="s">
-        <v>788</v>
+        <v>834</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>43248.443287037</v>
+        <v>43250.710405092599</v>
       </c>
       <c r="B896" s="1">
-        <v>43248.444178240701</v>
+        <v>43250.711319444403</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="3" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="F896" s="2" t="s">
         <v>7</v>
@@ -19587,53 +19545,53 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>43248.444224537001</v>
+        <v>43250.7113888889</v>
       </c>
       <c r="B897" s="1">
-        <v>43248.4448611111</v>
+        <v>43250.711921296301</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="3" t="s">
-        <v>790</v>
+        <v>708</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="898" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>43248.444930555597</v>
+        <v>43250.711979166699</v>
       </c>
       <c r="B898" s="1">
-        <v>43248.446296296301</v>
+        <v>43250.712881944397</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="3" t="s">
-        <v>791</v>
+        <v>832</v>
       </c>
       <c r="F898" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>43248.446423611102</v>
+        <v>43250.712951388901</v>
       </c>
       <c r="B899" s="1">
-        <v>43248.4469791667</v>
+        <v>43250.713831018496</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="3" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="F899" s="2" t="s">
         <v>8</v>
@@ -19641,35 +19599,35 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>43248.447060185201</v>
+        <v>43250.713958333297</v>
       </c>
       <c r="B900" s="1">
-        <v>43248.4473842593</v>
+        <v>43250.714317129597</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="3" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="F900" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>43248.447418981501</v>
+        <v>43250.714409722197</v>
       </c>
       <c r="B901" s="1">
-        <v>43248.448125000003</v>
+        <v>43250.715069444399</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="3" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="F901" s="2" t="s">
         <v>6</v>
@@ -19677,71 +19635,71 @@
     </row>
     <row r="902" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>43248.448217592602</v>
+        <v>43250.715254629598</v>
       </c>
       <c r="B902" s="1">
-        <v>43248.449189814797</v>
+        <v>43250.716041666703</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="3" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>43248.449340277803</v>
+        <v>43250.716238425899</v>
       </c>
       <c r="B903" s="1">
-        <v>43248.449791666702</v>
+        <v>43250.716793981497</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D903" s="2"/>
       <c r="E903" s="3" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="904" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>43248.573032407403</v>
+        <v>43250.7168634259</v>
       </c>
       <c r="B904" s="1">
-        <v>43248.574386574102</v>
+        <v>43250.717164351903</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="3" t="s">
-        <v>797</v>
+        <v>709</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>43248.574479166702</v>
+        <v>43250.717210648101</v>
       </c>
       <c r="B905" s="1">
-        <v>43248.585833333302</v>
+        <v>43250.717812499999</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="3" t="s">
-        <v>798</v>
+        <v>710</v>
       </c>
       <c r="F905" s="2" t="s">
         <v>6</v>
@@ -19749,35 +19707,35 @@
     </row>
     <row r="906" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>43248.585879629602</v>
+        <v>43250.717997685198</v>
       </c>
       <c r="B906" s="1">
-        <v>43248.586666666699</v>
+        <v>43250.7192013889</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="3" t="s">
-        <v>117</v>
+        <v>826</v>
       </c>
       <c r="F906" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>43248.586736111101</v>
+        <v>43253.8147916667</v>
       </c>
       <c r="B907" s="1">
-        <v>43248.588425925896</v>
+        <v>43253.843020833301</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D907" s="2"/>
       <c r="E907" s="3" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="F907" s="2" t="s">
         <v>6</v>
@@ -19785,17 +19743,17 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>43248.588460648098</v>
+        <v>43254.888263888897</v>
       </c>
       <c r="B908" s="1">
-        <v>43248.588842592602</v>
+        <v>43254.889039351903</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D908" s="2"/>
       <c r="E908" s="3" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="F908" s="2" t="s">
         <v>6</v>
@@ -19803,215 +19761,215 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>43248.588888888902</v>
+        <v>43254.8890972222</v>
       </c>
       <c r="B909" s="1">
-        <v>43248.589861111097</v>
+        <v>43254.889791666697</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D909" s="2"/>
       <c r="E909" s="3" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="910" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>43248.590856481504</v>
+        <v>43254.907766203702</v>
       </c>
       <c r="B910" s="1">
-        <v>43248.591412037</v>
+        <v>43254.910879629599</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D910" s="2"/>
       <c r="E910" s="3" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="F910" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>43248.591446759303</v>
+        <v>43254.910937499997</v>
       </c>
       <c r="B911" s="1">
-        <v>43248.591793981497</v>
+        <v>43254.9129861111</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D911" s="2"/>
       <c r="E911" s="3" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="912" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>43250.710405092599</v>
+        <v>43254.913032407399</v>
       </c>
       <c r="B912" s="1">
-        <v>43250.711319444403</v>
+        <v>43254.9135185185</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D912" s="2"/>
       <c r="E912" s="3" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>43250.7113888889</v>
+        <v>43254.913553240702</v>
       </c>
       <c r="B913" s="1">
-        <v>43250.711921296301</v>
+        <v>43254.914166666698</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="3" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>43250.711979166699</v>
+        <v>43254.914212962998</v>
       </c>
       <c r="B914" s="1">
-        <v>43250.712881944397</v>
+        <v>43254.915451388901</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D914" s="2"/>
       <c r="E914" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="F914" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>43250.712951388901</v>
+        <v>43254.915497685201</v>
       </c>
       <c r="B915" s="1">
-        <v>43250.713831018496</v>
+        <v>43254.916504629597</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D915" s="2"/>
       <c r="E915" s="3" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="F915" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>43250.713958333297</v>
+        <v>43254.917013888902</v>
       </c>
       <c r="B916" s="1">
-        <v>43250.714317129597</v>
+        <v>43254.917916666702</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D916" s="2"/>
       <c r="E916" s="3" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>43250.714409722197</v>
+        <v>43254.917986111097</v>
       </c>
       <c r="B917" s="1">
-        <v>43250.715069444399</v>
+        <v>43254.919097222199</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D917" s="2"/>
       <c r="E917" s="3" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="F917" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="918" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>43250.715254629598</v>
+        <v>43255.241840277798</v>
       </c>
       <c r="B918" s="1">
-        <v>43250.716041666703</v>
+        <v>43255.2422337963</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D918" s="2"/>
       <c r="E918" s="3" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="F918" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>43250.716238425899</v>
+        <v>43255.421238425901</v>
       </c>
       <c r="B919" s="1">
-        <v>43250.716793981497</v>
+        <v>43255.421388888899</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D919" s="2"/>
       <c r="E919" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F919" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>43250.7168634259</v>
+        <v>43255.425520833298</v>
       </c>
       <c r="B920" s="1">
-        <v>43250.717164351903</v>
+        <v>43255.426226851901</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D920" s="2"/>
       <c r="E920" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F920" s="2" t="s">
         <v>6</v>
@@ -20019,89 +19977,89 @@
     </row>
     <row r="921" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>43250.717210648101</v>
+        <v>43255.426273148099</v>
       </c>
       <c r="B921" s="1">
-        <v>43250.717812499999</v>
+        <v>43255.427037037</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D921" s="2"/>
       <c r="E921" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>43250.717997685198</v>
+        <v>43255.427083333299</v>
       </c>
       <c r="B922" s="1">
-        <v>43250.7192013889</v>
+        <v>43255.427476851903</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D922" s="2"/>
       <c r="E922" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F922" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>43253.8147916667</v>
+        <v>43255.427523148101</v>
       </c>
       <c r="B923" s="1">
-        <v>43253.843020833301</v>
+        <v>43255.428460648101</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D923" s="2"/>
       <c r="E923" s="3" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>43254.888263888897</v>
+        <v>43255.428530092599</v>
       </c>
       <c r="B924" s="1">
-        <v>43254.889039351903</v>
+        <v>43255.429097222201</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D924" s="2"/>
       <c r="E924" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>43254.8890972222</v>
+        <v>43255.896087963003</v>
       </c>
       <c r="B925" s="1">
-        <v>43254.889791666697</v>
+        <v>43255.897662037001</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D925" s="2"/>
       <c r="E925" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F925" s="2" t="s">
         <v>6</v>
@@ -20109,593 +20067,593 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
-        <v>43254.907766203702</v>
+        <v>43255.897928240702</v>
       </c>
       <c r="B926" s="1">
-        <v>43254.910879629599</v>
+        <v>43255.8991087963</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D926" s="2"/>
       <c r="E926" s="3" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="F926" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>43254.910937499997</v>
+        <v>43255.9058912037</v>
       </c>
       <c r="B927" s="1">
-        <v>43254.9129861111</v>
+        <v>43255.907395833303</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D927" s="2"/>
       <c r="E927" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F927" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="928" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>43254.913032407399</v>
+        <v>43255.908344907402</v>
       </c>
       <c r="B928" s="1">
-        <v>43254.9135185185</v>
+        <v>43255.908530092602</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D928" s="2"/>
       <c r="E928" s="3" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="F928" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>43254.913553240702</v>
+        <v>43255.908576388902</v>
       </c>
       <c r="B929" s="1">
-        <v>43254.914166666698</v>
+        <v>43255.909120370401</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D929" s="2"/>
       <c r="E929" s="3" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="F929" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>43254.914212962998</v>
+        <v>43256.839849536998</v>
       </c>
       <c r="B930" s="1">
-        <v>43254.915451388901</v>
+        <v>43256.840972222199</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D930" s="2"/>
       <c r="E930" s="3" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="F930" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>43254.915497685201</v>
+        <v>43256.841041666703</v>
       </c>
       <c r="B931" s="1">
-        <v>43254.916504629597</v>
+        <v>43256.8428935185</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D931" s="2"/>
       <c r="E931" s="3" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="F931" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="932" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>43254.916550925896</v>
+        <v>43256.845185185201</v>
       </c>
       <c r="B932" s="1">
-        <v>43254.916944444398</v>
+        <v>43256.846250000002</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D932" s="2"/>
       <c r="E932" s="3" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="F932" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>43254.917013888902</v>
+        <v>43256.846423611103</v>
       </c>
       <c r="B933" s="1">
-        <v>43254.917916666702</v>
+        <v>43256.847442129598</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D933" s="2"/>
       <c r="E933" s="3" t="s">
-        <v>825</v>
+        <v>711</v>
       </c>
       <c r="F933" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A934" s="1">
-        <v>43254.917986111097</v>
-      </c>
-      <c r="B934" s="1">
-        <v>43254.919097222199</v>
-      </c>
-      <c r="C934" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D934" s="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A934" s="5">
+        <v>43308.841516203698</v>
+      </c>
+      <c r="B934" s="5">
+        <v>43308.882037037001</v>
+      </c>
+      <c r="C934" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D934" s="6"/>
       <c r="E934" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="F934" s="2" t="s">
-        <v>7</v>
+        <v>800</v>
+      </c>
+      <c r="F934" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A935" s="1">
-        <v>43255.241840277798</v>
-      </c>
-      <c r="B935" s="1">
-        <v>43255.2422337963</v>
-      </c>
-      <c r="C935" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D935" s="2"/>
+      <c r="A935" s="5">
+        <v>43308.882083333301</v>
+      </c>
+      <c r="B935" s="5">
+        <v>43308.882534722201</v>
+      </c>
+      <c r="C935" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D935" s="6"/>
       <c r="E935" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="F935" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F935" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="936" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A936" s="1">
-        <v>43255.421238425901</v>
-      </c>
-      <c r="B936" s="1">
-        <v>43255.421388888899</v>
-      </c>
-      <c r="C936" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D936" s="2"/>
+      <c r="A936" s="5">
+        <v>43308.882581018501</v>
+      </c>
+      <c r="B936" s="5">
+        <v>43308.8835300926</v>
+      </c>
+      <c r="C936" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D936" s="6"/>
       <c r="E936" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F936" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A937" s="1">
-        <v>43255.421446759297</v>
-      </c>
-      <c r="B937" s="1">
-        <v>43255.423692129603</v>
-      </c>
-      <c r="C937" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D937" s="2"/>
+        <v>798</v>
+      </c>
+      <c r="F936" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" s="5">
+        <v>43308.883611111101</v>
+      </c>
+      <c r="B937" s="5">
+        <v>43308.884317129603</v>
+      </c>
+      <c r="C937" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D937" s="6"/>
       <c r="E937" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="F937" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A938" s="1">
-        <v>43255.424537036997</v>
-      </c>
-      <c r="B938" s="1">
-        <v>43255.425486111097</v>
-      </c>
-      <c r="C938" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D938" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="F937" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="5">
+        <v>43308.8843865741</v>
+      </c>
+      <c r="B938" s="5">
+        <v>43308.885254629597</v>
+      </c>
+      <c r="C938" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D938" s="6"/>
       <c r="E938" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F938" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="939" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A939" s="1">
-        <v>43255.425520833298</v>
-      </c>
-      <c r="B939" s="1">
-        <v>43255.426226851901</v>
-      </c>
-      <c r="C939" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D939" s="2"/>
+        <v>796</v>
+      </c>
+      <c r="F938" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" s="5">
+        <v>43308.885439814803</v>
+      </c>
+      <c r="B939" s="5">
+        <v>43308.885937500003</v>
+      </c>
+      <c r="C939" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D939" s="6"/>
       <c r="E939" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F939" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="940" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A940" s="1">
-        <v>43255.426273148099</v>
-      </c>
-      <c r="B940" s="1">
-        <v>43255.427037037</v>
-      </c>
-      <c r="C940" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D940" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="F939" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="5">
+        <v>43308.886076388902</v>
+      </c>
+      <c r="B940" s="5">
+        <v>43308.886458333298</v>
+      </c>
+      <c r="C940" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D940" s="6"/>
       <c r="E940" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F940" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F940" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="941" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A941" s="1">
-        <v>43255.427083333299</v>
-      </c>
-      <c r="B941" s="1">
-        <v>43255.427476851903</v>
-      </c>
-      <c r="C941" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D941" s="2"/>
+      <c r="A941" s="5">
+        <v>43309.391111111101</v>
+      </c>
+      <c r="B941" s="5">
+        <v>43309.392083333303</v>
+      </c>
+      <c r="C941" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D941" s="6"/>
       <c r="E941" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="F941" s="2" t="s">
-        <v>7</v>
+        <v>795</v>
+      </c>
+      <c r="F941" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A942" s="1">
-        <v>43255.427523148101</v>
-      </c>
-      <c r="B942" s="1">
-        <v>43255.428460648101</v>
-      </c>
-      <c r="C942" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D942" s="2"/>
+      <c r="A942" s="5">
+        <v>43309.392326388901</v>
+      </c>
+      <c r="B942" s="5">
+        <v>43309.401388888902</v>
+      </c>
+      <c r="C942" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D942" s="6"/>
       <c r="E942" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F942" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="943" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A943" s="1">
-        <v>43255.428530092599</v>
-      </c>
-      <c r="B943" s="1">
-        <v>43255.429097222201</v>
-      </c>
-      <c r="C943" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D943" s="2"/>
+        <v>794</v>
+      </c>
+      <c r="F942" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A943" s="5">
+        <v>43309.401539351798</v>
+      </c>
+      <c r="B943" s="5">
+        <v>43309.403043981503</v>
+      </c>
+      <c r="C943" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D943" s="6"/>
       <c r="E943" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="F943" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="944" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A944" s="1">
-        <v>43255.896087963003</v>
-      </c>
-      <c r="B944" s="1">
-        <v>43255.897662037001</v>
-      </c>
-      <c r="C944" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D944" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="F943" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="5">
+        <v>43309.403136574103</v>
+      </c>
+      <c r="B944" s="5">
+        <v>43309.403703703698</v>
+      </c>
+      <c r="C944" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D944" s="6"/>
       <c r="E944" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F944" s="2" t="s">
-        <v>6</v>
+        <v>792</v>
+      </c>
+      <c r="F944" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A945" s="1">
-        <v>43255.897928240702</v>
-      </c>
-      <c r="B945" s="1">
-        <v>43255.8991087963</v>
-      </c>
-      <c r="C945" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D945" s="2"/>
+      <c r="A945" s="5">
+        <v>43309.403784722199</v>
+      </c>
+      <c r="B945" s="5">
+        <v>43309.404224537</v>
+      </c>
+      <c r="C945" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D945" s="6"/>
       <c r="E945" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="F945" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="946" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A946" s="1">
-        <v>43255.9058912037</v>
-      </c>
-      <c r="B946" s="1">
-        <v>43255.907395833303</v>
-      </c>
-      <c r="C946" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D946" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="F945" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A946" s="5">
+        <v>43309.4043171296</v>
+      </c>
+      <c r="B946" s="5">
+        <v>43309.407025462999</v>
+      </c>
+      <c r="C946" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D946" s="6"/>
       <c r="E946" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="F946" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A947" s="1">
-        <v>43255.908344907402</v>
-      </c>
-      <c r="B947" s="1">
-        <v>43255.908530092602</v>
-      </c>
-      <c r="C947" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D947" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="F946" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" s="5">
+        <v>43309.4070601852</v>
+      </c>
+      <c r="B947" s="5">
+        <v>43309.407719907402</v>
+      </c>
+      <c r="C947" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D947" s="6"/>
       <c r="E947" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F947" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="948" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A948" s="1">
-        <v>43255.908576388902</v>
-      </c>
-      <c r="B948" s="1">
-        <v>43255.909120370401</v>
-      </c>
-      <c r="C948" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D948" s="2"/>
+        <v>789</v>
+      </c>
+      <c r="F947" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" s="5">
+        <v>43309.407789351797</v>
+      </c>
+      <c r="B948" s="5">
+        <v>43309.4083680556</v>
+      </c>
+      <c r="C948" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D948" s="6"/>
       <c r="E948" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F948" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="949" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A949" s="1">
-        <v>43255.909189814804</v>
-      </c>
-      <c r="B949" s="1">
-        <v>43255.909837963001</v>
-      </c>
-      <c r="C949" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D949" s="2"/>
+        <v>788</v>
+      </c>
+      <c r="F948" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" s="5">
+        <v>43309.408472222203</v>
+      </c>
+      <c r="B949" s="5">
+        <v>43309.4086805556</v>
+      </c>
+      <c r="C949" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D949" s="6"/>
       <c r="E949" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="F949" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F949" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A950" s="1">
-        <v>43256.839849536998</v>
-      </c>
-      <c r="B950" s="1">
-        <v>43256.840972222199</v>
-      </c>
-      <c r="C950" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D950" s="2"/>
+      <c r="A950" s="5">
+        <v>43309.408750000002</v>
+      </c>
+      <c r="B950" s="5">
+        <v>43309.409166666701</v>
+      </c>
+      <c r="C950" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D950" s="6"/>
       <c r="E950" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F950" s="2" t="s">
-        <v>6</v>
+        <v>787</v>
+      </c>
+      <c r="F950" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A951" s="1">
-        <v>43256.841041666703</v>
-      </c>
-      <c r="B951" s="1">
-        <v>43256.8428935185</v>
-      </c>
-      <c r="C951" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D951" s="2"/>
+      <c r="A951" s="5">
+        <v>43309.409224536997</v>
+      </c>
+      <c r="B951" s="5">
+        <v>43309.410312499997</v>
+      </c>
+      <c r="C951" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D951" s="6"/>
       <c r="E951" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F951" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="952" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A952" s="1">
-        <v>43256.845185185201</v>
-      </c>
-      <c r="B952" s="1">
-        <v>43256.846250000002</v>
-      </c>
-      <c r="C952" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D952" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="F951" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A952" s="5">
+        <v>43309.429907407401</v>
+      </c>
+      <c r="B952" s="5">
+        <v>43309.431203703702</v>
+      </c>
+      <c r="C952" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D952" s="6"/>
       <c r="E952" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="F952" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A953" s="1">
-        <v>43256.846423611103</v>
-      </c>
-      <c r="B953" s="1">
-        <v>43256.847442129598</v>
-      </c>
-      <c r="C953" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D953" s="2"/>
+        <v>785</v>
+      </c>
+      <c r="F952" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A953" s="5">
+        <v>43309.8073842593</v>
+      </c>
+      <c r="B953" s="5">
+        <v>43309.808333333298</v>
+      </c>
+      <c r="C953" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D953" s="6"/>
       <c r="E953" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F953" s="2" t="s">
-        <v>6</v>
+        <v>784</v>
+      </c>
+      <c r="F953" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>43308.841516203698</v>
+        <v>43309.808391203696</v>
       </c>
       <c r="B954" s="5">
-        <v>43308.882037037001</v>
+        <v>43309.809675925899</v>
       </c>
       <c r="C954" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D954" s="6"/>
       <c r="E954" s="3" t="s">
-        <v>879</v>
+        <v>783</v>
       </c>
       <c r="F954" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>43308.882083333301</v>
+        <v>43309.809780092597</v>
       </c>
       <c r="B955" s="5">
-        <v>43308.882534722201</v>
+        <v>43309.810763888898</v>
       </c>
       <c r="C955" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D955" s="6"/>
       <c r="E955" s="3" t="s">
-        <v>880</v>
+        <v>782</v>
       </c>
       <c r="F955" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>43308.882581018501</v>
+        <v>43312.353738425903</v>
       </c>
       <c r="B956" s="5">
-        <v>43308.8835300926</v>
+        <v>43312.355775463002</v>
       </c>
       <c r="C956" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D956" s="6"/>
       <c r="E956" s="3" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="F956" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>43308.883611111101</v>
+        <v>43312.357534722199</v>
       </c>
       <c r="B957" s="5">
-        <v>43308.884317129603</v>
+        <v>43312.358530092599</v>
       </c>
       <c r="C957" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D957" s="6"/>
       <c r="E957" s="3" t="s">
-        <v>882</v>
+        <v>780</v>
       </c>
       <c r="F957" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>43308.8843865741</v>
+        <v>43312.3585648148</v>
       </c>
       <c r="B958" s="5">
-        <v>43308.885254629597</v>
+        <v>43312.359745370399</v>
       </c>
       <c r="C958" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D958" s="6"/>
       <c r="E958" s="3" t="s">
-        <v>883</v>
+        <v>779</v>
       </c>
       <c r="F958" s="6" t="s">
         <v>7</v>
@@ -20703,161 +20661,161 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>43308.885439814803</v>
+        <v>43312.359884259298</v>
       </c>
       <c r="B959" s="5">
-        <v>43308.885937500003</v>
+        <v>43312.360127314802</v>
       </c>
       <c r="C959" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D959" s="6"/>
       <c r="E959" s="3" t="s">
-        <v>884</v>
+        <v>778</v>
       </c>
       <c r="F959" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>43308.886076388902</v>
+        <v>43312.360162037003</v>
       </c>
       <c r="B960" s="5">
-        <v>43308.886458333298</v>
+        <v>43312.362673611096</v>
       </c>
       <c r="C960" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D960" s="6"/>
       <c r="E960" s="3" t="s">
-        <v>885</v>
+        <v>750</v>
       </c>
       <c r="F960" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>43309.391111111101</v>
+        <v>43312.362708333298</v>
       </c>
       <c r="B961" s="5">
-        <v>43309.392083333303</v>
+        <v>43312.363368055601</v>
       </c>
       <c r="C961" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D961" s="6"/>
       <c r="E961" s="3" t="s">
-        <v>886</v>
+        <v>751</v>
       </c>
       <c r="F961" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>43309.392326388901</v>
+        <v>43312.479398148098</v>
       </c>
       <c r="B962" s="5">
-        <v>43309.401388888902</v>
+        <v>43312.480138888903</v>
       </c>
       <c r="C962" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D962" s="6"/>
       <c r="E962" s="3" t="s">
-        <v>887</v>
+        <v>777</v>
       </c>
       <c r="F962" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="963" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>43309.401539351798</v>
+        <v>43312.480254629598</v>
       </c>
       <c r="B963" s="5">
-        <v>43309.403043981503</v>
+        <v>43312.480763888903</v>
       </c>
       <c r="C963" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D963" s="6"/>
       <c r="E963" s="3" t="s">
-        <v>888</v>
+        <v>776</v>
       </c>
       <c r="F963" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>43309.403136574103</v>
+        <v>43312.480844907397</v>
       </c>
       <c r="B964" s="5">
-        <v>43309.403703703698</v>
+        <v>43312.481967592597</v>
       </c>
       <c r="C964" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D964" s="6"/>
       <c r="E964" s="3" t="s">
-        <v>889</v>
+        <v>775</v>
       </c>
       <c r="F964" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>43309.403784722199</v>
+        <v>43313.622812499998</v>
       </c>
       <c r="B965" s="5">
-        <v>43309.404224537</v>
+        <v>43313.623124999998</v>
       </c>
       <c r="C965" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D965" s="6"/>
       <c r="E965" s="3" t="s">
-        <v>890</v>
+        <v>752</v>
       </c>
       <c r="F965" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>43309.4043171296</v>
+        <v>43313.787604166697</v>
       </c>
       <c r="B966" s="5">
-        <v>43309.407025462999</v>
+        <v>43313.788032407399</v>
       </c>
       <c r="C966" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D966" s="6"/>
       <c r="E966" s="3" t="s">
-        <v>891</v>
+        <v>774</v>
       </c>
       <c r="F966" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>43309.4070601852</v>
+        <v>43313.788090277798</v>
       </c>
       <c r="B967" s="5">
-        <v>43309.407719907402</v>
+        <v>43313.788946759298</v>
       </c>
       <c r="C967" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D967" s="6"/>
       <c r="E967" s="3" t="s">
-        <v>892</v>
+        <v>773</v>
       </c>
       <c r="F967" s="6" t="s">
         <v>8</v>
@@ -20865,197 +20823,197 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>43309.407789351797</v>
+        <v>43313.7890162037</v>
       </c>
       <c r="B968" s="5">
-        <v>43309.4083680556</v>
+        <v>43313.789212962998</v>
       </c>
       <c r="C968" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D968" s="6"/>
       <c r="E968" s="3" t="s">
-        <v>893</v>
+        <v>752</v>
       </c>
       <c r="F968" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>43309.408472222203</v>
+        <v>43313.789282407401</v>
       </c>
       <c r="B969" s="5">
-        <v>43309.4086805556</v>
+        <v>43313.7899189815</v>
       </c>
       <c r="C969" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D969" s="6"/>
       <c r="E969" s="3" t="s">
-        <v>894</v>
+        <v>772</v>
       </c>
       <c r="F969" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>43309.408750000002</v>
+        <v>43314.635069444397</v>
       </c>
       <c r="B970" s="5">
-        <v>43309.409166666701</v>
+        <v>43314.635289351798</v>
       </c>
       <c r="C970" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D970" s="6"/>
       <c r="E970" s="3" t="s">
-        <v>895</v>
+        <v>752</v>
       </c>
       <c r="F970" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="971" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>43309.409224536997</v>
+        <v>43314.635358796302</v>
       </c>
       <c r="B971" s="5">
-        <v>43309.410312499997</v>
+        <v>43314.635682870401</v>
       </c>
       <c r="C971" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D971" s="6"/>
       <c r="E971" s="3" t="s">
-        <v>896</v>
+        <v>753</v>
       </c>
       <c r="F971" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="972" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="5">
-        <v>43309.429907407401</v>
+        <v>43314.635775463001</v>
       </c>
       <c r="B972" s="5">
-        <v>43309.431203703702</v>
+        <v>43314.636215277802</v>
       </c>
       <c r="C972" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D972" s="6"/>
       <c r="E972" s="3" t="s">
-        <v>897</v>
+        <v>754</v>
       </c>
       <c r="F972" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="973" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="5">
-        <v>43309.8073842593</v>
+        <v>43314.636296296303</v>
       </c>
       <c r="B973" s="5">
-        <v>43309.808333333298</v>
+        <v>43314.636608796303</v>
       </c>
       <c r="C973" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D973" s="6"/>
       <c r="E973" s="3" t="s">
-        <v>898</v>
+        <v>771</v>
       </c>
       <c r="F973" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="974" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A974" s="5">
-        <v>43309.808391203696</v>
+        <v>43314.673726851797</v>
       </c>
       <c r="B974" s="5">
-        <v>43309.809675925899</v>
+        <v>43314.675428240698</v>
       </c>
       <c r="C974" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D974" s="6"/>
       <c r="E974" s="3" t="s">
-        <v>899</v>
+        <v>770</v>
       </c>
       <c r="F974" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="5">
-        <v>43309.809780092597</v>
+        <v>43314.675486111097</v>
       </c>
       <c r="B975" s="5">
-        <v>43309.810763888898</v>
+        <v>43314.675833333298</v>
       </c>
       <c r="C975" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D975" s="6"/>
       <c r="E975" s="3" t="s">
-        <v>900</v>
+        <v>769</v>
       </c>
       <c r="F975" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="976" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="5">
-        <v>43312.353738425903</v>
+        <v>43314.675879629598</v>
       </c>
       <c r="B976" s="5">
-        <v>43312.355775463002</v>
+        <v>43314.676562499997</v>
       </c>
       <c r="C976" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D976" s="6"/>
       <c r="E976" s="3" t="s">
-        <v>901</v>
+        <v>768</v>
       </c>
       <c r="F976" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="977" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="5">
-        <v>43312.357534722199</v>
+        <v>43314.676597222198</v>
       </c>
       <c r="B977" s="5">
-        <v>43312.358530092599</v>
+        <v>43314.676747685196</v>
       </c>
       <c r="C977" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D977" s="6"/>
       <c r="E977" s="3" t="s">
-        <v>902</v>
+        <v>752</v>
       </c>
       <c r="F977" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="978" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="5">
-        <v>43312.3585648148</v>
+        <v>43314.676793981504</v>
       </c>
       <c r="B978" s="5">
-        <v>43312.359745370399</v>
+        <v>43314.677164351902</v>
       </c>
       <c r="C978" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D978" s="6"/>
       <c r="E978" s="3" t="s">
-        <v>903</v>
+        <v>755</v>
       </c>
       <c r="F978" s="6" t="s">
         <v>7</v>
@@ -21063,71 +21021,71 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" s="5">
-        <v>43312.359884259298</v>
+        <v>43316.502233796302</v>
       </c>
       <c r="B979" s="5">
-        <v>43312.360127314802</v>
+        <v>43316.5024305556</v>
       </c>
       <c r="C979" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D979" s="6"/>
       <c r="E979" s="3" t="s">
-        <v>904</v>
+        <v>752</v>
       </c>
       <c r="F979" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A980" s="5">
-        <v>43312.360162037003</v>
+        <v>43316.502465277801</v>
       </c>
       <c r="B980" s="5">
-        <v>43312.362673611096</v>
+        <v>43316.503414351901</v>
       </c>
       <c r="C980" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D980" s="6"/>
       <c r="E980" s="3" t="s">
-        <v>905</v>
+        <v>767</v>
       </c>
       <c r="F980" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="5">
-        <v>43312.362708333298</v>
+        <v>43316.503460648099</v>
       </c>
       <c r="B981" s="5">
-        <v>43312.363368055601</v>
+        <v>43316.503807870402</v>
       </c>
       <c r="C981" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D981" s="6"/>
       <c r="E981" s="3" t="s">
-        <v>906</v>
+        <v>765</v>
       </c>
       <c r="F981" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="5">
-        <v>43312.479398148098</v>
+        <v>43316.503854166702</v>
       </c>
       <c r="B982" s="5">
-        <v>43312.480138888903</v>
+        <v>43316.504363425898</v>
       </c>
       <c r="C982" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D982" s="6"/>
       <c r="E982" s="3" t="s">
-        <v>907</v>
+        <v>766</v>
       </c>
       <c r="F982" s="6" t="s">
         <v>7</v>
@@ -21135,107 +21093,107 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="5">
-        <v>43312.480254629598</v>
+        <v>43316.504409722198</v>
       </c>
       <c r="B983" s="5">
-        <v>43312.480763888903</v>
+        <v>43316.504872685196</v>
       </c>
       <c r="C983" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D983" s="6"/>
       <c r="E983" s="3" t="s">
-        <v>908</v>
+        <v>764</v>
       </c>
       <c r="F983" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="5">
-        <v>43312.480844907397</v>
+        <v>43316.504930555602</v>
       </c>
       <c r="B984" s="5">
-        <v>43312.481967592597</v>
+        <v>43316.505231481497</v>
       </c>
       <c r="C984" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D984" s="6"/>
       <c r="E984" s="3" t="s">
-        <v>909</v>
+        <v>763</v>
       </c>
       <c r="F984" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" s="5">
-        <v>43313.622812499998</v>
+        <v>43318.735474537003</v>
       </c>
       <c r="B985" s="5">
-        <v>43313.623124999998</v>
+        <v>43318.735844907402</v>
       </c>
       <c r="C985" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D985" s="6"/>
       <c r="E985" s="3" t="s">
-        <v>910</v>
+        <v>756</v>
       </c>
       <c r="F985" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" s="5">
-        <v>43313.787604166697</v>
+        <v>43318.735879629603</v>
       </c>
       <c r="B986" s="5">
-        <v>43313.788032407399</v>
+        <v>43318.736226851797</v>
       </c>
       <c r="C986" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D986" s="6"/>
       <c r="E986" s="3" t="s">
-        <v>911</v>
+        <v>762</v>
       </c>
       <c r="F986" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A987" s="5">
-        <v>43313.788090277798</v>
+        <v>43318.736273148097</v>
       </c>
       <c r="B987" s="5">
-        <v>43313.788946759298</v>
+        <v>43318.737141203703</v>
       </c>
       <c r="C987" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D987" s="6"/>
       <c r="E987" s="3" t="s">
-        <v>912</v>
+        <v>757</v>
       </c>
       <c r="F987" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" s="5">
-        <v>43313.7890162037</v>
+        <v>43318.737199074101</v>
       </c>
       <c r="B988" s="5">
-        <v>43313.789212962998</v>
+        <v>43318.737858796303</v>
       </c>
       <c r="C988" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D988" s="6"/>
       <c r="E988" s="3" t="s">
-        <v>910</v>
+        <v>758</v>
       </c>
       <c r="F988" s="6" t="s">
         <v>6</v>
@@ -21243,53 +21201,53 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" s="5">
-        <v>43313.789282407401</v>
+        <v>43318.737916666701</v>
       </c>
       <c r="B989" s="5">
-        <v>43313.7899189815</v>
+        <v>43318.738090277802</v>
       </c>
       <c r="C989" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D989" s="6"/>
       <c r="E989" s="3" t="s">
-        <v>913</v>
+        <v>759</v>
       </c>
       <c r="F989" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="5">
-        <v>43314.635069444397</v>
+        <v>43318.738113425898</v>
       </c>
       <c r="B990" s="5">
-        <v>43314.635289351798</v>
+        <v>43318.738773148099</v>
       </c>
       <c r="C990" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D990" s="6"/>
       <c r="E990" s="3" t="s">
-        <v>910</v>
+        <v>760</v>
       </c>
       <c r="F990" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" s="5">
-        <v>43314.635358796302</v>
+        <v>43318.738796296297</v>
       </c>
       <c r="B991" s="5">
-        <v>43314.635682870401</v>
+        <v>43318.738993055602</v>
       </c>
       <c r="C991" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D991" s="6"/>
       <c r="E991" s="3" t="s">
-        <v>914</v>
+        <v>752</v>
       </c>
       <c r="F991" s="6" t="s">
         <v>6</v>
@@ -21297,379 +21255,19 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" s="5">
-        <v>43314.635775463001</v>
+        <v>43318.739039351902</v>
       </c>
       <c r="B992" s="5">
-        <v>43314.636215277802</v>
+        <v>43318.739548611098</v>
       </c>
       <c r="C992" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D992" s="6"/>
       <c r="E992" s="3" t="s">
-        <v>915</v>
+        <v>761</v>
       </c>
       <c r="F992" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A993" s="5">
-        <v>43314.636296296303</v>
-      </c>
-      <c r="B993" s="5">
-        <v>43314.636608796303</v>
-      </c>
-      <c r="C993" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D993" s="6"/>
-      <c r="E993" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="F993" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="994" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A994" s="5">
-        <v>43314.673726851797</v>
-      </c>
-      <c r="B994" s="5">
-        <v>43314.675428240698</v>
-      </c>
-      <c r="C994" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D994" s="6"/>
-      <c r="E994" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="F994" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A995" s="5">
-        <v>43314.675486111097</v>
-      </c>
-      <c r="B995" s="5">
-        <v>43314.675833333298</v>
-      </c>
-      <c r="C995" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D995" s="6"/>
-      <c r="E995" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="F995" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A996" s="5">
-        <v>43314.675879629598</v>
-      </c>
-      <c r="B996" s="5">
-        <v>43314.676562499997</v>
-      </c>
-      <c r="C996" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D996" s="6"/>
-      <c r="E996" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="F996" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A997" s="5">
-        <v>43314.676597222198</v>
-      </c>
-      <c r="B997" s="5">
-        <v>43314.676747685196</v>
-      </c>
-      <c r="C997" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D997" s="6"/>
-      <c r="E997" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="F997" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="5">
-        <v>43314.676793981504</v>
-      </c>
-      <c r="B998" s="5">
-        <v>43314.677164351902</v>
-      </c>
-      <c r="C998" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D998" s="6"/>
-      <c r="E998" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="F998" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A999" s="5">
-        <v>43316.502233796302</v>
-      </c>
-      <c r="B999" s="5">
-        <v>43316.5024305556</v>
-      </c>
-      <c r="C999" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D999" s="6"/>
-      <c r="E999" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="F999" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1000" s="5">
-        <v>43316.502465277801</v>
-      </c>
-      <c r="B1000" s="5">
-        <v>43316.503414351901</v>
-      </c>
-      <c r="C1000" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="F1000" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1001" s="5">
-        <v>43316.503460648099</v>
-      </c>
-      <c r="B1001" s="5">
-        <v>43316.503807870402</v>
-      </c>
-      <c r="C1001" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1001" s="6"/>
-      <c r="E1001" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="F1001" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1002" s="5">
-        <v>43316.503854166702</v>
-      </c>
-      <c r="B1002" s="5">
-        <v>43316.504363425898</v>
-      </c>
-      <c r="C1002" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1002" s="6"/>
-      <c r="E1002" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="F1002" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1003" s="5">
-        <v>43316.504409722198</v>
-      </c>
-      <c r="B1003" s="5">
-        <v>43316.504872685196</v>
-      </c>
-      <c r="C1003" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1003" s="6"/>
-      <c r="E1003" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="F1003" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1004" s="5">
-        <v>43316.504930555602</v>
-      </c>
-      <c r="B1004" s="5">
-        <v>43316.505231481497</v>
-      </c>
-      <c r="C1004" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1004" s="6"/>
-      <c r="E1004" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="F1004" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1005" s="5">
-        <v>43318.735474537003</v>
-      </c>
-      <c r="B1005" s="5">
-        <v>43318.735844907402</v>
-      </c>
-      <c r="C1005" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1005" s="6"/>
-      <c r="E1005" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="F1005" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="5">
-        <v>43318.735879629603</v>
-      </c>
-      <c r="B1006" s="5">
-        <v>43318.736226851797</v>
-      </c>
-      <c r="C1006" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1006" s="6"/>
-      <c r="E1006" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="F1006" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1007" s="5">
-        <v>43318.736273148097</v>
-      </c>
-      <c r="B1007" s="5">
-        <v>43318.737141203703</v>
-      </c>
-      <c r="C1007" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1007" s="6"/>
-      <c r="E1007" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F1007" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1008" s="5">
-        <v>43318.737199074101</v>
-      </c>
-      <c r="B1008" s="5">
-        <v>43318.737858796303</v>
-      </c>
-      <c r="C1008" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1008" s="6"/>
-      <c r="E1008" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="F1008" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1009" s="5">
-        <v>43318.737916666701</v>
-      </c>
-      <c r="B1009" s="5">
-        <v>43318.738090277802</v>
-      </c>
-      <c r="C1009" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1009" s="6"/>
-      <c r="E1009" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="F1009" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="5">
-        <v>43318.738113425898</v>
-      </c>
-      <c r="B1010" s="5">
-        <v>43318.738773148099</v>
-      </c>
-      <c r="C1010" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1010" s="6"/>
-      <c r="E1010" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="F1010" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1011" s="5">
-        <v>43318.738796296297</v>
-      </c>
-      <c r="B1011" s="5">
-        <v>43318.738993055602</v>
-      </c>
-      <c r="C1011" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1011" s="6"/>
-      <c r="E1011" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="F1011" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1012" s="5">
-        <v>43318.739039351902</v>
-      </c>
-      <c r="B1012" s="5">
-        <v>43318.739548611098</v>
-      </c>
-      <c r="C1012" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1012" s="6"/>
-      <c r="E1012" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="F1012" s="6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
+++ b/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\Skripsi\Program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53891FB-10A8-4C59-9059-9DA7F4CED2D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8987138-C045-41A5-AA95-41F0E5517BFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="927">
   <si>
     <t>Start time</t>
   </si>
@@ -2055,261 +2055,25 @@
     <t xml:space="preserve">Senang ada ojol sangat membantu aktivitas ku, bisa hemat waktu </t>
   </si>
   <si>
-    <t xml:space="preserve">Ada gofood, jadi sangat terbantu disaat perut lapar tapi malas keluar. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang ngeri juga Naik ojol, driver nya suka ngebut, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untuk vendor seleksi ketat recruitment driver, Beri pelatihan dulu bahkan kasih magang dulu Selama tiga bulan, biar jelas Betul driver yg betul2 propesional </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadi takut Naik ojol, sering banyak kejadian pelecehan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver ojol sampai Hari ini mash demo, dan ini sudah menyebar kedaerah, tlg perhatian pemerintah untuk turut memperhatikan nasib mereka. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu dgn adanya ojol, segala urusan jadi lebih mudah hemat waktu dan ongkos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perang tarif dimana mana, sedih lihatnya, Kasian drivernya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada gofood sangat membantu bisa pesan makanan kapan saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalau dengar2 sering banyak kejadian pelecehan dan perampokan jadi takut Naik ojol, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat membantu adanya gojek, langsung Antar jemput tidok perlu repot nyari ojek pangkalan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudah terlalu banyak driver ojol bikin macet jalanan, suka ngebut dan melanggar aturan, jadi ngeri Naik ojol </t>
-  </si>
-  <si>
-    <t>mitra hanya jadi sapi perahnya grab... ayoo kembalikan insentif seperti tahun-tahun sebelumnya/tahun awal. potongan topup sangat menyiksa mitra driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenapa ya grab iklannya tidak sesuai kenyataan..ada juga cerita driver grab yang jarang pulang..ngejar setoran susah..ambil bonus target di tambahin..
-Rumahnya yg baru ya pom bensin..miris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keluh kesah driver ada baiknya segera di respon, kasihan mereka cuma jadi sapi perah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebaiknya ojol jngan bnyak promo bayar dulu insentif para driver yang banyak nunggak. </t>
-  </si>
-  <si>
-    <t>Management Grab..bagaimana ya ini..grab bike selalu pakai alasan ban bocor pada saat mau dekat ke lokasi penjemputan..?serius atau tidak ya dlm memilih driver?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adanya ojol, grabcar, gocar sangat membantu sekali bagi kami, tak usah pusing lg mikirin angkutan, apalagi Ada gofood sangat membantu disaat saat genting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karena driver ojol sudah terlalu banyak, jadinya suka bikin macet, apalagi mereka sering bergerombol dipinggir jalan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untuk vendor, Ada bagusnya Batasi jumlah driver, kesan nya makin kesini seperti nya banyakan driver daripada customer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">makin banyak juga driver tuyul makin banyak juga driver jujur yg memelas dan menangis dalam hati, hayooooo buatlah system yg bisa tindak si curang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang sekali Ada ojol dan gocar grabcar, sangat membantu. Tidak bingung lagi ketika tiba2 tidak bisa bawa kendaraan sendiri. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terkadang kasihan Sama driver ojol, driver sudah berlebihan, nyari customer susah, banyak promo ditambah lg potongan besar. Tlg pemerintah turun tangan, para driver juga rakyat indonesia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makin kesini seperti nya driver cuma jadi sapi perah saja, yang makmur malah vendornya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada gofood bisa pesan makanan kapan saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suka bikin macet nih driver ojol, nongkrong swmbarangan, bikin tambah sembrawut </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sudah terlalu banyak driver jadinya, suka bikin macet. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sangat terbantu adanya ojol, mempermudah mobilitas sehari hari, tidak perlu repot lg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadang suka kesal driver nya, sering cansel sepihak tanpa alasan yg jelas padahal sdh nunggu lama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada bagusnya vendor sebelum mepwkerjakan driver, dikasih dulu pelatihan terus magang dulu Selama tiga Bulan, jika lulus semua tahapan Baru kasih ini full, kwnyataannya banyak ditemukan driver yg kurang beretika </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepertinya ojol harus bikin pangkalan juga nih, soalnya driver suka bergerombol disembarang tempat. Akibatnya bikin macet. </t>
-  </si>
-  <si>
-    <t>Sangat terbantu dengan adanya gofood, bisa pesan makanan sepuasnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velum pernah Naik ojol, jadi belum tahu rasanya, tapi Bagus sih untuk Membuka lapangan pekerjaan </t>
-  </si>
-  <si>
-    <t>Sebaiknya pihak aplikator memperbaiki sistem, karena pada jam tertentu sering eror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor, tolong berantas tuyul2 karena itu merugikan driver, kasihan drivernya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sayangnya ojol cuma Ada dikota besar. Jadi belum bisa merasakan Naik ojol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesalnya kadang diturunin disembarang tempat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sayangnya sepertinya vendor kurang peka dengan kondisi dulapangan, yang lebih banyak menyusahkan driver, perhatikan nasib driver yg sdh kerja keras, tapi hasil minim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berharap Kepada pemerintah agar mengeluarkan aturan yg jelas tentang angkutan online, agar tidak timbul gesekan2 seperti sekarang, dan beri izin pada vendor yang mean tulus untuk mensejahterakan bukan mengeruk keuntungan semata. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyak juga driver cewek, sebenarnya salut buat mereka, tapi kenapa dandanan kog menor yaaa, jadi kesannya bagaimana gitu, biasa2 ajalah kalau dandan, kan bukan mau kondangan. </t>
-  </si>
-  <si>
     <t>Aplikator agar menyeleksi ketat penerimaan driver, jangan dijadikan bisnis mlm</t>
   </si>
   <si>
-    <t>Ada bagusnya management grab, perhatikan keluhan driver, tolongvbikin harga yg rasional . Harga mobil  220jt, kalo argo 9 rb dipotong 20%, kapan driver bisa makan ? Macet, ac hidup makan bensin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utk vendor, Sebaiknya pendaftaran driver segera ditutup, sdh terlalu banyak driver, akibatnya driver susah dapat order. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojol jangan terlalu banyak promo dan iklan, Kasian driver... harga rasional, customer tidak Akan banyak protes, yang penting keamanan dan kenyamanan cust. </t>
-  </si>
-  <si>
-    <t>Jadi sponsor acara besar... di satu sisi insentif mitranya makin turun.... mending tuh duit buat drivernya...soal strategi promosi...grab sudah di kenal dari sabang sampai merauke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang Ada ojol sangat membantu sekali untuk kegiatan sehari hari. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasihan driver cuma dijadikan sapi perah, yg diuntungkan pemilik modal. </t>
-  </si>
-  <si>
-    <t>Terima kasih Grab yg selalu memberikan kemudahan, memberikan ide"  yg hebat untuk semua. Alhamdulillah.
-Sukses selalu untuk Grab beserta seluruh keluarga besarnya, Aamiin Allahumma Aamiin.
-Grab. Mantap👍</t>
-  </si>
-  <si>
-    <t>Aku sangat berterimakasih sama angkutan online karna bisa membantu aktifitas kami, bawa anak jg gak repot,, supir ny ramah".. Dan baik"... Bisa nyampe dpn rmh lagi ngnterin nya,,  , 👍👍👍</t>
-  </si>
-  <si>
-    <t>setauku draiver. taxi online. ramah. rata2...belom pernar ketemu yg ga  ramah...makanya saya selalu kasih bintang 5</t>
-  </si>
-  <si>
-    <t>Greb seneng banyak cs'y...cs'y seneng karna tarip murah....drver'y cembetut karna tarip terlalu murahhh...kira2 adil ga.......trus giliran cs komplen grab langsung nanggapin kadang ada yang langsung mai saspen aja...giliran draver mau komplan.....susah'y minta ampun di telpon sibuk terusssss.........</t>
-  </si>
-  <si>
-    <t>Grab sangat2 membnatu perekonomian masyarakat.. semoga kedepanya lebih baik lagi pelayananya dan juga bagi lebih menghargai.lagi pemesannya.. grab senang, driver sennag, konsumenpun nyaman..</t>
-  </si>
-  <si>
-    <t>Puji syukur, saya sudah 2 tahun menggunakan jasa grab aman2. Semoga lebih baik lagi.</t>
-  </si>
-  <si>
-    <t>Nyaman seperti kedaraan sendiri</t>
-  </si>
-  <si>
-    <t>Ojol sangat memudahkan😍 terima kasih ojol</t>
-  </si>
-  <si>
-    <t>Driver adalah mitra dr grab.....yang seharusnya menerapkan hubungan simbiosis mutualisme saling menguntungkan......adanya beberapa penyimpangan oknum.driver  itu terjadi karena adanya ketidak puasan dari driver entah itu tarif atau penghasilan.....saaya bicara sbg konsumen saya bukan mitra grab.... saya kadang miris rasanya tarifnya terlalu murah.....bukan karena saya banyak uang....tapi memang kalo mau dibandingkan dengan opang bisa jadi tarif mya jauh sekali....oleh karena iru kepada pihak grab evaluasi lah kebijakan dr grab....tanpa driver perusahaan ansa tidak akan bisa berjalan dengan baik.....</t>
-  </si>
-  <si>
-    <t>Gojek grab jangan terlalu banyak iklan,,, biasa pengen merebut pangsa pasar...
-Selama kesejahteraan driver blum di tingkatkan, jgn harap pelayanan prima bisa di terapkan... 
- 😀😀😀</t>
-  </si>
-  <si>
-    <t>Bnyak mmbantu..ada jga yg tidk mmbntu..karna pada saat kami pesan jaraknya 13k aja mereka batalkan..tpi klau harga di atas 150k..mereka cpt hubungi ..Sy Rasa jln tolpun kmi byar. Kami Iklas yg penting SOPIRNYA baik klau nakal semua beban dianggarkn buat kami pemakai Grab..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu dengan adanya ojol, maklum kemampuan terbatas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sayangnya ojol cuma Ada dikota besar, Jadi Kami belum bosa merasakan. </t>
-  </si>
-  <si>
     <t>Kesalnya kadang driver suka cancel sepihak dengan alasan yang tidak jelas</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudah menunggu lama, eh drivernya nyuruh cancel, lha kenapa dia nggak cancel sendiri, dan kenapa dia mau sebelumbya. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor sekarang sudah kebanyakan promo yang berlebihan, semestinya perhatikan dulu nasib driver, ditambah lagi mau2nya jadi sponsor acara2 tertentu, buat apa kalau nasib driver merana. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ada gofood sangat terbantu, ongkos murah lagi. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vendor sangat keterlaluan, cuma memikirkan kepentingan sendiri </t>
   </si>
   <si>
-    <t>Ongkos sudah murah, banyak promo, potongan besar, Kasian nasib driver</t>
-  </si>
-  <si>
-    <t>Herannya saat jam2 tertentu aplikasi sering eror, tu Perbaiki dulu sistemnya, jangan kebanyakan promo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Driver adalah Mitra bukan kacung, kalau driver mogok semua vendor bisa apa.... </t>
   </si>
   <si>
     <t xml:space="preserve">Pemerintah harus turun tangan untuk memperbaiki sistem biar jelas, bahwa antara vendor dan driver adalah Mitra bukan karyawan. </t>
   </si>
   <si>
-    <t>Sampai saat ini masih aman2...dan saya berharap pelayanannya semakin ditingkatkan..kadang kala jarak dekat.mereka ga mau ambil...ok sih....semakin maju dan jaya buat grab...pelanggan setia..</t>
-  </si>
-  <si>
-    <t>Klo bisa tarifnya di naikin lag deh,  biar gak memberatkan para divernya..  Ya minimal klo gak tarif, ya insentifnya yang di naikin bukan malah di kurangin gini..  Kasian buat yang cari rezeki bner". Semoga yang demo" kmaren mendapat respons positif, dan cepat di sejahterakan..  Salam hangat untuk para driver grab di manapun berada.   Dan trimakasih Untuk Grab..  Semoga tetep berJaya....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tadi siang saya order grab bike, ke driver saya bilang lewat jalan alternatif yg lbh dekat, driver bilang kena biaya tambahan  saya bilang slama ini saya selalu kasih levih, tapi si driver ngoceh2 minta saya cancel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alhamdllah semenjak ada grab saya tidak pernah membawa kendaran sendiri lagi grab sangat membantu alhamdllah saya baru satu kali dapat driver yg kurang sopan kalo bisa si tolong dong driver2 grab jaga kebersihan badanya kadang saya dapat driver yg tidak sedap badanya. </t>
-  </si>
-  <si>
-    <t>Tarif tolong dinaikin dan drivernya pasti semangat dan lebih ramah lagi kpd konsumen.</t>
-  </si>
-  <si>
-    <t>Selama ada Grab,sangat membantu bagie saya ntuk mengantar ibu k'Rumah sakit ntuk control, berobat dan bwa ntuk tetapi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grab juga harus mikirin driverny,cukup apa tidak Bensinny bawa penumpng begitu jauh harganya sangat murah kadang mutar2 cari penumpng habis bensin, mestiny dipikirkan juga kesejahteraan driver biar drivernya semangat. </t>
-  </si>
-  <si>
-    <t>penumpang  sangat dimanjain oleh grab, tp drivernya seperti sapi perah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semua sama cuma sopirnya tidak sama, saya plggan Grab kadangkala temukan sopir yg Mngjengkelkan dan tidak ramah suka bantah;;;nah ini tiggal prilaku masing2 sopir </t>
-  </si>
-  <si>
-    <t>Dngan adanya grab car and bike sngat mmbantu saya trima kasih atas layanan yg ramah kepada driver grab nya😘😘😘😘👼👼👼👼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untuk vendor, carilah driver yang berpengalaman, test driver bukan asal bisa naik mtor/ nyetir, karenaini brsngkutan dngan keselamatan. </t>
-  </si>
-  <si>
-    <t>Alhamdulilah selama menggunakan grab gak pernah nemu masalah.......kalo kata bapak saya maha hirup kumaha amal amalan heee</t>
-  </si>
-  <si>
-    <t>Tolong dong itu buat driver grab yg tidak sesuai Plat dan motor di aplikasi untuk ditindak tegas dan sangat membahayakan.</t>
-  </si>
-  <si>
-    <t>Luar biasa grab dalam memahami konsumen nya,semoga bermanfaat bagi warga Indonesia</t>
-  </si>
-  <si>
     <t>Alhamdulillah berkat adanya grab di Indonesia saya bisa dibantu pergi bepergian karena saya termasuk disabilitas saat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebulan belakangan ini saya menggunakan jasa grabcar alhamdulillah pelayanannya bagus dan drivernya baik.tp ada satu driver yg bikin sy kesal sedikit. </t>
   </si>
   <si>
     <t>Dulu tarif per km 3000 karena mereka butuh driver , sekarang kebalikan driver  yang butuh Gojek,  sehingga tarifnya diturunkan karena driver membutuhkan Gojek.</t>
@@ -3001,6 +2765,268 @@
   </si>
   <si>
     <t xml:space="preserve">Senang naik grab. Murah dan cepat.. Mana ada promo. membantu sekali. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebulan belakangan ini saya menggunakan jasa grab car alhamdulillah pelayanannya bagus dan drivernya baik. tapi ada satu driver yang bikin saya kesal sedikit. </t>
+  </si>
+  <si>
+    <t>Luar biasa grab dalam memahami konsumennya, semoga bermanfaat bagi warga Indonesia</t>
+  </si>
+  <si>
+    <t>Tolong buat driver grab yang tidak sesuai Plat dan motor di aplikasi untuk ditindak tegas dan sangat membahayakan.</t>
+  </si>
+  <si>
+    <t>Kalau saya bersyukur alhamdulillah setiap naik grab motor selalu mendapatkan supir yang ramah terus saya tidak pernah lupa selalu menyiapkan uang pas. Terima kasih grab</t>
+  </si>
+  <si>
+    <t>Alhamdulilah selama menggunakan grab tidak pernah ada masalah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk vendor, carilah driver yang berpengalaman, test driver bukan asal bisa naik motor/ menyetir, karena ini bersangkutan dengan keselamatan. </t>
+  </si>
+  <si>
+    <t>Dengan adanya grab car dan bike sangat membantu saya terima kasih atas layanan yang ramah kepada driver grab-nya</t>
+  </si>
+  <si>
+    <t>Alhamdulilah. 3 kali naik grab sopirnya ramah-ramah. yang tidak ramah juga banyak mereka membatalkan pesanan. mungkin Allah pilihkan yang terbaik untuk kami. sebagai orang dari kampung, senang kalau di kota ketemu orang baik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semua sama cuma sopirnya tidak sama, saya pelanggan Grab terkadang temukan sopir yang Menjengkelkan dan tidak ramah suka bantah. ini tinggal perilaku masing-masing sopir </t>
+  </si>
+  <si>
+    <t>penumpang  sangat dimanjakan oleh grab, tapi driver-nya seperti sapi perah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grab juga harus memikirkan driver-nya, cukup apa tidak Bensinnya bawa penumpang begitu jauh harganya sangat murah kadang keliling cari penumpang habis bensin, mestinya dipikirkan juga kesejahteraan driver biar driver-nya semangat. </t>
+  </si>
+  <si>
+    <t>Selama ada Grab, sangat membantu bagi saya untuk mengantar ibu ke Rumah sakit untuk kontrol, berobat dan bawa untuk terapi.</t>
+  </si>
+  <si>
+    <t>Pelanggannya bahagia diatas penderitaan driver. harga grab benar-benar membunuh para driver. apapun grab promosi tetaplah dosa besar.</t>
+  </si>
+  <si>
+    <t>Grab sebagai penyedia aplikasi jangan hanya mau untung sendiri tanpa memikirkan nasib mitranya. ingat tanpa driver aplikasi grab hanya akan jadi sampah. Tidak menutup kemungkinan ada aplikasi online baru yang lebih baik buat mitranya.</t>
+  </si>
+  <si>
+    <t>Tolong pihak jasa angkutan online. Angka kejahatan masih terjadi. tolong solusi agar penumpang nyaman dan aman. terima kasih</t>
+  </si>
+  <si>
+    <t>Tarif tolong dinaikkan dan driver-nya pasti semangat dan lebih ramah lagi kepada konsumen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhamdulillah semenjak ada grab saya tidak pernah membawa kendaraan sendiri lagi grab sangat membantu alhamdulillah saya baru satu kali dapat driver yang kurang sopan kalau bisa tolong driver grab jaga kebersihan badannya kadang saya dapat driver yang tidak sedap badannya. </t>
+  </si>
+  <si>
+    <t>Kalau bisa tarifnya dinaikin lagi,  biar tidak memberatkan para divernya. minimal kalau tidak tarif, insentifnya yang dinaikin bukan malah dikurangin.  Kasihan buat yang cari rezeki dengan benar. Semoga yang demo kemarin mendapat respon positif, dan cepat di sejahterakan.  Salam hangat untuk para driver grab di manapun berada.   Dan terima kasih Untuk Grab.  Semoga tetep berJaya.</t>
+  </si>
+  <si>
+    <t>Sampai saat ini masih aman. dan saya berharap pelayanannya semakin ditingkatkan. kadang kala jarak dekat. mereka tidak mau ambil. semakin maju dan jaya buat grab. pelanggan setia.</t>
+  </si>
+  <si>
+    <t>Saya sangat setuju keberadaan grab di indonesia sangat membantu bagi semua orang.
+Tapi tolong dari pihak grab agar diberi peringatan tegas ke grab car apabila sore sering kita dibatalkan ordernya.</t>
+  </si>
+  <si>
+    <t>Saya baru dua kali pake grab, ternyata harganya bersahabat, terima kasih grab semoga semakin jaya dan perluas semua wilayah apalagi mau lebaran, yang dari kota ke desa, asyik kayanya kalau grab juga bisa masuk desa</t>
+  </si>
+  <si>
+    <t>Alhamdulillah saya pengguna setia Grab..
+Saya juga pernah order waktu ajak adik saya jalan-jalan, dia juga penyandang disabilitas.
+Driver-nya ramah.
+Semoga grab semakin sukses dan semakin maju.
+Semoga semua para driver-nya ramah dan tidak mengecewakan</t>
+  </si>
+  <si>
+    <t>Kalau untuk perilaku. Lebih bagus supir taksi bluebird. saya beberapa kali order grab car driver-nya angkuh. walaupun tidak semua. Sekarang sepertinya grab ngawur dalam pengrekrutran asal terima driver atau memang tidak ada pelatihan sikap sebelum diberi aplikasi.</t>
+  </si>
+  <si>
+    <t>Puji syukur, saya sudah 2 tahun menggunakan jasa grab aman. Semoga lebih baik lagi.</t>
+  </si>
+  <si>
+    <t>Grab sangat-sangat membantu perekonomian masyarakat. semoga kedepannya lebih baik lagi pelayanannya dan juga bagi lebih menghargai lagi pemesannya. grab senang, driver senang, konsumen nyaman.</t>
+  </si>
+  <si>
+    <t>Herannya saat jam tertentu aplikasi sering error, Perbaiki dulu sistemnya, jangan kebanyakan promo</t>
+  </si>
+  <si>
+    <t>Ongkos sudah murah, banyak promo, potongan besar, Kasihan nasib driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food sangat terbantu, ongkos murah lagi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor sekarang sudah kebanyakan promo yang berlebihan, semestinya perhatikan dulu nasib driver, ditambah lagi jadi sponsor acara tertentu, buat apa kalau nasib driver merana. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah menunggu lama, driver-nya menyuruh cancel, kenapa dia tidak cancel sendiri, dan kenapa dia mau sebelumnya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayangnya ojek online cuma Ada di kota besar, Jadi Kami belum bisa merasakan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu dengan adanya ojek online, maklum kemampuan terbatas. </t>
+  </si>
+  <si>
+    <t>Terimakasih Grab sudah memberikan fasilitas yang terbaik bagi saudara kita yang Difabel, semoga kejadian terdahulu yang menimpa penumpang Difabel tidak terjadi lagi. Untuk para Driver Difabel juga perlu diperhatikan, mereka juga ingin memberikan nafkah bagi keluarga nya.</t>
+  </si>
+  <si>
+    <t>Gojek grab jangan terlalu banyak iklan,,, biasa ingin merebut pangsa pasar...
+Selama kesejahteraan driver belum ditingkatkan, jangan harap pelayanan prima bisa diterapkan.</t>
+  </si>
+  <si>
+    <t>Driver adalah mitra dari grab yang seharusnya menerapkan hubungan simbiosis mutualisme saling menguntungkan adanya beberapa penyimpangan oknum driver itu terjadi karena adanya ketidakpuasan dari driver entah itu tarif atau penghasilan. saya bicara sebagai konsumen saya bukan mitra grab. saya kadang miris rasanya tarifnya terlalu murah. bukan karena saya banyak uang, tapi memang kalau mau dibandingkan dengan ojek pangkalan bisa jadi tarifnya jauh sekali. Oleh karena itu kepada pihak grab tolong evaluasi kebijakan dari grab. Tanpa driver perusahaan anda tidak akan bisa berjalan dengan baik.</t>
+  </si>
+  <si>
+    <t>Ojek online sangat memudahkan. Terima kasih ojek online</t>
+  </si>
+  <si>
+    <t>Nyaman seperti kendaraan sendiri</t>
+  </si>
+  <si>
+    <t>Grab sangat membantu kami mudah murah dan nyaman</t>
+  </si>
+  <si>
+    <t>Setahu saya driver angkutan online ramah rata-rata belum pernah ketemu yang tidak ramah. makanya saya selalu kasih bintang 5</t>
+  </si>
+  <si>
+    <t>Aku sangat berterima kasih sama angkutan online karena bisa membantu aktivitas kami, bawa anak juga tidak repot, supirnya ramah dan baik. Bisa sampai depan rumah lagi saat mengantarnya</t>
+  </si>
+  <si>
+    <t>Terima kasih Grab yg selalu memberikan kemudahan, memberikan ide-ide  yang hebat untuk semua. Alhamdulillah.
+Sukses selalu untuk Grab beserta seluruh keluarga besarnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasihan driver cuma dijadikan sapi perah, yang diuntungkan pemilik modal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang Ada ojek online sangat membantu sekali untuk kegiatan sehari-hari. </t>
+  </si>
+  <si>
+    <t>Jadi sponsor acara besar. di satu sisi insentif mitranya makin turun. mending duit buat driver-nya. soal strategi promosi. grab sudah dikenal dari sabang sampai merauke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojek online jangan terlalu banyak promo dan iklan, Kasihan driver, harga rasional customer tidak Akan banyak protes, yang penting keamanan dan kenyamanan customer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk vendor, Sebaiknya pendaftaran driver segera ditutup, sudah terlalu banyak driver, akibatnya driver susah dapat order. </t>
+  </si>
+  <si>
+    <t>Ada bagusnya manajemen grab perhatikan keluhan driver, tolong bikin harga yang rasional. Harga mobil  220 juta, kalau argo 9 ribu dipotong 20%, kapan driver bisa makan? Macet, ac hidup makan bensin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyak juga driver cewek, sebenarnya salut buat mereka, tapi kenapa dandanan menor, jadi kesannya bagaimana begitu, biasa saja kalau dandan, bukan mau kondangan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berharap Kepada pemerintah agar mengeluarkan aturan yang jelas tentang angkutan online, agar tidak timbul gesekan-gesekan seperti sekarang, dan beri izin pada vendor yang memang tulus untuk mensejahterakan bukan mengeruk keuntungan semata. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayangnya sepertinya vendor kurang peka dengan kondisi di lapangan, yang lebih banyak menyusahkan driver, perhatikan nasib driver yang sudah kerja keras, tapi hasil minim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesalnya kadang diturunkan di sembarang tempat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayangnya ojek online cuma Ada di kota besar. Jadi belum bisa merasakan Naik ojek online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor, tolong berantas tuyul-tuyul karena itu merugikan driver, kasihan driver-nya </t>
+  </si>
+  <si>
+    <t>Sebaiknya pihak aplikator memperbaiki sistem, karena pada jam tertentu sering error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belum pernah Naik ojek online, jadi belum tahu rasanya, tapi Bagus untuk Membuka lapangan pekerjaan </t>
+  </si>
+  <si>
+    <t>Sangat terbantu dengan adanya go-food, bisa pesan makanan sepuasnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepertinya ojek online harus bikin pangkalan juga, soalnya driver suka bergerombol di sembarang tempat. Akibatnya bikin macet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada bagusnya vendor sebelum mempekerjakan driver, dikasih dulu pelatihan terus magang dulu Selama tiga Bulan, jika lulus semua tahapan Baru kasih ini full, kenyataannya banyak ditemukan driver yg kurang beretika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadang suka kesal driver-nya, sering cancel sepihak tanpa alasan yang jelas padahal sudah menunggu lama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu adanya ojek online, mempermudah mobilitas sehari-hari, tidak perlu repot lagi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suka bikin macet driver ojek online, nongkrong sembarangan, bikin tambah semrawut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food bisa pesan makanan kapan saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makin kesini sepertinya driver cuma jadi sapi perah saja, yang makmur malah vendornya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terkadang kasihan Sama driver ojek online, driver sudah berlebihan, cari customer susah, banyak promo ditambah lagi potongan besar. Tolong pemerintah turun tangan, para driver juga rakyat indonesia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang sekali Ada ojek online dan gocar grab car, sangat membantu. Tidak bingung lagi ketika tiba-tiba tidak bisa bawa kendaraan sendiri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">semakin banyak juga driver tuyul makin banyak juga driver jujur yang memelas dan menangis dalam hati, buatlah sistem yang bisa mengatasi kecurangan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk vendor, Ada bagusnya dibatasi jumlah driver, kesannya makin kesini sepertinya banyakan driver dari pada customer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karena driver ojek online sudah terlalu banyak, jadinya suka bikin macet, apalagi mereka sering bergerombol di pinggir jalan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanya ojek online, grab car, gocar sangat membantu sekali bagi kami, tak usah pusing lagi memikirkan angkutan, apalagi Ada go-food sangat membantu saat genting. </t>
+  </si>
+  <si>
+    <t>Manajemen Grab.. bagaimana ini.. grab bike selalu pakai alasan ban bocor pada saat mau dekat ke lokasi penjemputan? serius atau tidak dalam memilih driver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebaiknya ojek online jangan banyak promo bayar dulu insentif para driver yang banyak menunggak. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keluh kesah driver ada baiknya segera direspon, kasihan mereka cuma jadi sapi perah. </t>
+  </si>
+  <si>
+    <t>Kenapa grab iklannya tidak sesuai kenyataan. ada juga cerita driver grab yang jarang pulang. mengejar setoran susah. ambil bonus target ditambahin.</t>
+  </si>
+  <si>
+    <t>mitra hanya jadi sapi perahnya grab... kembalikan insentif seperti tahun-tahun sebelumnya / tahun awal. potongan top-up sangat menyiksa mitra driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah terlalu banyak driver ojek online bikin macet jalanan, suka ngebut dan melanggar aturan, jadi ngeri Naik ojek online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat membantu adanya gojek, langsung Antar jemput tidak perlu repot cari ojek pangkalan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalau dengar-dengar sering banyak kejadian pelecehan dan perampokan jadi takut Naik ojek online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food sangat membantu bisa pesan makanan kapan saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perang tarif dimana-mana, sedih lihatnya, Kasian drivernya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu dengan adanya ojek online, segala urusan jadi lebih mudah hemat waktu dan ongkos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver ojek online sampai Hari ini masih demo, dan ini sudah menyebar ke daerah, tolong perhatian pemerintah untuk turut memperhatikan nasib mereka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadi takut Naik ojek online, sering banyak kejadian pelecehan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk vendor seleksi ketat rekrutmen driver, Beri pelatihan dulu bahkan kasih magang dulu Selama tiga bulan, biar jelas Betul driver yang betul-betul profesional </t>
+  </si>
+  <si>
+    <t>Kadang ngeri juga Naik ojek online, driver-nya suka ngebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada go-food, jadi sangat terbantu disaat perut lapar tapi malas keluar. </t>
   </si>
 </sst>
 </file>
@@ -3089,8 +3115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F992" totalsRowShown="0">
-  <autoFilter ref="A1:F992" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F984" totalsRowShown="0">
+  <autoFilter ref="A1:F984" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start time" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Completion time" dataDxfId="4"/>
@@ -3400,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F992"/>
+  <dimension ref="A1:F984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B798" workbookViewId="0">
-      <selection activeCell="E800" sqref="E800"/>
+    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
+      <selection activeCell="E699" sqref="E699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,10 +3453,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>712</v>
+        <v>635</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>713</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3463,7 +3489,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>714</v>
+        <v>637</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -3481,7 +3507,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>715</v>
+        <v>638</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3499,7 +3525,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3517,7 +3543,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>717</v>
+        <v>640</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -3535,7 +3561,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>718</v>
+        <v>641</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3553,7 +3579,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>719</v>
+        <v>642</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3571,7 +3597,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>720</v>
+        <v>643</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -3589,7 +3615,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>721</v>
+        <v>644</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3607,7 +3633,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>722</v>
+        <v>645</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3625,7 +3651,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>723</v>
+        <v>646</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -3661,7 +3687,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -3679,7 +3705,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>725</v>
+        <v>648</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -3715,7 +3741,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>726</v>
+        <v>649</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -3733,7 +3759,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>727</v>
+        <v>650</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3751,7 +3777,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>728</v>
+        <v>651</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3769,7 +3795,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>729</v>
+        <v>652</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3805,7 +3831,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>730</v>
+        <v>653</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3841,7 +3867,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>731</v>
+        <v>654</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -3859,7 +3885,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -3877,7 +3903,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
@@ -3895,7 +3921,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
@@ -3913,7 +3939,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>735</v>
+        <v>658</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -3931,7 +3957,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>736</v>
+        <v>659</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
@@ -3967,7 +3993,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>737</v>
+        <v>660</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -3985,7 +4011,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>738</v>
+        <v>661</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4003,7 +4029,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>739</v>
+        <v>662</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4021,7 +4047,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>740</v>
+        <v>663</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4039,7 +4065,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>741</v>
+        <v>664</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4075,7 +4101,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
@@ -4093,7 +4119,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>7</v>
@@ -4111,7 +4137,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>744</v>
+        <v>667</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>7</v>
@@ -4129,7 +4155,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>745</v>
+        <v>668</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4147,7 +4173,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>7</v>
@@ -15991,7 +16017,7 @@
       </c>
       <c r="D699" s="2"/>
       <c r="E699" s="3" t="s">
-        <v>614</v>
+        <v>926</v>
       </c>
       <c r="F699" s="2" t="s">
         <v>6</v>
@@ -16009,7 +16035,7 @@
       </c>
       <c r="D700" s="2"/>
       <c r="E700" s="3" t="s">
-        <v>615</v>
+        <v>925</v>
       </c>
       <c r="F700" s="2" t="s">
         <v>8</v>
@@ -16027,7 +16053,7 @@
       </c>
       <c r="D701" s="2"/>
       <c r="E701" s="3" t="s">
-        <v>616</v>
+        <v>924</v>
       </c>
       <c r="F701" s="2" t="s">
         <v>7</v>
@@ -16045,7 +16071,7 @@
       </c>
       <c r="D702" s="2"/>
       <c r="E702" s="3" t="s">
-        <v>617</v>
+        <v>923</v>
       </c>
       <c r="F702" s="2" t="s">
         <v>8</v>
@@ -16063,7 +16089,7 @@
       </c>
       <c r="D703" s="2"/>
       <c r="E703" s="3" t="s">
-        <v>618</v>
+        <v>922</v>
       </c>
       <c r="F703" s="2" t="s">
         <v>7</v>
@@ -16081,7 +16107,7 @@
       </c>
       <c r="D704" s="2"/>
       <c r="E704" s="3" t="s">
-        <v>619</v>
+        <v>921</v>
       </c>
       <c r="F704" s="2" t="s">
         <v>6</v>
@@ -16099,7 +16125,7 @@
       </c>
       <c r="D705" s="2"/>
       <c r="E705" s="3" t="s">
-        <v>620</v>
+        <v>920</v>
       </c>
       <c r="F705" s="2" t="s">
         <v>8</v>
@@ -16117,13 +16143,13 @@
       </c>
       <c r="D706" s="2"/>
       <c r="E706" s="3" t="s">
-        <v>621</v>
+        <v>919</v>
       </c>
       <c r="F706" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>43227.473946759303</v>
       </c>
@@ -16135,7 +16161,7 @@
       </c>
       <c r="D707" s="2"/>
       <c r="E707" s="3" t="s">
-        <v>622</v>
+        <v>918</v>
       </c>
       <c r="F707" s="2" t="s">
         <v>8</v>
@@ -16153,7 +16179,7 @@
       </c>
       <c r="D708" s="2"/>
       <c r="E708" s="3" t="s">
-        <v>623</v>
+        <v>917</v>
       </c>
       <c r="F708" s="2" t="s">
         <v>6</v>
@@ -16171,7 +16197,7 @@
       </c>
       <c r="D709" s="2"/>
       <c r="E709" s="3" t="s">
-        <v>624</v>
+        <v>916</v>
       </c>
       <c r="F709" s="2" t="s">
         <v>8</v>
@@ -16189,13 +16215,13 @@
       </c>
       <c r="D710" s="2"/>
       <c r="E710" s="3" t="s">
-        <v>625</v>
+        <v>915</v>
       </c>
       <c r="F710" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>43227.479085648098</v>
       </c>
@@ -16207,7 +16233,7 @@
       </c>
       <c r="D711" s="2"/>
       <c r="E711" s="3" t="s">
-        <v>626</v>
+        <v>914</v>
       </c>
       <c r="F711" s="2" t="s">
         <v>8</v>
@@ -16225,13 +16251,13 @@
       </c>
       <c r="D712" s="2"/>
       <c r="E712" s="3" t="s">
-        <v>627</v>
+        <v>913</v>
       </c>
       <c r="F712" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>43227.481261574103</v>
       </c>
@@ -16243,7 +16269,7 @@
       </c>
       <c r="D713" s="2"/>
       <c r="E713" s="3" t="s">
-        <v>628</v>
+        <v>912</v>
       </c>
       <c r="F713" s="2" t="s">
         <v>8</v>
@@ -16261,7 +16287,7 @@
       </c>
       <c r="D714" s="2"/>
       <c r="E714" s="3" t="s">
-        <v>629</v>
+        <v>911</v>
       </c>
       <c r="F714" s="2" t="s">
         <v>8</v>
@@ -16279,7 +16305,7 @@
       </c>
       <c r="D715" s="2"/>
       <c r="E715" s="3" t="s">
-        <v>630</v>
+        <v>910</v>
       </c>
       <c r="F715" s="2" t="s">
         <v>6</v>
@@ -16297,7 +16323,7 @@
       </c>
       <c r="D716" s="2"/>
       <c r="E716" s="3" t="s">
-        <v>631</v>
+        <v>909</v>
       </c>
       <c r="F716" s="2" t="s">
         <v>8</v>
@@ -16315,7 +16341,7 @@
       </c>
       <c r="D717" s="2"/>
       <c r="E717" s="3" t="s">
-        <v>632</v>
+        <v>908</v>
       </c>
       <c r="F717" s="2" t="s">
         <v>8</v>
@@ -16333,7 +16359,7 @@
       </c>
       <c r="D718" s="2"/>
       <c r="E718" s="3" t="s">
-        <v>633</v>
+        <v>907</v>
       </c>
       <c r="F718" s="2" t="s">
         <v>8</v>
@@ -16351,7 +16377,7 @@
       </c>
       <c r="D719" s="2"/>
       <c r="E719" s="3" t="s">
-        <v>634</v>
+        <v>906</v>
       </c>
       <c r="F719" s="2" t="s">
         <v>6</v>
@@ -16369,7 +16395,7 @@
       </c>
       <c r="D720" s="2"/>
       <c r="E720" s="3" t="s">
-        <v>635</v>
+        <v>905</v>
       </c>
       <c r="F720" s="2" t="s">
         <v>7</v>
@@ -16387,7 +16413,7 @@
       </c>
       <c r="D721" s="2"/>
       <c r="E721" s="3" t="s">
-        <v>636</v>
+        <v>904</v>
       </c>
       <c r="F721" s="2" t="s">
         <v>8</v>
@@ -16405,7 +16431,7 @@
       </c>
       <c r="D722" s="2"/>
       <c r="E722" s="3" t="s">
-        <v>637</v>
+        <v>903</v>
       </c>
       <c r="F722" s="2" t="s">
         <v>6</v>
@@ -16423,7 +16449,7 @@
       </c>
       <c r="D723" s="2"/>
       <c r="E723" s="3" t="s">
-        <v>638</v>
+        <v>902</v>
       </c>
       <c r="F723" s="2" t="s">
         <v>8</v>
@@ -16441,13 +16467,13 @@
       </c>
       <c r="D724" s="2"/>
       <c r="E724" s="3" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="F724" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>43229.372581018499</v>
       </c>
@@ -16459,7 +16485,7 @@
       </c>
       <c r="D725" s="2"/>
       <c r="E725" s="3" t="s">
-        <v>640</v>
+        <v>901</v>
       </c>
       <c r="F725" s="2" t="s">
         <v>6</v>
@@ -16477,7 +16503,7 @@
       </c>
       <c r="D726" s="2"/>
       <c r="E726" s="3" t="s">
-        <v>641</v>
+        <v>900</v>
       </c>
       <c r="F726" s="2" t="s">
         <v>8</v>
@@ -16495,7 +16521,7 @@
       </c>
       <c r="D727" s="2"/>
       <c r="E727" s="3" t="s">
-        <v>642</v>
+        <v>899</v>
       </c>
       <c r="F727" s="2" t="s">
         <v>7</v>
@@ -16513,7 +16539,7 @@
       </c>
       <c r="D728" s="2"/>
       <c r="E728" s="3" t="s">
-        <v>643</v>
+        <v>898</v>
       </c>
       <c r="F728" s="2" t="s">
         <v>8</v>
@@ -16531,7 +16557,7 @@
       </c>
       <c r="D729" s="2"/>
       <c r="E729" s="3" t="s">
-        <v>644</v>
+        <v>897</v>
       </c>
       <c r="F729" s="2" t="s">
         <v>6</v>
@@ -16549,7 +16575,7 @@
       </c>
       <c r="D730" s="2"/>
       <c r="E730" s="3" t="s">
-        <v>645</v>
+        <v>896</v>
       </c>
       <c r="F730" s="2" t="s">
         <v>6</v>
@@ -16567,7 +16593,7 @@
       </c>
       <c r="D731" s="2"/>
       <c r="E731" s="3" t="s">
-        <v>646</v>
+        <v>895</v>
       </c>
       <c r="F731" s="2" t="s">
         <v>8</v>
@@ -16585,13 +16611,13 @@
       </c>
       <c r="D732" s="2"/>
       <c r="E732" s="3" t="s">
-        <v>647</v>
+        <v>894</v>
       </c>
       <c r="F732" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>43229.386469907397</v>
       </c>
@@ -16603,7 +16629,7 @@
       </c>
       <c r="D733" s="2"/>
       <c r="E733" s="3" t="s">
-        <v>648</v>
+        <v>893</v>
       </c>
       <c r="F733" s="2" t="s">
         <v>6</v>
@@ -16621,7 +16647,7 @@
       </c>
       <c r="D734" s="2"/>
       <c r="E734" s="3" t="s">
-        <v>649</v>
+        <v>892</v>
       </c>
       <c r="F734" s="2" t="s">
         <v>8</v>
@@ -16639,7 +16665,7 @@
       </c>
       <c r="D735" s="2"/>
       <c r="E735" s="3" t="s">
-        <v>650</v>
+        <v>891</v>
       </c>
       <c r="F735" s="2" t="s">
         <v>8</v>
@@ -16657,13 +16683,13 @@
       </c>
       <c r="D736" s="2"/>
       <c r="E736" s="3" t="s">
-        <v>651</v>
+        <v>890</v>
       </c>
       <c r="F736" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>43229.3963194444</v>
       </c>
@@ -16675,7 +16701,7 @@
       </c>
       <c r="D737" s="2"/>
       <c r="E737" s="3" t="s">
-        <v>652</v>
+        <v>889</v>
       </c>
       <c r="F737" s="2" t="s">
         <v>8</v>
@@ -16693,7 +16719,7 @@
       </c>
       <c r="D738" s="2"/>
       <c r="E738" s="3" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
       <c r="F738" s="2" t="s">
         <v>8</v>
@@ -16711,7 +16737,7 @@
       </c>
       <c r="D739" s="2"/>
       <c r="E739" s="3" t="s">
-        <v>654</v>
+        <v>888</v>
       </c>
       <c r="F739" s="2" t="s">
         <v>8</v>
@@ -16729,7 +16755,7 @@
       </c>
       <c r="D740" s="2"/>
       <c r="E740" s="3" t="s">
-        <v>655</v>
+        <v>887</v>
       </c>
       <c r="F740" s="2" t="s">
         <v>8</v>
@@ -16747,7 +16773,7 @@
       </c>
       <c r="D741" s="2"/>
       <c r="E741" s="3" t="s">
-        <v>656</v>
+        <v>886</v>
       </c>
       <c r="F741" s="2" t="s">
         <v>7</v>
@@ -16765,7 +16791,7 @@
       </c>
       <c r="D742" s="2"/>
       <c r="E742" s="3" t="s">
-        <v>657</v>
+        <v>885</v>
       </c>
       <c r="F742" s="2" t="s">
         <v>8</v>
@@ -16783,7 +16809,7 @@
       </c>
       <c r="D743" s="2"/>
       <c r="E743" s="3" t="s">
-        <v>658</v>
+        <v>884</v>
       </c>
       <c r="F743" s="2" t="s">
         <v>6</v>
@@ -16801,13 +16827,13 @@
       </c>
       <c r="D744" s="2"/>
       <c r="E744" s="3" t="s">
-        <v>659</v>
+        <v>883</v>
       </c>
       <c r="F744" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>43230.851261574098</v>
       </c>
@@ -16819,7 +16845,7 @@
       </c>
       <c r="D745" s="2"/>
       <c r="E745" s="3" t="s">
-        <v>660</v>
+        <v>882</v>
       </c>
       <c r="F745" s="2" t="s">
         <v>6</v>
@@ -16837,7 +16863,7 @@
       </c>
       <c r="D746" s="2"/>
       <c r="E746" s="3" t="s">
-        <v>661</v>
+        <v>881</v>
       </c>
       <c r="F746" s="2" t="s">
         <v>6</v>
@@ -16855,61 +16881,61 @@
       </c>
       <c r="D747" s="2"/>
       <c r="E747" s="3" t="s">
-        <v>662</v>
+        <v>880</v>
       </c>
       <c r="F747" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>43230.881793981498</v>
+        <v>43230.883564814802</v>
       </c>
       <c r="B748" s="1">
-        <v>43230.8828125</v>
+        <v>43230.883958333303</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" s="3" t="s">
-        <v>663</v>
+        <v>865</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="749" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>43230.882847222201</v>
+        <v>43230.884178240703</v>
       </c>
       <c r="B749" s="1">
-        <v>43230.883518518502</v>
+        <v>43230.885625000003</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" s="3" t="s">
-        <v>664</v>
+        <v>879</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>43230.883564814802</v>
+        <v>43230.885682870401</v>
       </c>
       <c r="B750" s="1">
-        <v>43230.883958333303</v>
+        <v>43230.886122685202</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" s="3" t="s">
-        <v>665</v>
+        <v>878</v>
       </c>
       <c r="F750" s="2" t="s">
         <v>6</v>
@@ -16917,179 +16943,179 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>43230.884016203701</v>
+        <v>43230.886157407404</v>
       </c>
       <c r="B751" s="1">
-        <v>43230.884131944404</v>
+        <v>43230.886574074102</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" s="3" t="s">
-        <v>665</v>
+        <v>877</v>
       </c>
       <c r="F751" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>43230.884178240703</v>
+        <v>43230.886620370402</v>
       </c>
       <c r="B752" s="1">
-        <v>43230.885625000003</v>
+        <v>43230.887314814798</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" s="3" t="s">
-        <v>555</v>
+        <v>876</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>43230.885682870401</v>
+        <v>43230.887361111098</v>
       </c>
       <c r="B753" s="1">
-        <v>43230.886122685202</v>
+        <v>43230.888437499998</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" s="3" t="s">
-        <v>666</v>
+        <v>875</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>43230.886157407404</v>
+        <v>43230.889178240701</v>
       </c>
       <c r="B754" s="1">
-        <v>43230.886574074102</v>
+        <v>43230.889444444401</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" s="3" t="s">
-        <v>667</v>
+        <v>874</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>43230.886620370402</v>
+        <v>43231.607546296298</v>
       </c>
       <c r="B755" s="1">
-        <v>43230.887314814798</v>
+        <v>43231.608055555596</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" s="3" t="s">
-        <v>668</v>
+        <v>873</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>43230.887361111098</v>
+        <v>43231.608090277798</v>
       </c>
       <c r="B756" s="1">
-        <v>43230.888437499998</v>
+        <v>43231.608530092599</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" s="3" t="s">
-        <v>669</v>
+        <v>872</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>43230.888472222199</v>
+        <v>43231.6085648148</v>
       </c>
       <c r="B757" s="1">
-        <v>43230.8891435185</v>
+        <v>43231.609212962998</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D757" s="2"/>
       <c r="E757" s="3" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>43230.889178240701</v>
+        <v>43231.609247685199</v>
       </c>
       <c r="B758" s="1">
-        <v>43230.889444444401</v>
+        <v>43231.610057870399</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D758" s="2"/>
       <c r="E758" s="3" t="s">
-        <v>562</v>
+        <v>871</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>43230.889479166697</v>
+        <v>43231.610115740703</v>
       </c>
       <c r="B759" s="1">
-        <v>43230.8900810185</v>
+        <v>43231.612256944398</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D759" s="2"/>
       <c r="E759" s="3" t="s">
-        <v>670</v>
+        <v>870</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>43231.607546296298</v>
+        <v>43231.612291666701</v>
       </c>
       <c r="B760" s="1">
-        <v>43231.608055555596</v>
+        <v>43231.612731481502</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D760" s="2"/>
       <c r="E760" s="3" t="s">
-        <v>671</v>
+        <v>869</v>
       </c>
       <c r="F760" s="2" t="s">
         <v>6</v>
@@ -17097,35 +17123,35 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>43231.608090277798</v>
+        <v>43231.612754629597</v>
       </c>
       <c r="B761" s="1">
-        <v>43231.608530092599</v>
+        <v>43231.613206018497</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D761" s="2"/>
       <c r="E761" s="3" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>43231.6085648148</v>
+        <v>43231.613240740699</v>
       </c>
       <c r="B762" s="1">
-        <v>43231.609212962998</v>
+        <v>43231.613831018498</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D762" s="2"/>
       <c r="E762" s="3" t="s">
-        <v>673</v>
+        <v>868</v>
       </c>
       <c r="F762" s="2" t="s">
         <v>8</v>
@@ -17133,539 +17159,539 @@
     </row>
     <row r="763" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>43231.609247685199</v>
+        <v>43231.613865740699</v>
       </c>
       <c r="B763" s="1">
-        <v>43231.610057870399</v>
+        <v>43231.614618055602</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D763" s="2"/>
       <c r="E763" s="3" t="s">
-        <v>674</v>
+        <v>867</v>
       </c>
       <c r="F763" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>43231.610115740703</v>
+        <v>43231.614652777796</v>
       </c>
       <c r="B764" s="1">
-        <v>43231.612256944398</v>
+        <v>43231.615219907399</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D764" s="2"/>
       <c r="E764" s="3" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="F764" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>43231.612291666701</v>
+        <v>43231.6152546296</v>
       </c>
       <c r="B765" s="1">
-        <v>43231.612731481502</v>
+        <v>43231.616412037001</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D765" s="2"/>
       <c r="E765" s="3" t="s">
-        <v>676</v>
+        <v>619</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>43231.612754629597</v>
+        <v>43232.717812499999</v>
       </c>
       <c r="B766" s="1">
-        <v>43231.613206018497</v>
+        <v>43232.717928240701</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D766" s="2"/>
       <c r="E766" s="3" t="s">
-        <v>677</v>
+        <v>866</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>43231.613240740699</v>
+        <v>43232.717962962997</v>
       </c>
       <c r="B767" s="1">
-        <v>43231.613831018498</v>
+        <v>43232.718240740702</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D767" s="2"/>
       <c r="E767" s="3" t="s">
-        <v>678</v>
+        <v>865</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>43231.613865740699</v>
+        <v>43232.718287037002</v>
       </c>
       <c r="B768" s="1">
-        <v>43231.614618055602</v>
+        <v>43232.720254629603</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D768" s="2"/>
       <c r="E768" s="3" t="s">
-        <v>679</v>
+        <v>864</v>
       </c>
       <c r="F768" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>43231.614652777796</v>
+        <v>43232.720289351797</v>
       </c>
       <c r="B769" s="1">
-        <v>43231.615219907399</v>
+        <v>43232.720775463</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" s="3" t="s">
-        <v>680</v>
+        <v>863</v>
       </c>
       <c r="F769" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>43231.6152546296</v>
+        <v>43232.720810185201</v>
       </c>
       <c r="B770" s="1">
-        <v>43231.616412037001</v>
+        <v>43232.721307870401</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" s="3" t="s">
-        <v>681</v>
+        <v>862</v>
       </c>
       <c r="F770" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>43232.717812499999</v>
+        <v>43232.721342592602</v>
       </c>
       <c r="B771" s="1">
-        <v>43232.717928240701</v>
+        <v>43232.721643518496</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" s="3" t="s">
-        <v>664</v>
+        <v>861</v>
       </c>
       <c r="F771" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>43232.717962962997</v>
+        <v>43232.721678240698</v>
       </c>
       <c r="B772" s="1">
-        <v>43232.718240740702</v>
+        <v>43232.721921296303</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" s="3" t="s">
-        <v>665</v>
+        <v>860</v>
       </c>
       <c r="F772" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>43232.718287037002</v>
+        <v>43232.722268518497</v>
       </c>
       <c r="B773" s="1">
-        <v>43232.720254629603</v>
+        <v>43232.722581018497</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D773" s="2"/>
       <c r="E773" s="3" t="s">
-        <v>567</v>
+        <v>859</v>
       </c>
       <c r="F773" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>43232.720289351797</v>
+        <v>43232.725231481498</v>
       </c>
       <c r="B774" s="1">
-        <v>43232.720775463</v>
+        <v>43232.726678240702</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" s="3" t="s">
-        <v>564</v>
+        <v>858</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>43232.720810185201</v>
+        <v>43232.726736111101</v>
       </c>
       <c r="B775" s="1">
-        <v>43232.721307870401</v>
+        <v>43232.728171296301</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" s="3" t="s">
-        <v>568</v>
+        <v>857</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>43232.721342592602</v>
+        <v>43232.728206018503</v>
       </c>
       <c r="B776" s="1">
-        <v>43232.721643518496</v>
+        <v>43232.728622685201</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" s="3" t="s">
-        <v>569</v>
+        <v>856</v>
       </c>
       <c r="F776" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>43232.721678240698</v>
+        <v>43232.728657407402</v>
       </c>
       <c r="B777" s="1">
-        <v>43232.721921296303</v>
+        <v>43232.7289930556</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D777" s="2"/>
       <c r="E777" s="3" t="s">
-        <v>682</v>
+        <v>855</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>43232.722268518497</v>
+        <v>43232.729074074101</v>
       </c>
       <c r="B778" s="1">
-        <v>43232.722581018497</v>
+        <v>43232.729328703703</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D778" s="2"/>
       <c r="E778" s="3" t="s">
-        <v>683</v>
+        <v>854</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>43232.722627314797</v>
+        <v>43232.729733796303</v>
       </c>
       <c r="B779" s="1">
-        <v>43232.722928240699</v>
+        <v>43232.730011574102</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D779" s="2"/>
       <c r="E779" s="3" t="s">
-        <v>571</v>
+        <v>853</v>
       </c>
       <c r="F779" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>43232.722974536999</v>
+        <v>43232.730046296303</v>
       </c>
       <c r="B780" s="1">
-        <v>43232.725196759297</v>
+        <v>43232.731886574104</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D780" s="2"/>
       <c r="E780" s="3" t="s">
-        <v>684</v>
+        <v>852</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="781" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>43232.725231481498</v>
+        <v>43232.731956018499</v>
       </c>
       <c r="B781" s="1">
-        <v>43232.726678240702</v>
+        <v>43232.732418981497</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D781" s="2"/>
       <c r="E781" s="3" t="s">
-        <v>685</v>
+        <v>851</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>43232.726736111101</v>
+        <v>43232.732453703698</v>
       </c>
       <c r="B782" s="1">
-        <v>43232.728171296301</v>
+        <v>43232.733333333301</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D782" s="2"/>
       <c r="E782" s="3" t="s">
-        <v>686</v>
+        <v>850</v>
       </c>
       <c r="F782" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>43232.728206018503</v>
+        <v>43232.733414351896</v>
       </c>
       <c r="B783" s="1">
-        <v>43232.728622685201</v>
+        <v>43232.7337037037</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D783" s="2"/>
       <c r="E783" s="3" t="s">
-        <v>575</v>
+        <v>849</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>43232.728657407402</v>
+        <v>43232.733738425901</v>
       </c>
       <c r="B784" s="1">
-        <v>43232.7289930556</v>
+        <v>43232.735578703701</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D784" s="2"/>
       <c r="E784" s="3" t="s">
-        <v>576</v>
+        <v>848</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>43232.729074074101</v>
+        <v>43232.735613425903</v>
       </c>
       <c r="B785" s="1">
-        <v>43232.729328703703</v>
+        <v>43232.736909722204</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" s="3" t="s">
-        <v>577</v>
+        <v>847</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>43232.729363425897</v>
+        <v>43232.736944444398</v>
       </c>
       <c r="B786" s="1">
-        <v>43232.729699074102</v>
+        <v>43232.737546296303</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" s="3" t="s">
-        <v>578</v>
+        <v>846</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>43232.729733796303</v>
+        <v>43232.737581018497</v>
       </c>
       <c r="B787" s="1">
-        <v>43232.730011574102</v>
+        <v>43232.737870370402</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" s="3" t="s">
-        <v>687</v>
+        <v>845</v>
       </c>
       <c r="F787" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>43232.730046296303</v>
+        <v>43232.737905092603</v>
       </c>
       <c r="B788" s="1">
-        <v>43232.731886574104</v>
+        <v>43232.738252314797</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" s="3" t="s">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>43232.731956018499</v>
+        <v>43232.738287036998</v>
       </c>
       <c r="B789" s="1">
-        <v>43232.732418981497</v>
+        <v>43232.738599536999</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" s="3" t="s">
-        <v>689</v>
+        <v>843</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>43232.732453703698</v>
+        <v>43232.738634259302</v>
       </c>
       <c r="B790" s="1">
-        <v>43232.733333333301</v>
+        <v>43232.738993055602</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" s="3" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>43232.733414351896</v>
+        <v>43232.739027777803</v>
       </c>
       <c r="B791" s="1">
-        <v>43232.7337037037</v>
+        <v>43232.7398032407</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" s="3" t="s">
-        <v>584</v>
+        <v>842</v>
       </c>
       <c r="F791" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>43232.733738425901</v>
+        <v>43232.739837963003</v>
       </c>
       <c r="B792" s="1">
-        <v>43232.735578703701</v>
+        <v>43232.740578703699</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D792" s="2"/>
       <c r="E792" s="3" t="s">
-        <v>691</v>
+        <v>841</v>
       </c>
       <c r="F792" s="2" t="s">
         <v>6</v>
@@ -17673,17 +17699,17 @@
     </row>
     <row r="793" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>43232.735613425903</v>
+        <v>43232.7406134259</v>
       </c>
       <c r="B793" s="1">
-        <v>43232.736909722204</v>
+        <v>43232.742696759298</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D793" s="2"/>
       <c r="E793" s="3" t="s">
-        <v>692</v>
+        <v>840</v>
       </c>
       <c r="F793" s="2" t="s">
         <v>7</v>
@@ -17691,17 +17717,17 @@
     </row>
     <row r="794" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>43232.736944444398</v>
+        <v>43232.742824074099</v>
       </c>
       <c r="B794" s="1">
-        <v>43232.737546296303</v>
+        <v>43232.743437500001</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D794" s="2"/>
       <c r="E794" s="3" t="s">
-        <v>693</v>
+        <v>839</v>
       </c>
       <c r="F794" s="2" t="s">
         <v>6</v>
@@ -17709,17 +17735,17 @@
     </row>
     <row r="795" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>43232.737581018497</v>
+        <v>43232.7434953704</v>
       </c>
       <c r="B795" s="1">
-        <v>43232.737870370402</v>
+        <v>43232.743877314802</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D795" s="2"/>
       <c r="E795" s="3" t="s">
-        <v>590</v>
+        <v>838</v>
       </c>
       <c r="F795" s="2" t="s">
         <v>6</v>
@@ -17727,125 +17753,125 @@
     </row>
     <row r="796" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>43232.737905092603</v>
+        <v>43232.743923611102</v>
       </c>
       <c r="B796" s="1">
-        <v>43232.738252314797</v>
+        <v>43232.744293981501</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D796" s="2"/>
       <c r="E796" s="3" t="s">
-        <v>694</v>
+        <v>837</v>
       </c>
       <c r="F796" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>43232.738287036998</v>
+        <v>43234.845763888901</v>
       </c>
       <c r="B797" s="1">
-        <v>43232.738599536999</v>
+        <v>43234.845902777801</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D797" s="2"/>
       <c r="E797" s="3" t="s">
-        <v>695</v>
+        <v>836</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>43232.738634259302</v>
+        <v>43234.845937500002</v>
       </c>
       <c r="B798" s="1">
-        <v>43232.738993055602</v>
+        <v>43234.846296296302</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D798" s="2"/>
       <c r="E798" s="3" t="s">
-        <v>696</v>
+        <v>835</v>
       </c>
       <c r="F798" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>43232.739027777803</v>
+        <v>43234.846539351798</v>
       </c>
       <c r="B799" s="1">
-        <v>43232.7398032407</v>
+        <v>43234.846793981502</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D799" s="2"/>
       <c r="E799" s="3" t="s">
-        <v>697</v>
+        <v>834</v>
       </c>
       <c r="F799" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>43232.739837963003</v>
+        <v>43234.846840277802</v>
       </c>
       <c r="B800" s="1">
-        <v>43232.740578703699</v>
+        <v>43234.847256944398</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D800" s="2"/>
       <c r="E800" s="3" t="s">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="F800" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>43232.7406134259</v>
+        <v>43234.847337963001</v>
       </c>
       <c r="B801" s="1">
-        <v>43232.742696759298</v>
+        <v>43234.847939814797</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D801" s="2"/>
       <c r="E801" s="3" t="s">
-        <v>917</v>
+        <v>832</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>43232.742824074099</v>
+        <v>43234.847974536999</v>
       </c>
       <c r="B802" s="1">
-        <v>43232.743437500001</v>
+        <v>43234.849039351902</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D802" s="2"/>
       <c r="E802" s="3" t="s">
-        <v>916</v>
+        <v>831</v>
       </c>
       <c r="F802" s="2" t="s">
         <v>6</v>
@@ -17853,377 +17879,377 @@
     </row>
     <row r="803" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>43232.7434953704</v>
+        <v>43234.8523726852</v>
       </c>
       <c r="B803" s="1">
-        <v>43232.743877314802</v>
+        <v>43234.8532291667</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D803" s="2"/>
       <c r="E803" s="3" t="s">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>43232.743923611102</v>
+        <v>43234.853310185201</v>
       </c>
       <c r="B804" s="1">
-        <v>43232.744293981501</v>
+        <v>43234.854710648098</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D804" s="2"/>
       <c r="E804" s="3" t="s">
-        <v>914</v>
+        <v>829</v>
       </c>
       <c r="F804" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>43234.845763888901</v>
+        <v>43234.858356481498</v>
       </c>
       <c r="B805" s="1">
-        <v>43234.845902777801</v>
+        <v>43234.858495370398</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D805" s="2"/>
       <c r="E805" s="3" t="s">
-        <v>913</v>
+        <v>828</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="806" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>43234.845937500002</v>
+        <v>43234.858530092599</v>
       </c>
       <c r="B806" s="1">
-        <v>43234.846296296302</v>
+        <v>43234.860520833303</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D806" s="2"/>
       <c r="E806" s="3" t="s">
-        <v>912</v>
+        <v>827</v>
       </c>
       <c r="F806" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>43234.846539351798</v>
+        <v>43234.860567129603</v>
       </c>
       <c r="B807" s="1">
-        <v>43234.846793981502</v>
+        <v>43234.861030092601</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D807" s="2"/>
       <c r="E807" s="3" t="s">
-        <v>911</v>
+        <v>826</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>43234.846840277802</v>
+        <v>43234.864479166703</v>
       </c>
       <c r="B808" s="1">
-        <v>43234.847256944398</v>
+        <v>43234.864571759303</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D808" s="2"/>
       <c r="E808" s="3" t="s">
-        <v>910</v>
+        <v>825</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>43234.847337963001</v>
+        <v>43239.582743055602</v>
       </c>
       <c r="B809" s="1">
-        <v>43234.847939814797</v>
+        <v>43239.584687499999</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D809" s="2"/>
       <c r="E809" s="3" t="s">
-        <v>909</v>
+        <v>824</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>43234.847974536999</v>
+        <v>43239.584791666697</v>
       </c>
       <c r="B810" s="1">
-        <v>43234.849039351902</v>
+        <v>43239.585150462997</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D810" s="2"/>
       <c r="E810" s="3" t="s">
-        <v>908</v>
+        <v>818</v>
       </c>
       <c r="F810" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>43234.8523726852</v>
+        <v>43239.588854166701</v>
       </c>
       <c r="B811" s="1">
-        <v>43234.8532291667</v>
+        <v>43239.591226851902</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D811" s="2"/>
       <c r="E811" s="3" t="s">
-        <v>907</v>
+        <v>823</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>43234.853310185201</v>
+        <v>43239.5912731481</v>
       </c>
       <c r="B812" s="1">
-        <v>43234.854710648098</v>
+        <v>43239.5926736111</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D812" s="2"/>
       <c r="E812" s="3" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>43234.858356481498</v>
+        <v>43239.592731481498</v>
       </c>
       <c r="B813" s="1">
-        <v>43234.858495370398</v>
+        <v>43239.5941087963</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D813" s="2"/>
       <c r="E813" s="3" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="F813" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>43234.858530092599</v>
+        <v>43239.594143518501</v>
       </c>
       <c r="B814" s="1">
-        <v>43234.860520833303</v>
+        <v>43239.595648148097</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D814" s="2"/>
       <c r="E814" s="3" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>43234.860567129603</v>
+        <v>43239.595694444397</v>
       </c>
       <c r="B815" s="1">
-        <v>43234.861030092601</v>
+        <v>43239.597187500003</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D815" s="2"/>
       <c r="E815" s="3" t="s">
-        <v>903</v>
+        <v>621</v>
       </c>
       <c r="F815" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>43234.864479166703</v>
+        <v>43240.630081018498</v>
       </c>
       <c r="B816" s="1">
-        <v>43234.864571759303</v>
+        <v>43240.631423611099</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" s="3" t="s">
-        <v>902</v>
+        <v>819</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="817" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>43239.582743055602</v>
+        <v>43241.723032407397</v>
       </c>
       <c r="B817" s="1">
-        <v>43239.584687499999</v>
+        <v>43241.723692129599</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D817" s="2"/>
       <c r="E817" s="3" t="s">
-        <v>901</v>
+        <v>818</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>43239.584791666697</v>
+        <v>43241.727997685201</v>
       </c>
       <c r="B818" s="1">
-        <v>43239.585150462997</v>
+        <v>43241.728344907402</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D818" s="2"/>
       <c r="E818" s="3" t="s">
-        <v>895</v>
+        <v>817</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>43239.588854166701</v>
+        <v>43241.729201388902</v>
       </c>
       <c r="B819" s="1">
-        <v>43239.591226851902</v>
+        <v>43241.730069444398</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" s="3" t="s">
-        <v>900</v>
+        <v>816</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>43239.5912731481</v>
+        <v>43241.730277777802</v>
       </c>
       <c r="B820" s="1">
-        <v>43239.5926736111</v>
+        <v>43241.730833333299</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" s="3" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>43239.592731481498</v>
+        <v>43241.731192129599</v>
       </c>
       <c r="B821" s="1">
-        <v>43239.5941087963</v>
+        <v>43241.735879629603</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" s="3" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="F821" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>43239.594143518501</v>
+        <v>43241.738414351901</v>
       </c>
       <c r="B822" s="1">
-        <v>43239.595648148097</v>
+        <v>43241.739224536999</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" s="3" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>43239.595694444397</v>
+        <v>43241.739317129599</v>
       </c>
       <c r="B823" s="1">
-        <v>43239.597187500003</v>
+        <v>43241.740509259304</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D823" s="2"/>
       <c r="E823" s="3" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
       <c r="F823" s="2" t="s">
         <v>8</v>
@@ -18231,197 +18257,197 @@
     </row>
     <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>43240.630081018498</v>
+        <v>43241.740555555603</v>
       </c>
       <c r="B824" s="1">
-        <v>43240.631423611099</v>
+        <v>43241.741550925901</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D824" s="2"/>
       <c r="E824" s="3" t="s">
-        <v>896</v>
+        <v>812</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>43241.723032407397</v>
+        <v>43242.865694444401</v>
       </c>
       <c r="B825" s="1">
-        <v>43241.723692129599</v>
+        <v>43242.866446759297</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" s="3" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="F825" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>43241.727997685201</v>
+        <v>43242.866493055597</v>
       </c>
       <c r="B826" s="1">
-        <v>43241.728344907402</v>
+        <v>43242.867314814801</v>
       </c>
       <c r="C826" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D826" s="2"/>
       <c r="E826" s="3" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="827" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>43241.729201388902</v>
+        <v>43242.867395833302</v>
       </c>
       <c r="B827" s="1">
-        <v>43241.730069444398</v>
+        <v>43242.868020833303</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" s="3" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="F827" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>43241.730277777802</v>
+        <v>43242.8688541667</v>
       </c>
       <c r="B828" s="1">
-        <v>43241.730833333299</v>
+        <v>43242.869212963</v>
       </c>
       <c r="C828" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" s="3" t="s">
-        <v>892</v>
+        <v>624</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>43241.731192129599</v>
+        <v>43243.4987384259</v>
       </c>
       <c r="B829" s="1">
-        <v>43241.735879629603</v>
+        <v>43243.500034722201</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" s="3" t="s">
-        <v>891</v>
+        <v>808</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="830" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>43241.738414351901</v>
+        <v>43243.500115740702</v>
       </c>
       <c r="B830" s="1">
-        <v>43241.739224536999</v>
+        <v>43243.500659722202</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" s="3" t="s">
-        <v>890</v>
+        <v>807</v>
       </c>
       <c r="F830" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>43241.739317129599</v>
+        <v>43243.500706018502</v>
       </c>
       <c r="B831" s="1">
-        <v>43241.740509259304</v>
+        <v>43243.5012615741</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" s="3" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>43241.740555555603</v>
+        <v>43243.501805555599</v>
       </c>
       <c r="B832" s="1">
-        <v>43241.741550925901</v>
+        <v>43243.502789351798</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" s="3" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>43242.865694444401</v>
+        <v>43243.502835648098</v>
       </c>
       <c r="B833" s="1">
-        <v>43242.866446759297</v>
+        <v>43243.504097222198</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" s="3" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>43242.866493055597</v>
+        <v>43243.504594907397</v>
       </c>
       <c r="B834" s="1">
-        <v>43242.867314814801</v>
+        <v>43243.504999999997</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" s="3" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="F834" s="2" t="s">
         <v>6</v>
@@ -18429,89 +18455,89 @@
     </row>
     <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>43242.867395833302</v>
+        <v>43243.505081018498</v>
       </c>
       <c r="B835" s="1">
-        <v>43242.868020833303</v>
+        <v>43243.5075</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" s="3" t="s">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="F835" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>43242.8688541667</v>
+        <v>43243.507534722201</v>
       </c>
       <c r="B836" s="1">
-        <v>43242.869212963</v>
+        <v>43243.508159722202</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" s="3" t="s">
-        <v>701</v>
+        <v>801</v>
       </c>
       <c r="F836" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>43243.4987384259</v>
+        <v>43243.508206018501</v>
       </c>
       <c r="B837" s="1">
-        <v>43243.500034722201</v>
+        <v>43243.508900462999</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" s="3" t="s">
-        <v>885</v>
+        <v>800</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>43243.500115740702</v>
+        <v>43243.511585648201</v>
       </c>
       <c r="B838" s="1">
-        <v>43243.500659722202</v>
+        <v>43243.513946759304</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" s="3" t="s">
-        <v>884</v>
+        <v>799</v>
       </c>
       <c r="F838" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>43243.500706018502</v>
+        <v>43243.687349537002</v>
       </c>
       <c r="B839" s="1">
-        <v>43243.5012615741</v>
+        <v>43243.688240740703</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" s="3" t="s">
-        <v>883</v>
+        <v>798</v>
       </c>
       <c r="F839" s="2" t="s">
         <v>6</v>
@@ -18519,17 +18545,17 @@
     </row>
     <row r="840" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>43243.501805555599</v>
+        <v>43243.688275462999</v>
       </c>
       <c r="B840" s="1">
-        <v>43243.502789351798</v>
+        <v>43243.6893865741</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" s="3" t="s">
-        <v>882</v>
+        <v>797</v>
       </c>
       <c r="F840" s="2" t="s">
         <v>6</v>
@@ -18537,35 +18563,35 @@
     </row>
     <row r="841" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>43243.502835648098</v>
+        <v>43243.689444444397</v>
       </c>
       <c r="B841" s="1">
-        <v>43243.504097222198</v>
+        <v>43243.690497685202</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" s="3" t="s">
-        <v>881</v>
+        <v>796</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>43243.504594907397</v>
+        <v>43243.690787036998</v>
       </c>
       <c r="B842" s="1">
-        <v>43243.504999999997</v>
+        <v>43243.691469907397</v>
       </c>
       <c r="C842" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D842" s="2"/>
       <c r="E842" s="3" t="s">
-        <v>880</v>
+        <v>795</v>
       </c>
       <c r="F842" s="2" t="s">
         <v>6</v>
@@ -18573,647 +18599,647 @@
     </row>
     <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>43243.505081018498</v>
+        <v>43243.691539351901</v>
       </c>
       <c r="B843" s="1">
-        <v>43243.5075</v>
+        <v>43243.692870370403</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" s="3" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="F843" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>43243.507534722201</v>
+        <v>43244.609652777799</v>
       </c>
       <c r="B844" s="1">
-        <v>43243.508159722202</v>
+        <v>43244.610104166699</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" s="3" t="s">
-        <v>878</v>
+        <v>793</v>
       </c>
       <c r="F844" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>43243.508206018501</v>
+        <v>43244.610266203701</v>
       </c>
       <c r="B845" s="1">
-        <v>43243.508900462999</v>
+        <v>43244.612523148098</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" s="3" t="s">
-        <v>877</v>
+        <v>792</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="846" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>43243.511585648201</v>
+        <v>43244.614293981504</v>
       </c>
       <c r="B846" s="1">
-        <v>43243.513946759304</v>
+        <v>43244.6153009259</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" s="3" t="s">
-        <v>876</v>
+        <v>791</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="847" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>43243.687349537002</v>
+        <v>43244.615358796298</v>
       </c>
       <c r="B847" s="1">
-        <v>43243.688240740703</v>
+        <v>43244.6163773148</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" s="3" t="s">
-        <v>875</v>
+        <v>622</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>43243.688275462999</v>
+        <v>43244.6164236111</v>
       </c>
       <c r="B848" s="1">
-        <v>43243.6893865741</v>
+        <v>43244.617106481499</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" s="3" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="849" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>43243.689444444397</v>
+        <v>43244.617152777799</v>
       </c>
       <c r="B849" s="1">
-        <v>43243.690497685202</v>
+        <v>43244.618217592601</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" s="3" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>43243.690787036998</v>
+        <v>43244.618275462999</v>
       </c>
       <c r="B850" s="1">
-        <v>43243.691469907397</v>
+        <v>43244.619409722203</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" s="3" t="s">
-        <v>872</v>
+        <v>788</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>43243.691539351901</v>
+        <v>43244.624317129601</v>
       </c>
       <c r="B851" s="1">
-        <v>43243.692870370403</v>
+        <v>43244.625520833302</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" s="3" t="s">
-        <v>871</v>
+        <v>787</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>43244.609652777799</v>
+        <v>43244.625625000001</v>
       </c>
       <c r="B852" s="1">
-        <v>43244.610104166699</v>
+        <v>43244.626342592601</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" s="3" t="s">
-        <v>870</v>
+        <v>625</v>
       </c>
       <c r="F852" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>43244.610266203701</v>
+        <v>43246.418425925898</v>
       </c>
       <c r="B853" s="1">
-        <v>43244.612523148098</v>
+        <v>43246.419699074097</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" s="3" t="s">
-        <v>869</v>
+        <v>786</v>
       </c>
       <c r="F853" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>43244.614293981504</v>
+        <v>43246.419733796298</v>
       </c>
       <c r="B854" s="1">
-        <v>43244.6153009259</v>
+        <v>43246.420856481498</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" s="3" t="s">
-        <v>868</v>
+        <v>785</v>
       </c>
       <c r="F854" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>43244.615358796298</v>
+        <v>43246.416296296302</v>
       </c>
       <c r="B855" s="1">
-        <v>43244.6163773148</v>
+        <v>43246.417847222197</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" s="3" t="s">
-        <v>699</v>
+        <v>784</v>
       </c>
       <c r="F855" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>43244.6164236111</v>
+        <v>43246.4227314815</v>
       </c>
       <c r="B856" s="1">
-        <v>43244.617106481499</v>
+        <v>43246.424155092602</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" s="3" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="F856" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>43244.617152777799</v>
+        <v>43246.424201388902</v>
       </c>
       <c r="B857" s="1">
-        <v>43244.618217592601</v>
+        <v>43246.426168981503</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="3" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
       <c r="F857" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>43244.618275462999</v>
+        <v>43246.429293981499</v>
       </c>
       <c r="B858" s="1">
-        <v>43244.619409722203</v>
+        <v>43246.429814814801</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" s="3" t="s">
-        <v>865</v>
+        <v>781</v>
       </c>
       <c r="F858" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>43244.624317129601</v>
+        <v>43246.429918981499</v>
       </c>
       <c r="B859" s="1">
-        <v>43244.625520833302</v>
+        <v>43246.431284722203</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" s="3" t="s">
-        <v>864</v>
+        <v>626</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="860" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>43244.625625000001</v>
+        <v>43246.431365740696</v>
       </c>
       <c r="B860" s="1">
-        <v>43244.626342592601</v>
+        <v>43246.432708333297</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" s="3" t="s">
-        <v>702</v>
+        <v>780</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>43246.418425925898</v>
+        <v>43247.563888888901</v>
       </c>
       <c r="B861" s="1">
-        <v>43246.419699074097</v>
+        <v>43247.565405092602</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D861" s="2"/>
       <c r="E861" s="3" t="s">
-        <v>863</v>
+        <v>779</v>
       </c>
       <c r="F861" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>43246.419733796298</v>
+        <v>43247.565462963001</v>
       </c>
       <c r="B862" s="1">
-        <v>43246.420856481498</v>
+        <v>43247.566932870403</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D862" s="2"/>
       <c r="E862" s="3" t="s">
-        <v>862</v>
+        <v>778</v>
       </c>
       <c r="F862" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="863" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>43246.416296296302</v>
+        <v>43247.567002314798</v>
       </c>
       <c r="B863" s="1">
-        <v>43246.417847222197</v>
+        <v>43247.567685185197</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" s="3" t="s">
-        <v>861</v>
+        <v>627</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>43246.4227314815</v>
+        <v>43247.567719907398</v>
       </c>
       <c r="B864" s="1">
-        <v>43246.424155092602</v>
+        <v>43247.568680555603</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" s="3" t="s">
-        <v>860</v>
+        <v>777</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>43246.424201388902</v>
+        <v>43247.5687384259</v>
       </c>
       <c r="B865" s="1">
-        <v>43246.426168981503</v>
+        <v>43247.569733796299</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" s="3" t="s">
-        <v>859</v>
+        <v>776</v>
       </c>
       <c r="F865" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>43246.429293981499</v>
+        <v>43247.5697685185</v>
       </c>
       <c r="B866" s="1">
-        <v>43246.429814814801</v>
+        <v>43247.570370370398</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="3" t="s">
-        <v>858</v>
+        <v>628</v>
       </c>
       <c r="F866" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>43246.429918981499</v>
+        <v>43247.570393518501</v>
       </c>
       <c r="B867" s="1">
-        <v>43246.431284722203</v>
+        <v>43247.571273148104</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" s="3" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>43246.431365740696</v>
+        <v>43247.571354166699</v>
       </c>
       <c r="B868" s="1">
-        <v>43246.432708333297</v>
+        <v>43247.572141203702</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="3" t="s">
-        <v>857</v>
+        <v>774</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>43247.563888888901</v>
+        <v>43247.5721990741</v>
       </c>
       <c r="B869" s="1">
-        <v>43247.565405092602</v>
+        <v>43247.573125000003</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="3" t="s">
-        <v>856</v>
+        <v>629</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>43247.565462963001</v>
+        <v>43247.573263888902</v>
       </c>
       <c r="B870" s="1">
-        <v>43247.566932870403</v>
+        <v>43247.573981481502</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D870" s="2"/>
       <c r="E870" s="3" t="s">
-        <v>855</v>
+        <v>773</v>
       </c>
       <c r="F870" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>43247.567002314798</v>
+        <v>43248.441168981502</v>
       </c>
       <c r="B871" s="1">
-        <v>43247.567685185197</v>
+        <v>43248.441851851901</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D871" s="2"/>
       <c r="E871" s="3" t="s">
-        <v>704</v>
+        <v>772</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>43247.567719907398</v>
+        <v>43248.441898148099</v>
       </c>
       <c r="B872" s="1">
-        <v>43247.568680555603</v>
+        <v>43248.4431944444</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D872" s="2"/>
       <c r="E872" s="3" t="s">
-        <v>854</v>
+        <v>771</v>
       </c>
       <c r="F872" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>43247.5687384259</v>
+        <v>43248.443287037</v>
       </c>
       <c r="B873" s="1">
-        <v>43247.569733796299</v>
+        <v>43248.444178240701</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" s="3" t="s">
-        <v>853</v>
+        <v>770</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>43247.5697685185</v>
+        <v>43248.444224537001</v>
       </c>
       <c r="B874" s="1">
-        <v>43247.570370370398</v>
+        <v>43248.4448611111</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="3" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>43247.570393518501</v>
+        <v>43248.444930555597</v>
       </c>
       <c r="B875" s="1">
-        <v>43247.571273148104</v>
+        <v>43248.446296296301</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D875" s="2"/>
       <c r="E875" s="3" t="s">
-        <v>852</v>
+        <v>768</v>
       </c>
       <c r="F875" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>43247.571354166699</v>
+        <v>43248.446423611102</v>
       </c>
       <c r="B876" s="1">
-        <v>43247.572141203702</v>
+        <v>43248.4469791667</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="3" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="F876" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>43247.5721990741</v>
+        <v>43248.447060185201</v>
       </c>
       <c r="B877" s="1">
-        <v>43247.573125000003</v>
+        <v>43248.4473842593</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="3" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>43247.573263888902</v>
+        <v>43248.447418981501</v>
       </c>
       <c r="B878" s="1">
-        <v>43247.573981481502</v>
+        <v>43248.448125000003</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="3" t="s">
-        <v>850</v>
+        <v>765</v>
       </c>
       <c r="F878" s="2" t="s">
         <v>6</v>
@@ -19221,143 +19247,143 @@
     </row>
     <row r="879" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>43248.441168981502</v>
+        <v>43248.448217592602</v>
       </c>
       <c r="B879" s="1">
-        <v>43248.441851851901</v>
+        <v>43248.449189814797</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="3" t="s">
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="F879" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>43248.441898148099</v>
+        <v>43248.449340277803</v>
       </c>
       <c r="B880" s="1">
-        <v>43248.4431944444</v>
+        <v>43248.449791666702</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="3" t="s">
-        <v>848</v>
+        <v>630</v>
       </c>
       <c r="F880" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>43248.443287037</v>
+        <v>43248.573032407403</v>
       </c>
       <c r="B881" s="1">
-        <v>43248.444178240701</v>
+        <v>43248.574386574102</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="3" t="s">
-        <v>847</v>
+        <v>763</v>
       </c>
       <c r="F881" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>43248.444224537001</v>
+        <v>43248.574479166702</v>
       </c>
       <c r="B882" s="1">
-        <v>43248.4448611111</v>
+        <v>43248.585833333302</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="3" t="s">
-        <v>846</v>
+        <v>762</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="883" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>43248.444930555597</v>
+        <v>43248.586736111101</v>
       </c>
       <c r="B883" s="1">
-        <v>43248.446296296301</v>
+        <v>43248.588425925896</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="3" t="s">
-        <v>845</v>
+        <v>761</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>43248.446423611102</v>
+        <v>43248.588460648098</v>
       </c>
       <c r="B884" s="1">
-        <v>43248.4469791667</v>
+        <v>43248.588842592602</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="3" t="s">
-        <v>844</v>
+        <v>760</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>43248.447060185201</v>
+        <v>43248.588888888902</v>
       </c>
       <c r="B885" s="1">
-        <v>43248.4473842593</v>
+        <v>43248.589861111097</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="3" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>43248.447418981501</v>
+        <v>43248.590856481504</v>
       </c>
       <c r="B886" s="1">
-        <v>43248.448125000003</v>
+        <v>43248.591412037</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="3" t="s">
-        <v>842</v>
+        <v>758</v>
       </c>
       <c r="F886" s="2" t="s">
         <v>6</v>
@@ -19365,197 +19391,197 @@
     </row>
     <row r="887" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>43248.448217592602</v>
+        <v>43248.591446759303</v>
       </c>
       <c r="B887" s="1">
-        <v>43248.449189814797</v>
+        <v>43248.591793981497</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="3" t="s">
-        <v>841</v>
+        <v>757</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>43248.449340277803</v>
+        <v>43250.710405092599</v>
       </c>
       <c r="B888" s="1">
-        <v>43248.449791666702</v>
+        <v>43250.711319444403</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D888" s="2"/>
       <c r="E888" s="3" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>43248.573032407403</v>
+        <v>43250.7113888889</v>
       </c>
       <c r="B889" s="1">
-        <v>43248.574386574102</v>
+        <v>43250.711921296301</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="3" t="s">
-        <v>840</v>
+        <v>631</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="890" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>43248.574479166702</v>
+        <v>43250.711979166699</v>
       </c>
       <c r="B890" s="1">
-        <v>43248.585833333302</v>
+        <v>43250.712881944397</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="3" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>43248.586736111101</v>
+        <v>43250.712951388901</v>
       </c>
       <c r="B891" s="1">
-        <v>43248.588425925896</v>
+        <v>43250.713831018496</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="3" t="s">
-        <v>838</v>
+        <v>754</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>43248.588460648098</v>
+        <v>43250.713958333297</v>
       </c>
       <c r="B892" s="1">
-        <v>43248.588842592602</v>
+        <v>43250.714317129597</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="3" t="s">
-        <v>837</v>
+        <v>753</v>
       </c>
       <c r="F892" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>43248.588888888902</v>
+        <v>43250.714409722197</v>
       </c>
       <c r="B893" s="1">
-        <v>43248.589861111097</v>
+        <v>43250.715069444399</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="3" t="s">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="894" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>43248.590856481504</v>
+        <v>43250.715254629598</v>
       </c>
       <c r="B894" s="1">
-        <v>43248.591412037</v>
+        <v>43250.716041666703</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="3" t="s">
-        <v>835</v>
+        <v>751</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="895" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>43248.591446759303</v>
+        <v>43250.716238425899</v>
       </c>
       <c r="B895" s="1">
-        <v>43248.591793981497</v>
+        <v>43250.716793981497</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="3" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="896" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>43250.710405092599</v>
+        <v>43250.7168634259</v>
       </c>
       <c r="B896" s="1">
-        <v>43250.711319444403</v>
+        <v>43250.717164351903</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="3" t="s">
-        <v>833</v>
+        <v>632</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>43250.7113888889</v>
+        <v>43250.717210648101</v>
       </c>
       <c r="B897" s="1">
-        <v>43250.711921296301</v>
+        <v>43250.717812499999</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="3" t="s">
-        <v>708</v>
+        <v>633</v>
       </c>
       <c r="F897" s="2" t="s">
         <v>6</v>
@@ -19563,467 +19589,467 @@
     </row>
     <row r="898" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>43250.711979166699</v>
+        <v>43250.717997685198</v>
       </c>
       <c r="B898" s="1">
-        <v>43250.712881944397</v>
+        <v>43250.7192013889</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="3" t="s">
-        <v>832</v>
+        <v>749</v>
       </c>
       <c r="F898" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>43250.712951388901</v>
+        <v>43253.8147916667</v>
       </c>
       <c r="B899" s="1">
-        <v>43250.713831018496</v>
+        <v>43253.843020833301</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="3" t="s">
-        <v>831</v>
+        <v>748</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>43250.713958333297</v>
+        <v>43254.888263888897</v>
       </c>
       <c r="B900" s="1">
-        <v>43250.714317129597</v>
+        <v>43254.889039351903</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="3" t="s">
-        <v>830</v>
+        <v>747</v>
       </c>
       <c r="F900" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>43250.714409722197</v>
+        <v>43254.8890972222</v>
       </c>
       <c r="B901" s="1">
-        <v>43250.715069444399</v>
+        <v>43254.889791666697</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="3" t="s">
-        <v>829</v>
+        <v>746</v>
       </c>
       <c r="F901" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>43250.715254629598</v>
+        <v>43254.907766203702</v>
       </c>
       <c r="B902" s="1">
-        <v>43250.716041666703</v>
+        <v>43254.910879629599</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="3" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>43250.716238425899</v>
+        <v>43254.910937499997</v>
       </c>
       <c r="B903" s="1">
-        <v>43250.716793981497</v>
+        <v>43254.9129861111</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D903" s="2"/>
       <c r="E903" s="3" t="s">
-        <v>827</v>
+        <v>745</v>
       </c>
       <c r="F903" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>43250.7168634259</v>
+        <v>43254.913032407399</v>
       </c>
       <c r="B904" s="1">
-        <v>43250.717164351903</v>
+        <v>43254.9135185185</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="3" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>43250.717210648101</v>
+        <v>43254.913553240702</v>
       </c>
       <c r="B905" s="1">
-        <v>43250.717812499999</v>
+        <v>43254.914166666698</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="3" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="906" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>43250.717997685198</v>
+        <v>43254.914212962998</v>
       </c>
       <c r="B906" s="1">
-        <v>43250.7192013889</v>
+        <v>43254.915451388901</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="3" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>43253.8147916667</v>
+        <v>43254.915497685201</v>
       </c>
       <c r="B907" s="1">
-        <v>43253.843020833301</v>
+        <v>43254.916504629597</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D907" s="2"/>
       <c r="E907" s="3" t="s">
-        <v>825</v>
+        <v>741</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>43254.888263888897</v>
+        <v>43254.917013888902</v>
       </c>
       <c r="B908" s="1">
-        <v>43254.889039351903</v>
+        <v>43254.917916666702</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D908" s="2"/>
       <c r="E908" s="3" t="s">
-        <v>824</v>
+        <v>740</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>43254.8890972222</v>
+        <v>43254.917986111097</v>
       </c>
       <c r="B909" s="1">
-        <v>43254.889791666697</v>
+        <v>43254.919097222199</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D909" s="2"/>
       <c r="E909" s="3" t="s">
-        <v>823</v>
+        <v>739</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>43254.907766203702</v>
+        <v>43255.241840277798</v>
       </c>
       <c r="B910" s="1">
-        <v>43254.910879629599</v>
+        <v>43255.2422337963</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D910" s="2"/>
       <c r="E910" s="3" t="s">
-        <v>815</v>
+        <v>738</v>
       </c>
       <c r="F910" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>43254.910937499997</v>
+        <v>43255.421238425901</v>
       </c>
       <c r="B911" s="1">
-        <v>43254.9129861111</v>
+        <v>43255.421388888899</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D911" s="2"/>
       <c r="E911" s="3" t="s">
-        <v>822</v>
+        <v>737</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="912" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>43254.913032407399</v>
+        <v>43255.425520833298</v>
       </c>
       <c r="B912" s="1">
-        <v>43254.9135185185</v>
+        <v>43255.426226851901</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D912" s="2"/>
       <c r="E912" s="3" t="s">
-        <v>821</v>
+        <v>736</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>43254.913553240702</v>
+        <v>43255.426273148099</v>
       </c>
       <c r="B913" s="1">
-        <v>43254.914166666698</v>
+        <v>43255.427037037</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="3" t="s">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>43254.914212962998</v>
+        <v>43255.427083333299</v>
       </c>
       <c r="B914" s="1">
-        <v>43254.915451388901</v>
+        <v>43255.427476851903</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D914" s="2"/>
       <c r="E914" s="3" t="s">
-        <v>819</v>
+        <v>734</v>
       </c>
       <c r="F914" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>43254.915497685201</v>
+        <v>43255.427523148101</v>
       </c>
       <c r="B915" s="1">
-        <v>43254.916504629597</v>
+        <v>43255.428460648101</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D915" s="2"/>
       <c r="E915" s="3" t="s">
-        <v>818</v>
+        <v>733</v>
       </c>
       <c r="F915" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="916" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>43254.917013888902</v>
+        <v>43255.428530092599</v>
       </c>
       <c r="B916" s="1">
-        <v>43254.917916666702</v>
+        <v>43255.429097222201</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D916" s="2"/>
       <c r="E916" s="3" t="s">
-        <v>817</v>
+        <v>732</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>43254.917986111097</v>
+        <v>43255.896087963003</v>
       </c>
       <c r="B917" s="1">
-        <v>43254.919097222199</v>
+        <v>43255.897662037001</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D917" s="2"/>
       <c r="E917" s="3" t="s">
-        <v>816</v>
+        <v>731</v>
       </c>
       <c r="F917" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>43255.241840277798</v>
+        <v>43255.897928240702</v>
       </c>
       <c r="B918" s="1">
-        <v>43255.2422337963</v>
+        <v>43255.8991087963</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D918" s="2"/>
       <c r="E918" s="3" t="s">
-        <v>815</v>
+        <v>730</v>
       </c>
       <c r="F918" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>43255.421238425901</v>
+        <v>43255.9058912037</v>
       </c>
       <c r="B919" s="1">
-        <v>43255.421388888899</v>
+        <v>43255.907395833303</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D919" s="2"/>
       <c r="E919" s="3" t="s">
-        <v>814</v>
+        <v>729</v>
       </c>
       <c r="F919" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>43255.425520833298</v>
+        <v>43255.908344907402</v>
       </c>
       <c r="B920" s="1">
-        <v>43255.426226851901</v>
+        <v>43255.908530092602</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D920" s="2"/>
       <c r="E920" s="3" t="s">
-        <v>813</v>
+        <v>728</v>
       </c>
       <c r="F920" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>43255.426273148099</v>
+        <v>43255.908576388902</v>
       </c>
       <c r="B921" s="1">
-        <v>43255.427037037</v>
+        <v>43255.909120370401</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D921" s="2"/>
       <c r="E921" s="3" t="s">
-        <v>812</v>
+        <v>727</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="922" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>43255.427083333299</v>
+        <v>43256.839849536998</v>
       </c>
       <c r="B922" s="1">
-        <v>43255.427476851903</v>
+        <v>43256.840972222199</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D922" s="2"/>
       <c r="E922" s="3" t="s">
-        <v>811</v>
+        <v>726</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="923" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>43255.427523148101</v>
+        <v>43256.841041666703</v>
       </c>
       <c r="B923" s="1">
-        <v>43255.428460648101</v>
+        <v>43256.8428935185</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D923" s="2"/>
       <c r="E923" s="3" t="s">
-        <v>810</v>
+        <v>725</v>
       </c>
       <c r="F923" s="2" t="s">
         <v>7</v>
@@ -20031,701 +20057,701 @@
     </row>
     <row r="924" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>43255.428530092599</v>
+        <v>43256.845185185201</v>
       </c>
       <c r="B924" s="1">
-        <v>43255.429097222201</v>
+        <v>43256.846250000002</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D924" s="2"/>
       <c r="E924" s="3" t="s">
-        <v>809</v>
+        <v>724</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>43255.896087963003</v>
+        <v>43256.846423611103</v>
       </c>
       <c r="B925" s="1">
-        <v>43255.897662037001</v>
+        <v>43256.847442129598</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D925" s="2"/>
       <c r="E925" s="3" t="s">
-        <v>808</v>
+        <v>634</v>
       </c>
       <c r="F925" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A926" s="1">
-        <v>43255.897928240702</v>
-      </c>
-      <c r="B926" s="1">
-        <v>43255.8991087963</v>
-      </c>
-      <c r="C926" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D926" s="2"/>
+    <row r="926" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A926" s="5">
+        <v>43308.841516203698</v>
+      </c>
+      <c r="B926" s="5">
+        <v>43308.882037037001</v>
+      </c>
+      <c r="C926" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D926" s="6"/>
       <c r="E926" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F926" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="927" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A927" s="1">
-        <v>43255.9058912037</v>
-      </c>
-      <c r="B927" s="1">
-        <v>43255.907395833303</v>
-      </c>
-      <c r="C927" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D927" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="F926" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="5">
+        <v>43308.882083333301</v>
+      </c>
+      <c r="B927" s="5">
+        <v>43308.882534722201</v>
+      </c>
+      <c r="C927" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D927" s="6"/>
       <c r="E927" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F927" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="F927" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A928" s="1">
-        <v>43255.908344907402</v>
-      </c>
-      <c r="B928" s="1">
-        <v>43255.908530092602</v>
-      </c>
-      <c r="C928" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D928" s="2"/>
+      <c r="A928" s="5">
+        <v>43308.882581018501</v>
+      </c>
+      <c r="B928" s="5">
+        <v>43308.8835300926</v>
+      </c>
+      <c r="C928" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D928" s="6"/>
       <c r="E928" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="F928" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A929" s="1">
-        <v>43255.908576388902</v>
-      </c>
-      <c r="B929" s="1">
-        <v>43255.909120370401</v>
-      </c>
-      <c r="C929" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D929" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="F928" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="5">
+        <v>43308.883611111101</v>
+      </c>
+      <c r="B929" s="5">
+        <v>43308.884317129603</v>
+      </c>
+      <c r="C929" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D929" s="6"/>
       <c r="E929" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="F929" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F929" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A930" s="1">
-        <v>43256.839849536998</v>
-      </c>
-      <c r="B930" s="1">
-        <v>43256.840972222199</v>
-      </c>
-      <c r="C930" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D930" s="2"/>
+      <c r="A930" s="5">
+        <v>43308.8843865741</v>
+      </c>
+      <c r="B930" s="5">
+        <v>43308.885254629597</v>
+      </c>
+      <c r="C930" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D930" s="6"/>
       <c r="E930" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="F930" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A931" s="1">
-        <v>43256.841041666703</v>
-      </c>
-      <c r="B931" s="1">
-        <v>43256.8428935185</v>
-      </c>
-      <c r="C931" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D931" s="2"/>
+        <v>719</v>
+      </c>
+      <c r="F930" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="5">
+        <v>43308.885439814803</v>
+      </c>
+      <c r="B931" s="5">
+        <v>43308.885937500003</v>
+      </c>
+      <c r="C931" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D931" s="6"/>
       <c r="E931" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F931" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="932" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A932" s="1">
-        <v>43256.845185185201</v>
-      </c>
-      <c r="B932" s="1">
-        <v>43256.846250000002</v>
-      </c>
-      <c r="C932" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D932" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="F931" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="5">
+        <v>43308.886076388902</v>
+      </c>
+      <c r="B932" s="5">
+        <v>43308.886458333298</v>
+      </c>
+      <c r="C932" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D932" s="6"/>
       <c r="E932" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F932" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A933" s="1">
-        <v>43256.846423611103</v>
-      </c>
-      <c r="B933" s="1">
-        <v>43256.847442129598</v>
-      </c>
-      <c r="C933" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D933" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="F932" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A933" s="5">
+        <v>43309.391111111101</v>
+      </c>
+      <c r="B933" s="5">
+        <v>43309.392083333303</v>
+      </c>
+      <c r="C933" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D933" s="6"/>
       <c r="E933" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="F933" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="F933" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A934" s="5">
-        <v>43308.841516203698</v>
+        <v>43309.392326388901</v>
       </c>
       <c r="B934" s="5">
-        <v>43308.882037037001</v>
+        <v>43309.401388888902</v>
       </c>
       <c r="C934" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D934" s="6"/>
       <c r="E934" s="3" t="s">
-        <v>800</v>
+        <v>717</v>
       </c>
       <c r="F934" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A935" s="5">
-        <v>43308.882083333301</v>
+        <v>43309.401539351798</v>
       </c>
       <c r="B935" s="5">
-        <v>43308.882534722201</v>
+        <v>43309.403043981503</v>
       </c>
       <c r="C935" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D935" s="6"/>
       <c r="E935" s="3" t="s">
-        <v>799</v>
+        <v>716</v>
       </c>
       <c r="F935" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="936" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" s="5">
-        <v>43308.882581018501</v>
+        <v>43309.403136574103</v>
       </c>
       <c r="B936" s="5">
-        <v>43308.8835300926</v>
+        <v>43309.403703703698</v>
       </c>
       <c r="C936" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D936" s="6"/>
       <c r="E936" s="3" t="s">
-        <v>798</v>
+        <v>715</v>
       </c>
       <c r="F936" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" s="5">
-        <v>43308.883611111101</v>
+        <v>43309.403784722199</v>
       </c>
       <c r="B937" s="5">
-        <v>43308.884317129603</v>
+        <v>43309.404224537</v>
       </c>
       <c r="C937" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D937" s="6"/>
       <c r="E937" s="3" t="s">
-        <v>797</v>
+        <v>714</v>
       </c>
       <c r="F937" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A938" s="5">
-        <v>43308.8843865741</v>
+        <v>43309.4043171296</v>
       </c>
       <c r="B938" s="5">
-        <v>43308.885254629597</v>
+        <v>43309.407025462999</v>
       </c>
       <c r="C938" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D938" s="6"/>
       <c r="E938" s="3" t="s">
-        <v>796</v>
+        <v>713</v>
       </c>
       <c r="F938" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="5">
-        <v>43308.885439814803</v>
+        <v>43309.4070601852</v>
       </c>
       <c r="B939" s="5">
-        <v>43308.885937500003</v>
+        <v>43309.407719907402</v>
       </c>
       <c r="C939" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D939" s="6"/>
       <c r="E939" s="3" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="F939" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" s="5">
-        <v>43308.886076388902</v>
+        <v>43309.407789351797</v>
       </c>
       <c r="B940" s="5">
-        <v>43308.886458333298</v>
+        <v>43309.4083680556</v>
       </c>
       <c r="C940" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D940" s="6"/>
       <c r="E940" s="3" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="F940" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="941" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="5">
-        <v>43309.391111111101</v>
+        <v>43309.408472222203</v>
       </c>
       <c r="B941" s="5">
-        <v>43309.392083333303</v>
+        <v>43309.4086805556</v>
       </c>
       <c r="C941" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D941" s="6"/>
       <c r="E941" s="3" t="s">
-        <v>795</v>
+        <v>672</v>
       </c>
       <c r="F941" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="942" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="5">
-        <v>43309.392326388901</v>
+        <v>43309.408750000002</v>
       </c>
       <c r="B942" s="5">
-        <v>43309.401388888902</v>
+        <v>43309.409166666701</v>
       </c>
       <c r="C942" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D942" s="6"/>
       <c r="E942" s="3" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="F942" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A943" s="5">
-        <v>43309.401539351798</v>
+        <v>43309.409224536997</v>
       </c>
       <c r="B943" s="5">
-        <v>43309.403043981503</v>
+        <v>43309.410312499997</v>
       </c>
       <c r="C943" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D943" s="6"/>
       <c r="E943" s="3" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="F943" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A944" s="5">
-        <v>43309.403136574103</v>
+        <v>43309.429907407401</v>
       </c>
       <c r="B944" s="5">
-        <v>43309.403703703698</v>
+        <v>43309.431203703702</v>
       </c>
       <c r="C944" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D944" s="6"/>
       <c r="E944" s="3" t="s">
-        <v>792</v>
+        <v>708</v>
       </c>
       <c r="F944" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A945" s="5">
-        <v>43309.403784722199</v>
+        <v>43309.8073842593</v>
       </c>
       <c r="B945" s="5">
-        <v>43309.404224537</v>
+        <v>43309.808333333298</v>
       </c>
       <c r="C945" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D945" s="6"/>
       <c r="E945" s="3" t="s">
-        <v>791</v>
+        <v>707</v>
       </c>
       <c r="F945" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A946" s="5">
-        <v>43309.4043171296</v>
+        <v>43309.808391203696</v>
       </c>
       <c r="B946" s="5">
-        <v>43309.407025462999</v>
+        <v>43309.809675925899</v>
       </c>
       <c r="C946" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D946" s="6"/>
       <c r="E946" s="3" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="F946" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A947" s="5">
-        <v>43309.4070601852</v>
+        <v>43309.809780092597</v>
       </c>
       <c r="B947" s="5">
-        <v>43309.407719907402</v>
+        <v>43309.810763888898</v>
       </c>
       <c r="C947" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D947" s="6"/>
       <c r="E947" s="3" t="s">
-        <v>789</v>
+        <v>705</v>
       </c>
       <c r="F947" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A948" s="5">
-        <v>43309.407789351797</v>
+        <v>43312.353738425903</v>
       </c>
       <c r="B948" s="5">
-        <v>43309.4083680556</v>
+        <v>43312.355775463002</v>
       </c>
       <c r="C948" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D948" s="6"/>
       <c r="E948" s="3" t="s">
-        <v>788</v>
+        <v>704</v>
       </c>
       <c r="F948" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A949" s="5">
-        <v>43309.408472222203</v>
+        <v>43312.357534722199</v>
       </c>
       <c r="B949" s="5">
-        <v>43309.4086805556</v>
+        <v>43312.358530092599</v>
       </c>
       <c r="C949" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D949" s="6"/>
       <c r="E949" s="3" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="F949" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A950" s="5">
-        <v>43309.408750000002</v>
+        <v>43312.3585648148</v>
       </c>
       <c r="B950" s="5">
-        <v>43309.409166666701</v>
+        <v>43312.359745370399</v>
       </c>
       <c r="C950" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D950" s="6"/>
       <c r="E950" s="3" t="s">
-        <v>787</v>
+        <v>702</v>
       </c>
       <c r="F950" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="951" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="5">
-        <v>43309.409224536997</v>
+        <v>43312.359884259298</v>
       </c>
       <c r="B951" s="5">
-        <v>43309.410312499997</v>
+        <v>43312.360127314802</v>
       </c>
       <c r="C951" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D951" s="6"/>
       <c r="E951" s="3" t="s">
-        <v>786</v>
+        <v>701</v>
       </c>
       <c r="F951" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="952" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="5">
-        <v>43309.429907407401</v>
+        <v>43312.360162037003</v>
       </c>
       <c r="B952" s="5">
-        <v>43309.431203703702</v>
+        <v>43312.362673611096</v>
       </c>
       <c r="C952" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D952" s="6"/>
       <c r="E952" s="3" t="s">
-        <v>785</v>
+        <v>673</v>
       </c>
       <c r="F952" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A953" s="5">
-        <v>43309.8073842593</v>
+        <v>43312.362708333298</v>
       </c>
       <c r="B953" s="5">
-        <v>43309.808333333298</v>
+        <v>43312.363368055601</v>
       </c>
       <c r="C953" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D953" s="6"/>
       <c r="E953" s="3" t="s">
-        <v>784</v>
+        <v>674</v>
       </c>
       <c r="F953" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="954" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>43309.808391203696</v>
+        <v>43312.479398148098</v>
       </c>
       <c r="B954" s="5">
-        <v>43309.809675925899</v>
+        <v>43312.480138888903</v>
       </c>
       <c r="C954" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D954" s="6"/>
       <c r="E954" s="3" t="s">
-        <v>783</v>
+        <v>700</v>
       </c>
       <c r="F954" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="955" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>43309.809780092597</v>
+        <v>43312.480254629598</v>
       </c>
       <c r="B955" s="5">
-        <v>43309.810763888898</v>
+        <v>43312.480763888903</v>
       </c>
       <c r="C955" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D955" s="6"/>
       <c r="E955" s="3" t="s">
-        <v>782</v>
+        <v>699</v>
       </c>
       <c r="F955" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>43312.353738425903</v>
+        <v>43312.480844907397</v>
       </c>
       <c r="B956" s="5">
-        <v>43312.355775463002</v>
+        <v>43312.481967592597</v>
       </c>
       <c r="C956" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D956" s="6"/>
       <c r="E956" s="3" t="s">
-        <v>781</v>
+        <v>698</v>
       </c>
       <c r="F956" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="957" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>43312.357534722199</v>
+        <v>43313.622812499998</v>
       </c>
       <c r="B957" s="5">
-        <v>43312.358530092599</v>
+        <v>43313.623124999998</v>
       </c>
       <c r="C957" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D957" s="6"/>
       <c r="E957" s="3" t="s">
-        <v>780</v>
+        <v>675</v>
       </c>
       <c r="F957" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="958" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>43312.3585648148</v>
+        <v>43313.787604166697</v>
       </c>
       <c r="B958" s="5">
-        <v>43312.359745370399</v>
+        <v>43313.788032407399</v>
       </c>
       <c r="C958" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D958" s="6"/>
       <c r="E958" s="3" t="s">
-        <v>779</v>
+        <v>697</v>
       </c>
       <c r="F958" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>43312.359884259298</v>
+        <v>43313.788090277798</v>
       </c>
       <c r="B959" s="5">
-        <v>43312.360127314802</v>
+        <v>43313.788946759298</v>
       </c>
       <c r="C959" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D959" s="6"/>
       <c r="E959" s="3" t="s">
-        <v>778</v>
+        <v>696</v>
       </c>
       <c r="F959" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>43312.360162037003</v>
+        <v>43313.7890162037</v>
       </c>
       <c r="B960" s="5">
-        <v>43312.362673611096</v>
+        <v>43313.789212962998</v>
       </c>
       <c r="C960" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D960" s="6"/>
       <c r="E960" s="3" t="s">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="F960" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>43312.362708333298</v>
+        <v>43313.789282407401</v>
       </c>
       <c r="B961" s="5">
-        <v>43312.363368055601</v>
+        <v>43313.7899189815</v>
       </c>
       <c r="C961" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D961" s="6"/>
       <c r="E961" s="3" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
       <c r="F961" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>43312.479398148098</v>
+        <v>43314.635069444397</v>
       </c>
       <c r="B962" s="5">
-        <v>43312.480138888903</v>
+        <v>43314.635289351798</v>
       </c>
       <c r="C962" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D962" s="6"/>
       <c r="E962" s="3" t="s">
-        <v>777</v>
+        <v>675</v>
       </c>
       <c r="F962" s="6" t="s">
         <v>6</v>
@@ -20733,35 +20759,35 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>43312.480254629598</v>
+        <v>43314.635358796302</v>
       </c>
       <c r="B963" s="5">
-        <v>43312.480763888903</v>
+        <v>43314.635682870401</v>
       </c>
       <c r="C963" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D963" s="6"/>
       <c r="E963" s="3" t="s">
-        <v>776</v>
+        <v>676</v>
       </c>
       <c r="F963" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="964" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>43312.480844907397</v>
+        <v>43314.635775463001</v>
       </c>
       <c r="B964" s="5">
-        <v>43312.481967592597</v>
+        <v>43314.636215277802</v>
       </c>
       <c r="C964" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D964" s="6"/>
       <c r="E964" s="3" t="s">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="F964" s="6" t="s">
         <v>6</v>
@@ -20769,143 +20795,143 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>43313.622812499998</v>
+        <v>43314.636296296303</v>
       </c>
       <c r="B965" s="5">
-        <v>43313.623124999998</v>
+        <v>43314.636608796303</v>
       </c>
       <c r="C965" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D965" s="6"/>
       <c r="E965" s="3" t="s">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="F965" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>43313.787604166697</v>
+        <v>43314.673726851797</v>
       </c>
       <c r="B966" s="5">
-        <v>43313.788032407399</v>
+        <v>43314.675428240698</v>
       </c>
       <c r="C966" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D966" s="6"/>
       <c r="E966" s="3" t="s">
-        <v>774</v>
+        <v>693</v>
       </c>
       <c r="F966" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="967" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>43313.788090277798</v>
+        <v>43314.675486111097</v>
       </c>
       <c r="B967" s="5">
-        <v>43313.788946759298</v>
+        <v>43314.675833333298</v>
       </c>
       <c r="C967" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D967" s="6"/>
       <c r="E967" s="3" t="s">
-        <v>773</v>
+        <v>692</v>
       </c>
       <c r="F967" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>43313.7890162037</v>
+        <v>43314.675879629598</v>
       </c>
       <c r="B968" s="5">
-        <v>43313.789212962998</v>
+        <v>43314.676562499997</v>
       </c>
       <c r="C968" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D968" s="6"/>
       <c r="E968" s="3" t="s">
-        <v>752</v>
+        <v>691</v>
       </c>
       <c r="F968" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>43313.789282407401</v>
+        <v>43314.676597222198</v>
       </c>
       <c r="B969" s="5">
-        <v>43313.7899189815</v>
+        <v>43314.676747685196</v>
       </c>
       <c r="C969" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D969" s="6"/>
       <c r="E969" s="3" t="s">
-        <v>772</v>
+        <v>675</v>
       </c>
       <c r="F969" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>43314.635069444397</v>
+        <v>43314.676793981504</v>
       </c>
       <c r="B970" s="5">
-        <v>43314.635289351798</v>
+        <v>43314.677164351902</v>
       </c>
       <c r="C970" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D970" s="6"/>
       <c r="E970" s="3" t="s">
-        <v>752</v>
+        <v>678</v>
       </c>
       <c r="F970" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>43314.635358796302</v>
+        <v>43316.502233796302</v>
       </c>
       <c r="B971" s="5">
-        <v>43314.635682870401</v>
+        <v>43316.5024305556</v>
       </c>
       <c r="C971" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D971" s="6"/>
       <c r="E971" s="3" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="F971" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A972" s="5">
-        <v>43314.635775463001</v>
+        <v>43316.502465277801</v>
       </c>
       <c r="B972" s="5">
-        <v>43314.636215277802</v>
+        <v>43316.503414351901</v>
       </c>
       <c r="C972" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D972" s="6"/>
       <c r="E972" s="3" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="F972" s="6" t="s">
         <v>6</v>
@@ -20913,35 +20939,35 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="5">
-        <v>43314.636296296303</v>
+        <v>43316.503460648099</v>
       </c>
       <c r="B973" s="5">
-        <v>43314.636608796303</v>
+        <v>43316.503807870402</v>
       </c>
       <c r="C973" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D973" s="6"/>
       <c r="E973" s="3" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="F973" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="974" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="5">
-        <v>43314.673726851797</v>
+        <v>43316.503854166702</v>
       </c>
       <c r="B974" s="5">
-        <v>43314.675428240698</v>
+        <v>43316.504363425898</v>
       </c>
       <c r="C974" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D974" s="6"/>
       <c r="E974" s="3" t="s">
-        <v>770</v>
+        <v>689</v>
       </c>
       <c r="F974" s="6" t="s">
         <v>7</v>
@@ -20949,17 +20975,17 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="5">
-        <v>43314.675486111097</v>
+        <v>43316.504409722198</v>
       </c>
       <c r="B975" s="5">
-        <v>43314.675833333298</v>
+        <v>43316.504872685196</v>
       </c>
       <c r="C975" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D975" s="6"/>
       <c r="E975" s="3" t="s">
-        <v>769</v>
+        <v>687</v>
       </c>
       <c r="F975" s="6" t="s">
         <v>6</v>
@@ -20967,35 +20993,35 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="5">
-        <v>43314.675879629598</v>
+        <v>43316.504930555602</v>
       </c>
       <c r="B976" s="5">
-        <v>43314.676562499997</v>
+        <v>43316.505231481497</v>
       </c>
       <c r="C976" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D976" s="6"/>
       <c r="E976" s="3" t="s">
-        <v>768</v>
+        <v>686</v>
       </c>
       <c r="F976" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="5">
-        <v>43314.676597222198</v>
+        <v>43318.735474537003</v>
       </c>
       <c r="B977" s="5">
-        <v>43314.676747685196</v>
+        <v>43318.735844907402</v>
       </c>
       <c r="C977" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D977" s="6"/>
       <c r="E977" s="3" t="s">
-        <v>752</v>
+        <v>679</v>
       </c>
       <c r="F977" s="6" t="s">
         <v>6</v>
@@ -21003,53 +21029,53 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="5">
-        <v>43314.676793981504</v>
+        <v>43318.735879629603</v>
       </c>
       <c r="B978" s="5">
-        <v>43314.677164351902</v>
+        <v>43318.736226851797</v>
       </c>
       <c r="C978" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D978" s="6"/>
       <c r="E978" s="3" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="F978" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A979" s="5">
-        <v>43316.502233796302</v>
+        <v>43318.736273148097</v>
       </c>
       <c r="B979" s="5">
-        <v>43316.5024305556</v>
+        <v>43318.737141203703</v>
       </c>
       <c r="C979" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D979" s="6"/>
       <c r="E979" s="3" t="s">
-        <v>752</v>
+        <v>680</v>
       </c>
       <c r="F979" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="980" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" s="5">
-        <v>43316.502465277801</v>
+        <v>43318.737199074101</v>
       </c>
       <c r="B980" s="5">
-        <v>43316.503414351901</v>
+        <v>43318.737858796303</v>
       </c>
       <c r="C980" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D980" s="6"/>
       <c r="E980" s="3" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
       <c r="F980" s="6" t="s">
         <v>6</v>
@@ -21057,17 +21083,17 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="5">
-        <v>43316.503460648099</v>
+        <v>43318.737916666701</v>
       </c>
       <c r="B981" s="5">
-        <v>43316.503807870402</v>
+        <v>43318.738090277802</v>
       </c>
       <c r="C981" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D981" s="6"/>
       <c r="E981" s="3" t="s">
-        <v>765</v>
+        <v>682</v>
       </c>
       <c r="F981" s="6" t="s">
         <v>6</v>
@@ -21075,35 +21101,35 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="5">
-        <v>43316.503854166702</v>
+        <v>43318.738113425898</v>
       </c>
       <c r="B982" s="5">
-        <v>43316.504363425898</v>
+        <v>43318.738773148099</v>
       </c>
       <c r="C982" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D982" s="6"/>
       <c r="E982" s="3" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
       <c r="F982" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="5">
-        <v>43316.504409722198</v>
+        <v>43318.738796296297</v>
       </c>
       <c r="B983" s="5">
-        <v>43316.504872685196</v>
+        <v>43318.738993055602</v>
       </c>
       <c r="C983" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D983" s="6"/>
       <c r="E983" s="3" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="F983" s="6" t="s">
         <v>6</v>
@@ -21111,163 +21137,19 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="5">
-        <v>43316.504930555602</v>
+        <v>43318.739039351902</v>
       </c>
       <c r="B984" s="5">
-        <v>43316.505231481497</v>
+        <v>43318.739548611098</v>
       </c>
       <c r="C984" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D984" s="6"/>
       <c r="E984" s="3" t="s">
-        <v>763</v>
+        <v>684</v>
       </c>
       <c r="F984" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A985" s="5">
-        <v>43318.735474537003</v>
-      </c>
-      <c r="B985" s="5">
-        <v>43318.735844907402</v>
-      </c>
-      <c r="C985" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D985" s="6"/>
-      <c r="E985" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="F985" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="5">
-        <v>43318.735879629603</v>
-      </c>
-      <c r="B986" s="5">
-        <v>43318.736226851797</v>
-      </c>
-      <c r="C986" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D986" s="6"/>
-      <c r="E986" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="F986" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="987" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A987" s="5">
-        <v>43318.736273148097</v>
-      </c>
-      <c r="B987" s="5">
-        <v>43318.737141203703</v>
-      </c>
-      <c r="C987" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D987" s="6"/>
-      <c r="E987" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F987" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A988" s="5">
-        <v>43318.737199074101</v>
-      </c>
-      <c r="B988" s="5">
-        <v>43318.737858796303</v>
-      </c>
-      <c r="C988" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D988" s="6"/>
-      <c r="E988" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="F988" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A989" s="5">
-        <v>43318.737916666701</v>
-      </c>
-      <c r="B989" s="5">
-        <v>43318.738090277802</v>
-      </c>
-      <c r="C989" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D989" s="6"/>
-      <c r="E989" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="F989" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A990" s="5">
-        <v>43318.738113425898</v>
-      </c>
-      <c r="B990" s="5">
-        <v>43318.738773148099</v>
-      </c>
-      <c r="C990" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D990" s="6"/>
-      <c r="E990" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="F990" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A991" s="5">
-        <v>43318.738796296297</v>
-      </c>
-      <c r="B991" s="5">
-        <v>43318.738993055602</v>
-      </c>
-      <c r="C991" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D991" s="6"/>
-      <c r="E991" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F991" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A992" s="5">
-        <v>43318.739039351902</v>
-      </c>
-      <c r="B992" s="5">
-        <v>43318.739548611098</v>
-      </c>
-      <c r="C992" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D992" s="6"/>
-      <c r="E992" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="F992" s="6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
+++ b/data/Formulir jajak pendapat bisnis dan pelayanan mengenai angkutan online (gojek, grab, dsb)(1-952).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\Skripsi\Program\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8987138-C045-41A5-AA95-41F0E5517BFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953F0A97-0B26-43F4-B67A-14DE7DC01E27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="913">
   <si>
     <t>Start time</t>
   </si>
@@ -1740,319 +1740,19 @@
     <t xml:space="preserve">Iklan nya Saja yang diBagus bagusin.....Eh....Dilapangan drivernya Gak berasa Diperas keringat nya. </t>
   </si>
   <si>
-    <t xml:space="preserve">Iklan ..  pencitraaan biar bagus... fakta nonsen lihat dilapangan.. jgn bagus iklan doang.. sistem diperbaiki. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasihan Sama driver nya, Skrang susah dapat order gara" kalah sama yang pakai tuyul.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat terbantu dengan adanya angkutan online sangat membantu kegiatan saya sehari hari. </t>
-  </si>
-  <si>
-    <t>Sangat Senang Ada gofood bisa pesan makanan kapan saja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat Bagus Ada nya angkutan online Membuka lapangan kerja sehingga bisa mengurangi pengangguran. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepertinya driver ojol sudah terlalu banyak sehingga sepertinya banyakan driver dari pada customer, ujung2 nya perang tarip yg merugikan driver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarif terlalu murah akibatnya nya driver demo terus, kalau sudah begini apa iya aplikator nggak takut bakalan bangkrut karena ditinggal driver </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tarif sudah murah, potongan besar, banyak promo pula, terus driver dapat apa? </t>
   </si>
   <si>
-    <t xml:space="preserve">Jangan perang tarif terus, perhatikan hak2 driver, jangan cuma memanjakan customer, kalau driver pada lari apa nggak bangkrut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver pada demo, susah nyari angkutan. Padahal keberadaan mereka sangat membantu, Kasian driver seperti budak saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempat kan posisi driver dan aplikator sebagai mitra, bukan bagaikan juragan dan kacung. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Driver pada demo terus, Rada khawatir juga kalau sampai aplikator pada bangkrut, secara driver online sangat membantu bisa Antar jemput, </t>
   </si>
   <si>
     <t>Membantu Membuka lapangan pekerjaan</t>
   </si>
   <si>
-    <t>Aplikator perang tarif terus, sementara driver yang kerja Keras harus capai target, kasihan drivernya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gara2 driver demo, tak satupun ojol beroperasi, tlg Kepada yang berwenang perhatikan nasib driver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kpd pemerintah dan dpr, tolong buat aturan yg jelas ttg angkutan online ini, agar pihak pemegang Dana tidak semena mena terhadap driver. </t>
-  </si>
-  <si>
-    <t>Cepat atau lambat ojol lain akan lebih baik dari gojek... Gojek lupa oleh siapa dia di kenal masyarakat, karena para drivernya...
-Ini malah driver di tindas dengan tarif murah.. Pelanggan senang driver menderita...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cepat atau lambat ojol pasti tumbang...dan itu pasti. Semua Gara2 aplikator. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingat grab besar di Indonesia,kalau bukan karena driver2 yg exstra krja keras di atas aspal, grab tak ada artinya jadi tlg hargai driver </t>
-  </si>
-  <si>
-    <t>penjajah secara halus... sudah terlalu banyak mafia2,  para driver hanya di jadikan budak...
- lebih baik memajukan hasil karya indonesia (Gojek).. dr pd hrs trus menerus mnsejahterakn dr pihak yg tak pernah mau mensejahterakan nama baik driver nya...</t>
-  </si>
-  <si>
-    <t>Potongan 20% terlalu besar. Tarikan 5000 - 20% = 4000 kalau diperhitungkan biaya motor kira2 berapa dihargai tenaga driver</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keberadaan ojek online sangat bagus dan Sangat membantu sekali </t>
   </si>
   <si>
-    <t>Driver adalah mitra dr grab.....yang seharusnya menerapkan hubungan simbiosis mutualisme saling menguntungkan......adanya beberapa penyimpangan oknum.driver  itu terjadi karena adanya ketidak puasan dari driver entah itu tarif atau penghasilan.....saaya bicara sbg konsumen saya bukan mitra grab.... saya kadang miris rasanya tarifnya terlalu murah.....bukan karena saya banyak uang....tapi memang kalo mau dibandingkan dengan opang bisa jadi tarif mya jauh sekali....oleh karena iru kepada pihak grab evaluasi lah kebijakan dr grab....tanpa driver perusahaan ansa tidak akan bisa berjalan dengan baik.....terima kasih</t>
-  </si>
-  <si>
-    <t>Ojol banyak sekali membantu, sekarang.. Walau tidak sedikit drrver yg nakal dan bekas soper angkot jd kurang ramah dan menyebalkan semoga vendor bisa membantu memberikan pencerahan2 dan sangsi yg sesuai bagi mereka.</t>
-  </si>
-  <si>
-    <t>lagian terlalu murah tarifnya.. Sangat murah sekali,, kasian drivernya kadang mau ngisi bensin aja mikir2 apa lagi mau makan enak.. dengan kondisi yg sangat murah sekali tarifnya.</t>
-  </si>
-  <si>
-    <t>Selama saya naik grab car semua sopir nya ramah.  Dan klo byr pasti sy lebihin gk pernah byr pas2an. Berkah rezki kita nanti</t>
-  </si>
-  <si>
-    <t>Alhamdulillah saya kalu pergi sering pakai jasa grab dan gojek dan sopan sopan serta bagus pelayanannya kan bisa titik jemputnya lwt sms</t>
-  </si>
-  <si>
-    <t>Semoga grab dan gojek gocar bisa ber inovatif lagi dalam hal2 kebaikan bagi masyarakat indonesia</t>
-  </si>
-  <si>
-    <t>Angkutan online sangat2 membantu perekonomian masyarakat.. semoga kedepanya lebih baik lagi pelayananya dan juga bagi lebih menghargai.lagi pemesannya.. vendor senang, driver sennag, konsumenpun nyaman..</t>
-  </si>
-  <si>
-    <t>Puji syukur, saya sudah 2 tahun menggunakan jasa ojol aman2. Semoga lebih baik lagi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekedar tahu Saja buat grab, tolong di tindak yg tidak sesuai plat nomor di aplikasi sama motornya..takutnya tidak sesuai pelayanan
-karna pernah kejadian,saya tidak diantar sampai tujuan..mmg tinggal dekat jaraknya tp tetap aja tdk diantar sampai tujuan jadi saya jalan kaki lagi..kesal kan </t>
-  </si>
-  <si>
     <t>Naik gocar di palembang, nyaman berasa Mobil pribadi</t>
-  </si>
-  <si>
-    <t>Kmren naek grab car.tanpa bicara driver maen masuk ke dalem tol tanpa bicara sama saya emang begitu cara nya.untung saya penyabar</t>
-  </si>
-  <si>
-    <t>Gofood lebih dibanyain dong resto2nya, khususnya daerah malang, 😄😄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang ada gofood di palembang, tapi Bagus nya dibanyakin gerai makanannya biar banyak pilihan. </t>
-  </si>
-  <si>
-    <t>grab .....itu sopirnya sopan n tenang n bawa kendaraannya tdk ngebut ( biasa2saja) kita naik mobil itu seperti mobil sendiri n tdk terburu2.....POKOKNYA MANTAPPPPPP.....NAIK GRABBBBBB....TDK NYESAL N MALAH MAU NAIK TERUS SSSSS.....MANTAPPPPP</t>
-  </si>
-  <si>
-    <t>Grab sangat membantu kami ' mudah murah dn nyaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojol sangat memudahkan😍 terima kasih ojol </t>
-  </si>
-  <si>
-    <t>Maju terus ojol indonesia</t>
-  </si>
-  <si>
-    <t>banyak penumoang yang membatalkan dan membwri bintang sesukanya sehingga insentif hilang. Opiknya terlalu banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alhamdulillah selama sy naik grab tdk pernh dpt kesan yg tdk baik. Smua driver baik dan sopan. Bhkn ada yg lbh baik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasian driver nya bayar murah driver nya bnyak yg sakit...
-Dan dikit2 complaint saspen.
-Hati2 hukuman menzolimi karyawan driper online. </t>
-  </si>
-  <si>
-    <t>Minggu kmrn malam2 jam 22.00, org tua kami tiba2 sakit sesak nafas, kami pesan Grab, Alhamdulillah drivernya baik sekali diantarin dan sampai dicariin rumah sakitnya... pantas dikasih bintang 5 drivernya, sabar menjalankan tugasnya dgn ramah dan sopan. Terimakasih Grab dan driver nya.</t>
-  </si>
-  <si>
-    <t>Terimakasih Grab sudah memberikan fasilitas yang terbaik bagi saudara kita yang Difabel, semoga kejadian terdahulu yang menimpa penumpang Difabel tidak terjadi lagi ya. Untuk para Driver Difabel juga perlu diperhatikan, mereka juga ingin memberikan nafkah bagi keluarga nya. #suksesGrab</t>
-  </si>
-  <si>
-    <t>Bnyak mmbantu..ada jga yg tidak membntu..karna pada saat kami pesan jaraknya 13k aja mereka batalkan..tpi klau harga di atas 150k..mereka cpt hubungi ..Saya Rasa jln tolpun kmi byar. Kami Iklas yg penting SOPIRNYA baik klau nakal semua beban dianggarkn buat kami pemakai Grab..</t>
-  </si>
-  <si>
-    <t>Alhamdulillah sy pengguna setia Grab..
-Sy jg pernah order waktu ajak adik sy jalan²,dia jg penyandang disabilitas..
-Drivernya ramah.
-Semoga grab makin sukses dan makin maju...
-Semoga semua para drivernya ramah dan tdk mengecewakan 👍
-#LoveGrab
-#LoveIndonesia</t>
-  </si>
-  <si>
-    <t>Aku pelanggan setia grab. Sejak ada grab aku jarang bawa kendaraan sendiri. Grab praktis. Sangat membantu perjalanan utk kelancaran pekerjaan sy dg profesi yg harus cepat dan tepat. Tapi pernah saya dikecewakan driver grab sampai saya kena suspen. Padahal kesalahan driver. Semoga grab TUYUL nya bisa dikasih sanksi ya. Ayo kita saling bekerjasama untuk kemajuan bersama. Bravo grab !</t>
-  </si>
-  <si>
-    <t>Utk kendaraan driver kalau bisa  yg  jenis bebek ajalah, soalnya kemaren istri saya habis jemput anak saya  di sekolahan, pulangnya ngorder grab, dtgnya motor laki  tinggi banget, sedangkan istri saya ngajak anak trus bawa tas lagi, sangat2 gak nyaman sekali... udah gitu motornya di modifikasi  lagi  jadi  cara duduk  keliatan kurang sopan.... 
-Harapan kami agar pihak Grab lebih memperhatikan hal2 macam ini</t>
-  </si>
-  <si>
-    <t>Kalo untuk prilaku. Lbih bagus supir" taksi bluebird... saya beberapa kali order grab car drivernya angkuh... walaupun tdak semua. Skrng sepertinya grab ngawur dalam pengrecrutan asal terima driver atau memang tidak ada training attituade sblm di kasih aplikasi....</t>
-  </si>
-  <si>
-    <t>Saya baru dua kali pake grab,trnyata harganya bersahabat,,,thanks to grab semoga makin jaya dan perluas srmua wilayah apalagi mau lebaran nih, yg dari kota ke desa,,asyik kayanya klo grab juga bisa masuk desa</t>
-  </si>
-  <si>
-    <t>Saya sangat setuju keberadaan grab di indonesia sangat membantu bagi semua orang.
-Tapi tolong dari pihak grab agar diberi peringatan tegas ke grab car apabila sore sering kita di batalin ordernya.</t>
-  </si>
-  <si>
-    <t>Sampai saat ini ojol masih aman2...dan saya berharap pelayanannya semakin ditingkatkan..kadang kala jarak dekat.mereka ga mau ambil...ok sih....semakin maju dan jaya buat ojol ..pelanggan setia..</t>
-  </si>
-  <si>
-    <t>grab terlalu murah car terlalu murah kasian yg punya mobil cuman cukup bensin apa lagi skrng bonus tidak lagi d uangkan  padahal cuman untung d bonus  aja karna harga argo cuman cukup buat bensin jadi ya susah kasian yg punya mobil gak dapat apa</t>
-  </si>
-  <si>
-    <t>Alhamdllah semenjak ada grab, gojek dll saya tidak pernah membawa kendaran sendiri lagi, sangat membantu alhamdllah saya baru satu kali dapat driver yg kurang sopan kalo bisa si tolong dong driver2 grab jaga kebersihan badanya kadang saya dapat driver yg tidak sedap badanya alias bau bawang itu saya sering bangt kadang sampe nempel baunya di badan saya</t>
-  </si>
-  <si>
-    <t>Grab is the best👍👍👍👍
-Krn grab.. Perjalanku skrg ini tak pernah ada hambatan, trima ksih grab.. Pelayananmu sangat memuaskan👏👏👏</t>
-  </si>
-  <si>
-    <t>Tarif tolong d naikin supaya driver nya lebih pasti semangat dan llebih ramah lagi Kepada konsumen.</t>
-  </si>
-  <si>
-    <t>Tolong pihak jasa angkutan online .... Angka kejahatan masih terjadi ... tolong solusi agar penumpang nyaman dan aman ....terimah kasih</t>
-  </si>
-  <si>
-    <t>Grab sebagai penyedia aplikasi jangan hanya mau untung sendiri tanpa memikirkan nasib mitra nya.....ingat tanpa driver aplikasi grab hanya akan jadi sampah.......tidak.menutup kemungkinan ada aplikasi online baru yang lbh baik buat mitranya............</t>
-  </si>
-  <si>
-    <t>Custumernya bahagia diatas penderitaan driver..harga grab benar2 membunuh para driver.apapun grab promosi tetaplah dosa besar.</t>
-  </si>
-  <si>
-    <t>Yg untung penumpung, yg rugi drivernya.
-Tarif gak jelas.
-kemarin saya naik grab bike drivernya kasihan saya liat cerita nya mengenai Argo Grab nya kadang gak jelas katanya..</t>
-  </si>
-  <si>
-    <t>Naik grab ga standar kebersihan kendaraannya...kadang mobilnya kotor, bau..ga kayak taksi Blue Bird yg standar kebersihannya  dan rapi tidak bau..</t>
-  </si>
-  <si>
-    <t>Selama ada Grab,gocar dll sangat membantu bagisaya untuk mengantar ibu k'Rumah sakit ntuk control, berobat dan bawa untuk tetapi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grab dan gojek harus mikirin driverny cukup gak Bensinny bawa penumpng jauh hargany cm segt murah kadang mutar2 cari penumpng abis bensin mestiny mikirain jg kesejahteraan driver biar driverny semangat </t>
-  </si>
-  <si>
-    <t>penumpang sih memang sangat dimanjain oleh grab, tp drivernya seperti sapi perah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smua sama cuma sopirnya tidak sama saya plggan Grab kadangkala temukan sopir yg Mngjengkelkan dan tidak ramah suka bantah;;;nah ini tiggal prilaku masing2 sopir. </t>
-  </si>
-  <si>
-    <t>Alhamdulilah....3 kali naik grab sopirnya ramah2 .yg gak ramah jg banyak mereka membatalkan pesanan.mungkin Alloh pilihkan yang terbaik untuk kami.sebagai orang dr kampung, seneng kalau di kota ketemu orang baik.</t>
-  </si>
-  <si>
-    <t>sy pelanggan setia gocar terutama kalo mau kontrol kedokter dirs  setiap bulan tapi kadang saya merasa jengkel dgn ulah oknum driver  yg kurang sabar dan ramah terhadap konsumen tapi tdk semuanya yg begitu ada juga yg baik dan ramah</t>
-  </si>
-  <si>
-    <t>Buat vendor tolong Cari driver yg pengalaman dan test driver bukan asal bisa naik mtor/ nyetir karna ini bersangkutan dengan keselamatan mnusia....</t>
-  </si>
-  <si>
-    <t>Smoga sukses sll.
-Karena sangat membantu saya &amp; Semua keluarga, suda kami buktikan itu.
-Tetap semangat &amp; Ihklas.
-👍👍👍👍</t>
-  </si>
-  <si>
-    <t>alhammdulillah...  Slmaa 2th lbih stiap saya pakai grab playanan nya slalu baik ramah.. 
-yyaa.. Walaupun Terkadang saya suka dpt driver yg jutek tp cuek sajalah 
-Malah pernah sekali pesan grab untuk tangerang bkasi.. Jln nya santaii
-Krn mungkin lelah d jln drivernya nhan rasa kntuk jugaa sempat oleng tp sya nikmatin Saja saya buat suasana spt jln dgn kluarga smbill sya mnta tlong mampir ke alfamart tuk blii mnumn dan cemilan sbntr tuk d nikmatin oleh ank² sya,, sya dan driver nya spy ga ngntukk ajh.. Krn ga tegaa jugaa lht drivernyaa Smpe akhrnya sya slmat smpe tjuan ..dgn slmat
-#GRAB_bagi_ku_oke_bgt_Lah😊😊</t>
-  </si>
-  <si>
-    <t>Alhamdulilah selama menggunakan grab dan gojek gak pernah nemu masalah......</t>
-  </si>
-  <si>
-    <t>Klu aq bersyukur alhamdulillah setiap naik grab motor  slalu mendapat kan supir yang ramah  terus aq gk prnah lupa slalu siapin uang pas. Trimakasih grab</t>
-  </si>
-  <si>
-    <t>Potongan perjalanan kalo bisa jangan 20% atau lebih baik di hapus , itu nyekek driver , banyak driver yg ogah trek jauh gara2 ke gedean potongan nya ,, insentif di perkecil , tarif murah , potongan perjalanan 20% dari tarif n potongan bonus insentif 10% kok masih ada , 
-Banyak yang udah muak namun saat mereka ingin beralih profesi lagi menjadi supir angkot , opang ,dll pasti akan kalah saing dengan ojek online karena mati satu tumbuh seribu (resign satu yang daftar lagi 1000)
-Gimana si lu grab kaga ngotak , tolong mitra nya diperhatikan juga ,,</t>
-  </si>
-  <si>
-    <t>Ojol membantu oooh ya dtp sodara baru krn akrapnya sm driver 😊
-mksi grab dah siap antar jemputku ke mana sj dalam 2 thn ini 👍👍</t>
-  </si>
-  <si>
-    <t>Sebulan blkngn ini sy menggunakan jasa grabcar dan gocar alhamdulillah pelayanannya bagus dan drivernya baik.tp ada satu driver yg bikin sy kesal sdkit...</t>
-  </si>
-  <si>
-    <t>Enjoy emang naik grab... Murah dan on time.... Mana ada promo lg... Ngebantu bgt... Thank u grab.... Makin sukses ya</t>
-  </si>
-  <si>
-    <t>Grab dan gojek memang oke
-Saya dari kampung juga sangat teebantu ada grab dan gojek
-Untuk saku pun tidak bolong 😊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alhamdulillah dg adanya grab dan gojek siap sedia selalu saat sy butuh pas ada acara resik2 masjid dg ayah saya thanks </t>
-  </si>
-  <si>
-    <t>Grab sangat membantu apalagi kami yg berekonomi lemah saya sangat suka dgn pelayananya makasi grab</t>
-  </si>
-  <si>
-    <t>Kadang2 kasihan juga mendengar keluhan driver karna insentif  yg di kasih grab car saat in terlalu rendah.mohan di pertimbang kan y</t>
-  </si>
-  <si>
-    <t>Sekarang bawa keluarga,teman2 mudah banget ga harus nunggu2 nengok ke belakang motor dah di mana tinggal bilang yuk kita jalan, okeh.. 
-Dengan petikan jari datang lah driver ganteng...</t>
-  </si>
-  <si>
-    <t>Alhamdulillah berkat jasa grab dan gojek, saya merasa aman n nyaman bepergian kmn pun. Smoga tmbh sukses n sering ngasih promo yaa 😀😀😀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangat membantu kegiatan saya sehari Hari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yg penting tuntuan driver grab n gojek dpt dipenuhi oleh pemerintah. Contoh tarif dinaikkan, biar driver semangat </t>
-  </si>
-  <si>
-    <t>Angkutan online sangat membantu saya, tarif yang ditawarkan cukup terjangkau utk mahasiswa seperti saya, namun jika tarif konsumen dinaikkan lagi, sepertinya saya akan mencoba stop untuk menggunakan jasa angkutan online</t>
-  </si>
-  <si>
-    <t>Susah jadi driver,  ongkir kemurahan,  ujan2,  jalan rusak pas anter minuman tumpah,  eh nombok,  konsumen mana ngerti. Terus keselamatan jg ga terjamin.  Aksi penodongan jg marak sampai harus meregang nyawa oleh penumpang gelap yg tidak jelas krn tidak ada verifikasi identitas penumpang</t>
-  </si>
-  <si>
-    <t>bisnis transportasi online perlu di buat uu dan aturan yang jelas. untuk pelayanan, sangat berpengaruh dengan etika driver dan konsumen "saling menghargai dan membutuhkan"</t>
-  </si>
-  <si>
-    <t>selama ini pelayanan sudah bagus, untuk tarif, kalo gojek menrut saya sudah pas, tapi untuk grab masih agak kemurahan, kasihan juga sama driver, overall puas lah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baru Saja terjadi di palembang, seorang mahasiswi dirampok dan dilecehkan sopir grabcar, ini bagaimana sistem perekrutan driver nya, tlg pihak vendor perhatikan jgn cuma mau untung banyak saja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jadi ngeri Naik ojol skrang, banyak tindak kriminal oleh oknum driver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang ada gofood bosa pesan makanan kapan saja. </t>
-  </si>
-  <si>
-    <t>Sependek pengalaman saya, blm pernah mengalami hal negatip dari driver, mudah2an begitu trs yaa</t>
-  </si>
-  <si>
-    <t>Harusnya gojek mikirin nasip driver yang makin hari order tambah anyep..bukannyabmalah asik urusin vidio gak bermutu dan liga saja...hadeh</t>
-  </si>
-  <si>
-    <t>Saya order grab ekspress, barangnya blm sampe di saya , order sudah diselesaikan. Udah gtu nomornya ga bs dihubungi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senang ada ojol sangat membantu aktivitas ku, bisa hemat waktu </t>
   </si>
   <si>
     <t xml:space="preserve">Sudah terlalu banyak driver jadinya, suka bikin macet. </t>
@@ -3027,6 +2727,253 @@
   </si>
   <si>
     <t xml:space="preserve">Ada go-food, jadi sangat terbantu disaat perut lapar tapi malas keluar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang ada ojek online sangat membantu aktivitasku, bisa hemat waktu </t>
+  </si>
+  <si>
+    <t>Saya order grab ekspres, barangnya belum sampai ke saya, order sudah diselesaikan. Sudah itu nomornya tidak bisa dihubungi.</t>
+  </si>
+  <si>
+    <t>Sepanjang pengalaman saya, belum pernah mengalami hal negatif dari driver, mudah-mudahan begitu terus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang ada go-food bisa pesan makanan kapan saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadi ngeri Naik ojek online sekarang, banyak tindak kriminal oleh oknum driver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baru Saja terjadi di palembang, seorang mahasiswi dirampok dan dilecehkan sopir grab car, ini bagaimana sistem perekrutan driver-nya, tolong pihak vendor perhatikan jangan cuma mau untung banyak saja. </t>
+  </si>
+  <si>
+    <t>selama ini pelayanan sudah bagus, untuk tarif, kalau gojek menurut saya sudah pas, tapi untuk grab masih agak kemurahan, kasihan juga sama driver, secara keseluruhan puas.</t>
+  </si>
+  <si>
+    <t>bisnis transportasi online perlu dibuat uu dan aturan yang jelas. untuk pelayanan, sangat berpengaruh dengan etika driver dan konsumen saling menghargai dan membutuhkan</t>
+  </si>
+  <si>
+    <t>Susah jadi driver,  ongkir kemurahan,  hujan-hujanan,  jalan rusak pas diantar minuman tumpah,  nombok,  konsumen mana mengerti. Terus keselamatan juga tidak terjamin.  Aksi penodongan juga marak sampai harus meregang nyawa oleh penumpang gelap yang tidak jelas karena tidak ada verifikasi identitas penumpang</t>
+  </si>
+  <si>
+    <t>Angkutan online sangat membantu saya, tarif yang ditawarkan cukup terjangkau untuk mahasiswa seperti saya, namun jika tarif konsumen dinaikkan lagi, sepertinya saya akan mencoba stop untuk menggunakan jasa angkutan online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang penting tuntutan driver grab dan gojek dapat dipenuhi oleh pemerintah. Contoh tarif dinaikkan, biar driver semangat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat membantu kegiatan saya sehari-Hari </t>
+  </si>
+  <si>
+    <t>Alhamdulillah berkat jasa grab dan gojek, saya merasa aman dan nyaman berpergian kemanapun. Semoga tambah sukses dan sering beri promo</t>
+  </si>
+  <si>
+    <t>Sekarang bawa keluarga, teman-teman mudah banget tidak harus menunggu tengok ke belakang motor dimana tinggal bilang kita jalan. 
+Dengan petikan jari datanglah driver ganteng.</t>
+  </si>
+  <si>
+    <t>Kadang-kadang kasihan juga mendengar keluhan driver karena insentif yang dikasih grab car saat ini terlalu rendah. mohon dipertimbangkan</t>
+  </si>
+  <si>
+    <t>Grab dan gojek memang oke
+Saya dari kampung juga sangat terbantu ada grab dan gojek
+Untuk sakupun tidak bolong</t>
+  </si>
+  <si>
+    <t>Enjoy emang naik grab. Murah dan tepat waktu. Mana ada promo lagi. Membantu sekali. Terima kasih grab. Makin sukses</t>
+  </si>
+  <si>
+    <t>Sebulan belakangan ini saya menggunakan jasa grab car dan gocar alhamdulillah pelayanannya bagus dan driver-nya baik. tapi ada satu driver yang bikin saya kesal sedikit.</t>
+  </si>
+  <si>
+    <t>Ojek online membantu
+Terima kasih grab dah siap antar jemputku ke mana saja dalam 2 tahun ini</t>
+  </si>
+  <si>
+    <t>Potongan perjalanan kalo bisa jangan 20% atau lebih baik dihapus, itu mencekik driver, banyak driver yang ogah perjalanan jauh gara-gara kegedean potongannya, insentif diperkecil, tarif murah, potongan perjalanan 20% dari tarif dan potongan bonus insentif 10% masih ada, 
+Banyak yang sudah muak namun saat mereka ingin beralih profesi lagi menjadi supir angkot, ojek pangkalan, dan lain-lain pasti akan kalah saing dengan ojek online karena mati satu tumbuh seribu (resign satu yang daftar lagi seribu)
+tolong mitranya diperhatikan juga</t>
+  </si>
+  <si>
+    <t>Kalau saya bersyukur alhamdulillah setiap naik grab motor selalu mendapatkan supir yang ramah terus saya tidak pernah lupa selalu siapin uang pas. Terima kasih grab</t>
+  </si>
+  <si>
+    <t>Alhamdullilah selama menggunakan grab dan gojek tidak pernah bertemu masalah.</t>
+  </si>
+  <si>
+    <t>alhammdulillah. Selama dua tahun lebih setiap saya pakai grab pelayanannya selalu baik ramah. 
+Walaupun Terkadang saya suka dapat driver yang jutek tapi cuek sajalah 
+Malah pernah sekali pesan grab untuk tangerang bekasi. Jalannya santai
+Karena mungkin lelah di jalan driver-nya nahan rasa kantuk juga sempat oleng tapi saya menikmati Saja saya buat suasana seperti jalan dengan keluarga sambil saya minta tolong mampir ke alfamart untuk beli minuman dan cemilan sebentar untuk di nikmatin oleh anak-anak saya, saya dan driver-nya supaya tidak ngantuk saja. Karena tidak tega juga lihat driver-nya Sampai akhirnya saya selamat sampai tujuan dengan selamat</t>
+  </si>
+  <si>
+    <t>Semoga sukses selalu.
+Karena sangat membantu saya dan Semua keluarga, sudah kami buktikan itu.
+Tetap semangat dan Ihklas.</t>
+  </si>
+  <si>
+    <t>Buat vendor tolong Cari driver yang pengalaman dan test driver bukan asal bisa naik motor/  menyetir karena ini bersangkutan dengan keselamatan manusia.</t>
+  </si>
+  <si>
+    <t>saya pelanggan setia gocar terutama kalau mau kontrol ke dokter di rumah sakit  setiap bulan tapi kadang saya merasa jengkel dengan ulah oknum driver  yang kurang sabar dan ramah terhadap konsumen tapi tidak semuanya yang begitu ada juga yang baik dan ramah</t>
+  </si>
+  <si>
+    <t>Alhamdulillah. 3 kali naik grab sopirnya ramah-ramah. yang tidak ramah juga banyak mereka membatalkan pesanan. mungkin Allah pilihkan yang terbaik untuk kami. sebagai orang dari kampung, senang kalau di kota ketemu orang baik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semua sama cuma sopirnya tidak sama saya pelanggan Grab kadangkala temukan driver yang Menjengkelkan dan tidak ramah suka bantah, ini tinggal perilaku masing-masing driver. </t>
+  </si>
+  <si>
+    <t>penumpang memang sangat dimanjakan oleh grab, tapi driver-nya seperti sapi perah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grab dan gojek harus memikirkan driver-nya cukup tidak Bensinnya bawa penumpang jauh harganya cuma segitu murah kadang keliling-keliling cari penumpang habis bensin mestinya pikirkan juga kesejahteraan driver biar driver-nya semangat </t>
+  </si>
+  <si>
+    <t>Selama ada Grab, gocar dan lain-lain sangat membantu bagi saya untuk mengantar ibu ke Rumah sakit untuk kontrol, berobat dan bawa untuk terapi.</t>
+  </si>
+  <si>
+    <t>Naik grab tidak ada standar kebersihan kendaraannya. kadang mobilnya kotor, bau tidak kayak taksi Blue Bird yang standar kebersihannya dan rapi tidak bau</t>
+  </si>
+  <si>
+    <t>Tarif tolong dinaikan supaya driver-nya lebih pasti semangat dan lebih ramah lagi Kepada konsumen.</t>
+  </si>
+  <si>
+    <t>Grab is the best
+Karena grab. Perjalananku sekarang ini tak pernah ada hambatan, terima kasih grab. Pelayananmu sangat memuaskan</t>
+  </si>
+  <si>
+    <t>grab terlalu murah car terlalu murah kasihan yang punya mobil cuma cukup bensin apa lagi sekarang bonus tidak lagi diuangkan  padahal cuma untung dibonus saja karena harga argo cuma cukup buat bensin jadi ya susah kasihan yang punya mobil tidak dapat apa-apa</t>
+  </si>
+  <si>
+    <t>Sampai saat ini ojek online masih aman. dan saya berharap pelayanannya semakin ditingkatkan. kadangkala jarak dekat mereka tidak mau ambil. semakin maju dan jaya buat ojek online. pelanggan setia.</t>
+  </si>
+  <si>
+    <t>Saya sangat setuju keberadaan grab di indonesia sangat membantu bagi semua orang.
+Tapi tolong dari pihak grab agar diberi peringatan tegas ke grab car apabila sore sering kita dibatalkan order-nya.</t>
+  </si>
+  <si>
+    <t>Saya baru dua kali pakai grab, ternyata harganya bersahabat, terima kasih grab semoga makin jaya dan perluas semua wilayah apalagi mau lebaran, yang dari kota ke desa, asyik kayaknya kalau grab juga bisa masuk desa</t>
+  </si>
+  <si>
+    <t>Untuk kendaraan driver kalau bisa yang jenis bebek saja, soalnya kemarin istri saya habis jemput anak saya di sekolah, pulangnya order grab, datangnya motor laki tinggi sekali, sedangkan istri saya ngajak anak terus bawa tas lagi, sangat tidak nyaman sekali. sudah itu motornya dimodifikasi lagi jadi cara duduk kelihatan kurang sopan. 
+Harapan kami agar pihak Grab lebih memperhatikan hal-hal macam ini</t>
+  </si>
+  <si>
+    <t>Minggu kemarin malam jam 22.00, orang tua kami tiba-tiba sakit sesak nafas, kami pesan Grab, Alhamdulillah driver-nya baik sekali diantarkan dan sampai dicarikan rumah sakitnya. pantas dikasih bintang 5 driver-nya, sabar menjalankan tugasnya dengan ramah dan sopan. Terima kasih Grab dan driver-nya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasihan driver-nya bayar murah driver-nya banyak yang sakit.
+Dan dikit-dikit komplain suspen.
+Hati-hati hukuman menzolimi karyawan driver online. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhamdulillah selama saya naik grab tidak pernah dapat kesan yang tidak baik. Semua driver baik dan sopan. Bahkan ada yang lebih baik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">banyak penumpang yang membatalkan dan memberi bintang sesukanya sehingga insentif hilang. </t>
+  </si>
+  <si>
+    <t>Driver adalah mitra dari grab yang seharusnya menerapkan hubungan simbiosis mutualisme saling menguntungkan adanya beberapa penyimpangan oknum driver itu terjadi karena adanya ketidakpuasan dari driver entah itu tarif atau penghasilan. saya bicara sebagai konsumen saya bukan mitra grab. saya kadang miris rasanya tarifnya terlalu murah bukan karena saya banyak uang tapi memang kalau mau dibandingkan dengan ojek pangkalan bisa jadi tarifnya jauh sekali. oleh karena itu kepada pihak grab evaluasi lah kebijakan dari grab tanpa driver perusahaan anda tidak akan bisa berjalan dengan baik terima kasih</t>
+  </si>
+  <si>
+    <t>Maju terus ojek online indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojek online sangat memudahkan terima kasih ojek online </t>
+  </si>
+  <si>
+    <t>grab itu sopirnya sopan dan tenang dan bawa kendaraannya tidak ngebut (biasa saja) kita naik mobil itu seperti mobil sendiri dan tidak terburu-buru. POKOKNYA MANTAP NAIK GRAB. TIDAK MENYESAL DAN MALAH MAU NAIK TERUS. MANTAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senang ada go-food di palembang, tapi Bagusnya diperbanyak gerai makanannya biar banyak pilihan. </t>
+  </si>
+  <si>
+    <t>Go-food lebih diperbanyak restonya, khususnya daerah malang</t>
+  </si>
+  <si>
+    <t>Kemarin naik grab car tanpa bicara driver main masuk ke dalem tol tanpa bicara sama saya emang begitu caranya untung saya penyabar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekedar tahu Saja buat grab, tolong ditindak yang tidak sesuai plat nomor di aplikasi sama motornya takutnya tidak sesuai pelayanan
+karena pernah kejadian, saya tidak diantar sampai tujuan. memang tinggal dekat jaraknya tapi tetap saja tidak diantar sampai tujuan jadi saya jalan kaki lagi. </t>
+  </si>
+  <si>
+    <t>Puji syukur, saya sudah 2 tahun menggunakan jasa ojek online aman. Semoga lebih baik lagi.</t>
+  </si>
+  <si>
+    <t>Angkutan online sangat membantu perekonomian masyarakat. semoga kedepannya lebih baik lagi pelayanannya dan juga bagi lebih menghargai lagi pemesannya. vendor senang, driver senang, konsumenpun nyaman.</t>
+  </si>
+  <si>
+    <t>Semoga grab dan gojek gocar bisa berinovasi lagi dalam hal-hal kebaikan bagi masyarakat indonesia</t>
+  </si>
+  <si>
+    <t>Selama saya naik grab car semua sopirnya ramah.  Dan kalau bayar pasti saya lebihkan tidak pernah bayar pas.</t>
+  </si>
+  <si>
+    <t>lagian terlalu murah tarifnya. Sangat murah sekali, kasihan driver-nya kadang mau isi bensin saja mikir-mikir apa lagi mau makan enak dengan kondisi yang sangat murah sekali tarifnya.</t>
+  </si>
+  <si>
+    <t>Ojek online banyak sekali membantu, sekarang. Walau tidak sedikit driver yang nakal dan bekas sopir angkot jadi kurang ramah dan menyebalkan semoga vendor bisa membantu memberikan pencerahan dan sanksi yang sesuai bagi mereka.</t>
+  </si>
+  <si>
+    <t>Supaya sama-sama maju, sejahterakan driver-nya dulu karena driver akar dari kemajuan perusahaan</t>
+  </si>
+  <si>
+    <t>penjajah secara halus. sudah terlalu banyak mafia-mafia,  para driver hanya dijadikan budak. lebih baik memajukan hasil karya indonesia (Gojek). dari pada harus terus menerus mensejahterakan dari pihak yang tak pernah mau mensejahterakan nama baik driver-nya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingat grab besar di Indonesia, kalau bukan karena driver yang ekstra kerja keras di atas aspal, grab tak ada artinya jadi tolong hargai driver </t>
+  </si>
+  <si>
+    <t>GOJEK sangat mengecewakan customer dan menelantarkan driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cepat atau lambat ojek online pasti tumbang dan itu pasti. Semua Gara-gara aplikator. </t>
+  </si>
+  <si>
+    <t>Tadinya saya pake Gojek. Tapi pindah. Karena Sering kecewa</t>
+  </si>
+  <si>
+    <t>Cepat atau lambat ojek online lain akan lebih baik dari gojek. Gojek lupa oleh siapa dia dikenal masyarakat, karena para driver-nya.
+Ini malah driver ditindas dengan tarif murah. Pelanggan senang driver menderita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepada pemerintah dan dpr, tolong buat aturan yang jelas tentang angkutan online ini, agar pihak pemegang Dana tidak semena-mena terhadap driver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gara-gara driver demo, tak satupun ojek online beroperasi, tolong Kepada yang berwenang perhatikan nasib driver </t>
+  </si>
+  <si>
+    <t>Aplikator perang tarif terus, sementara driver yang kerja Keras harus capai target, kasihan driver-nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempatkan posisi driver dan aplikator sebagai mitra, bukan bagaikan juragan dan kacung. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver pada demo, susah nyari angkutan. Padahal keberadaan mereka sangat membantu, Kasihan driver seperti budak saja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jangan perang tarif terus, perhatikan hak-hak driver, jangan cuma memanjakan customer, kalau driver pada lari apa tidak bangkrut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarif terlalu murah akibatnyanya driver demo terus, kalau sudah begini apa iya aplikator tidak takut bakalan bangkrut karena ditinggal driver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepertinya driver ojek online sudah terlalu banyak sehingga sepertinya banyakan driver dari pada customer, ujung-ujungnya perang tarif yang merugikan driver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat Bagus Adanya angkutan online Membuka lapangan kerja sehingga bisa mengurangi pengangguran. </t>
+  </si>
+  <si>
+    <t>Sangat Senang Ada go-food bisa pesan makanan kapan saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangat terbantu dengan adanya angkutan online sangat membantu kegiatan saya sehari-hari. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasihan Sama driver-nya, Sekarang susah dapat order gara-gara kalah sama yang pakai tuyul.
+</t>
   </si>
 </sst>
 </file>
@@ -3115,8 +3062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F984" totalsRowShown="0">
-  <autoFilter ref="A1:F984" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_56F9DC9755BA473782653E2940F99386" displayName="_56F9DC9755BA473782653E2940F99386" ref="A1:F971" totalsRowShown="0">
+  <autoFilter ref="A1:F971" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start time" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Completion time" dataDxfId="4"/>
@@ -3426,10 +3373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F984"/>
+  <dimension ref="A1:F971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
-      <selection activeCell="E699" sqref="E699"/>
+    <sheetView tabSelected="1" topLeftCell="B598" workbookViewId="0">
+      <selection activeCell="E600" sqref="E600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,10 +3400,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,7 +3436,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -3507,7 +3454,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3525,7 +3472,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3543,7 +3490,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -3561,7 +3508,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3579,7 +3526,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3597,7 +3544,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -3615,7 +3562,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3633,7 +3580,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3651,7 +3598,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -3687,7 +3634,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -3705,7 +3652,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -3741,7 +3688,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -3759,7 +3706,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -3777,7 +3724,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -3795,7 +3742,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -3831,7 +3778,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -3867,7 +3814,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -3885,7 +3832,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -3903,7 +3850,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
@@ -3921,7 +3868,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
@@ -3939,7 +3886,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -3957,7 +3904,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
@@ -3993,7 +3940,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4011,7 +3958,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4029,7 +3976,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4047,7 +3994,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4065,7 +4012,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4101,7 +4048,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
@@ -4119,7 +4066,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>7</v>
@@ -4137,7 +4084,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>7</v>
@@ -4155,7 +4102,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4173,7 +4120,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>7</v>
@@ -14223,19 +14170,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>43215.837337962999</v>
+        <v>43215.838506944398</v>
       </c>
       <c r="B600" s="1">
-        <v>43215.838425925896</v>
+        <v>43215.839652777802</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" s="3" t="s">
-        <v>519</v>
+        <v>912</v>
       </c>
       <c r="F600" s="2" t="s">
         <v>8</v>
@@ -14243,53 +14190,53 @@
     </row>
     <row r="601" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>43215.838506944398</v>
+        <v>43215.834837962997</v>
       </c>
       <c r="B601" s="1">
-        <v>43215.839652777802</v>
+        <v>43215.837673611102</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" s="3" t="s">
-        <v>520</v>
+        <v>911</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>43215.834837962997</v>
+        <v>43215.842650462997</v>
       </c>
       <c r="B602" s="1">
-        <v>43215.837673611102</v>
+        <v>43215.844976851797</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" s="3" t="s">
-        <v>521</v>
+        <v>910</v>
       </c>
       <c r="F602" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>43215.842650462997</v>
+        <v>43215.845034722202</v>
       </c>
       <c r="B603" s="1">
-        <v>43215.844976851797</v>
+        <v>43215.846770833297</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" s="3" t="s">
-        <v>522</v>
+        <v>909</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>6</v>
@@ -14297,71 +14244,71 @@
     </row>
     <row r="604" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>43215.845034722202</v>
+        <v>43215.8468055556</v>
       </c>
       <c r="B604" s="1">
-        <v>43215.846770833297</v>
+        <v>43215.848009259302</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" s="3" t="s">
-        <v>523</v>
+        <v>908</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>43215.8468055556</v>
+        <v>43215.850474537001</v>
       </c>
       <c r="B605" s="1">
-        <v>43215.848009259302</v>
+        <v>43215.851493055598</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" s="3" t="s">
-        <v>524</v>
+        <v>907</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>43215.850474537001</v>
+        <v>43215.851539351803</v>
       </c>
       <c r="B606" s="1">
-        <v>43215.851493055598</v>
+        <v>43215.852245370399</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>43215.851539351803</v>
+        <v>43215.852291666699</v>
       </c>
       <c r="B607" s="1">
-        <v>43215.852245370399</v>
+        <v>43215.853252314802</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" s="3" t="s">
-        <v>526</v>
+        <v>906</v>
       </c>
       <c r="F607" s="2" t="s">
         <v>8</v>
@@ -14369,107 +14316,107 @@
     </row>
     <row r="608" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>43215.852291666699</v>
+        <v>43215.853287037004</v>
       </c>
       <c r="B608" s="1">
-        <v>43215.853252314802</v>
+        <v>43215.854363425897</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" s="3" t="s">
-        <v>527</v>
+        <v>905</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>43215.853287037004</v>
+        <v>43215.854432870401</v>
       </c>
       <c r="B609" s="1">
-        <v>43215.854363425897</v>
+        <v>43215.862314814804</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" s="3" t="s">
-        <v>528</v>
+        <v>904</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>43215.854432870401</v>
+        <v>43215.862361111103</v>
       </c>
       <c r="B610" s="1">
-        <v>43215.862314814804</v>
+        <v>43215.863425925898</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="611" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>43215.862361111103</v>
+        <v>43215.863495370402</v>
       </c>
       <c r="B611" s="1">
-        <v>43215.863425925898</v>
+        <v>43215.865451388898</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>43215.863495370402</v>
+        <v>43215.865509259304</v>
       </c>
       <c r="B612" s="1">
-        <v>43215.865451388898</v>
+        <v>43215.866493055597</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" s="3" t="s">
-        <v>531</v>
+        <v>903</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>43215.865509259304</v>
+        <v>43215.867442129602</v>
       </c>
       <c r="B613" s="1">
-        <v>43215.866493055597</v>
+        <v>43215.868553240703</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" s="3" t="s">
-        <v>532</v>
+        <v>902</v>
       </c>
       <c r="F613" s="2" t="s">
         <v>8</v>
@@ -14477,53 +14424,53 @@
     </row>
     <row r="614" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>43215.867442129602</v>
+        <v>43215.868645833303</v>
       </c>
       <c r="B614" s="1">
-        <v>43215.868553240703</v>
+        <v>43215.869849536997</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" s="3" t="s">
-        <v>533</v>
+        <v>901</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>43215.868645833303</v>
+        <v>43216.800034722197</v>
       </c>
       <c r="B615" s="1">
-        <v>43215.869849536997</v>
+        <v>43216.800219907404</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" s="3" t="s">
-        <v>534</v>
+        <v>900</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>43216.800034722197</v>
+        <v>43216.800254629597</v>
       </c>
       <c r="B616" s="1">
-        <v>43216.800219907404</v>
+        <v>43216.801192129598</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" s="3" t="s">
-        <v>535</v>
+        <v>899</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>8</v>
@@ -14531,179 +14478,179 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>43216.800254629597</v>
+        <v>43216.801226851901</v>
       </c>
       <c r="B617" s="1">
-        <v>43216.801192129598</v>
+        <v>43216.801874999997</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" s="3" t="s">
-        <v>500</v>
+        <v>898</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>43216.801226851901</v>
+        <v>43216.802002314798</v>
       </c>
       <c r="B618" s="1">
-        <v>43216.801874999997</v>
+        <v>43216.802326388897</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" s="3" t="s">
-        <v>536</v>
+        <v>897</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>43216.802002314798</v>
+        <v>43216.802372685197</v>
       </c>
       <c r="B619" s="1">
-        <v>43216.802326388897</v>
+        <v>43216.804444444402</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" s="3" t="s">
-        <v>490</v>
+        <v>896</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>43216.802372685197</v>
+        <v>43216.804479166698</v>
       </c>
       <c r="B620" s="1">
-        <v>43216.804444444402</v>
+        <v>43216.805162037002</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" s="3" t="s">
-        <v>537</v>
+        <v>895</v>
       </c>
       <c r="F620" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>43216.804479166698</v>
+        <v>43216.8059490741</v>
       </c>
       <c r="B621" s="1">
-        <v>43216.805162037002</v>
+        <v>43216.806562500002</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" s="3" t="s">
-        <v>538</v>
+        <v>894</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>43216.805196759298</v>
+        <v>43217.3507986111</v>
       </c>
       <c r="B622" s="1">
-        <v>43216.805879629603</v>
+        <v>43217.355081018497</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>43216.8059490741</v>
+        <v>43218.240717592598</v>
       </c>
       <c r="B623" s="1">
-        <v>43216.806562500002</v>
+        <v>43218.242118055598</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" s="3" t="s">
-        <v>117</v>
+        <v>893</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>43217.3507986111</v>
+        <v>43218.242164351803</v>
       </c>
       <c r="B624" s="1">
-        <v>43217.355081018497</v>
+        <v>43218.243113425902</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" s="3" t="s">
-        <v>540</v>
+        <v>892</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>43217.3753587963</v>
+        <v>43218.243159722202</v>
       </c>
       <c r="B625" s="1">
-        <v>43217.3755439815</v>
+        <v>43218.244270833296</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" s="3" t="s">
-        <v>541</v>
+        <v>891</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>43218.240717592598</v>
+        <v>43218.245185185202</v>
       </c>
       <c r="B626" s="1">
-        <v>43218.242118055598</v>
+        <v>43218.246863425898</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" s="3" t="s">
-        <v>542</v>
+        <v>890</v>
       </c>
       <c r="F626" s="2" t="s">
         <v>6</v>
@@ -14711,323 +14658,323 @@
     </row>
     <row r="627" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>43218.242164351803</v>
+        <v>43218.2468981481</v>
       </c>
       <c r="B627" s="1">
-        <v>43218.243113425902</v>
+        <v>43218.2475694444</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" s="3" t="s">
-        <v>543</v>
+        <v>889</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>43218.243159722202</v>
+        <v>43218.247604166703</v>
       </c>
       <c r="B628" s="1">
-        <v>43218.244270833296</v>
+        <v>43218.248587962997</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" s="3" t="s">
-        <v>544</v>
+        <v>888</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>43218.2443055556</v>
+        <v>43218.248622685198</v>
       </c>
       <c r="B629" s="1">
-        <v>43218.245150463001</v>
+        <v>43218.2499537037</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" s="3" t="s">
-        <v>545</v>
+        <v>887</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>43218.245185185202</v>
+        <v>43218.249988425901</v>
       </c>
       <c r="B630" s="1">
-        <v>43218.246863425898</v>
+        <v>43218.251365740703</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" s="3" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="F630" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>43218.2468981481</v>
+        <v>43218.251400462999</v>
       </c>
       <c r="B631" s="1">
-        <v>43218.2475694444</v>
+        <v>43218.252372685201</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" s="3" t="s">
-        <v>547</v>
+        <v>886</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>43218.247604166703</v>
+        <v>43218.252407407403</v>
       </c>
       <c r="B632" s="1">
-        <v>43218.248587962997</v>
+        <v>43218.253217592603</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" s="3" t="s">
-        <v>548</v>
+        <v>885</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>43218.248622685198</v>
+        <v>43218.253252314797</v>
       </c>
       <c r="B633" s="1">
-        <v>43218.2499537037</v>
+        <v>43218.254247685203</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" s="3" t="s">
-        <v>549</v>
+        <v>884</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>43218.249988425901</v>
+        <v>43218.254282407397</v>
       </c>
       <c r="B634" s="1">
-        <v>43218.251365740703</v>
+        <v>43218.2547106481</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" s="3" t="s">
-        <v>550</v>
+        <v>883</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>43218.251400462999</v>
+        <v>43218.254745370403</v>
       </c>
       <c r="B635" s="1">
-        <v>43218.252372685201</v>
+        <v>43218.2559259259</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" s="3" t="s">
-        <v>551</v>
+        <v>789</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>43218.252407407403</v>
+        <v>43218.255960648101</v>
       </c>
       <c r="B636" s="1">
-        <v>43218.253217592603</v>
+        <v>43218.256493055596</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" s="3" t="s">
-        <v>552</v>
+        <v>882</v>
       </c>
       <c r="F636" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>43218.253252314797</v>
+        <v>43218.256527777798</v>
       </c>
       <c r="B637" s="1">
-        <v>43218.254247685203</v>
+        <v>43218.256898148102</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" s="3" t="s">
-        <v>553</v>
+        <v>881</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>43218.254282407397</v>
+        <v>43218.256921296299</v>
       </c>
       <c r="B638" s="1">
-        <v>43218.2547106481</v>
+        <v>43218.2573148148</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" s="3" t="s">
-        <v>554</v>
+        <v>880</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>43218.254745370403</v>
+        <v>43218.6246412037</v>
       </c>
       <c r="B639" s="1">
-        <v>43218.2559259259</v>
+        <v>43218.624814814801</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" s="3" t="s">
-        <v>555</v>
+        <v>879</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>43218.255960648101</v>
+        <v>43218.624849537002</v>
       </c>
       <c r="B640" s="1">
-        <v>43218.256493055596</v>
+        <v>43218.628113425897</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" s="3" t="s">
-        <v>556</v>
+        <v>878</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>43218.256527777798</v>
+        <v>43218.628148148098</v>
       </c>
       <c r="B641" s="1">
-        <v>43218.256898148102</v>
+        <v>43218.629074074102</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" s="3" t="s">
-        <v>557</v>
+        <v>877</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>43218.256921296299</v>
+        <v>43218.629120370402</v>
       </c>
       <c r="B642" s="1">
-        <v>43218.2573148148</v>
+        <v>43218.629583333299</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" s="3" t="s">
-        <v>541</v>
+        <v>876</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>43218.6246412037</v>
+        <v>43218.632418981499</v>
       </c>
       <c r="B643" s="1">
-        <v>43218.624814814801</v>
+        <v>43218.633148148103</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" s="3" t="s">
-        <v>558</v>
+        <v>875</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>43218.624849537002</v>
+        <v>43218.633877314802</v>
       </c>
       <c r="B644" s="1">
-        <v>43218.628113425897</v>
+        <v>43218.634178240703</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" s="3" t="s">
-        <v>559</v>
+        <v>874</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>6</v>
@@ -15035,233 +14982,233 @@
     </row>
     <row r="645" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>43218.628148148098</v>
+        <v>43218.634212962999</v>
       </c>
       <c r="B645" s="1">
-        <v>43218.629074074102</v>
+        <v>43218.634525463</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" s="3" t="s">
-        <v>560</v>
+        <v>873</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>43218.629120370402</v>
+        <v>43218.634571759299</v>
       </c>
       <c r="B646" s="1">
-        <v>43218.629583333299</v>
+        <v>43218.635127314803</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" s="3" t="s">
-        <v>561</v>
+        <v>872</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>43218.629629629599</v>
+        <v>43218.635162036997</v>
       </c>
       <c r="B647" s="1">
-        <v>43218.629872685196</v>
+        <v>43218.635567129597</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" s="3" t="s">
-        <v>562</v>
+        <v>871</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>43218.629930555602</v>
+        <v>43218.637025463002</v>
       </c>
       <c r="B648" s="1">
-        <v>43218.630914351903</v>
+        <v>43218.638043981497</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" s="3" t="s">
-        <v>563</v>
+        <v>870</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>43218.630949074097</v>
+        <v>43218.638124999998</v>
       </c>
       <c r="B649" s="1">
-        <v>43218.6312847222</v>
+        <v>43218.640462962998</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" s="3" t="s">
-        <v>564</v>
+        <v>869</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>43218.631319444401</v>
+        <v>43218.640509259298</v>
       </c>
       <c r="B650" s="1">
-        <v>43218.632372685199</v>
+        <v>43218.640914351803</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" s="3" t="s">
-        <v>565</v>
+        <v>766</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="651" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>43218.632418981499</v>
+        <v>43218.640960648103</v>
       </c>
       <c r="B651" s="1">
-        <v>43218.633148148103</v>
+        <v>43218.6414351852</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" s="3" t="s">
-        <v>566</v>
+        <v>765</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>43218.633182870399</v>
+        <v>43218.6414814815</v>
       </c>
       <c r="B652" s="1">
-        <v>43218.633819444403</v>
+        <v>43218.641782407401</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" s="3" t="s">
-        <v>567</v>
+        <v>764</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>43218.633877314802</v>
+        <v>43218.642453703702</v>
       </c>
       <c r="B653" s="1">
-        <v>43218.634178240703</v>
+        <v>43218.642662036997</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" s="3" t="s">
-        <v>568</v>
+        <v>868</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>43218.634212962999</v>
+        <v>43218.643437500003</v>
       </c>
       <c r="B654" s="1">
-        <v>43218.634525463</v>
+        <v>43218.644155092603</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" s="3" t="s">
-        <v>569</v>
+        <v>867</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>43218.634571759299</v>
+        <v>43218.644247685203</v>
       </c>
       <c r="B655" s="1">
-        <v>43218.635127314803</v>
+        <v>43218.645532407398</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" s="3" t="s">
-        <v>570</v>
+        <v>866</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>43218.635162036997</v>
+        <v>43218.645578703698</v>
       </c>
       <c r="B656" s="1">
-        <v>43218.635567129597</v>
+        <v>43218.6460069444</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" s="3" t="s">
-        <v>571</v>
+        <v>865</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>43218.635613425897</v>
+        <v>43218.646030092597</v>
       </c>
       <c r="B657" s="1">
-        <v>43218.637025463002</v>
+        <v>43218.646689814799</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" s="3" t="s">
-        <v>572</v>
+        <v>864</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>8</v>
@@ -15269,53 +15216,53 @@
     </row>
     <row r="658" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>43218.637025463002</v>
+        <v>43218.646724537</v>
       </c>
       <c r="B658" s="1">
-        <v>43218.638043981497</v>
+        <v>43218.647037037001</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" s="3" t="s">
-        <v>573</v>
+        <v>863</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>43218.638124999998</v>
+        <v>43218.647071759297</v>
       </c>
       <c r="B659" s="1">
-        <v>43218.640462962998</v>
+        <v>43218.6477662037</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" s="3" t="s">
-        <v>574</v>
+        <v>862</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>43218.640509259298</v>
+        <v>43218.647800925901</v>
       </c>
       <c r="B660" s="1">
-        <v>43218.640914351803</v>
+        <v>43218.649062500001</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" s="3" t="s">
-        <v>575</v>
+        <v>861</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>7</v>
@@ -15323,179 +15270,179 @@
     </row>
     <row r="661" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>43218.640960648103</v>
+        <v>43218.6491087963</v>
       </c>
       <c r="B661" s="1">
-        <v>43218.6414351852</v>
+        <v>43218.6496990741</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" s="3" t="s">
-        <v>576</v>
+        <v>860</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="662" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>43218.6414814815</v>
+        <v>43218.649733796301</v>
       </c>
       <c r="B662" s="1">
-        <v>43218.641782407401</v>
+        <v>43218.651921296303</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" s="3" t="s">
-        <v>577</v>
+        <v>859</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="663" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>43218.641817129603</v>
+        <v>43218.651956018497</v>
       </c>
       <c r="B663" s="1">
-        <v>43218.642418981501</v>
+        <v>43218.652430555601</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" s="3" t="s">
-        <v>578</v>
+        <v>858</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="664" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>43218.642453703702</v>
+        <v>43218.652453703697</v>
       </c>
       <c r="B664" s="1">
-        <v>43218.642662036997</v>
+        <v>43218.652766203697</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" s="3" t="s">
-        <v>579</v>
+        <v>857</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>43218.643437500003</v>
+        <v>43218.652858796297</v>
       </c>
       <c r="B665" s="1">
-        <v>43218.644155092603</v>
+        <v>43218.653298611098</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" s="3" t="s">
-        <v>580</v>
+        <v>856</v>
       </c>
       <c r="F665" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>43218.644247685203</v>
+        <v>43218.653333333299</v>
       </c>
       <c r="B666" s="1">
-        <v>43218.645532407398</v>
+        <v>43218.653923611098</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" s="3" t="s">
-        <v>581</v>
+        <v>855</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>43218.645578703698</v>
+        <v>43218.653969907398</v>
       </c>
       <c r="B667" s="1">
-        <v>43218.6460069444</v>
+        <v>43218.6547685185</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" s="3" t="s">
-        <v>582</v>
+        <v>854</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>43218.646030092597</v>
+        <v>43218.654814814799</v>
       </c>
       <c r="B668" s="1">
-        <v>43218.646689814799</v>
+        <v>43218.655057870397</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" s="3" t="s">
-        <v>583</v>
+        <v>853</v>
       </c>
       <c r="F668" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>43218.646724537</v>
+        <v>43218.655104166697</v>
       </c>
       <c r="B669" s="1">
-        <v>43218.647037037001</v>
+        <v>43218.655740740702</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" s="3" t="s">
-        <v>584</v>
+        <v>852</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>43218.647071759297</v>
+        <v>43218.657118055598</v>
       </c>
       <c r="B670" s="1">
-        <v>43218.6477662037</v>
+        <v>43218.657488425903</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" s="3" t="s">
-        <v>585</v>
+        <v>748</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>6</v>
@@ -15503,53 +15450,53 @@
     </row>
     <row r="671" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>43218.647800925901</v>
+        <v>43218.657523148097</v>
       </c>
       <c r="B671" s="1">
-        <v>43218.649062500001</v>
+        <v>43218.657997685201</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" s="3" t="s">
-        <v>586</v>
+        <v>851</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>43218.6491087963</v>
+        <v>43218.657986111102</v>
       </c>
       <c r="B672" s="1">
-        <v>43218.6496990741</v>
+        <v>43218.658310185201</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" s="3" t="s">
-        <v>587</v>
+        <v>850</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>43218.649733796301</v>
+        <v>43218.658414351798</v>
       </c>
       <c r="B673" s="1">
-        <v>43218.651921296303</v>
+        <v>43218.658807870401</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" s="3" t="s">
-        <v>588</v>
+        <v>849</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>6</v>
@@ -15557,17 +15504,17 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>43218.651956018497</v>
+        <v>43218.774236111101</v>
       </c>
       <c r="B674" s="1">
-        <v>43218.652430555601</v>
+        <v>43218.774664351797</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" s="3" t="s">
-        <v>589</v>
+        <v>848</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>6</v>
@@ -15575,71 +15522,71 @@
     </row>
     <row r="675" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>43218.652453703697</v>
+        <v>43218.774756944404</v>
       </c>
       <c r="B675" s="1">
-        <v>43218.652766203697</v>
+        <v>43218.776805555601</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" s="3" t="s">
-        <v>590</v>
+        <v>847</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>43218.652858796297</v>
+        <v>43221.636886574102</v>
       </c>
       <c r="B676" s="1">
-        <v>43218.653298611098</v>
+        <v>43221.638807870397</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" s="3" t="s">
-        <v>591</v>
+        <v>846</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>43218.653333333299</v>
+        <v>43221.647974537002</v>
       </c>
       <c r="B677" s="1">
-        <v>43218.653923611098</v>
+        <v>43221.649907407402</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" s="3" t="s">
-        <v>592</v>
+        <v>845</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>43218.653969907398</v>
+        <v>43222.525937500002</v>
       </c>
       <c r="B678" s="1">
-        <v>43218.6547685185</v>
+        <v>43222.528182870403</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" s="3" t="s">
-        <v>593</v>
+        <v>844</v>
       </c>
       <c r="F678" s="2" t="s">
         <v>6</v>
@@ -15647,17 +15594,17 @@
     </row>
     <row r="679" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>43218.654814814799</v>
+        <v>43222.932094907403</v>
       </c>
       <c r="B679" s="1">
-        <v>43218.655057870397</v>
+        <v>43222.933483796303</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" s="3" t="s">
-        <v>594</v>
+        <v>843</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>6</v>
@@ -15665,53 +15612,53 @@
     </row>
     <row r="680" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>43218.655104166697</v>
+        <v>43225.799537036997</v>
       </c>
       <c r="B680" s="1">
-        <v>43218.655740740702</v>
+        <v>43225.801180555602</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" s="3" t="s">
-        <v>595</v>
+        <v>842</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>43218.655787037002</v>
+        <v>43225.801249999997</v>
       </c>
       <c r="B681" s="1">
-        <v>43218.657083333303</v>
+        <v>43225.801863425899</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" s="3" t="s">
-        <v>596</v>
+        <v>841</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>43218.657118055598</v>
+        <v>43225.803761574098</v>
       </c>
       <c r="B682" s="1">
-        <v>43218.657488425903</v>
+        <v>43225.8041898148</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" s="3" t="s">
-        <v>597</v>
+        <v>840</v>
       </c>
       <c r="F682" s="2" t="s">
         <v>6</v>
@@ -15719,53 +15666,53 @@
     </row>
     <row r="683" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>43218.657523148097</v>
+        <v>43225.804317129601</v>
       </c>
       <c r="B683" s="1">
-        <v>43218.657997685201</v>
+        <v>43225.805208333302</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" s="3" t="s">
-        <v>598</v>
+        <v>839</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="684" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>43218.657986111102</v>
+        <v>43225.808101851901</v>
       </c>
       <c r="B684" s="1">
-        <v>43218.658310185201</v>
+        <v>43225.812071759297</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" s="3" t="s">
-        <v>599</v>
+        <v>838</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>43218.658414351798</v>
+        <v>43227.383298611101</v>
       </c>
       <c r="B685" s="1">
-        <v>43218.658807870401</v>
+        <v>43227.383865740703</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" s="3" t="s">
-        <v>600</v>
+        <v>837</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>6</v>
@@ -15773,125 +15720,125 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>43218.774236111101</v>
+        <v>43227.383900462999</v>
       </c>
       <c r="B686" s="1">
-        <v>43218.774664351797</v>
+        <v>43227.384513888901</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" s="3" t="s">
-        <v>601</v>
+        <v>836</v>
       </c>
       <c r="F686" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>43218.774756944404</v>
+        <v>43227.384548611102</v>
       </c>
       <c r="B687" s="1">
-        <v>43218.776805555601</v>
+        <v>43227.385023148097</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" s="3" t="s">
-        <v>602</v>
+        <v>835</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>43221.636886574102</v>
+        <v>43227.385069444397</v>
       </c>
       <c r="B688" s="1">
-        <v>43221.638807870397</v>
+        <v>43227.386562500003</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" s="3" t="s">
-        <v>603</v>
+        <v>834</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="689" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>43221.647974537002</v>
+        <v>43227.386620370402</v>
       </c>
       <c r="B689" s="1">
-        <v>43221.649907407402</v>
+        <v>43227.387384259302</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" s="3" t="s">
-        <v>604</v>
+        <v>833</v>
       </c>
       <c r="F689" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>43222.525937500002</v>
+        <v>43227.469791666699</v>
       </c>
       <c r="B690" s="1">
-        <v>43222.528182870403</v>
+        <v>43227.470763888901</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" s="3" t="s">
-        <v>605</v>
+        <v>832</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>43222.932094907403</v>
+        <v>43227.4708217593</v>
       </c>
       <c r="B691" s="1">
-        <v>43222.933483796303</v>
+        <v>43227.471412036997</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" s="3" t="s">
-        <v>606</v>
+        <v>831</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>43225.799537036997</v>
+        <v>43227.4714930556</v>
       </c>
       <c r="B692" s="1">
-        <v>43225.801180555602</v>
+        <v>43227.471990740698</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" s="3" t="s">
-        <v>607</v>
+        <v>830</v>
       </c>
       <c r="F692" s="2" t="s">
         <v>8</v>
@@ -15899,53 +15846,53 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>43225.801249999997</v>
+        <v>43227.472118055601</v>
       </c>
       <c r="B693" s="1">
-        <v>43225.801863425899</v>
+        <v>43227.473877314798</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" s="3" t="s">
-        <v>608</v>
+        <v>829</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>43225.803761574098</v>
+        <v>43227.473946759303</v>
       </c>
       <c r="B694" s="1">
-        <v>43225.8041898148</v>
+        <v>43227.474745370397</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" s="3" t="s">
-        <v>609</v>
+        <v>828</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>43225.804317129601</v>
+        <v>43227.474768518499</v>
       </c>
       <c r="B695" s="1">
-        <v>43225.805208333302</v>
+        <v>43227.475405092599</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" s="3" t="s">
-        <v>610</v>
+        <v>827</v>
       </c>
       <c r="F695" s="2" t="s">
         <v>6</v>
@@ -15953,17 +15900,17 @@
     </row>
     <row r="696" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>43225.805289351803</v>
+        <v>43227.475451388898</v>
       </c>
       <c r="B696" s="1">
-        <v>43225.808055555601</v>
+        <v>43227.4761574074</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" s="3" t="s">
-        <v>611</v>
+        <v>826</v>
       </c>
       <c r="F696" s="2" t="s">
         <v>8</v>
@@ -15971,71 +15918,71 @@
     </row>
     <row r="697" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>43225.808101851901</v>
+        <v>43227.476550925901</v>
       </c>
       <c r="B697" s="1">
-        <v>43225.812071759297</v>
+        <v>43227.479050925896</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" s="3" t="s">
-        <v>612</v>
+        <v>825</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>43227.383298611101</v>
+        <v>43227.479085648098</v>
       </c>
       <c r="B698" s="1">
-        <v>43227.383865740703</v>
+        <v>43227.480300925898</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" s="3" t="s">
-        <v>613</v>
+        <v>824</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>43227.383900462999</v>
+        <v>43227.480347222197</v>
       </c>
       <c r="B699" s="1">
-        <v>43227.384513888901</v>
+        <v>43227.481215277803</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" s="3" t="s">
-        <v>926</v>
+        <v>823</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>43227.384548611102</v>
+        <v>43227.481261574103</v>
       </c>
       <c r="B700" s="1">
-        <v>43227.385023148097</v>
+        <v>43227.483240740701</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" s="3" t="s">
-        <v>925</v>
+        <v>822</v>
       </c>
       <c r="F700" s="2" t="s">
         <v>8</v>
@@ -16043,539 +15990,539 @@
     </row>
     <row r="701" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>43227.385069444397</v>
+        <v>43227.483275462997</v>
       </c>
       <c r="B701" s="1">
-        <v>43227.386562500003</v>
+        <v>43227.483912037002</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" s="3" t="s">
-        <v>924</v>
+        <v>821</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>43227.386620370402</v>
+        <v>43227.797245370399</v>
       </c>
       <c r="B702" s="1">
-        <v>43227.387384259302</v>
+        <v>43227.798587963</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" s="3" t="s">
-        <v>923</v>
+        <v>820</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="703" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>43227.469791666699</v>
+        <v>43227.798645833303</v>
       </c>
       <c r="B703" s="1">
-        <v>43227.470763888901</v>
+        <v>43227.799386574101</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" s="3" t="s">
-        <v>922</v>
+        <v>819</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>43227.4708217593</v>
+        <v>43227.799421296302</v>
       </c>
       <c r="B704" s="1">
-        <v>43227.471412036997</v>
+        <v>43227.800416666701</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" s="3" t="s">
-        <v>921</v>
+        <v>818</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>43227.4714930556</v>
+        <v>43227.8042361111</v>
       </c>
       <c r="B705" s="1">
-        <v>43227.471990740698</v>
+        <v>43227.807789351798</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" s="3" t="s">
-        <v>920</v>
+        <v>817</v>
       </c>
       <c r="F705" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>43227.472118055601</v>
+        <v>43228.805798611102</v>
       </c>
       <c r="B706" s="1">
-        <v>43227.473877314798</v>
+        <v>43228.806875000002</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" s="3" t="s">
-        <v>919</v>
+        <v>816</v>
       </c>
       <c r="F706" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>43227.473946759303</v>
+        <v>43228.806921296302</v>
       </c>
       <c r="B707" s="1">
-        <v>43227.474745370397</v>
+        <v>43228.808078703703</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" s="3" t="s">
-        <v>918</v>
+        <v>815</v>
       </c>
       <c r="F707" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>43227.474768518499</v>
+        <v>43228.808113425897</v>
       </c>
       <c r="B708" s="1">
-        <v>43227.475405092599</v>
+        <v>43228.808796296304</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" s="3" t="s">
-        <v>917</v>
+        <v>814</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>43227.475451388898</v>
+        <v>43228.808831018498</v>
       </c>
       <c r="B709" s="1">
-        <v>43227.4761574074</v>
+        <v>43228.809143518498</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" s="3" t="s">
-        <v>916</v>
+        <v>813</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>43227.476550925901</v>
+        <v>43228.809178240699</v>
       </c>
       <c r="B710" s="1">
-        <v>43227.479050925896</v>
+        <v>43228.809837963003</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" s="3" t="s">
-        <v>915</v>
+        <v>812</v>
       </c>
       <c r="F710" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>43227.479085648098</v>
+        <v>43229.371307870402</v>
       </c>
       <c r="B711" s="1">
-        <v>43227.480300925898</v>
+        <v>43229.372453703698</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" s="3" t="s">
-        <v>914</v>
+        <v>524</v>
       </c>
       <c r="F711" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>43227.480347222197</v>
+        <v>43229.372581018499</v>
       </c>
       <c r="B712" s="1">
-        <v>43227.481215277803</v>
+        <v>43229.373206018499</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" s="3" t="s">
-        <v>913</v>
+        <v>811</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>43227.481261574103</v>
+        <v>43229.374525462998</v>
       </c>
       <c r="B713" s="1">
-        <v>43227.483240740701</v>
+        <v>43229.3764814815</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" s="3" t="s">
-        <v>912</v>
+        <v>810</v>
       </c>
       <c r="F713" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>43227.483275462997</v>
+        <v>43229.377500000002</v>
       </c>
       <c r="B714" s="1">
-        <v>43227.483912037002</v>
+        <v>43229.379317129598</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" s="3" t="s">
-        <v>911</v>
+        <v>809</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>43227.797245370399</v>
+        <v>43229.380462963003</v>
       </c>
       <c r="B715" s="1">
-        <v>43227.798587963</v>
+        <v>43229.381249999999</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" s="3" t="s">
-        <v>910</v>
+        <v>808</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>43227.798645833303</v>
+        <v>43229.381296296298</v>
       </c>
       <c r="B716" s="1">
-        <v>43227.799386574101</v>
+        <v>43229.382418981499</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" s="3" t="s">
-        <v>909</v>
+        <v>807</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>43227.799421296302</v>
+        <v>43229.383090277799</v>
       </c>
       <c r="B717" s="1">
-        <v>43227.800416666701</v>
+        <v>43229.383692129602</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" s="3" t="s">
-        <v>908</v>
+        <v>806</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>43227.8042361111</v>
+        <v>43229.384942129604</v>
       </c>
       <c r="B718" s="1">
-        <v>43227.807789351798</v>
+        <v>43229.385671296302</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" s="3" t="s">
-        <v>907</v>
+        <v>805</v>
       </c>
       <c r="F718" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>43228.805798611102</v>
+        <v>43229.385717592602</v>
       </c>
       <c r="B719" s="1">
-        <v>43228.806875000002</v>
+        <v>43229.386365740698</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" s="3" t="s">
-        <v>906</v>
+        <v>804</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>43228.806921296302</v>
+        <v>43229.386469907397</v>
       </c>
       <c r="B720" s="1">
-        <v>43228.808078703703</v>
+        <v>43229.387627314798</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" s="3" t="s">
-        <v>905</v>
+        <v>803</v>
       </c>
       <c r="F720" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>43228.808113425897</v>
+        <v>43229.387743055602</v>
       </c>
       <c r="B721" s="1">
-        <v>43228.808796296304</v>
+        <v>43229.388136574104</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" s="3" t="s">
-        <v>904</v>
+        <v>802</v>
       </c>
       <c r="F721" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>43228.808831018498</v>
+        <v>43229.388182870403</v>
       </c>
       <c r="B722" s="1">
-        <v>43228.809143518498</v>
+        <v>43229.389629629601</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" s="3" t="s">
-        <v>903</v>
+        <v>801</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>43228.809178240699</v>
+        <v>43229.394016203703</v>
       </c>
       <c r="B723" s="1">
-        <v>43228.809837963003</v>
+        <v>43229.396134259303</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" s="3" t="s">
-        <v>902</v>
+        <v>800</v>
       </c>
       <c r="F723" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>43229.371307870402</v>
+        <v>43229.3963194444</v>
       </c>
       <c r="B724" s="1">
-        <v>43229.372453703698</v>
+        <v>43229.397789351897</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" s="3" t="s">
-        <v>614</v>
+        <v>799</v>
       </c>
       <c r="F724" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>43229.372581018499</v>
+        <v>43229.397962962998</v>
       </c>
       <c r="B725" s="1">
-        <v>43229.373206018499</v>
+        <v>43229.398622685199</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" s="3" t="s">
-        <v>901</v>
+        <v>525</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>43229.374525462998</v>
+        <v>43230.841354166703</v>
       </c>
       <c r="B726" s="1">
-        <v>43229.3764814815</v>
+        <v>43230.842592592599</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" s="3" t="s">
-        <v>900</v>
+        <v>798</v>
       </c>
       <c r="F726" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>43229.377500000002</v>
+        <v>43230.842662037001</v>
       </c>
       <c r="B727" s="1">
-        <v>43229.379317129598</v>
+        <v>43230.845844907402</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" s="3" t="s">
-        <v>899</v>
+        <v>797</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>43229.380462963003</v>
+        <v>43230.845879629604</v>
       </c>
       <c r="B728" s="1">
-        <v>43229.381249999999</v>
+        <v>43230.846967592603</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" s="3" t="s">
-        <v>898</v>
+        <v>796</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>43229.381296296298</v>
+        <v>43230.8488194444</v>
       </c>
       <c r="B729" s="1">
-        <v>43229.382418981499</v>
+        <v>43230.849027777796</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" s="3" t="s">
-        <v>897</v>
+        <v>795</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>43229.383090277799</v>
+        <v>43230.849074074104</v>
       </c>
       <c r="B730" s="1">
-        <v>43229.383692129602</v>
+        <v>43230.849606481497</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" s="3" t="s">
-        <v>896</v>
+        <v>794</v>
       </c>
       <c r="F730" s="2" t="s">
         <v>6</v>
@@ -16583,305 +16530,305 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>43229.384942129604</v>
+        <v>43230.849652777797</v>
       </c>
       <c r="B731" s="1">
-        <v>43229.385671296302</v>
+        <v>43230.851215277798</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" s="3" t="s">
-        <v>895</v>
+        <v>793</v>
       </c>
       <c r="F731" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>43229.385717592602</v>
+        <v>43230.851261574098</v>
       </c>
       <c r="B732" s="1">
-        <v>43229.386365740698</v>
+        <v>43230.852094907401</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D732" s="2"/>
       <c r="E732" s="3" t="s">
-        <v>894</v>
+        <v>792</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="733" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>43229.386469907397</v>
+        <v>43230.880370370403</v>
       </c>
       <c r="B733" s="1">
-        <v>43229.387627314798</v>
+        <v>43230.880972222199</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" s="3" t="s">
-        <v>893</v>
+        <v>791</v>
       </c>
       <c r="F733" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>43229.387743055602</v>
+        <v>43230.881030092598</v>
       </c>
       <c r="B734" s="1">
-        <v>43229.388136574104</v>
+        <v>43230.881770833301</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" s="3" t="s">
-        <v>892</v>
+        <v>790</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>43229.388182870403</v>
+        <v>43230.883564814802</v>
       </c>
       <c r="B735" s="1">
-        <v>43229.389629629601</v>
+        <v>43230.883958333303</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" s="3" t="s">
-        <v>891</v>
+        <v>775</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="736" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>43229.394016203703</v>
+        <v>43230.884178240703</v>
       </c>
       <c r="B736" s="1">
-        <v>43229.396134259303</v>
+        <v>43230.885625000003</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" s="3" t="s">
-        <v>890</v>
+        <v>789</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="737" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>43229.3963194444</v>
+        <v>43230.885682870401</v>
       </c>
       <c r="B737" s="1">
-        <v>43229.397789351897</v>
+        <v>43230.886122685202</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D737" s="2"/>
       <c r="E737" s="3" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
       <c r="F737" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>43229.397962962998</v>
+        <v>43230.886157407404</v>
       </c>
       <c r="B738" s="1">
-        <v>43229.398622685199</v>
+        <v>43230.886574074102</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" s="3" t="s">
-        <v>615</v>
+        <v>787</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>43230.841354166703</v>
+        <v>43230.886620370402</v>
       </c>
       <c r="B739" s="1">
-        <v>43230.842592592599</v>
+        <v>43230.887314814798</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" s="3" t="s">
-        <v>888</v>
+        <v>786</v>
       </c>
       <c r="F739" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>43230.842662037001</v>
+        <v>43230.887361111098</v>
       </c>
       <c r="B740" s="1">
-        <v>43230.845844907402</v>
+        <v>43230.888437499998</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" s="3" t="s">
-        <v>887</v>
+        <v>785</v>
       </c>
       <c r="F740" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>43230.845879629604</v>
+        <v>43230.889178240701</v>
       </c>
       <c r="B741" s="1">
-        <v>43230.846967592603</v>
+        <v>43230.889444444401</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" s="3" t="s">
-        <v>886</v>
+        <v>784</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="742" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>43230.8488194444</v>
+        <v>43231.607546296298</v>
       </c>
       <c r="B742" s="1">
-        <v>43230.849027777796</v>
+        <v>43231.608055555596</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" s="3" t="s">
-        <v>885</v>
+        <v>783</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>43230.849074074104</v>
+        <v>43231.608090277798</v>
       </c>
       <c r="B743" s="1">
-        <v>43230.849606481497</v>
+        <v>43231.608530092599</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" s="3" t="s">
-        <v>884</v>
+        <v>782</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>43230.849652777797</v>
+        <v>43231.6085648148</v>
       </c>
       <c r="B744" s="1">
-        <v>43230.851215277798</v>
+        <v>43231.609212962998</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" s="3" t="s">
-        <v>883</v>
+        <v>526</v>
       </c>
       <c r="F744" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>43230.851261574098</v>
+        <v>43231.609247685199</v>
       </c>
       <c r="B745" s="1">
-        <v>43230.852094907401</v>
+        <v>43231.610057870399</v>
       </c>
       <c r="C745" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" s="3" t="s">
-        <v>882</v>
+        <v>781</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>43230.880370370403</v>
+        <v>43231.610115740703</v>
       </c>
       <c r="B746" s="1">
-        <v>43230.880972222199</v>
+        <v>43231.612256944398</v>
       </c>
       <c r="C746" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" s="3" t="s">
-        <v>881</v>
+        <v>780</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>43230.881030092598</v>
+        <v>43231.612291666701</v>
       </c>
       <c r="B747" s="1">
-        <v>43230.881770833301</v>
+        <v>43231.612731481502</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" s="3" t="s">
-        <v>880</v>
+        <v>779</v>
       </c>
       <c r="F747" s="2" t="s">
         <v>6</v>
@@ -16889,89 +16836,89 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>43230.883564814802</v>
+        <v>43231.612754629597</v>
       </c>
       <c r="B748" s="1">
-        <v>43230.883958333303</v>
+        <v>43231.613206018497</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" s="3" t="s">
-        <v>865</v>
+        <v>527</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>43230.884178240703</v>
+        <v>43231.613240740699</v>
       </c>
       <c r="B749" s="1">
-        <v>43230.885625000003</v>
+        <v>43231.613831018498</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" s="3" t="s">
-        <v>879</v>
+        <v>778</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>43230.885682870401</v>
+        <v>43231.613865740699</v>
       </c>
       <c r="B750" s="1">
-        <v>43230.886122685202</v>
+        <v>43231.614618055602</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" s="3" t="s">
-        <v>878</v>
+        <v>777</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>43230.886157407404</v>
+        <v>43231.614652777796</v>
       </c>
       <c r="B751" s="1">
-        <v>43230.886574074102</v>
+        <v>43231.615219907399</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" s="3" t="s">
-        <v>877</v>
+        <v>528</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>43230.886620370402</v>
+        <v>43231.6152546296</v>
       </c>
       <c r="B752" s="1">
-        <v>43230.887314814798</v>
+        <v>43231.616412037001</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" s="3" t="s">
-        <v>876</v>
+        <v>529</v>
       </c>
       <c r="F752" s="2" t="s">
         <v>8</v>
@@ -16979,215 +16926,215 @@
     </row>
     <row r="753" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>43230.887361111098</v>
+        <v>43232.717812499999</v>
       </c>
       <c r="B753" s="1">
-        <v>43230.888437499998</v>
+        <v>43232.717928240701</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D753" s="2"/>
       <c r="E753" s="3" t="s">
-        <v>875</v>
+        <v>776</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>43230.889178240701</v>
+        <v>43232.717962962997</v>
       </c>
       <c r="B754" s="1">
-        <v>43230.889444444401</v>
+        <v>43232.718240740702</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D754" s="2"/>
       <c r="E754" s="3" t="s">
-        <v>874</v>
+        <v>775</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>43231.607546296298</v>
+        <v>43232.718287037002</v>
       </c>
       <c r="B755" s="1">
-        <v>43231.608055555596</v>
+        <v>43232.720254629603</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D755" s="2"/>
       <c r="E755" s="3" t="s">
-        <v>873</v>
+        <v>774</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>43231.608090277798</v>
+        <v>43232.720289351797</v>
       </c>
       <c r="B756" s="1">
-        <v>43231.608530092599</v>
+        <v>43232.720775463</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D756" s="2"/>
       <c r="E756" s="3" t="s">
-        <v>872</v>
+        <v>773</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>43231.6085648148</v>
+        <v>43232.720810185201</v>
       </c>
       <c r="B757" s="1">
-        <v>43231.609212962998</v>
+        <v>43232.721307870401</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D757" s="2"/>
       <c r="E757" s="3" t="s">
-        <v>616</v>
+        <v>772</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>43231.609247685199</v>
+        <v>43232.721342592602</v>
       </c>
       <c r="B758" s="1">
-        <v>43231.610057870399</v>
+        <v>43232.721643518496</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D758" s="2"/>
       <c r="E758" s="3" t="s">
-        <v>871</v>
+        <v>771</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>43231.610115740703</v>
+        <v>43232.721678240698</v>
       </c>
       <c r="B759" s="1">
-        <v>43231.612256944398</v>
+        <v>43232.721921296303</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D759" s="2"/>
       <c r="E759" s="3" t="s">
-        <v>870</v>
+        <v>770</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>43231.612291666701</v>
+        <v>43232.722268518497</v>
       </c>
       <c r="B760" s="1">
-        <v>43231.612731481502</v>
+        <v>43232.722581018497</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D760" s="2"/>
       <c r="E760" s="3" t="s">
-        <v>869</v>
+        <v>769</v>
       </c>
       <c r="F760" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>43231.612754629597</v>
+        <v>43232.725231481498</v>
       </c>
       <c r="B761" s="1">
-        <v>43231.613206018497</v>
+        <v>43232.726678240702</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D761" s="2"/>
       <c r="E761" s="3" t="s">
-        <v>617</v>
+        <v>768</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>43231.613240740699</v>
+        <v>43232.726736111101</v>
       </c>
       <c r="B762" s="1">
-        <v>43231.613831018498</v>
+        <v>43232.728171296301</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D762" s="2"/>
       <c r="E762" s="3" t="s">
-        <v>868</v>
+        <v>767</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>43231.613865740699</v>
+        <v>43232.728206018503</v>
       </c>
       <c r="B763" s="1">
-        <v>43231.614618055602</v>
+        <v>43232.728622685201</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D763" s="2"/>
       <c r="E763" s="3" t="s">
-        <v>867</v>
+        <v>766</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>43231.614652777796</v>
+        <v>43232.728657407402</v>
       </c>
       <c r="B764" s="1">
-        <v>43231.615219907399</v>
+        <v>43232.7289930556</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D764" s="2"/>
       <c r="E764" s="3" t="s">
-        <v>618</v>
+        <v>765</v>
       </c>
       <c r="F764" s="2" t="s">
         <v>8</v>
@@ -17195,179 +17142,179 @@
     </row>
     <row r="765" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>43231.6152546296</v>
+        <v>43232.729074074101</v>
       </c>
       <c r="B765" s="1">
-        <v>43231.616412037001</v>
+        <v>43232.729328703703</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D765" s="2"/>
       <c r="E765" s="3" t="s">
-        <v>619</v>
+        <v>764</v>
       </c>
       <c r="F765" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>43232.717812499999</v>
+        <v>43232.729733796303</v>
       </c>
       <c r="B766" s="1">
-        <v>43232.717928240701</v>
+        <v>43232.730011574102</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D766" s="2"/>
       <c r="E766" s="3" t="s">
-        <v>866</v>
+        <v>763</v>
       </c>
       <c r="F766" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>43232.717962962997</v>
+        <v>43232.730046296303</v>
       </c>
       <c r="B767" s="1">
-        <v>43232.718240740702</v>
+        <v>43232.731886574104</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D767" s="2"/>
       <c r="E767" s="3" t="s">
-        <v>865</v>
+        <v>762</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>43232.718287037002</v>
+        <v>43232.731956018499</v>
       </c>
       <c r="B768" s="1">
-        <v>43232.720254629603</v>
+        <v>43232.732418981497</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D768" s="2"/>
       <c r="E768" s="3" t="s">
-        <v>864</v>
+        <v>761</v>
       </c>
       <c r="F768" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>43232.720289351797</v>
+        <v>43232.732453703698</v>
       </c>
       <c r="B769" s="1">
-        <v>43232.720775463</v>
+        <v>43232.733333333301</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D769" s="2"/>
       <c r="E769" s="3" t="s">
-        <v>863</v>
+        <v>760</v>
       </c>
       <c r="F769" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="770" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>43232.720810185201</v>
+        <v>43232.733414351896</v>
       </c>
       <c r="B770" s="1">
-        <v>43232.721307870401</v>
+        <v>43232.7337037037</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D770" s="2"/>
       <c r="E770" s="3" t="s">
-        <v>862</v>
+        <v>759</v>
       </c>
       <c r="F770" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>43232.721342592602</v>
+        <v>43232.733738425901</v>
       </c>
       <c r="B771" s="1">
-        <v>43232.721643518496</v>
+        <v>43232.735578703701</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D771" s="2"/>
       <c r="E771" s="3" t="s">
-        <v>861</v>
+        <v>758</v>
       </c>
       <c r="F771" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>43232.721678240698</v>
+        <v>43232.735613425903</v>
       </c>
       <c r="B772" s="1">
-        <v>43232.721921296303</v>
+        <v>43232.736909722204</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D772" s="2"/>
       <c r="E772" s="3" t="s">
-        <v>860</v>
+        <v>757</v>
       </c>
       <c r="F772" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="773" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>43232.722268518497</v>
+        <v>43232.736944444398</v>
       </c>
       <c r="B773" s="1">
-        <v>43232.722581018497</v>
+        <v>43232.737546296303</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D773" s="2"/>
       <c r="E773" s="3" t="s">
-        <v>859</v>
+        <v>756</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>43232.725231481498</v>
+        <v>43232.737581018497</v>
       </c>
       <c r="B774" s="1">
-        <v>43232.726678240702</v>
+        <v>43232.737870370402</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D774" s="2"/>
       <c r="E774" s="3" t="s">
-        <v>858</v>
+        <v>755</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>6</v>
@@ -17375,197 +17322,197 @@
     </row>
     <row r="775" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>43232.726736111101</v>
+        <v>43232.737905092603</v>
       </c>
       <c r="B775" s="1">
-        <v>43232.728171296301</v>
+        <v>43232.738252314797</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D775" s="2"/>
       <c r="E775" s="3" t="s">
-        <v>857</v>
+        <v>754</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>43232.728206018503</v>
+        <v>43232.738287036998</v>
       </c>
       <c r="B776" s="1">
-        <v>43232.728622685201</v>
+        <v>43232.738599536999</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" s="3" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="F776" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>43232.728657407402</v>
+        <v>43232.738634259302</v>
       </c>
       <c r="B777" s="1">
-        <v>43232.7289930556</v>
+        <v>43232.738993055602</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D777" s="2"/>
       <c r="E777" s="3" t="s">
-        <v>855</v>
+        <v>530</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>43232.729074074101</v>
+        <v>43232.739027777803</v>
       </c>
       <c r="B778" s="1">
-        <v>43232.729328703703</v>
+        <v>43232.7398032407</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D778" s="2"/>
       <c r="E778" s="3" t="s">
-        <v>854</v>
+        <v>752</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>43232.729733796303</v>
+        <v>43232.739837963003</v>
       </c>
       <c r="B779" s="1">
-        <v>43232.730011574102</v>
+        <v>43232.740578703699</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D779" s="2"/>
       <c r="E779" s="3" t="s">
-        <v>853</v>
+        <v>751</v>
       </c>
       <c r="F779" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>43232.730046296303</v>
+        <v>43232.7406134259</v>
       </c>
       <c r="B780" s="1">
-        <v>43232.731886574104</v>
+        <v>43232.742696759298</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D780" s="2"/>
       <c r="E780" s="3" t="s">
-        <v>852</v>
+        <v>750</v>
       </c>
       <c r="F780" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>43232.731956018499</v>
+        <v>43232.742824074099</v>
       </c>
       <c r="B781" s="1">
-        <v>43232.732418981497</v>
+        <v>43232.743437500001</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D781" s="2"/>
       <c r="E781" s="3" t="s">
-        <v>851</v>
+        <v>749</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>43232.732453703698</v>
+        <v>43232.7434953704</v>
       </c>
       <c r="B782" s="1">
-        <v>43232.733333333301</v>
+        <v>43232.743877314802</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D782" s="2"/>
       <c r="E782" s="3" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="F782" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>43232.733414351896</v>
+        <v>43232.743923611102</v>
       </c>
       <c r="B783" s="1">
-        <v>43232.7337037037</v>
+        <v>43232.744293981501</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D783" s="2"/>
       <c r="E783" s="3" t="s">
-        <v>849</v>
+        <v>747</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>43232.733738425901</v>
+        <v>43234.845763888901</v>
       </c>
       <c r="B784" s="1">
-        <v>43232.735578703701</v>
+        <v>43234.845902777801</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D784" s="2"/>
       <c r="E784" s="3" t="s">
-        <v>848</v>
+        <v>746</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>43232.735613425903</v>
+        <v>43234.845937500002</v>
       </c>
       <c r="B785" s="1">
-        <v>43232.736909722204</v>
+        <v>43234.846296296302</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D785" s="2"/>
       <c r="E785" s="3" t="s">
-        <v>847</v>
+        <v>745</v>
       </c>
       <c r="F785" s="2" t="s">
         <v>7</v>
@@ -17573,71 +17520,71 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>43232.736944444398</v>
+        <v>43234.846539351798</v>
       </c>
       <c r="B786" s="1">
-        <v>43232.737546296303</v>
+        <v>43234.846793981502</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D786" s="2"/>
       <c r="E786" s="3" t="s">
-        <v>846</v>
+        <v>744</v>
       </c>
       <c r="F786" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>43232.737581018497</v>
+        <v>43234.846840277802</v>
       </c>
       <c r="B787" s="1">
-        <v>43232.737870370402</v>
+        <v>43234.847256944398</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D787" s="2"/>
       <c r="E787" s="3" t="s">
-        <v>845</v>
+        <v>743</v>
       </c>
       <c r="F787" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>43232.737905092603</v>
+        <v>43234.847337963001</v>
       </c>
       <c r="B788" s="1">
-        <v>43232.738252314797</v>
+        <v>43234.847939814797</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D788" s="2"/>
       <c r="E788" s="3" t="s">
-        <v>844</v>
+        <v>742</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>43232.738287036998</v>
+        <v>43234.847974536999</v>
       </c>
       <c r="B789" s="1">
-        <v>43232.738599536999</v>
+        <v>43234.849039351902</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D789" s="2"/>
       <c r="E789" s="3" t="s">
-        <v>843</v>
+        <v>741</v>
       </c>
       <c r="F789" s="2" t="s">
         <v>6</v>
@@ -17645,413 +17592,413 @@
     </row>
     <row r="790" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>43232.738634259302</v>
+        <v>43234.8523726852</v>
       </c>
       <c r="B790" s="1">
-        <v>43232.738993055602</v>
+        <v>43234.8532291667</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D790" s="2"/>
       <c r="E790" s="3" t="s">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>43232.739027777803</v>
+        <v>43234.853310185201</v>
       </c>
       <c r="B791" s="1">
-        <v>43232.7398032407</v>
+        <v>43234.854710648098</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D791" s="2"/>
       <c r="E791" s="3" t="s">
-        <v>842</v>
+        <v>739</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>43232.739837963003</v>
+        <v>43234.858356481498</v>
       </c>
       <c r="B792" s="1">
-        <v>43232.740578703699</v>
+        <v>43234.858495370398</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D792" s="2"/>
       <c r="E792" s="3" t="s">
-        <v>841</v>
+        <v>738</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>43232.7406134259</v>
+        <v>43234.858530092599</v>
       </c>
       <c r="B793" s="1">
-        <v>43232.742696759298</v>
+        <v>43234.860520833303</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D793" s="2"/>
       <c r="E793" s="3" t="s">
-        <v>840</v>
+        <v>737</v>
       </c>
       <c r="F793" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>43232.742824074099</v>
+        <v>43234.860567129603</v>
       </c>
       <c r="B794" s="1">
-        <v>43232.743437500001</v>
+        <v>43234.861030092601</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D794" s="2"/>
       <c r="E794" s="3" t="s">
-        <v>839</v>
+        <v>736</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>43232.7434953704</v>
+        <v>43234.864479166703</v>
       </c>
       <c r="B795" s="1">
-        <v>43232.743877314802</v>
+        <v>43234.864571759303</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D795" s="2"/>
       <c r="E795" s="3" t="s">
-        <v>838</v>
+        <v>735</v>
       </c>
       <c r="F795" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>43232.743923611102</v>
+        <v>43239.582743055602</v>
       </c>
       <c r="B796" s="1">
-        <v>43232.744293981501</v>
+        <v>43239.584687499999</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D796" s="2"/>
       <c r="E796" s="3" t="s">
-        <v>837</v>
+        <v>734</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>43234.845763888901</v>
+        <v>43239.584791666697</v>
       </c>
       <c r="B797" s="1">
-        <v>43234.845902777801</v>
+        <v>43239.585150462997</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D797" s="2"/>
       <c r="E797" s="3" t="s">
-        <v>836</v>
+        <v>728</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>43234.845937500002</v>
+        <v>43239.588854166701</v>
       </c>
       <c r="B798" s="1">
-        <v>43234.846296296302</v>
+        <v>43239.591226851902</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D798" s="2"/>
       <c r="E798" s="3" t="s">
-        <v>835</v>
+        <v>733</v>
       </c>
       <c r="F798" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>43234.846539351798</v>
+        <v>43239.5912731481</v>
       </c>
       <c r="B799" s="1">
-        <v>43234.846793981502</v>
+        <v>43239.5926736111</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D799" s="2"/>
       <c r="E799" s="3" t="s">
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="F799" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>43234.846840277802</v>
+        <v>43239.592731481498</v>
       </c>
       <c r="B800" s="1">
-        <v>43234.847256944398</v>
+        <v>43239.5941087963</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D800" s="2"/>
       <c r="E800" s="3" t="s">
-        <v>833</v>
+        <v>731</v>
       </c>
       <c r="F800" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>43234.847337963001</v>
+        <v>43239.594143518501</v>
       </c>
       <c r="B801" s="1">
-        <v>43234.847939814797</v>
+        <v>43239.595648148097</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D801" s="2"/>
       <c r="E801" s="3" t="s">
-        <v>832</v>
+        <v>730</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>43234.847974536999</v>
+        <v>43239.595694444397</v>
       </c>
       <c r="B802" s="1">
-        <v>43234.849039351902</v>
+        <v>43239.597187500003</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D802" s="2"/>
       <c r="E802" s="3" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="F802" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>43234.8523726852</v>
+        <v>43240.630081018498</v>
       </c>
       <c r="B803" s="1">
-        <v>43234.8532291667</v>
+        <v>43240.631423611099</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D803" s="2"/>
       <c r="E803" s="3" t="s">
-        <v>830</v>
+        <v>729</v>
       </c>
       <c r="F803" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>43234.853310185201</v>
+        <v>43241.723032407397</v>
       </c>
       <c r="B804" s="1">
-        <v>43234.854710648098</v>
+        <v>43241.723692129599</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D804" s="2"/>
       <c r="E804" s="3" t="s">
-        <v>829</v>
+        <v>728</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>43234.858356481498</v>
+        <v>43241.727997685201</v>
       </c>
       <c r="B805" s="1">
-        <v>43234.858495370398</v>
+        <v>43241.728344907402</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D805" s="2"/>
       <c r="E805" s="3" t="s">
-        <v>828</v>
+        <v>727</v>
       </c>
       <c r="F805" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>43234.858530092599</v>
+        <v>43241.729201388902</v>
       </c>
       <c r="B806" s="1">
-        <v>43234.860520833303</v>
+        <v>43241.730069444398</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D806" s="2"/>
       <c r="E806" s="3" t="s">
-        <v>827</v>
+        <v>726</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>43234.860567129603</v>
+        <v>43241.730277777802</v>
       </c>
       <c r="B807" s="1">
-        <v>43234.861030092601</v>
+        <v>43241.730833333299</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D807" s="2"/>
       <c r="E807" s="3" t="s">
-        <v>826</v>
+        <v>725</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>43234.864479166703</v>
+        <v>43241.731192129599</v>
       </c>
       <c r="B808" s="1">
-        <v>43234.864571759303</v>
+        <v>43241.735879629603</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D808" s="2"/>
       <c r="E808" s="3" t="s">
-        <v>825</v>
+        <v>724</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>43239.582743055602</v>
+        <v>43241.738414351901</v>
       </c>
       <c r="B809" s="1">
-        <v>43239.584687499999</v>
+        <v>43241.739224536999</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D809" s="2"/>
       <c r="E809" s="3" t="s">
-        <v>824</v>
+        <v>723</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>43239.584791666697</v>
+        <v>43241.739317129599</v>
       </c>
       <c r="B810" s="1">
-        <v>43239.585150462997</v>
+        <v>43241.740509259304</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D810" s="2"/>
       <c r="E810" s="3" t="s">
-        <v>818</v>
+        <v>533</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="811" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>43239.588854166701</v>
+        <v>43241.740555555603</v>
       </c>
       <c r="B811" s="1">
-        <v>43239.591226851902</v>
+        <v>43241.741550925901</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D811" s="2"/>
       <c r="E811" s="3" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
       <c r="F811" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>43239.5912731481</v>
+        <v>43242.865694444401</v>
       </c>
       <c r="B812" s="1">
-        <v>43239.5926736111</v>
+        <v>43242.866446759297</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D812" s="2"/>
       <c r="E812" s="3" t="s">
-        <v>822</v>
+        <v>721</v>
       </c>
       <c r="F812" s="2" t="s">
         <v>6</v>
@@ -18059,71 +18006,71 @@
     </row>
     <row r="813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>43239.592731481498</v>
+        <v>43242.866493055597</v>
       </c>
       <c r="B813" s="1">
-        <v>43239.5941087963</v>
+        <v>43242.867314814801</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D813" s="2"/>
       <c r="E813" s="3" t="s">
-        <v>821</v>
+        <v>720</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>43239.594143518501</v>
+        <v>43242.867395833302</v>
       </c>
       <c r="B814" s="1">
-        <v>43239.595648148097</v>
+        <v>43242.868020833303</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D814" s="2"/>
       <c r="E814" s="3" t="s">
-        <v>820</v>
+        <v>719</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>43239.595694444397</v>
+        <v>43242.8688541667</v>
       </c>
       <c r="B815" s="1">
-        <v>43239.597187500003</v>
+        <v>43242.869212963</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D815" s="2"/>
       <c r="E815" s="3" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>43240.630081018498</v>
+        <v>43243.4987384259</v>
       </c>
       <c r="B816" s="1">
-        <v>43240.631423611099</v>
+        <v>43243.500034722201</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" s="3" t="s">
-        <v>819</v>
+        <v>718</v>
       </c>
       <c r="F816" s="2" t="s">
         <v>6</v>
@@ -18131,71 +18078,71 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>43241.723032407397</v>
+        <v>43243.500115740702</v>
       </c>
       <c r="B817" s="1">
-        <v>43241.723692129599</v>
+        <v>43243.500659722202</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D817" s="2"/>
       <c r="E817" s="3" t="s">
-        <v>818</v>
+        <v>717</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="818" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>43241.727997685201</v>
+        <v>43243.500706018502</v>
       </c>
       <c r="B818" s="1">
-        <v>43241.728344907402</v>
+        <v>43243.5012615741</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D818" s="2"/>
       <c r="E818" s="3" t="s">
-        <v>817</v>
+        <v>716</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="819" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>43241.729201388902</v>
+        <v>43243.501805555599</v>
       </c>
       <c r="B819" s="1">
-        <v>43241.730069444398</v>
+        <v>43243.502789351798</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" s="3" t="s">
-        <v>816</v>
+        <v>715</v>
       </c>
       <c r="F819" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>43241.730277777802</v>
+        <v>43243.502835648098</v>
       </c>
       <c r="B820" s="1">
-        <v>43241.730833333299</v>
+        <v>43243.504097222198</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" s="3" t="s">
-        <v>815</v>
+        <v>714</v>
       </c>
       <c r="F820" s="2" t="s">
         <v>7</v>
@@ -18203,107 +18150,107 @@
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>43241.731192129599</v>
+        <v>43243.504594907397</v>
       </c>
       <c r="B821" s="1">
-        <v>43241.735879629603</v>
+        <v>43243.504999999997</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" s="3" t="s">
-        <v>814</v>
+        <v>713</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>43241.738414351901</v>
+        <v>43243.505081018498</v>
       </c>
       <c r="B822" s="1">
-        <v>43241.739224536999</v>
+        <v>43243.5075</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" s="3" t="s">
-        <v>813</v>
+        <v>712</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>43241.739317129599</v>
+        <v>43243.507534722201</v>
       </c>
       <c r="B823" s="1">
-        <v>43241.740509259304</v>
+        <v>43243.508159722202</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D823" s="2"/>
       <c r="E823" s="3" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
       <c r="F823" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>43241.740555555603</v>
+        <v>43243.508206018501</v>
       </c>
       <c r="B824" s="1">
-        <v>43241.741550925901</v>
+        <v>43243.508900462999</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D824" s="2"/>
       <c r="E824" s="3" t="s">
-        <v>812</v>
+        <v>710</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="825" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>43242.865694444401</v>
+        <v>43243.511585648201</v>
       </c>
       <c r="B825" s="1">
-        <v>43242.866446759297</v>
+        <v>43243.513946759304</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" s="3" t="s">
-        <v>811</v>
+        <v>709</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>43242.866493055597</v>
+        <v>43243.687349537002</v>
       </c>
       <c r="B826" s="1">
-        <v>43242.867314814801</v>
+        <v>43243.688240740703</v>
       </c>
       <c r="C826" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D826" s="2"/>
       <c r="E826" s="3" t="s">
-        <v>810</v>
+        <v>708</v>
       </c>
       <c r="F826" s="2" t="s">
         <v>6</v>
@@ -18311,107 +18258,107 @@
     </row>
     <row r="827" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>43242.867395833302</v>
+        <v>43243.688275462999</v>
       </c>
       <c r="B827" s="1">
-        <v>43242.868020833303</v>
+        <v>43243.6893865741</v>
       </c>
       <c r="C827" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" s="3" t="s">
-        <v>809</v>
+        <v>707</v>
       </c>
       <c r="F827" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>43242.8688541667</v>
+        <v>43243.689444444397</v>
       </c>
       <c r="B828" s="1">
-        <v>43242.869212963</v>
+        <v>43243.690497685202</v>
       </c>
       <c r="C828" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" s="3" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="F828" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>43243.4987384259</v>
+        <v>43243.690787036998</v>
       </c>
       <c r="B829" s="1">
-        <v>43243.500034722201</v>
+        <v>43243.691469907397</v>
       </c>
       <c r="C829" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" s="3" t="s">
-        <v>808</v>
+        <v>705</v>
       </c>
       <c r="F829" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>43243.500115740702</v>
+        <v>43243.691539351901</v>
       </c>
       <c r="B830" s="1">
-        <v>43243.500659722202</v>
+        <v>43243.692870370403</v>
       </c>
       <c r="C830" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" s="3" t="s">
-        <v>807</v>
+        <v>704</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>43243.500706018502</v>
+        <v>43244.609652777799</v>
       </c>
       <c r="B831" s="1">
-        <v>43243.5012615741</v>
+        <v>43244.610104166699</v>
       </c>
       <c r="C831" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" s="3" t="s">
-        <v>806</v>
+        <v>703</v>
       </c>
       <c r="F831" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>43243.501805555599</v>
+        <v>43244.610266203701</v>
       </c>
       <c r="B832" s="1">
-        <v>43243.502789351798</v>
+        <v>43244.612523148098</v>
       </c>
       <c r="C832" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" s="3" t="s">
-        <v>805</v>
+        <v>702</v>
       </c>
       <c r="F832" s="2" t="s">
         <v>6</v>
@@ -18419,107 +18366,107 @@
     </row>
     <row r="833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>43243.502835648098</v>
+        <v>43244.614293981504</v>
       </c>
       <c r="B833" s="1">
-        <v>43243.504097222198</v>
+        <v>43244.6153009259</v>
       </c>
       <c r="C833" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" s="3" t="s">
-        <v>804</v>
+        <v>701</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>43243.504594907397</v>
+        <v>43244.615358796298</v>
       </c>
       <c r="B834" s="1">
-        <v>43243.504999999997</v>
+        <v>43244.6163773148</v>
       </c>
       <c r="C834" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" s="3" t="s">
-        <v>803</v>
+        <v>532</v>
       </c>
       <c r="F834" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>43243.505081018498</v>
+        <v>43244.6164236111</v>
       </c>
       <c r="B835" s="1">
-        <v>43243.5075</v>
+        <v>43244.617106481499</v>
       </c>
       <c r="C835" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" s="3" t="s">
-        <v>802</v>
+        <v>700</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="836" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>43243.507534722201</v>
+        <v>43244.617152777799</v>
       </c>
       <c r="B836" s="1">
-        <v>43243.508159722202</v>
+        <v>43244.618217592601</v>
       </c>
       <c r="C836" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" s="3" t="s">
-        <v>801</v>
+        <v>699</v>
       </c>
       <c r="F836" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>43243.508206018501</v>
+        <v>43244.618275462999</v>
       </c>
       <c r="B837" s="1">
-        <v>43243.508900462999</v>
+        <v>43244.619409722203</v>
       </c>
       <c r="C837" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" s="3" t="s">
-        <v>800</v>
+        <v>698</v>
       </c>
       <c r="F837" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>43243.511585648201</v>
+        <v>43244.624317129601</v>
       </c>
       <c r="B838" s="1">
-        <v>43243.513946759304</v>
+        <v>43244.625520833302</v>
       </c>
       <c r="C838" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" s="3" t="s">
-        <v>799</v>
+        <v>697</v>
       </c>
       <c r="F838" s="2" t="s">
         <v>7</v>
@@ -18527,17 +18474,17 @@
     </row>
     <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>43243.687349537002</v>
+        <v>43244.625625000001</v>
       </c>
       <c r="B839" s="1">
-        <v>43243.688240740703</v>
+        <v>43244.626342592601</v>
       </c>
       <c r="C839" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" s="3" t="s">
-        <v>798</v>
+        <v>535</v>
       </c>
       <c r="F839" s="2" t="s">
         <v>6</v>
@@ -18545,35 +18492,35 @@
     </row>
     <row r="840" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>43243.688275462999</v>
+        <v>43246.418425925898</v>
       </c>
       <c r="B840" s="1">
-        <v>43243.6893865741</v>
+        <v>43246.419699074097</v>
       </c>
       <c r="C840" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" s="3" t="s">
-        <v>797</v>
+        <v>696</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>43243.689444444397</v>
+        <v>43246.419733796298</v>
       </c>
       <c r="B841" s="1">
-        <v>43243.690497685202</v>
+        <v>43246.420856481498</v>
       </c>
       <c r="C841" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" s="3" t="s">
-        <v>796</v>
+        <v>695</v>
       </c>
       <c r="F841" s="2" t="s">
         <v>6</v>
@@ -18581,107 +18528,107 @@
     </row>
     <row r="842" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>43243.690787036998</v>
+        <v>43246.416296296302</v>
       </c>
       <c r="B842" s="1">
-        <v>43243.691469907397</v>
+        <v>43246.417847222197</v>
       </c>
       <c r="C842" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D842" s="2"/>
       <c r="E842" s="3" t="s">
-        <v>795</v>
+        <v>694</v>
       </c>
       <c r="F842" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>43243.691539351901</v>
+        <v>43246.4227314815</v>
       </c>
       <c r="B843" s="1">
-        <v>43243.692870370403</v>
+        <v>43246.424155092602</v>
       </c>
       <c r="C843" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" s="3" t="s">
-        <v>794</v>
+        <v>693</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>43244.609652777799</v>
+        <v>43246.424201388902</v>
       </c>
       <c r="B844" s="1">
-        <v>43244.610104166699</v>
+        <v>43246.426168981503</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" s="3" t="s">
-        <v>793</v>
+        <v>692</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>43244.610266203701</v>
+        <v>43246.429293981499</v>
       </c>
       <c r="B845" s="1">
-        <v>43244.612523148098</v>
+        <v>43246.429814814801</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" s="3" t="s">
-        <v>792</v>
+        <v>691</v>
       </c>
       <c r="F845" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>43244.614293981504</v>
+        <v>43246.429918981499</v>
       </c>
       <c r="B846" s="1">
-        <v>43244.6153009259</v>
+        <v>43246.431284722203</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" s="3" t="s">
-        <v>791</v>
+        <v>536</v>
       </c>
       <c r="F846" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>43244.615358796298</v>
+        <v>43246.431365740696</v>
       </c>
       <c r="B847" s="1">
-        <v>43244.6163773148</v>
+        <v>43246.432708333297</v>
       </c>
       <c r="C847" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" s="3" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="F847" s="2" t="s">
         <v>7</v>
@@ -18689,35 +18636,35 @@
     </row>
     <row r="848" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>43244.6164236111</v>
+        <v>43247.563888888901</v>
       </c>
       <c r="B848" s="1">
-        <v>43244.617106481499</v>
+        <v>43247.565405092602</v>
       </c>
       <c r="C848" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" s="3" t="s">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>43244.617152777799</v>
+        <v>43247.565462963001</v>
       </c>
       <c r="B849" s="1">
-        <v>43244.618217592601</v>
+        <v>43247.566932870403</v>
       </c>
       <c r="C849" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" s="3" t="s">
-        <v>789</v>
+        <v>688</v>
       </c>
       <c r="F849" s="2" t="s">
         <v>7</v>
@@ -18725,35 +18672,35 @@
     </row>
     <row r="850" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>43244.618275462999</v>
+        <v>43247.567002314798</v>
       </c>
       <c r="B850" s="1">
-        <v>43244.619409722203</v>
+        <v>43247.567685185197</v>
       </c>
       <c r="C850" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" s="3" t="s">
-        <v>788</v>
+        <v>537</v>
       </c>
       <c r="F850" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>43244.624317129601</v>
+        <v>43247.567719907398</v>
       </c>
       <c r="B851" s="1">
-        <v>43244.625520833302</v>
+        <v>43247.568680555603</v>
       </c>
       <c r="C851" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" s="3" t="s">
-        <v>787</v>
+        <v>687</v>
       </c>
       <c r="F851" s="2" t="s">
         <v>7</v>
@@ -18761,17 +18708,17 @@
     </row>
     <row r="852" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>43244.625625000001</v>
+        <v>43247.5687384259</v>
       </c>
       <c r="B852" s="1">
-        <v>43244.626342592601</v>
+        <v>43247.569733796299</v>
       </c>
       <c r="C852" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" s="3" t="s">
-        <v>625</v>
+        <v>686</v>
       </c>
       <c r="F852" s="2" t="s">
         <v>6</v>
@@ -18779,107 +18726,107 @@
     </row>
     <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>43246.418425925898</v>
+        <v>43247.5697685185</v>
       </c>
       <c r="B853" s="1">
-        <v>43246.419699074097</v>
+        <v>43247.570370370398</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" s="3" t="s">
-        <v>786</v>
+        <v>538</v>
       </c>
       <c r="F853" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>43246.419733796298</v>
+        <v>43247.570393518501</v>
       </c>
       <c r="B854" s="1">
-        <v>43246.420856481498</v>
+        <v>43247.571273148104</v>
       </c>
       <c r="C854" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" s="3" t="s">
-        <v>785</v>
+        <v>685</v>
       </c>
       <c r="F854" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>43246.416296296302</v>
+        <v>43247.571354166699</v>
       </c>
       <c r="B855" s="1">
-        <v>43246.417847222197</v>
+        <v>43247.572141203702</v>
       </c>
       <c r="C855" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" s="3" t="s">
-        <v>784</v>
+        <v>684</v>
       </c>
       <c r="F855" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>43246.4227314815</v>
+        <v>43247.5721990741</v>
       </c>
       <c r="B856" s="1">
-        <v>43246.424155092602</v>
+        <v>43247.573125000003</v>
       </c>
       <c r="C856" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" s="3" t="s">
-        <v>783</v>
+        <v>539</v>
       </c>
       <c r="F856" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>43246.424201388902</v>
+        <v>43247.573263888902</v>
       </c>
       <c r="B857" s="1">
-        <v>43246.426168981503</v>
+        <v>43247.573981481502</v>
       </c>
       <c r="C857" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="3" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="F857" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>43246.429293981499</v>
+        <v>43248.441168981502</v>
       </c>
       <c r="B858" s="1">
-        <v>43246.429814814801</v>
+        <v>43248.441851851901</v>
       </c>
       <c r="C858" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" s="3" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="F858" s="2" t="s">
         <v>6</v>
@@ -18887,53 +18834,53 @@
     </row>
     <row r="859" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>43246.429918981499</v>
+        <v>43248.441898148099</v>
       </c>
       <c r="B859" s="1">
-        <v>43246.431284722203</v>
+        <v>43248.4431944444</v>
       </c>
       <c r="C859" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" s="3" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="F859" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>43246.431365740696</v>
+        <v>43248.443287037</v>
       </c>
       <c r="B860" s="1">
-        <v>43246.432708333297</v>
+        <v>43248.444178240701</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" s="3" t="s">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="F860" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>43247.563888888901</v>
+        <v>43248.444224537001</v>
       </c>
       <c r="B861" s="1">
-        <v>43247.565405092602</v>
+        <v>43248.4448611111</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D861" s="2"/>
       <c r="E861" s="3" t="s">
-        <v>779</v>
+        <v>679</v>
       </c>
       <c r="F861" s="2" t="s">
         <v>8</v>
@@ -18941,71 +18888,71 @@
     </row>
     <row r="862" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>43247.565462963001</v>
+        <v>43248.444930555597</v>
       </c>
       <c r="B862" s="1">
-        <v>43247.566932870403</v>
+        <v>43248.446296296301</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D862" s="2"/>
       <c r="E862" s="3" t="s">
-        <v>778</v>
+        <v>678</v>
       </c>
       <c r="F862" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>43247.567002314798</v>
+        <v>43248.446423611102</v>
       </c>
       <c r="B863" s="1">
-        <v>43247.567685185197</v>
+        <v>43248.4469791667</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" s="3" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>43247.567719907398</v>
+        <v>43248.447060185201</v>
       </c>
       <c r="B864" s="1">
-        <v>43247.568680555603</v>
+        <v>43248.4473842593</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" s="3" t="s">
-        <v>777</v>
+        <v>676</v>
       </c>
       <c r="F864" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>43247.5687384259</v>
+        <v>43248.447418981501</v>
       </c>
       <c r="B865" s="1">
-        <v>43247.569733796299</v>
+        <v>43248.448125000003</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" s="3" t="s">
-        <v>776</v>
+        <v>675</v>
       </c>
       <c r="F865" s="2" t="s">
         <v>6</v>
@@ -19013,179 +18960,179 @@
     </row>
     <row r="866" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>43247.5697685185</v>
+        <v>43248.448217592602</v>
       </c>
       <c r="B866" s="1">
-        <v>43247.570370370398</v>
+        <v>43248.449189814797</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="3" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
       <c r="F866" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>43247.570393518501</v>
+        <v>43248.449340277803</v>
       </c>
       <c r="B867" s="1">
-        <v>43247.571273148104</v>
+        <v>43248.449791666702</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" s="3" t="s">
-        <v>775</v>
+        <v>540</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>43247.571354166699</v>
+        <v>43248.573032407403</v>
       </c>
       <c r="B868" s="1">
-        <v>43247.572141203702</v>
+        <v>43248.574386574102</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="3" t="s">
-        <v>774</v>
+        <v>673</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>43247.5721990741</v>
+        <v>43248.574479166702</v>
       </c>
       <c r="B869" s="1">
-        <v>43247.573125000003</v>
+        <v>43248.585833333302</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="3" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
       <c r="F869" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>43247.573263888902</v>
+        <v>43248.586736111101</v>
       </c>
       <c r="B870" s="1">
-        <v>43247.573981481502</v>
+        <v>43248.588425925896</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D870" s="2"/>
       <c r="E870" s="3" t="s">
-        <v>773</v>
+        <v>671</v>
       </c>
       <c r="F870" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>43248.441168981502</v>
+        <v>43248.588460648098</v>
       </c>
       <c r="B871" s="1">
-        <v>43248.441851851901</v>
+        <v>43248.588842592602</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D871" s="2"/>
       <c r="E871" s="3" t="s">
-        <v>772</v>
+        <v>670</v>
       </c>
       <c r="F871" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>43248.441898148099</v>
+        <v>43248.588888888902</v>
       </c>
       <c r="B872" s="1">
-        <v>43248.4431944444</v>
+        <v>43248.589861111097</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D872" s="2"/>
       <c r="E872" s="3" t="s">
-        <v>771</v>
+        <v>669</v>
       </c>
       <c r="F872" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="873" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>43248.443287037</v>
+        <v>43248.590856481504</v>
       </c>
       <c r="B873" s="1">
-        <v>43248.444178240701</v>
+        <v>43248.591412037</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" s="3" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>43248.444224537001</v>
+        <v>43248.591446759303</v>
       </c>
       <c r="B874" s="1">
-        <v>43248.4448611111</v>
+        <v>43248.591793981497</v>
       </c>
       <c r="C874" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="3" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F874" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>43248.444930555597</v>
+        <v>43250.710405092599</v>
       </c>
       <c r="B875" s="1">
-        <v>43248.446296296301</v>
+        <v>43250.711319444403</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D875" s="2"/>
       <c r="E875" s="3" t="s">
-        <v>768</v>
+        <v>666</v>
       </c>
       <c r="F875" s="2" t="s">
         <v>7</v>
@@ -19193,395 +19140,395 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>43248.446423611102</v>
+        <v>43250.7113888889</v>
       </c>
       <c r="B876" s="1">
-        <v>43248.4469791667</v>
+        <v>43250.711921296301</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="3" t="s">
-        <v>767</v>
+        <v>541</v>
       </c>
       <c r="F876" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>43248.447060185201</v>
+        <v>43250.711979166699</v>
       </c>
       <c r="B877" s="1">
-        <v>43248.4473842593</v>
+        <v>43250.712881944397</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="3" t="s">
-        <v>766</v>
+        <v>665</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>43248.447418981501</v>
+        <v>43250.712951388901</v>
       </c>
       <c r="B878" s="1">
-        <v>43248.448125000003</v>
+        <v>43250.713831018496</v>
       </c>
       <c r="C878" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="3" t="s">
-        <v>765</v>
+        <v>664</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="879" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>43248.448217592602</v>
+        <v>43250.713958333297</v>
       </c>
       <c r="B879" s="1">
-        <v>43248.449189814797</v>
+        <v>43250.714317129597</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="3" t="s">
-        <v>764</v>
+        <v>663</v>
       </c>
       <c r="F879" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>43248.449340277803</v>
+        <v>43250.714409722197</v>
       </c>
       <c r="B880" s="1">
-        <v>43248.449791666702</v>
+        <v>43250.715069444399</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="3" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="F880" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>43248.573032407403</v>
+        <v>43250.715254629598</v>
       </c>
       <c r="B881" s="1">
-        <v>43248.574386574102</v>
+        <v>43250.716041666703</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="3" t="s">
-        <v>763</v>
+        <v>661</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="882" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>43248.574479166702</v>
+        <v>43250.716238425899</v>
       </c>
       <c r="B882" s="1">
-        <v>43248.585833333302</v>
+        <v>43250.716793981497</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="3" t="s">
-        <v>762</v>
+        <v>660</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="883" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>43248.586736111101</v>
+        <v>43250.7168634259</v>
       </c>
       <c r="B883" s="1">
-        <v>43248.588425925896</v>
+        <v>43250.717164351903</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="3" t="s">
-        <v>761</v>
+        <v>542</v>
       </c>
       <c r="F883" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>43248.588460648098</v>
+        <v>43250.717210648101</v>
       </c>
       <c r="B884" s="1">
-        <v>43248.588842592602</v>
+        <v>43250.717812499999</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="3" t="s">
-        <v>760</v>
+        <v>543</v>
       </c>
       <c r="F884" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>43248.588888888902</v>
+        <v>43250.717997685198</v>
       </c>
       <c r="B885" s="1">
-        <v>43248.589861111097</v>
+        <v>43250.7192013889</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="3" t="s">
-        <v>759</v>
+        <v>659</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="886" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>43248.590856481504</v>
+        <v>43253.8147916667</v>
       </c>
       <c r="B886" s="1">
-        <v>43248.591412037</v>
+        <v>43253.843020833301</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="3" t="s">
-        <v>758</v>
+        <v>658</v>
       </c>
       <c r="F886" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>43248.591446759303</v>
+        <v>43254.888263888897</v>
       </c>
       <c r="B887" s="1">
-        <v>43248.591793981497</v>
+        <v>43254.889039351903</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="3" t="s">
-        <v>757</v>
+        <v>657</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="888" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>43250.710405092599</v>
+        <v>43254.8890972222</v>
       </c>
       <c r="B888" s="1">
-        <v>43250.711319444403</v>
+        <v>43254.889791666697</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D888" s="2"/>
       <c r="E888" s="3" t="s">
-        <v>756</v>
+        <v>656</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>43250.7113888889</v>
+        <v>43254.907766203702</v>
       </c>
       <c r="B889" s="1">
-        <v>43250.711921296301</v>
+        <v>43254.910879629599</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="3" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="F889" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>43250.711979166699</v>
+        <v>43254.910937499997</v>
       </c>
       <c r="B890" s="1">
-        <v>43250.712881944397</v>
+        <v>43254.9129861111</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="3" t="s">
-        <v>755</v>
+        <v>655</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>43250.712951388901</v>
+        <v>43254.913032407399</v>
       </c>
       <c r="B891" s="1">
-        <v>43250.713831018496</v>
+        <v>43254.9135185185</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="3" t="s">
-        <v>754</v>
+        <v>654</v>
       </c>
       <c r="F891" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>43250.713958333297</v>
+        <v>43254.913553240702</v>
       </c>
       <c r="B892" s="1">
-        <v>43250.714317129597</v>
+        <v>43254.914166666698</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="3" t="s">
-        <v>753</v>
+        <v>653</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="893" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>43250.714409722197</v>
+        <v>43254.914212962998</v>
       </c>
       <c r="B893" s="1">
-        <v>43250.715069444399</v>
+        <v>43254.915451388901</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="3" t="s">
-        <v>752</v>
+        <v>652</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="894" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>43250.715254629598</v>
+        <v>43254.915497685201</v>
       </c>
       <c r="B894" s="1">
-        <v>43250.716041666703</v>
+        <v>43254.916504629597</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="3" t="s">
-        <v>751</v>
+        <v>651</v>
       </c>
       <c r="F894" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>43250.716238425899</v>
+        <v>43254.917013888902</v>
       </c>
       <c r="B895" s="1">
-        <v>43250.716793981497</v>
+        <v>43254.917916666702</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="3" t="s">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>43250.7168634259</v>
+        <v>43254.917986111097</v>
       </c>
       <c r="B896" s="1">
-        <v>43250.717164351903</v>
+        <v>43254.919097222199</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="3" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="897" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>43250.717210648101</v>
+        <v>43255.241840277798</v>
       </c>
       <c r="B897" s="1">
-        <v>43250.717812499999</v>
+        <v>43255.2422337963</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="3" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="F897" s="2" t="s">
         <v>6</v>
@@ -19589,629 +19536,629 @@
     </row>
     <row r="898" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>43250.717997685198</v>
+        <v>43255.421238425901</v>
       </c>
       <c r="B898" s="1">
-        <v>43250.7192013889</v>
+        <v>43255.421388888899</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="3" t="s">
-        <v>749</v>
+        <v>647</v>
       </c>
       <c r="F898" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>43253.8147916667</v>
+        <v>43255.425520833298</v>
       </c>
       <c r="B899" s="1">
-        <v>43253.843020833301</v>
+        <v>43255.426226851901</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="3" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
       <c r="F899" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>43254.888263888897</v>
+        <v>43255.426273148099</v>
       </c>
       <c r="B900" s="1">
-        <v>43254.889039351903</v>
+        <v>43255.427037037</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="3" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>43254.8890972222</v>
+        <v>43255.427083333299</v>
       </c>
       <c r="B901" s="1">
-        <v>43254.889791666697</v>
+        <v>43255.427476851903</v>
       </c>
       <c r="C901" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="3" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>43254.907766203702</v>
+        <v>43255.427523148101</v>
       </c>
       <c r="B902" s="1">
-        <v>43254.910879629599</v>
+        <v>43255.428460648101</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="3" t="s">
-        <v>738</v>
+        <v>643</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>43254.910937499997</v>
+        <v>43255.428530092599</v>
       </c>
       <c r="B903" s="1">
-        <v>43254.9129861111</v>
+        <v>43255.429097222201</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D903" s="2"/>
       <c r="E903" s="3" t="s">
-        <v>745</v>
+        <v>642</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="904" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>43254.913032407399</v>
+        <v>43255.896087963003</v>
       </c>
       <c r="B904" s="1">
-        <v>43254.9135185185</v>
+        <v>43255.897662037001</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="3" t="s">
-        <v>744</v>
+        <v>641</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>43254.913553240702</v>
+        <v>43255.897928240702</v>
       </c>
       <c r="B905" s="1">
-        <v>43254.914166666698</v>
+        <v>43255.8991087963</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="3" t="s">
-        <v>743</v>
+        <v>640</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>43254.914212962998</v>
+        <v>43255.9058912037</v>
       </c>
       <c r="B906" s="1">
-        <v>43254.915451388901</v>
+        <v>43255.907395833303</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="3" t="s">
-        <v>742</v>
+        <v>639</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>43254.915497685201</v>
+        <v>43255.908344907402</v>
       </c>
       <c r="B907" s="1">
-        <v>43254.916504629597</v>
+        <v>43255.908530092602</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D907" s="2"/>
       <c r="E907" s="3" t="s">
-        <v>741</v>
+        <v>638</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>43254.917013888902</v>
+        <v>43255.908576388902</v>
       </c>
       <c r="B908" s="1">
-        <v>43254.917916666702</v>
+        <v>43255.909120370401</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D908" s="2"/>
       <c r="E908" s="3" t="s">
-        <v>740</v>
+        <v>637</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>43254.917986111097</v>
+        <v>43256.839849536998</v>
       </c>
       <c r="B909" s="1">
-        <v>43254.919097222199</v>
+        <v>43256.840972222199</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D909" s="2"/>
       <c r="E909" s="3" t="s">
-        <v>739</v>
+        <v>636</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>43255.241840277798</v>
+        <v>43256.841041666703</v>
       </c>
       <c r="B910" s="1">
-        <v>43255.2422337963</v>
+        <v>43256.8428935185</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D910" s="2"/>
       <c r="E910" s="3" t="s">
-        <v>738</v>
+        <v>635</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>43255.421238425901</v>
+        <v>43256.845185185201</v>
       </c>
       <c r="B911" s="1">
-        <v>43255.421388888899</v>
+        <v>43256.846250000002</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D911" s="2"/>
       <c r="E911" s="3" t="s">
-        <v>737</v>
+        <v>634</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="912" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>43255.425520833298</v>
+        <v>43256.846423611103</v>
       </c>
       <c r="B912" s="1">
-        <v>43255.426226851901</v>
+        <v>43256.847442129598</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D912" s="2"/>
       <c r="E912" s="3" t="s">
-        <v>736</v>
+        <v>544</v>
       </c>
       <c r="F912" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A913" s="1">
-        <v>43255.426273148099</v>
-      </c>
-      <c r="B913" s="1">
-        <v>43255.427037037</v>
-      </c>
-      <c r="C913" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D913" s="2"/>
+      <c r="A913" s="5">
+        <v>43308.841516203698</v>
+      </c>
+      <c r="B913" s="5">
+        <v>43308.882037037001</v>
+      </c>
+      <c r="C913" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D913" s="6"/>
       <c r="E913" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="F913" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A914" s="1">
-        <v>43255.427083333299</v>
-      </c>
-      <c r="B914" s="1">
-        <v>43255.427476851903</v>
-      </c>
-      <c r="C914" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D914" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="F913" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="5">
+        <v>43308.882083333301</v>
+      </c>
+      <c r="B914" s="5">
+        <v>43308.882534722201</v>
+      </c>
+      <c r="C914" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D914" s="6"/>
       <c r="E914" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="F914" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A915" s="1">
-        <v>43255.427523148101</v>
-      </c>
-      <c r="B915" s="1">
-        <v>43255.428460648101</v>
-      </c>
-      <c r="C915" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D915" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="F914" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A915" s="5">
+        <v>43308.882581018501</v>
+      </c>
+      <c r="B915" s="5">
+        <v>43308.8835300926</v>
+      </c>
+      <c r="C915" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D915" s="6"/>
       <c r="E915" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="F915" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="916" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A916" s="1">
-        <v>43255.428530092599</v>
-      </c>
-      <c r="B916" s="1">
-        <v>43255.429097222201</v>
-      </c>
-      <c r="C916" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D916" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="F915" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" s="5">
+        <v>43308.883611111101</v>
+      </c>
+      <c r="B916" s="5">
+        <v>43308.884317129603</v>
+      </c>
+      <c r="C916" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D916" s="6"/>
       <c r="E916" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="F916" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A917" s="1">
-        <v>43255.896087963003</v>
-      </c>
-      <c r="B917" s="1">
-        <v>43255.897662037001</v>
-      </c>
-      <c r="C917" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D917" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="F916" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" s="5">
+        <v>43308.8843865741</v>
+      </c>
+      <c r="B917" s="5">
+        <v>43308.885254629597</v>
+      </c>
+      <c r="C917" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D917" s="6"/>
       <c r="E917" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="F917" s="2" t="s">
-        <v>6</v>
+        <v>629</v>
+      </c>
+      <c r="F917" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A918" s="1">
-        <v>43255.897928240702</v>
-      </c>
-      <c r="B918" s="1">
-        <v>43255.8991087963</v>
-      </c>
-      <c r="C918" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D918" s="2"/>
+      <c r="A918" s="5">
+        <v>43308.885439814803</v>
+      </c>
+      <c r="B918" s="5">
+        <v>43308.885937500003</v>
+      </c>
+      <c r="C918" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D918" s="6"/>
       <c r="E918" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="F918" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="919" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A919" s="1">
-        <v>43255.9058912037</v>
-      </c>
-      <c r="B919" s="1">
-        <v>43255.907395833303</v>
-      </c>
-      <c r="C919" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D919" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="F918" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="5">
+        <v>43308.886076388902</v>
+      </c>
+      <c r="B919" s="5">
+        <v>43308.886458333298</v>
+      </c>
+      <c r="C919" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D919" s="6"/>
       <c r="E919" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="F919" s="2" t="s">
-        <v>6</v>
+        <v>581</v>
+      </c>
+      <c r="F919" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A920" s="1">
-        <v>43255.908344907402</v>
-      </c>
-      <c r="B920" s="1">
-        <v>43255.908530092602</v>
-      </c>
-      <c r="C920" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D920" s="2"/>
+      <c r="A920" s="5">
+        <v>43309.391111111101</v>
+      </c>
+      <c r="B920" s="5">
+        <v>43309.392083333303</v>
+      </c>
+      <c r="C920" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D920" s="6"/>
       <c r="E920" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="F920" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="921" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A921" s="1">
-        <v>43255.908576388902</v>
-      </c>
-      <c r="B921" s="1">
-        <v>43255.909120370401</v>
-      </c>
-      <c r="C921" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D921" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="F920" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A921" s="5">
+        <v>43309.392326388901</v>
+      </c>
+      <c r="B921" s="5">
+        <v>43309.401388888902</v>
+      </c>
+      <c r="C921" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D921" s="6"/>
       <c r="E921" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="F921" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A922" s="1">
-        <v>43256.839849536998</v>
-      </c>
-      <c r="B922" s="1">
-        <v>43256.840972222199</v>
-      </c>
-      <c r="C922" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D922" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="F921" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A922" s="5">
+        <v>43309.401539351798</v>
+      </c>
+      <c r="B922" s="5">
+        <v>43309.403043981503</v>
+      </c>
+      <c r="C922" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D922" s="6"/>
       <c r="E922" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="F922" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="923" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A923" s="1">
-        <v>43256.841041666703</v>
-      </c>
-      <c r="B923" s="1">
-        <v>43256.8428935185</v>
-      </c>
-      <c r="C923" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D923" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="F922" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="5">
+        <v>43309.403136574103</v>
+      </c>
+      <c r="B923" s="5">
+        <v>43309.403703703698</v>
+      </c>
+      <c r="C923" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D923" s="6"/>
       <c r="E923" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="F923" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="924" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A924" s="1">
-        <v>43256.845185185201</v>
-      </c>
-      <c r="B924" s="1">
-        <v>43256.846250000002</v>
-      </c>
-      <c r="C924" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D924" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="F923" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" s="5">
+        <v>43309.403784722199</v>
+      </c>
+      <c r="B924" s="5">
+        <v>43309.404224537</v>
+      </c>
+      <c r="C924" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D924" s="6"/>
       <c r="E924" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="F924" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="1">
-        <v>43256.846423611103</v>
-      </c>
-      <c r="B925" s="1">
-        <v>43256.847442129598</v>
-      </c>
-      <c r="C925" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D925" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="F924" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A925" s="5">
+        <v>43309.4043171296</v>
+      </c>
+      <c r="B925" s="5">
+        <v>43309.407025462999</v>
+      </c>
+      <c r="C925" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D925" s="6"/>
       <c r="E925" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F925" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="926" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="F925" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="5">
-        <v>43308.841516203698</v>
+        <v>43309.4070601852</v>
       </c>
       <c r="B926" s="5">
-        <v>43308.882037037001</v>
+        <v>43309.407719907402</v>
       </c>
       <c r="C926" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D926" s="6"/>
       <c r="E926" s="3" t="s">
-        <v>723</v>
+        <v>622</v>
       </c>
       <c r="F926" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" s="5">
-        <v>43308.882083333301</v>
+        <v>43309.407789351797</v>
       </c>
       <c r="B927" s="5">
-        <v>43308.882534722201</v>
+        <v>43309.4083680556</v>
       </c>
       <c r="C927" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="3" t="s">
-        <v>722</v>
+        <v>621</v>
       </c>
       <c r="F927" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="928" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" s="5">
-        <v>43308.882581018501</v>
+        <v>43309.408472222203</v>
       </c>
       <c r="B928" s="5">
-        <v>43308.8835300926</v>
+        <v>43309.4086805556</v>
       </c>
       <c r="C928" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D928" s="6"/>
       <c r="E928" s="3" t="s">
-        <v>721</v>
+        <v>582</v>
       </c>
       <c r="F928" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="5">
-        <v>43308.883611111101</v>
+        <v>43309.408750000002</v>
       </c>
       <c r="B929" s="5">
-        <v>43308.884317129603</v>
+        <v>43309.409166666701</v>
       </c>
       <c r="C929" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D929" s="6"/>
       <c r="E929" s="3" t="s">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="F929" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A930" s="5">
-        <v>43308.8843865741</v>
+        <v>43309.409224536997</v>
       </c>
       <c r="B930" s="5">
-        <v>43308.885254629597</v>
+        <v>43309.410312499997</v>
       </c>
       <c r="C930" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D930" s="6"/>
       <c r="E930" s="3" t="s">
-        <v>719</v>
+        <v>619</v>
       </c>
       <c r="F930" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A931" s="5">
-        <v>43308.885439814803</v>
+        <v>43309.429907407401</v>
       </c>
       <c r="B931" s="5">
-        <v>43308.885937500003</v>
+        <v>43309.431203703702</v>
       </c>
       <c r="C931" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D931" s="6"/>
       <c r="E931" s="3" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="F931" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A932" s="5">
-        <v>43308.886076388902</v>
+        <v>43309.8073842593</v>
       </c>
       <c r="B932" s="5">
-        <v>43308.886458333298</v>
+        <v>43309.808333333298</v>
       </c>
       <c r="C932" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D932" s="6"/>
       <c r="E932" s="3" t="s">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="F932" s="6" t="s">
         <v>7</v>
@@ -20219,395 +20166,395 @@
     </row>
     <row r="933" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A933" s="5">
-        <v>43309.391111111101</v>
+        <v>43309.808391203696</v>
       </c>
       <c r="B933" s="5">
-        <v>43309.392083333303</v>
+        <v>43309.809675925899</v>
       </c>
       <c r="C933" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D933" s="6"/>
       <c r="E933" s="3" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="F933" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A934" s="5">
-        <v>43309.392326388901</v>
+        <v>43309.809780092597</v>
       </c>
       <c r="B934" s="5">
-        <v>43309.401388888902</v>
+        <v>43309.810763888898</v>
       </c>
       <c r="C934" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D934" s="6"/>
       <c r="E934" s="3" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="F934" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="935" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A935" s="5">
-        <v>43309.401539351798</v>
+        <v>43312.353738425903</v>
       </c>
       <c r="B935" s="5">
-        <v>43309.403043981503</v>
+        <v>43312.355775463002</v>
       </c>
       <c r="C935" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D935" s="6"/>
       <c r="E935" s="3" t="s">
-        <v>716</v>
+        <v>614</v>
       </c>
       <c r="F935" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A936" s="5">
-        <v>43309.403136574103</v>
+        <v>43312.357534722199</v>
       </c>
       <c r="B936" s="5">
-        <v>43309.403703703698</v>
+        <v>43312.358530092599</v>
       </c>
       <c r="C936" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D936" s="6"/>
       <c r="E936" s="3" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="F936" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A937" s="5">
-        <v>43309.403784722199</v>
+        <v>43312.3585648148</v>
       </c>
       <c r="B937" s="5">
-        <v>43309.404224537</v>
+        <v>43312.359745370399</v>
       </c>
       <c r="C937" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D937" s="6"/>
       <c r="E937" s="3" t="s">
-        <v>714</v>
+        <v>612</v>
       </c>
       <c r="F937" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" s="5">
-        <v>43309.4043171296</v>
+        <v>43312.359884259298</v>
       </c>
       <c r="B938" s="5">
-        <v>43309.407025462999</v>
+        <v>43312.360127314802</v>
       </c>
       <c r="C938" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D938" s="6"/>
       <c r="E938" s="3" t="s">
-        <v>713</v>
+        <v>611</v>
       </c>
       <c r="F938" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="5">
-        <v>43309.4070601852</v>
+        <v>43312.360162037003</v>
       </c>
       <c r="B939" s="5">
-        <v>43309.407719907402</v>
+        <v>43312.362673611096</v>
       </c>
       <c r="C939" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D939" s="6"/>
       <c r="E939" s="3" t="s">
-        <v>712</v>
+        <v>583</v>
       </c>
       <c r="F939" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A940" s="5">
-        <v>43309.407789351797</v>
+        <v>43312.362708333298</v>
       </c>
       <c r="B940" s="5">
-        <v>43309.4083680556</v>
+        <v>43312.363368055601</v>
       </c>
       <c r="C940" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D940" s="6"/>
       <c r="E940" s="3" t="s">
-        <v>711</v>
+        <v>584</v>
       </c>
       <c r="F940" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="5">
-        <v>43309.408472222203</v>
+        <v>43312.479398148098</v>
       </c>
       <c r="B941" s="5">
-        <v>43309.4086805556</v>
+        <v>43312.480138888903</v>
       </c>
       <c r="C941" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D941" s="6"/>
       <c r="E941" s="3" t="s">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="F941" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="5">
-        <v>43309.408750000002</v>
+        <v>43312.480254629598</v>
       </c>
       <c r="B942" s="5">
-        <v>43309.409166666701</v>
+        <v>43312.480763888903</v>
       </c>
       <c r="C942" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D942" s="6"/>
       <c r="E942" s="3" t="s">
-        <v>710</v>
+        <v>609</v>
       </c>
       <c r="F942" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A943" s="5">
-        <v>43309.409224536997</v>
+        <v>43312.480844907397</v>
       </c>
       <c r="B943" s="5">
-        <v>43309.410312499997</v>
+        <v>43312.481967592597</v>
       </c>
       <c r="C943" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D943" s="6"/>
       <c r="E943" s="3" t="s">
-        <v>709</v>
+        <v>608</v>
       </c>
       <c r="F943" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="944" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" s="5">
-        <v>43309.429907407401</v>
+        <v>43313.622812499998</v>
       </c>
       <c r="B944" s="5">
-        <v>43309.431203703702</v>
+        <v>43313.623124999998</v>
       </c>
       <c r="C944" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D944" s="6"/>
       <c r="E944" s="3" t="s">
-        <v>708</v>
+        <v>585</v>
       </c>
       <c r="F944" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="945" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" s="5">
-        <v>43309.8073842593</v>
+        <v>43313.787604166697</v>
       </c>
       <c r="B945" s="5">
-        <v>43309.808333333298</v>
+        <v>43313.788032407399</v>
       </c>
       <c r="C945" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D945" s="6"/>
       <c r="E945" s="3" t="s">
-        <v>707</v>
+        <v>607</v>
       </c>
       <c r="F945" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A946" s="5">
-        <v>43309.808391203696</v>
+        <v>43313.788090277798</v>
       </c>
       <c r="B946" s="5">
-        <v>43309.809675925899</v>
+        <v>43313.788946759298</v>
       </c>
       <c r="C946" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D946" s="6"/>
       <c r="E946" s="3" t="s">
-        <v>706</v>
+        <v>606</v>
       </c>
       <c r="F946" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="5">
-        <v>43309.809780092597</v>
+        <v>43313.7890162037</v>
       </c>
       <c r="B947" s="5">
-        <v>43309.810763888898</v>
+        <v>43313.789212962998</v>
       </c>
       <c r="C947" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D947" s="6"/>
       <c r="E947" s="3" t="s">
-        <v>705</v>
+        <v>585</v>
       </c>
       <c r="F947" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="948" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="5">
-        <v>43312.353738425903</v>
+        <v>43313.789282407401</v>
       </c>
       <c r="B948" s="5">
-        <v>43312.355775463002</v>
+        <v>43313.7899189815</v>
       </c>
       <c r="C948" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D948" s="6"/>
       <c r="E948" s="3" t="s">
-        <v>704</v>
+        <v>605</v>
       </c>
       <c r="F948" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="949" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="5">
-        <v>43312.357534722199</v>
+        <v>43314.635069444397</v>
       </c>
       <c r="B949" s="5">
-        <v>43312.358530092599</v>
+        <v>43314.635289351798</v>
       </c>
       <c r="C949" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D949" s="6"/>
       <c r="E949" s="3" t="s">
-        <v>703</v>
+        <v>585</v>
       </c>
       <c r="F949" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="950" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="5">
-        <v>43312.3585648148</v>
+        <v>43314.635358796302</v>
       </c>
       <c r="B950" s="5">
-        <v>43312.359745370399</v>
+        <v>43314.635682870401</v>
       </c>
       <c r="C950" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D950" s="6"/>
       <c r="E950" s="3" t="s">
-        <v>702</v>
+        <v>586</v>
       </c>
       <c r="F950" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="5">
-        <v>43312.359884259298</v>
+        <v>43314.635775463001</v>
       </c>
       <c r="B951" s="5">
-        <v>43312.360127314802</v>
+        <v>43314.636215277802</v>
       </c>
       <c r="C951" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D951" s="6"/>
       <c r="E951" s="3" t="s">
-        <v>701</v>
+        <v>587</v>
       </c>
       <c r="F951" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="5">
-        <v>43312.360162037003</v>
+        <v>43314.636296296303</v>
       </c>
       <c r="B952" s="5">
-        <v>43312.362673611096</v>
+        <v>43314.636608796303</v>
       </c>
       <c r="C952" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D952" s="6"/>
       <c r="E952" s="3" t="s">
-        <v>673</v>
+        <v>604</v>
       </c>
       <c r="F952" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A953" s="5">
-        <v>43312.362708333298</v>
+        <v>43314.673726851797</v>
       </c>
       <c r="B953" s="5">
-        <v>43312.363368055601</v>
+        <v>43314.675428240698</v>
       </c>
       <c r="C953" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D953" s="6"/>
       <c r="E953" s="3" t="s">
-        <v>674</v>
+        <v>603</v>
       </c>
       <c r="F953" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="5">
-        <v>43312.479398148098</v>
+        <v>43314.675486111097</v>
       </c>
       <c r="B954" s="5">
-        <v>43312.480138888903</v>
+        <v>43314.675833333298</v>
       </c>
       <c r="C954" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D954" s="6"/>
       <c r="E954" s="3" t="s">
-        <v>700</v>
+        <v>602</v>
       </c>
       <c r="F954" s="6" t="s">
         <v>6</v>
@@ -20615,35 +20562,35 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="5">
-        <v>43312.480254629598</v>
+        <v>43314.675879629598</v>
       </c>
       <c r="B955" s="5">
-        <v>43312.480763888903</v>
+        <v>43314.676562499997</v>
       </c>
       <c r="C955" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D955" s="6"/>
       <c r="E955" s="3" t="s">
-        <v>699</v>
+        <v>601</v>
       </c>
       <c r="F955" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="5">
-        <v>43312.480844907397</v>
+        <v>43314.676597222198</v>
       </c>
       <c r="B956" s="5">
-        <v>43312.481967592597</v>
+        <v>43314.676747685196</v>
       </c>
       <c r="C956" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D956" s="6"/>
       <c r="E956" s="3" t="s">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="F956" s="6" t="s">
         <v>6</v>
@@ -20651,35 +20598,35 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="5">
-        <v>43313.622812499998</v>
+        <v>43314.676793981504</v>
       </c>
       <c r="B957" s="5">
-        <v>43313.623124999998</v>
+        <v>43314.677164351902</v>
       </c>
       <c r="C957" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D957" s="6"/>
       <c r="E957" s="3" t="s">
-        <v>675</v>
+        <v>588</v>
       </c>
       <c r="F957" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="5">
-        <v>43313.787604166697</v>
+        <v>43316.502233796302</v>
       </c>
       <c r="B958" s="5">
-        <v>43313.788032407399</v>
+        <v>43316.5024305556</v>
       </c>
       <c r="C958" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D958" s="6"/>
       <c r="E958" s="3" t="s">
-        <v>697</v>
+        <v>585</v>
       </c>
       <c r="F958" s="6" t="s">
         <v>6</v>
@@ -20687,35 +20634,35 @@
     </row>
     <row r="959" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A959" s="5">
-        <v>43313.788090277798</v>
+        <v>43316.502465277801</v>
       </c>
       <c r="B959" s="5">
-        <v>43313.788946759298</v>
+        <v>43316.503414351901</v>
       </c>
       <c r="C959" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D959" s="6"/>
       <c r="E959" s="3" t="s">
-        <v>696</v>
+        <v>600</v>
       </c>
       <c r="F959" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="5">
-        <v>43313.7890162037</v>
+        <v>43316.503460648099</v>
       </c>
       <c r="B960" s="5">
-        <v>43313.789212962998</v>
+        <v>43316.503807870402</v>
       </c>
       <c r="C960" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D960" s="6"/>
       <c r="E960" s="3" t="s">
-        <v>675</v>
+        <v>598</v>
       </c>
       <c r="F960" s="6" t="s">
         <v>6</v>
@@ -20723,17 +20670,17 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="5">
-        <v>43313.789282407401</v>
+        <v>43316.503854166702</v>
       </c>
       <c r="B961" s="5">
-        <v>43313.7899189815</v>
+        <v>43316.504363425898</v>
       </c>
       <c r="C961" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D961" s="6"/>
       <c r="E961" s="3" t="s">
-        <v>695</v>
+        <v>599</v>
       </c>
       <c r="F961" s="6" t="s">
         <v>7</v>
@@ -20741,17 +20688,17 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="5">
-        <v>43314.635069444397</v>
+        <v>43316.504409722198</v>
       </c>
       <c r="B962" s="5">
-        <v>43314.635289351798</v>
+        <v>43316.504872685196</v>
       </c>
       <c r="C962" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D962" s="6"/>
       <c r="E962" s="3" t="s">
-        <v>675</v>
+        <v>597</v>
       </c>
       <c r="F962" s="6" t="s">
         <v>6</v>
@@ -20759,17 +20706,17 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="5">
-        <v>43314.635358796302</v>
+        <v>43316.504930555602</v>
       </c>
       <c r="B963" s="5">
-        <v>43314.635682870401</v>
+        <v>43316.505231481497</v>
       </c>
       <c r="C963" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D963" s="6"/>
       <c r="E963" s="3" t="s">
-        <v>676</v>
+        <v>596</v>
       </c>
       <c r="F963" s="6" t="s">
         <v>6</v>
@@ -20777,17 +20724,17 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="5">
-        <v>43314.635775463001</v>
+        <v>43318.735474537003</v>
       </c>
       <c r="B964" s="5">
-        <v>43314.636215277802</v>
+        <v>43318.735844907402</v>
       </c>
       <c r="C964" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D964" s="6"/>
       <c r="E964" s="3" t="s">
-        <v>677</v>
+        <v>589</v>
       </c>
       <c r="F964" s="6" t="s">
         <v>6</v>
@@ -20795,35 +20742,35 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="5">
-        <v>43314.636296296303</v>
+        <v>43318.735879629603</v>
       </c>
       <c r="B965" s="5">
-        <v>43314.636608796303</v>
+        <v>43318.736226851797</v>
       </c>
       <c r="C965" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D965" s="6"/>
       <c r="E965" s="3" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="F965" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="966" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A966" s="5">
-        <v>43314.673726851797</v>
+        <v>43318.736273148097</v>
       </c>
       <c r="B966" s="5">
-        <v>43314.675428240698</v>
+        <v>43318.737141203703</v>
       </c>
       <c r="C966" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D966" s="6"/>
       <c r="E966" s="3" t="s">
-        <v>693</v>
+        <v>590</v>
       </c>
       <c r="F966" s="6" t="s">
         <v>7</v>
@@ -20831,17 +20778,17 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="5">
-        <v>43314.675486111097</v>
+        <v>43318.737199074101</v>
       </c>
       <c r="B967" s="5">
-        <v>43314.675833333298</v>
+        <v>43318.737858796303</v>
       </c>
       <c r="C967" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D967" s="6"/>
       <c r="E967" s="3" t="s">
-        <v>692</v>
+        <v>591</v>
       </c>
       <c r="F967" s="6" t="s">
         <v>6</v>
@@ -20849,307 +20796,73 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="5">
-        <v>43314.675879629598</v>
+        <v>43318.737916666701</v>
       </c>
       <c r="B968" s="5">
-        <v>43314.676562499997</v>
+        <v>43318.738090277802</v>
       </c>
       <c r="C968" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D968" s="6"/>
       <c r="E968" s="3" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="F968" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="5">
-        <v>43314.676597222198</v>
+        <v>43318.738113425898</v>
       </c>
       <c r="B969" s="5">
-        <v>43314.676747685196</v>
+        <v>43318.738773148099</v>
       </c>
       <c r="C969" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D969" s="6"/>
       <c r="E969" s="3" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="F969" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="5">
-        <v>43314.676793981504</v>
+        <v>43318.738796296297</v>
       </c>
       <c r="B970" s="5">
-        <v>43314.677164351902</v>
+        <v>43318.738993055602</v>
       </c>
       <c r="C970" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D970" s="6"/>
       <c r="E970" s="3" t="s">
-        <v>678</v>
+        <v>585</v>
       </c>
       <c r="F970" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="5">
-        <v>43316.502233796302</v>
+        <v>43318.739039351902</v>
       </c>
       <c r="B971" s="5">
-        <v>43316.5024305556</v>
+        <v>43318.739548611098</v>
       </c>
       <c r="C971" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D971" s="6"/>
       <c r="E971" s="3" t="s">
-        <v>675</v>
+        <v>594</v>
       </c>
       <c r="F971" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="972" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A972" s="5">
-        <v>43316.502465277801</v>
-      </c>
-      <c r="B972" s="5">
-        <v>43316.503414351901</v>
-      </c>
-      <c r="C972" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D972" s="6"/>
-      <c r="E972" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F972" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A973" s="5">
-        <v>43316.503460648099</v>
-      </c>
-      <c r="B973" s="5">
-        <v>43316.503807870402</v>
-      </c>
-      <c r="C973" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D973" s="6"/>
-      <c r="E973" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="F973" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="5">
-        <v>43316.503854166702</v>
-      </c>
-      <c r="B974" s="5">
-        <v>43316.504363425898</v>
-      </c>
-      <c r="C974" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D974" s="6"/>
-      <c r="E974" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="F974" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A975" s="5">
-        <v>43316.504409722198</v>
-      </c>
-      <c r="B975" s="5">
-        <v>43316.504872685196</v>
-      </c>
-      <c r="C975" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D975" s="6"/>
-      <c r="E975" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="F975" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A976" s="5">
-        <v>43316.504930555602</v>
-      </c>
-      <c r="B976" s="5">
-        <v>43316.505231481497</v>
-      </c>
-      <c r="C976" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D976" s="6"/>
-      <c r="E976" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="F976" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A977" s="5">
-        <v>43318.735474537003</v>
-      </c>
-      <c r="B977" s="5">
-        <v>43318.735844907402</v>
-      </c>
-      <c r="C977" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D977" s="6"/>
-      <c r="E977" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F977" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A978" s="5">
-        <v>43318.735879629603</v>
-      </c>
-      <c r="B978" s="5">
-        <v>43318.736226851797</v>
-      </c>
-      <c r="C978" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D978" s="6"/>
-      <c r="E978" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F978" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="979" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A979" s="5">
-        <v>43318.736273148097</v>
-      </c>
-      <c r="B979" s="5">
-        <v>43318.737141203703</v>
-      </c>
-      <c r="C979" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D979" s="6"/>
-      <c r="E979" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="F979" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A980" s="5">
-        <v>43318.737199074101</v>
-      </c>
-      <c r="B980" s="5">
-        <v>43318.737858796303</v>
-      </c>
-      <c r="C980" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D980" s="6"/>
-      <c r="E980" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="F980" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A981" s="5">
-        <v>43318.737916666701</v>
-      </c>
-      <c r="B981" s="5">
-        <v>43318.738090277802</v>
-      </c>
-      <c r="C981" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D981" s="6"/>
-      <c r="E981" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F981" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="5">
-        <v>43318.738113425898</v>
-      </c>
-      <c r="B982" s="5">
-        <v>43318.738773148099</v>
-      </c>
-      <c r="C982" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D982" s="6"/>
-      <c r="E982" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="F982" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A983" s="5">
-        <v>43318.738796296297</v>
-      </c>
-      <c r="B983" s="5">
-        <v>43318.738993055602</v>
-      </c>
-      <c r="C983" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D983" s="6"/>
-      <c r="E983" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F983" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A984" s="5">
-        <v>43318.739039351902</v>
-      </c>
-      <c r="B984" s="5">
-        <v>43318.739548611098</v>
-      </c>
-      <c r="C984" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D984" s="6"/>
-      <c r="E984" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F984" s="6" t="s">
         <v>7</v>
       </c>
     </row>
